--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -44,601 +44,601 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55664920806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674884796143</t>
+    <t xml:space="preserve">8.79373550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55665016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674789428711</t>
   </si>
   <si>
     <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34829998016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101917266846</t>
+    <t xml:space="preserve">8.34830093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57102012634277</t>
   </si>
   <si>
     <t xml:space="preserve">8.53509616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47762203216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36266994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09684658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
+    <t xml:space="preserve">8.47762107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3626708984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09684753417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29082679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189401626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2405366897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422298431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28364181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1902437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325563430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665372848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7448091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063442230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558650970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92442035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9387903213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04655456542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0896635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276767730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21898078918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59975624084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228019714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3123779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41296100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432071685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1615047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23335075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626493453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33067798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1428804397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790367126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1654167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15039253234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188182830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178651809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286403656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82738161087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69968032836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906105041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253164291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295839309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216871261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484628677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94005966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681022644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948923110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54193067550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977468490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465566635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7447509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479887008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4968581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62455987930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.707190990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742902755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953664779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197713851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807931900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752338409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996530532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757223129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226259231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7222146987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963148117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427633285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700084686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418006896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5081262588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441762924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403829574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9259557723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736473083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990196228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92220020294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332418441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9597601890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956861495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215183258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074239730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0311222076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01985454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384767532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972631454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982257843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78231000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9550838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311847686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297622680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799850463867</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053573608398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38422298431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28364181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645874023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1902437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7232551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063442230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461273193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820772171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500247955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92441987991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966159820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9316029548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10403156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898078918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33393287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59975624084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257221221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606803894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043800354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432262420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16150569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23334980010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519580841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33067798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302364349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14288139343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1654167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15039253234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178699493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530595779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69968032836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728487014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906105041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253211975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94005966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4668116569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192876815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977373123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465614318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704874038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4968581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62455987930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719146728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6771445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742902755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953617095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50437021255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807836532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056722640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757175445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029674530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245225906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7147045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963195800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427537918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418006896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652620315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812578201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441762924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403781890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9259557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736616134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849061965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971229553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327724456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215230941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074144363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341854095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112173080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0198540687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1738486289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432279586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446599960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695295333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982210159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747644424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513078689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10532188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9550838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311656951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053478240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49593830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307010650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2555570602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5635461807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57856941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636600494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77387809753418</t>
+    <t xml:space="preserve">8.49594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26307201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091602325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56354427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57857036590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69875907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636791229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
     <t xml:space="preserve">8.7288064956665</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">8.78890323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8264627456665</t>
+    <t xml:space="preserve">8.75134372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
     <t xml:space="preserve">8.86402130126953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87904453277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660404205322</t>
+    <t xml:space="preserve">8.8790454864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660308837891</t>
   </si>
   <si>
     <t xml:space="preserve">8.99172306060791</t>
@@ -674,58 +674,58 @@
     <t xml:space="preserve">8.9391393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421192169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60110569000244</t>
+    <t xml:space="preserve">8.98421096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406776428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60110473632812</t>
   </si>
   <si>
     <t xml:space="preserve">8.51096248626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42833232879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61612987518311</t>
+    <t xml:space="preserve">8.42833137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61613082885742</t>
   </si>
   <si>
     <t xml:space="preserve">8.53349781036377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54101085662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73631763458252</t>
+    <t xml:space="preserve">8.54100894927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73631858825684</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90909290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9616756439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85651016235352</t>
+    <t xml:space="preserve">8.90909194946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96167659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8565092086792</t>
   </si>
   <si>
     <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2611026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30811405181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2846097946167</t>
+    <t xml:space="preserve">9.26110363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30811309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28460884094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.38646507263184</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">9.3472900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36296081542969</t>
+    <t xml:space="preserve">9.36295890808105</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914531707764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41780567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966190338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533363342285</t>
+    <t xml:space="preserve">9.41780662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966285705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533267974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.80172634124756</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73120975494385</t>
+    <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.74688053131104</t>
@@ -770,16 +770,16 @@
     <t xml:space="preserve">9.77822017669678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79389095306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69986915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8487377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956077575684</t>
+    <t xml:space="preserve">9.79389190673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69987010955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956172943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.71553993225098</t>
@@ -788,28 +788,28 @@
     <t xml:space="preserve">9.59801387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69203567504883</t>
+    <t xml:space="preserve">9.69203472137451</t>
   </si>
   <si>
     <t xml:space="preserve">9.62151718139648</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64502334594727</t>
+    <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
     <t xml:space="preserve">9.58234310150146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60584831237793</t>
+    <t xml:space="preserve">9.60584926605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55883693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337532043457</t>
+    <t xml:space="preserve">9.558837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72337436676025</t>
   </si>
   <si>
     <t xml:space="preserve">9.7703857421875</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">9.75471496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182842254639</t>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
   </si>
   <si>
     <t xml:space="preserve">9.50399208068848</t>
@@ -833,22 +833,22 @@
     <t xml:space="preserve">9.63718795776367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67636585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7077054977417</t>
+    <t xml:space="preserve">9.67636489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70770454406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.83306694030762</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.326678276062</t>
+    <t xml:space="preserve">10.0211095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3266792297363</t>
   </si>
   <si>
     <t xml:space="preserve">10.3031740188599</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2561616897583</t>
+    <t xml:space="preserve">10.2561626434326</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621408462524</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">10.2248229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">10.295337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893594741821</t>
+    <t xml:space="preserve">10.2953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893604278564</t>
   </si>
   <si>
     <t xml:space="preserve">10.4285354614258</t>
@@ -887,46 +887,46 @@
     <t xml:space="preserve">10.6165781021118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6244134902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5225582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4833812713623</t>
+    <t xml:space="preserve">10.6244125366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.522557258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.483380317688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6635885238647</t>
+    <t xml:space="preserve">10.6635875701904</t>
   </si>
   <si>
     <t xml:space="preserve">10.6870946884155</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6479177474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6557521820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6087436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5930738449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852384567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382270812988</t>
+    <t xml:space="preserve">10.6479187011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6557550430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6087427139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5930728912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852375030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382280349731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5460615158081</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5147228240967</t>
+    <t xml:space="preserve">10.5147218704224</t>
   </si>
   <si>
     <t xml:space="preserve">10.7027645111084</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">11.0475101470947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0318384170532</t>
+    <t xml:space="preserve">11.0318393707275</t>
   </si>
   <si>
     <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9769926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
+    <t xml:space="preserve">10.976993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
     <t xml:space="preserve">11.0161685943604</t>
@@ -956,121 +956,121 @@
     <t xml:space="preserve">10.9926633834839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2433862686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3139028549194</t>
+    <t xml:space="preserve">11.24338722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3139019012451</t>
   </si>
   <si>
     <t xml:space="preserve">11.21204662323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157581329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941091537476</t>
+    <t xml:space="preserve">11.3765840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">11.7840089797974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8466911315918</t>
+    <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
     <t xml:space="preserve">11.9250421524048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5411224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7291641235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9485464096069</t>
+    <t xml:space="preserve">11.5411205291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7291650772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7605047225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9485473632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388547897339</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9172067642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9877233505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9642171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739088058472</t>
+    <t xml:space="preserve">11.9172077178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9877223968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9642190933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739078521729</t>
   </si>
   <si>
     <t xml:space="preserve">12.1600952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2462816238403</t>
+    <t xml:space="preserve">12.2462825775146</t>
   </si>
   <si>
     <t xml:space="preserve">12.2227773666382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3011274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5126762390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283460617065</t>
+    <t xml:space="preserve">12.3011264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283441543579</t>
   </si>
   <si>
     <t xml:space="preserve">12.5361814498901</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0347328186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481378555298</t>
+    <t xml:space="preserve">12.0347337722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481369018555</t>
   </si>
   <si>
     <t xml:space="preserve">12.4970045089722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8025751113892</t>
+    <t xml:space="preserve">12.8025732040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831918716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.481333732605</t>
+    <t xml:space="preserve">12.5831909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813346862793</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7634010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772127151489</t>
+    <t xml:space="preserve">12.7634000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772117614746</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089618682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1130838394165</t>
+    <t xml:space="preserve">12.3089637756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
     <t xml:space="preserve">12.2697858810425</t>
@@ -1079,43 +1079,43 @@
     <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9015369415283</t>
+    <t xml:space="preserve">11.901535987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.167929649353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891681671143</t>
+    <t xml:space="preserve">12.2541170120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891691207886</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223678588867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3324670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910272598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9749479293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159791946411</t>
+    <t xml:space="preserve">12.3324661254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9749460220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671125411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159801483154</t>
   </si>
   <si>
     <t xml:space="preserve">13.2256708145142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.280517578125</t>
+    <t xml:space="preserve">13.2805185317993</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">13.2335052490234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178354263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003074645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9592752456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0611333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417501449585</t>
+    <t xml:space="preserve">13.2178363800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003084182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9592781066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0611324310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417491912842</t>
   </si>
   <si>
     <t xml:space="preserve">12.2619514465332</t>
@@ -1154,31 +1154,31 @@
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6693773269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7320575714111</t>
+    <t xml:space="preserve">12.669376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7320585250854</t>
   </si>
   <si>
     <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850481033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846405029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2570114135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1081428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3118562698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123815536499</t>
+    <t xml:space="preserve">12.6850471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846395492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2570095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1081438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238145828247</t>
   </si>
   <si>
     <t xml:space="preserve">13.3510322570801</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">13.6801061630249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450540542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397054672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982637405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825929641724</t>
+    <t xml:space="preserve">13.4450550079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982618331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277471542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.082592010498</t>
   </si>
   <si>
     <t xml:space="preserve">15.3176460266113</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2549657821655</t>
+    <t xml:space="preserve">15.2549648284912</t>
   </si>
   <si>
     <t xml:space="preserve">14.9337244033813</t>
@@ -1217,58 +1217,58 @@
     <t xml:space="preserve">14.855372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221765518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452722549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669202804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4743490219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.435173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015657424927</t>
+    <t xml:space="preserve">14.7221784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669221878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844472885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.474347114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4351711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015676498413</t>
   </si>
   <si>
     <t xml:space="preserve">15.7172355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8788785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.090428352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374368667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.200119972229</t>
+    <t xml:space="preserve">14.8788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374387741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001190185547</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157897949219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.356822013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978561401367</t>
+    <t xml:space="preserve">15.3568239212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978542327881</t>
   </si>
   <si>
     <t xml:space="preserve">15.4821834564209</t>
@@ -1280,31 +1280,31 @@
     <t xml:space="preserve">15.6702260971069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6310539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858949661255</t>
+    <t xml:space="preserve">15.6310501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858930587769</t>
   </si>
   <si>
     <t xml:space="preserve">15.889609336853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5683708190918</t>
+    <t xml:space="preserve">15.5683717727661</t>
   </si>
   <si>
     <t xml:space="preserve">15.8269290924072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1403331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8867149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710422515869</t>
+    <t xml:space="preserve">16.1403312683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8867130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710460662842</t>
   </si>
   <si>
     <t xml:space="preserve">14.8390312194824</t>
@@ -1316,19 +1316,19 @@
     <t xml:space="preserve">14.6149253845215</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4548454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.030647277832</t>
+    <t xml:space="preserve">14.4548473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267850875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0306463241577</t>
   </si>
   <si>
     <t xml:space="preserve">13.8945827484131</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0866718292236</t>
+    <t xml:space="preserve">14.0866737365723</t>
   </si>
   <si>
     <t xml:space="preserve">14.2467489242554</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">14.286768913269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668050765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348854064941</t>
+    <t xml:space="preserve">14.2547512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348834991455</t>
   </si>
   <si>
     <t xml:space="preserve">14.550892829895</t>
@@ -1358,43 +1358,43 @@
     <t xml:space="preserve">15.3192558288574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5273561477661</t>
+    <t xml:space="preserve">15.5273542404175</t>
   </si>
   <si>
     <t xml:space="preserve">15.5753774642944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2152090072632</t>
+    <t xml:space="preserve">15.2152080535889</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713277816772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5833826065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8074893951416</t>
+    <t xml:space="preserve">15.583381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.807487487793</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073932647705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471258163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391225814819</t>
+    <t xml:space="preserve">15.6954364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471277236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391254425049</t>
   </si>
   <si>
     <t xml:space="preserve">14.8870515823364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9911022186279</t>
+    <t xml:space="preserve">14.9911012649536</t>
   </si>
   <si>
     <t xml:space="preserve">14.8630409240723</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">14.9991054534912</t>
   </si>
   <si>
-    <t xml:space="preserve">15.119158744812</t>
+    <t xml:space="preserve">15.119161605835</t>
   </si>
   <si>
     <t xml:space="preserve">15.4793319702148</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6153993606567</t>
+    <t xml:space="preserve">15.6153974533081</t>
   </si>
   <si>
     <t xml:space="preserve">15.5353603363037</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">15.6554164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434568405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034387588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233997344971</t>
+    <t xml:space="preserve">15.7114448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434549331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034406661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234016418457</t>
   </si>
   <si>
     <t xml:space="preserve">15.5113477706909</t>
@@ -1436,58 +1436,58 @@
     <t xml:space="preserve">15.3992948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4633235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4953422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233074188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672819137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0711402893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230228424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.726975440979</t>
+    <t xml:space="preserve">15.4633274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.49534034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4233055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3672800064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711374282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7269763946533</t>
   </si>
   <si>
     <t xml:space="preserve">15.1031541824341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2392206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628524780273</t>
+    <t xml:space="preserve">15.239218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.462851524353</t>
   </si>
   <si>
     <t xml:space="preserve">14.4708547592163</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3748073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5749044418335</t>
+    <t xml:space="preserve">14.3748092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5749034881592</t>
   </si>
   <si>
     <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107786178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468412399292</t>
+    <t xml:space="preserve">14.3107795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468431472778</t>
   </si>
   <si>
     <t xml:space="preserve">14.342794418335</t>
@@ -1496,37 +1496,37 @@
     <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2627563476562</t>
+    <t xml:space="preserve">14.2627573013306</t>
   </si>
   <si>
     <t xml:space="preserve">14.294771194458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.126690864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1747140884399</t>
+    <t xml:space="preserve">14.1266918182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1747131347656</t>
   </si>
   <si>
     <t xml:space="preserve">14.2707605361938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.638934135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4308376312256</t>
+    <t xml:space="preserve">14.63893699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
     <t xml:space="preserve">14.3588027954102</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3347902297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587057113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666175842285</t>
+    <t xml:space="preserve">14.3347911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666166305542</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -1538,61 +1538,61 @@
     <t xml:space="preserve">14.1346960067749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0386514663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2387447357178</t>
+    <t xml:space="preserve">14.0386505126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2387466430664</t>
   </si>
   <si>
     <t xml:space="preserve">14.1106843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6864824295044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584230422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2862949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4863901138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.390341758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1667127609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8865795135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7184982299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3023014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662359237671</t>
+    <t xml:space="preserve">13.6864833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825298309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5584239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2862939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4863891601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3903436660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1667108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8865785598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7184991836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662378311157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460845947266</t>
+    <t xml:space="preserve">13.1262178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.222264289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460855484009</t>
   </si>
   <si>
     <t xml:space="preserve">13.006160736084</t>
@@ -1601,22 +1601,22 @@
     <t xml:space="preserve">12.8620929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744285583496</t>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744304656982</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5984411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5023965835571</t>
+    <t xml:space="preserve">13.5984420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5023975372314</t>
   </si>
   <si>
     <t xml:space="preserve">13.5664281845093</t>
@@ -1625,28 +1625,28 @@
     <t xml:space="preserve">13.5264072418213</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1742420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.174241065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1502285003662</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.878101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422252655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8540897369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7340316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661426544189</t>
+    <t xml:space="preserve">12.8781003952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422262191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8540887832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7340326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661436080933</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140697479248</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">12.9421300888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.750039100647</t>
+    <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060665130615</t>
@@ -1664,73 +1664,73 @@
     <t xml:space="preserve">12.4859161376953</t>
   </si>
   <si>
-    <t xml:space="preserve">12.573956489563</t>
+    <t xml:space="preserve">12.5739574432373</t>
   </si>
   <si>
     <t xml:space="preserve">13.2702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9821491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785753250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104940414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183069229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062549591064</t>
+    <t xml:space="preserve">12.9821500778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706663131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183088302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062559127808</t>
   </si>
   <si>
     <t xml:space="preserve">13.3103036880493</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7745237350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824337005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624727249146</t>
+    <t xml:space="preserve">13.6064462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7745246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624717712402</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9506092071533</t>
+    <t xml:space="preserve">13.9506101608276</t>
   </si>
   <si>
     <t xml:space="preserve">13.6704759597778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.862566947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665224075317</t>
+    <t xml:space="preserve">13.8625659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665233612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.9986305236816</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9906272888184</t>
+    <t xml:space="preserve">13.990626335144</t>
   </si>
   <si>
     <t xml:space="preserve">13.6544675827026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7985372543335</t>
+    <t xml:space="preserve">13.7985353469849</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103998184204</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">13.7905321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826240539551</t>
+    <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066347122192</t>
@@ -1748,76 +1748,76 @@
     <t xml:space="preserve">13.6784791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6224536895752</t>
+    <t xml:space="preserve">13.6224527359009</t>
   </si>
   <si>
     <t xml:space="preserve">13.646463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9586133956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9025859832764</t>
+    <t xml:space="preserve">13.9586143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9025869369507</t>
   </si>
   <si>
     <t xml:space="preserve">13.7265024185181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.870569229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0786685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384611129761</t>
+    <t xml:space="preserve">13.8705701828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.078670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384620666504</t>
   </si>
   <si>
     <t xml:space="preserve">13.430362701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383668899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743343353271</t>
+    <t xml:space="preserve">13.438364982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743352890015</t>
   </si>
   <si>
     <t xml:space="preserve">13.4063520431519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2462739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0301733016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9581394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.742036819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3983469009399</t>
+    <t xml:space="preserve">13.2462759017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0301723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9581384658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7420358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3983478546143</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0381784439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9021120071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9101152420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861036300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9901533126831</t>
+    <t xml:space="preserve">13.4943933486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0381774902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9021129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9101161956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9901542663574</t>
   </si>
   <si>
     <t xml:space="preserve">12.8700952529907</t>
@@ -1826,34 +1826,34 @@
     <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9981575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0221681594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.614447593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0665893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2340488433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098796844482</t>
+    <t xml:space="preserve">12.998158454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0221691131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665884017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2340497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931369781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4098806381226</t>
   </si>
   <si>
     <t xml:space="preserve">14.7699184417725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694450378418</t>
+    <t xml:space="preserve">14.795036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694440841675</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522212982178</t>
@@ -1862,16 +1862,16 @@
     <t xml:space="preserve">14.5354766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5773391723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187311172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.435001373291</t>
+    <t xml:space="preserve">14.5773420333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4349994659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
@@ -1880,43 +1880,43 @@
     <t xml:space="preserve">14.3680171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713453292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560247421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.448130607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5820960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318584442139</t>
+    <t xml:space="preserve">14.9708709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.071346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4481315612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5820970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318593978882</t>
   </si>
   <si>
     <t xml:space="preserve">15.0043621063232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876155853271</t>
+    <t xml:space="preserve">14.9876146316528</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038867950439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8536472320557</t>
+    <t xml:space="preserve">14.8536491394043</t>
   </si>
   <si>
     <t xml:space="preserve">15.2806701660156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5569772720337</t>
+    <t xml:space="preserve">15.556978225708</t>
   </si>
   <si>
     <t xml:space="preserve">15.4648752212524</t>
@@ -1931,37 +1931,37 @@
     <t xml:space="preserve">15.992374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9756259918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165369033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830495834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.498366355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.12158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462255477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797185897827</t>
+    <t xml:space="preserve">15.9756269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634492874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462274551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.079719543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">14.8787679672241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4015092849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6778173446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0294809341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129958152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378522872925</t>
+    <t xml:space="preserve">14.4015102386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6778163909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0294818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1299571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378541946411</t>
   </si>
   <si>
     <t xml:space="preserve">14.4266262054443</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">14.3596439361572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4684915542603</t>
+    <t xml:space="preserve">14.4684934616089</t>
   </si>
   <si>
     <t xml:space="preserve">14.3094053268433</t>
@@ -2000,31 +2000,31 @@
     <t xml:space="preserve">14.1503190994263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6275787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196807861328</t>
+    <t xml:space="preserve">14.6275777816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196817398071</t>
   </si>
   <si>
     <t xml:space="preserve">14.6526966094971</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3512697219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024608612061</t>
+    <t xml:space="preserve">14.3512706756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940885543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024618148804</t>
   </si>
   <si>
     <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7448015213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9122591018677</t>
+    <t xml:space="preserve">14.7448024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9122581481934</t>
   </si>
   <si>
     <t xml:space="preserve">15.1383295059204</t>
@@ -2033,37 +2033,37 @@
     <t xml:space="preserve">15.3309078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5151138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629730224609</t>
+    <t xml:space="preserve">15.515115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964651107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629711151123</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500328063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244367599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993179321289</t>
+    <t xml:space="preserve">15.4397583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500337600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.724437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.875150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993207931519</t>
   </si>
   <si>
     <t xml:space="preserve">15.6072158813477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9002685546875</t>
+    <t xml:space="preserve">15.9002695083618</t>
   </si>
   <si>
     <t xml:space="preserve">15.5988435745239</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">15.54860496521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4899940490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.38951587677</t>
+    <t xml:space="preserve">15.4899950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3895168304443</t>
   </si>
   <si>
     <t xml:space="preserve">14.9792432785034</t>
@@ -2087,22 +2087,22 @@
     <t xml:space="preserve">15.3643999099731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2722959518433</t>
+    <t xml:space="preserve">15.2722978591919</t>
   </si>
   <si>
     <t xml:space="preserve">15.0211086273193</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9206323623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.113208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471780776978</t>
+    <t xml:space="preserve">14.92063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048402786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132106781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471771240234</t>
   </si>
   <si>
     <t xml:space="preserve">15.230432510376</t>
@@ -2114,40 +2114,40 @@
     <t xml:space="preserve">15.1969385147095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3057889938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835220336914</t>
+    <t xml:space="preserve">15.3057909011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835258483887</t>
   </si>
   <si>
     <t xml:space="preserve">15.8249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3811473846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718225479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136878967285</t>
+    <t xml:space="preserve">15.3811464309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718215942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136850357056</t>
   </si>
   <si>
     <t xml:space="preserve">15.2220592498779</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5067415237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825733184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.933762550354</t>
+    <t xml:space="preserve">15.5067405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672536849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825723648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732484817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337615966797</t>
   </si>
   <si>
     <t xml:space="preserve">16.3942756652832</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435626983643</t>
+    <t xml:space="preserve">16.2435607910156</t>
   </si>
   <si>
     <t xml:space="preserve">16.519868850708</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">16.042610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761051177979</t>
+    <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0258636474609</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765766143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2100715637207</t>
+    <t xml:space="preserve">16.1765804290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2100696563721</t>
   </si>
   <si>
     <t xml:space="preserve">16.670581817627</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440361022949</t>
+    <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928478240967</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.302173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6957015991211</t>
+    <t xml:space="preserve">16.3021717071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6957035064697</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645889282227</t>
@@ -2234,28 +2234,28 @@
     <t xml:space="preserve">18.0353775024414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9181537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0856132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0521240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669654846191</t>
+    <t xml:space="preserve">17.918155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0856151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9516506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669673919678</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2028369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.867919921875</t>
+    <t xml:space="preserve">18.2028350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679180145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540252685547</t>
+    <t xml:space="preserve">18.4540271759033</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">19.2410850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.190845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3248138427734</t>
+    <t xml:space="preserve">19.1908473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3248157501221</t>
   </si>
   <si>
     <t xml:space="preserve">19.4420356750488</t>
@@ -2312,19 +2312,19 @@
     <t xml:space="preserve">18.3368034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4660129547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210132598877</t>
+    <t xml:space="preserve">17.4660148620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210094451904</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.781909942627</t>
+    <t xml:space="preserve">11.8226346969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7819089889526</t>
   </si>
   <si>
     <t xml:space="preserve">12.5175895690918</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">12.2998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3082656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.023585319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.630054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.115686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7269144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687788009644</t>
+    <t xml:space="preserve">12.3082666397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0235843658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6300554275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1156873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7269134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687797546387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144495010376</t>
@@ -2363,40 +2363,40 @@
     <t xml:space="preserve">13.6563138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591686248779</t>
+    <t xml:space="preserve">13.4386167526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9912328720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591676712036</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917081832886</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0079774856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8907556533813</t>
+    <t xml:space="preserve">14.0079793930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8907566070557</t>
   </si>
   <si>
     <t xml:space="preserve">14.1921854019165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2424201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656396865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8572645187378</t>
+    <t xml:space="preserve">14.2424211502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656368255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8572664260864</t>
   </si>
   <si>
     <t xml:space="preserve">14.0247259140015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321466445923</t>
+    <t xml:space="preserve">13.8321475982666</t>
   </si>
   <si>
     <t xml:space="preserve">14.1419458389282</t>
@@ -2405,13 +2405,13 @@
     <t xml:space="preserve">14.217303276062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926607131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7316694259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6898050308228</t>
+    <t xml:space="preserve">14.2926597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7316703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6898069381714</t>
   </si>
   <si>
     <t xml:space="preserve">13.7986545562744</t>
@@ -2420,31 +2420,31 @@
     <t xml:space="preserve">13.9493684768677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828615188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3345260620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.418251991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103559494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354604721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503858566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1317310333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1229763031006</t>
+    <t xml:space="preserve">13.9828605651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3345251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4182548522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1317300796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281358718872</t>
@@ -2453,34 +2453,34 @@
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906871795654</t>
+    <t xml:space="preserve">16.1906890869141</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3721694946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4684410095215</t>
+    <t xml:space="preserve">17.3721714019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4684371948242</t>
   </si>
   <si>
     <t xml:space="preserve">17.0833625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0308532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.135871887207</t>
+    <t xml:space="preserve">17.0308513641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1358737945557</t>
   </si>
   <si>
     <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2431983947754</t>
+    <t xml:space="preserve">16.4357376098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2431964874268</t>
   </si>
   <si>
     <t xml:space="preserve">16.1031703948975</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">16.7595500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5670108795166</t>
+    <t xml:space="preserve">16.5670127868652</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845165252686</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">16.3307151794434</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4707431793213</t>
+    <t xml:space="preserve">16.4707412719727</t>
   </si>
   <si>
     <t xml:space="preserve">16.7945575714111</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2735977172852</t>
+    <t xml:space="preserve">18.2735958099365</t>
   </si>
   <si>
     <t xml:space="preserve">17.853515625</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5361480712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8162040710449</t>
+    <t xml:space="preserve">18.5361499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8162059783936</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
@@ -2552,13 +2552,13 @@
     <t xml:space="preserve">18.2911014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3261070251465</t>
+    <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
     <t xml:space="preserve">18.4486312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3786182403564</t>
+    <t xml:space="preserve">18.3786201477051</t>
   </si>
   <si>
     <t xml:space="preserve">18.3961219787598</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8010063171387</t>
+    <t xml:space="preserve">17.8010025024414</t>
   </si>
   <si>
     <t xml:space="preserve">17.8885231018066</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">18.6236667633057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5011405944824</t>
+    <t xml:space="preserve">18.5011425018311</t>
   </si>
   <si>
     <t xml:space="preserve">18.8862190246582</t>
@@ -2606,43 +2606,43 @@
     <t xml:space="preserve">19.4988403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5513477325439</t>
+    <t xml:space="preserve">19.5513496398926</t>
   </si>
   <si>
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787563323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1312656402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.586353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.463830947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3413066864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.39381980896</t>
+    <t xml:space="preserve">19.0787544250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1312675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5863552093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4638328552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.34130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3938159942627</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113216400146</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2537899017334</t>
+    <t xml:space="preserve">19.253791809082</t>
   </si>
   <si>
     <t xml:space="preserve">19.1137657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9562320709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.306303024292</t>
+    <t xml:space="preserve">18.9562339782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
     <t xml:space="preserve">19.376314163208</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337078094482</t>
+    <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.606164932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611145019531</t>
+    <t xml:space="preserve">18.6061611175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611164093018</t>
   </si>
   <si>
     <t xml:space="preserve">18.5186462402344</t>
@@ -2669,40 +2669,40 @@
     <t xml:space="preserve">18.4136238098145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7811946868896</t>
+    <t xml:space="preserve">18.7811965942383</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664131164551</t>
+    <t xml:space="preserve">19.8664112091064</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463291168213</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7438869476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489093780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4813365936279</t>
+    <t xml:space="preserve">19.7438850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489074707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4813346862793</t>
   </si>
   <si>
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912414550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662712097168</t>
+    <t xml:space="preserve">18.9912395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662731170654</t>
   </si>
   <si>
     <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0087432861328</t>
+    <t xml:space="preserve">19.0087413787842</t>
   </si>
   <si>
     <t xml:space="preserve">18.2035827636719</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.240894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8820724487305</t>
+    <t xml:space="preserve">17.2408962249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8820743560791</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">18.0810585021973</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5886611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0635566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2210865020752</t>
+    <t xml:space="preserve">18.588659286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0635547637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2210884094238</t>
   </si>
   <si>
     <t xml:space="preserve">18.1685791015625</t>
@@ -2744,70 +2744,70 @@
     <t xml:space="preserve">17.9060249328613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784820556641</t>
+    <t xml:space="preserve">17.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7659969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5909633636475</t>
+    <t xml:space="preserve">17.765998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5909652709961</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285491943359</t>
+    <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1860828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5711555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714298248291</t>
+    <t xml:space="preserve">18.1860809326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5711574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362861633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714317321777</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266593933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.704273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8968124389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9143161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8793087005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0368385314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1593647003174</t>
+    <t xml:space="preserve">20.4790306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316818237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7042713165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8968105316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8793067932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0368404388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668254852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
     <t xml:space="preserve">21.9318180084229</t>
@@ -2816,13 +2816,13 @@
     <t xml:space="preserve">22.2293758392334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4219150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721221923828</t>
+    <t xml:space="preserve">22.4219169616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721183776855</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2840,49 +2840,49 @@
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8595008850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6669635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1745643615723</t>
+    <t xml:space="preserve">22.5444374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8594989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6669616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1220531463623</t>
+    <t xml:space="preserve">23.1220512390137</t>
   </si>
   <si>
     <t xml:space="preserve">23.4546165466309</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7742862701416</t>
+    <t xml:space="preserve">22.7894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9493236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919281005859</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0018329620361</t>
+    <t xml:space="preserve">22.0018310546875</t>
   </si>
   <si>
     <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7590885162354</t>
+    <t xml:space="preserve">20.7590866088867</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
@@ -2891,16 +2891,16 @@
     <t xml:space="preserve">20.4615268707275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0414447784424</t>
+    <t xml:space="preserve">20.041446685791</t>
   </si>
   <si>
     <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4394149780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2118740081787</t>
+    <t xml:space="preserve">22.4394187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2912,19 +2912,19 @@
     <t xml:space="preserve">20.7940940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4067153930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5292415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7567825317383</t>
+    <t xml:space="preserve">21.4067134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5292377471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7567844390869</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.26438331604</t>
+    <t xml:space="preserve">22.2643852233887</t>
   </si>
   <si>
     <t xml:space="preserve">22.5969486236572</t>
@@ -2939,19 +2939,19 @@
     <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.334400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1068515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7217769622803</t>
+    <t xml:space="preserve">22.3343963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1068534851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7217750549316</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1966743469238</t>
+    <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
     <t xml:space="preserve">21.2841911315918</t>
@@ -2972,22 +2972,22 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016929626465</t>
+    <t xml:space="preserve">21.5817489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016948699951</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4767284393311</t>
+    <t xml:space="preserve">21.4767303466797</t>
   </si>
   <si>
     <t xml:space="preserve">20.3915138244629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.916618347168</t>
+    <t xml:space="preserve">20.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5774021148682</t>
+    <t xml:space="preserve">22.5774002075195</t>
   </si>
   <si>
     <t xml:space="preserve">22.3066864013672</t>
@@ -3035,10 +3035,10 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3534412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3173484802246</t>
+    <t xml:space="preserve">23.353443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">22.6134948730469</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7037315368652</t>
+    <t xml:space="preserve">22.7037334442139</t>
   </si>
   <si>
     <t xml:space="preserve">22.9383506774902</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5700130462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9457378387451</t>
+    <t xml:space="preserve">23.570011138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9457397460938</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969249725342</t>
+    <t xml:space="preserve">22.3969268798828</t>
   </si>
   <si>
     <t xml:space="preserve">22.8120174407959</t>
@@ -3125,13 +3125,13 @@
     <t xml:space="preserve">22.3247356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0720710754395</t>
+    <t xml:space="preserve">22.0720691680908</t>
   </si>
   <si>
     <t xml:space="preserve">22.2344989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5232582092285</t>
+    <t xml:space="preserve">22.5232563018799</t>
   </si>
   <si>
     <t xml:space="preserve">23.2090606689453</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1729679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0285892486572</t>
+    <t xml:space="preserve">23.172966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0285873413086</t>
   </si>
   <si>
     <t xml:space="preserve">22.6495914459229</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8046283721924</t>
+    <t xml:space="preserve">23.2992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.804630279541</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
@@ -3182,22 +3182,22 @@
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5265293121338</t>
+    <t xml:space="preserve">24.0572948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5265274047852</t>
   </si>
   <si>
     <t xml:space="preserve">25.1581897735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8333358764648</t>
+    <t xml:space="preserve">24.8333339691162</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3206176757812</t>
+    <t xml:space="preserve">25.3206157684326</t>
   </si>
   <si>
     <t xml:space="preserve">26.6922245025635</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">28.334545135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2443103790283</t>
+    <t xml:space="preserve">28.3345470428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2443084716797</t>
   </si>
   <si>
     <t xml:space="preserve">27.4863128662109</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">27.8472652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0999298095703</t>
+    <t xml:space="preserve">28.0999279022217</t>
   </si>
   <si>
     <t xml:space="preserve">27.7570285797119</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">27.0351276397705</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4937019348145</t>
+    <t xml:space="preserve">26.4937038421631</t>
   </si>
   <si>
     <t xml:space="preserve">26.2771339416504</t>
@@ -3272,10 +3272,10 @@
     <t xml:space="preserve">26.2951812744141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6019897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1688499450684</t>
+    <t xml:space="preserve">26.6019878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1688480377197</t>
   </si>
   <si>
     <t xml:space="preserve">26.2049465179443</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.591329574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7537574768066</t>
+    <t xml:space="preserve">25.5913314819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7537593841553</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">25.6093769073486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7718048095703</t>
+    <t xml:space="preserve">25.7718029022217</t>
   </si>
   <si>
     <t xml:space="preserve">25.3386650085449</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">25.789852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6635189056396</t>
+    <t xml:space="preserve">25.6635208129883</t>
   </si>
   <si>
     <t xml:space="preserve">25.699613571167</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8694305419922</t>
+    <t xml:space="preserve">24.8694286346436</t>
   </si>
   <si>
     <t xml:space="preserve">24.2738628387451</t>
@@ -3350,43 +3350,43 @@
     <t xml:space="preserve">24.1294822692871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9670581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549186706543</t>
+    <t xml:space="preserve">23.9670562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.606107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549205780029</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1188259124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4797763824463</t>
+    <t xml:space="preserve">23.118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.4330196380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9022541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1262149810791</t>
+    <t xml:space="preserve">22.9022560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217807769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525444030762</t>
+    <t xml:space="preserve">22.7217788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525463104248</t>
   </si>
   <si>
     <t xml:space="preserve">21.7652626037598</t>
@@ -3398,40 +3398,40 @@
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4765033721924</t>
+    <t xml:space="preserve">21.4765014648438</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9490089416504</t>
+    <t xml:space="preserve">23.949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0933895111084</t>
+    <t xml:space="preserve">24.9957637786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.093391418457</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309635162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5732822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0531768798828</t>
+    <t xml:space="preserve">23.9309616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5732803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
     <t xml:space="preserve">26.3854179382324</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3493232727051</t>
+    <t xml:space="preserve">26.3493251800537</t>
   </si>
   <si>
     <t xml:space="preserve">25.735710144043</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">27.1614627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">27.919454574585</t>
+    <t xml:space="preserve">27.9194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
   </si>
   <si>
-    <t xml:space="preserve">28.370641708374</t>
+    <t xml:space="preserve">28.3706436157227</t>
   </si>
   <si>
     <t xml:space="preserve">28.316499710083</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">28.6774482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3886890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.569164276123</t>
+    <t xml:space="preserve">28.3886871337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5691661834717</t>
   </si>
   <si>
     <t xml:space="preserve">28.7315921783447</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3271579742432</t>
+    <t xml:space="preserve">29.3271598815918</t>
   </si>
   <si>
     <t xml:space="preserve">29.1105880737305</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">29.4173946380615</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4895877838135</t>
+    <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
     <t xml:space="preserve">29.6881084442139</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">28.7676849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.424783706665</t>
+    <t xml:space="preserve">28.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4247856140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.208215713501</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">26.8005123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739128112793</t>
+    <t xml:space="preserve">30.3739147186279</t>
   </si>
   <si>
     <t xml:space="preserve">30.6807193756104</t>
@@ -3557,10 +3557,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115501403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2924766540527</t>
+    <t xml:space="preserve">31.8115482330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.29248046875</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3578,19 +3578,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436462402344</t>
+    <t xml:space="preserve">30.6436443328857</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548713684082</t>
+    <t xml:space="preserve">30.7548732757568</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229782104492</t>
+    <t xml:space="preserve">28.6229801177979</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375972747803</t>
+    <t xml:space="preserve">28.4375991821289</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4736099243164</t>
+    <t xml:space="preserve">27.473611831665</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7887592315674</t>
+    <t xml:space="preserve">27.788761138916</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3638,16 +3638,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.548828125</t>
+    <t xml:space="preserve">28.5488262176514</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0308208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381294250488</t>
+    <t xml:space="preserve">29.030818939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3656,13 +3656,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718162536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1791248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892932891846</t>
+    <t xml:space="preserve">29.2718181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.179126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892913818359</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522144317627</t>
+    <t xml:space="preserve">28.2522163391113</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1605854034424</t>
+    <t xml:space="preserve">29.160587310791</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3698,13 +3698,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037094116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149402618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851718902588</t>
+    <t xml:space="preserve">31.4037113189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851737976074</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857021331787</t>
+    <t xml:space="preserve">31.8857040405273</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3731,16 +3731,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081619262695</t>
+    <t xml:space="preserve">32.1081581115723</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274326324463</t>
+    <t xml:space="preserve">31.4778633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274307250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9206523895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094253540039</t>
+    <t xml:space="preserve">29.920654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094234466553</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942760467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393909454346</t>
+    <t xml:space="preserve">29.4942741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393928527832</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944770812988</t>
+    <t xml:space="preserve">26.0276317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944751739502</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3809,16 +3809,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607864379883</t>
+    <t xml:space="preserve">25.8607883453369</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787937164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.230489730835</t>
+    <t xml:space="preserve">25.3787956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2304878234863</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3833,13 +3833,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179954528809</t>
+    <t xml:space="preserve">27.4179973602295</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600570678711</t>
+    <t xml:space="preserve">28.6600551605225</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8454399108887</t>
+    <t xml:space="preserve">28.84543800354</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746742248535</t>
+    <t xml:space="preserve">28.4746723175049</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3875,22 +3875,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.400520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443756103516</t>
+    <t xml:space="preserve">28.4005222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443775177002</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.918529510498</t>
+    <t xml:space="preserve">27.9185276031494</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.658992767334</t>
+    <t xml:space="preserve">27.6589946746826</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3902,13 +3902,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702236175537</t>
+    <t xml:space="preserve">27.7702217102051</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3438453674316</t>
+    <t xml:space="preserve">27.343843460083</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3935,16 +3935,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090942382812</t>
+    <t xml:space="preserve">26.0090923309326</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.656867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495594024658</t>
+    <t xml:space="preserve">25.6568698883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495613098145</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3956,7 +3956,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383304595947</t>
+    <t xml:space="preserve">25.6383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3965,7 +3965,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237133026123</t>
+    <t xml:space="preserve">25.8237113952637</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3974,7 +3974,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096244812012</t>
+    <t xml:space="preserve">26.5096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012554168701</t>
+    <t xml:space="preserve">25.6012535095215</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4010,10 +4010,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007213592529</t>
+    <t xml:space="preserve">24.7114200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007232666016</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4025,19 +4025,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445747375488</t>
+    <t xml:space="preserve">24.3962688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108879089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445766448975</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.082181930542</t>
+    <t xml:space="preserve">25.0821838378906</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4058,22 +4058,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.896800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.360258102417</t>
+    <t xml:space="preserve">24.8968029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3602561950684</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6754055023193</t>
+    <t xml:space="preserve">25.675407409668</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950054168701</t>
+    <t xml:space="preserve">26.6950073242188</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4085,13 +4085,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866363525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748752593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816535949707</t>
+    <t xml:space="preserve">25.7866344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816516876221</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714851379395</t>
+    <t xml:space="preserve">25.4714870452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1555">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85121059417725</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373455047607</t>
+    <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.55664920806885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32674884796143</t>
+    <t xml:space="preserve">8.32674789428711</t>
   </si>
   <si>
     <t xml:space="preserve">8.26927280426025</t>
@@ -65,64 +65,64 @@
     <t xml:space="preserve">8.53509616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47762107849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36266994476318</t>
+    <t xml:space="preserve">8.47762203216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36266899108887</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684753417969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29082489013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189449310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
+    <t xml:space="preserve">8.29082679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9818959236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247661590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38422298431396</t>
+    <t xml:space="preserve">8.38422393798828</t>
   </si>
   <si>
     <t xml:space="preserve">8.28364086151123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1902437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859746932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665372848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558364868164</t>
+    <t xml:space="preserve">8.27645778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325563430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8166561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480962753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
     <t xml:space="preserve">7.83820676803589</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">8.02500247955322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92442083358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878936767578</t>
+    <t xml:space="preserve">7.78073167800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92441892623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878984451294</t>
   </si>
   <si>
     <t xml:space="preserve">8.046555519104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17587375640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966159820557</t>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966255187988</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529258728027</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">8.13276863098145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93160438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471141815186</t>
+    <t xml:space="preserve">7.93160390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471189498901</t>
   </si>
   <si>
     <t xml:space="preserve">8.10403060913086</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">8.33393383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59975719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34111595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606803894043</t>
+    <t xml:space="preserve">8.59975624084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68597030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31237888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3411169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606708526611</t>
   </si>
   <si>
     <t xml:space="preserve">8.41296100616455</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">8.47043800354004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22616672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432167053223</t>
+    <t xml:space="preserve">8.22616577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432262420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150569915771</t>
@@ -230,16 +230,16 @@
     <t xml:space="preserve">8.23335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03218555450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626493453979</t>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626445770264</t>
   </si>
   <si>
     <t xml:space="preserve">8.44169902801514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30519390106201</t>
+    <t xml:space="preserve">8.30519580841064</t>
   </si>
   <si>
     <t xml:space="preserve">8.07527351379395</t>
@@ -251,67 +251,67 @@
     <t xml:space="preserve">8.24804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18795108795166</t>
+    <t xml:space="preserve">8.18795204162598</t>
   </si>
   <si>
     <t xml:space="preserve">8.28560638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33067798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14287948608398</t>
+    <t xml:space="preserve">8.3306770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14288139343262</t>
   </si>
   <si>
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16541767120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15039253234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517868041992</t>
+    <t xml:space="preserve">8.1654167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15039157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517772674561</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723840713501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530595779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
+    <t xml:space="preserve">7.51188182830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4517879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286451339722</t>
   </si>
   <si>
     <t xml:space="preserve">7.84991645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82738065719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69967985153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728677749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906057357788</t>
+    <t xml:space="preserve">7.8273811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728630065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906105041504</t>
   </si>
   <si>
     <t xml:space="preserve">7.13253307342529</t>
@@ -320,49 +320,49 @@
     <t xml:space="preserve">7.40295934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54944276809692</t>
+    <t xml:space="preserve">7.54944229125977</t>
   </si>
   <si>
     <t xml:space="preserve">7.69216680526733</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80484676361084</t>
+    <t xml:space="preserve">7.80484533309937</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46681070327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
+    <t xml:space="preserve">7.65460824966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46680974960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57949018478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54193019866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6020245552063</t>
   </si>
   <si>
     <t xml:space="preserve">7.75977373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68465566635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704874038696</t>
+    <t xml:space="preserve">7.684654712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704921722412</t>
   </si>
   <si>
     <t xml:space="preserve">7.66212034225464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63207149505615</t>
+    <t xml:space="preserve">7.63207244873047</t>
   </si>
   <si>
     <t xml:space="preserve">7.74475145339966</t>
@@ -374,142 +374,142 @@
     <t xml:space="preserve">7.77479934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59451246261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685955047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456178665161</t>
+    <t xml:space="preserve">7.59451150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685859680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456083297729</t>
   </si>
   <si>
     <t xml:space="preserve">7.70719194412231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6771445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986856460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742902755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953617095947</t>
+    <t xml:space="preserve">7.67714262008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986808776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742950439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953712463379</t>
   </si>
   <si>
     <t xml:space="preserve">7.57197761535645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50436925888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807836532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056770324707</t>
+    <t xml:space="preserve">7.50436878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4780797958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056722640991</t>
   </si>
   <si>
     <t xml:space="preserve">7.9175238609314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87996482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001272201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757032394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226306915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235837936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245225906372</t>
+    <t xml:space="preserve">7.87996530532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757175445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029865264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226402282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235599517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245321273804</t>
   </si>
   <si>
     <t xml:space="preserve">7.71470308303833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72221422195435</t>
+    <t xml:space="preserve">7.72221517562866</t>
   </si>
   <si>
     <t xml:space="preserve">7.66963148117065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64709711074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700275421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418102264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652572631836</t>
+    <t xml:space="preserve">7.64709615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427585601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169263839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418006896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652667999268</t>
   </si>
   <si>
     <t xml:space="preserve">7.5081262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53441715240479</t>
+    <t xml:space="preserve">7.5344181060791</t>
   </si>
   <si>
     <t xml:space="preserve">7.29403734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9259557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736520767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990100860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219972610474</t>
+    <t xml:space="preserve">6.92595624923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736616134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92220020294189</t>
   </si>
   <si>
     <t xml:space="preserve">6.84332466125488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9597601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849061965942</t>
+    <t xml:space="preserve">6.95975971221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
   </si>
   <si>
     <t xml:space="preserve">6.92971181869507</t>
@@ -518,136 +518,136 @@
     <t xml:space="preserve">6.83956813812256</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81327676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215230941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581304550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074144363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341997146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112125396729</t>
+    <t xml:space="preserve">6.81327724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215183258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449892044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074192047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112173080444</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717601776123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985502243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0160984992981</t>
+    <t xml:space="preserve">7.0198540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609897613525</t>
   </si>
   <si>
     <t xml:space="preserve">7.17384815216064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19638299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5644645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5569543838501</t>
+    <t xml:space="preserve">7.19638347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432279586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695390701294</t>
   </si>
   <si>
     <t xml:space="preserve">7.78982210159302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78231000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747596740723</t>
+    <t xml:space="preserve">7.78230953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8874773979187</t>
   </si>
   <si>
     <t xml:space="preserve">7.98513126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79733371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0452241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776237487793</t>
+    <t xml:space="preserve">7.79733419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776142120361</t>
   </si>
   <si>
     <t xml:space="preserve">8.10532093048096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00766658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49593830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307106018066</t>
+    <t xml:space="preserve">8.00766563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95508289337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49593925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
     <t xml:space="preserve">8.25555896759033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30814170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091506958008</t>
+    <t xml:space="preserve">8.30814266204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091602325439</t>
   </si>
   <si>
     <t xml:space="preserve">8.5635461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57857036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69875812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636695861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7738790512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72880840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78890132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646179199219</t>
+    <t xml:space="preserve">8.57856941223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69875907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636600494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77387809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72880744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78890228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75134181976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8264627456665</t>
   </si>
   <si>
     <t xml:space="preserve">8.86402225494385</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">8.88655662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91660404205322</t>
+    <t xml:space="preserve">8.91660308837891</t>
   </si>
   <si>
     <t xml:space="preserve">8.99172401428223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96918678283691</t>
+    <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.93914031982422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421096801758</t>
+    <t xml:space="preserve">8.98421001434326</t>
   </si>
   <si>
     <t xml:space="preserve">8.89406871795654</t>
@@ -680,34 +680,34 @@
     <t xml:space="preserve">8.71378421783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60110569000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51096343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4283332824707</t>
+    <t xml:space="preserve">8.60110473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51096248626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
     <t xml:space="preserve">8.61612892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53349781036377</t>
+    <t xml:space="preserve">8.53349876403809</t>
   </si>
   <si>
     <t xml:space="preserve">8.54101085662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631954193115</t>
+    <t xml:space="preserve">8.73632049560547</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90909194946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9616756439209</t>
+    <t xml:space="preserve">8.90909290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96167659759521</t>
   </si>
   <si>
     <t xml:space="preserve">8.85651016235352</t>
@@ -716,49 +716,49 @@
     <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2611026763916</t>
+    <t xml:space="preserve">9.26110363006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2846097946167</t>
+    <t xml:space="preserve">9.28460884094238</t>
   </si>
   <si>
     <t xml:space="preserve">9.38646411895752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42564010620117</t>
+    <t xml:space="preserve">9.42564105987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.3472900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36295890808105</t>
+    <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914627075195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41780757904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481513977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966190338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85657119750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73121070861816</t>
+    <t xml:space="preserve">9.41780662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172538757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85657215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73121166229248</t>
   </si>
   <si>
     <t xml:space="preserve">9.74688053131104</t>
@@ -767,64 +767,64 @@
     <t xml:space="preserve">9.77822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79388999938965</t>
+    <t xml:space="preserve">9.79389095306396</t>
   </si>
   <si>
     <t xml:space="preserve">9.69986915588379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8487377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801292419434</t>
+    <t xml:space="preserve">9.84873580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801483154297</t>
   </si>
   <si>
     <t xml:space="preserve">9.69203472137451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6215181350708</t>
+    <t xml:space="preserve">9.62151908874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58234214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584735870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55100345611572</t>
+    <t xml:space="preserve">9.58234310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
     <t xml:space="preserve">9.558837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72337436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77038669586182</t>
+    <t xml:space="preserve">9.72337532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77038478851318</t>
   </si>
   <si>
     <t xml:space="preserve">9.75471496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37079429626465</t>
+    <t xml:space="preserve">9.48832225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399208068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37079524993896</t>
   </si>
   <si>
     <t xml:space="preserve">9.63718891143799</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">9.7077054977417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8330659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0211095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543054580688</t>
+    <t xml:space="preserve">9.83306694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543064117432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3266792297363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031730651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326564788818</t>
+    <t xml:space="preserve">10.3031740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561626434326</t>
@@ -863,52 +863,52 @@
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953395843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4285364151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912166595459</t>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893604278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4285354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695676803589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165781021118</t>
+    <t xml:space="preserve">10.6165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225563049316</t>
+    <t xml:space="preserve">10.522557258606</t>
   </si>
   <si>
     <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5068864822388</t>
+    <t xml:space="preserve">10.5068845748901</t>
   </si>
   <si>
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870937347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6479196548462</t>
+    <t xml:space="preserve">10.6870946884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
     <t xml:space="preserve">10.6557531356812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6087436676025</t>
+    <t xml:space="preserve">10.6087427139282</t>
   </si>
   <si>
     <t xml:space="preserve">10.593071937561</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">10.5382270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5460624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5147218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027635574341</t>
+    <t xml:space="preserve">10.5460605621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004978179932</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">11.0318393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0631790161133</t>
+    <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
     <t xml:space="preserve">10.976993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240030288696</t>
+    <t xml:space="preserve">11.0240049362183</t>
   </si>
   <si>
     <t xml:space="preserve">11.0161685943604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9926633834839</t>
+    <t xml:space="preserve">10.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">11.24338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139038085938</t>
+    <t xml:space="preserve">11.3139019012451</t>
   </si>
   <si>
     <t xml:space="preserve">11.21204662323</t>
@@ -968,34 +968,34 @@
     <t xml:space="preserve">11.4157600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840099334717</t>
+    <t xml:space="preserve">11.4941101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.784010887146</t>
   </si>
   <si>
     <t xml:space="preserve">11.8466911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9250421524048</t>
+    <t xml:space="preserve">11.9250431060791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5411214828491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7291641235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9485473632812</t>
+    <t xml:space="preserve">11.7291631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7605047225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9485464096069</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388547897339</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9172067642212</t>
+    <t xml:space="preserve">11.9172077178955</t>
   </si>
   <si>
     <t xml:space="preserve">11.9877233505249</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">11.9642181396484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0739088058472</t>
+    <t xml:space="preserve">12.0739078521729</t>
   </si>
   <si>
     <t xml:space="preserve">12.1600961685181</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">12.2462816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2227764129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011283874512</t>
+    <t xml:space="preserve">12.2227773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011264801025</t>
   </si>
   <si>
     <t xml:space="preserve">12.5126762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5283451080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5361795425415</t>
+    <t xml:space="preserve">12.5283460617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5361814498901</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347328186035</t>
@@ -1034,25 +1034,25 @@
     <t xml:space="preserve">12.3794784545898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3481378555298</t>
+    <t xml:space="preserve">12.3481388092041</t>
   </si>
   <si>
     <t xml:space="preserve">12.4970045089722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8025751113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8574190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5831909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813356399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537065505981</t>
+    <t xml:space="preserve">12.8025741577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8574199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5831918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089609146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1130838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697858810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660734176636</t>
+    <t xml:space="preserve">12.3089618682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1130828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697877883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660724639893</t>
   </si>
   <si>
     <t xml:space="preserve">11.9015369415283</t>
   </si>
   <si>
-    <t xml:space="preserve">12.167929649353</t>
+    <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541170120239</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">12.4891691207886</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6223669052124</t>
+    <t xml:space="preserve">12.6223678588867</t>
   </si>
   <si>
     <t xml:space="preserve">12.3324670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5910263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9749450683594</t>
+    <t xml:space="preserve">12.5910272598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9749479293823</t>
   </si>
   <si>
     <t xml:space="preserve">12.9671106338501</t>
@@ -1112,37 +1112,37 @@
     <t xml:space="preserve">13.2256698608398</t>
   </si>
   <si>
-    <t xml:space="preserve">13.280517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2335062026978</t>
+    <t xml:space="preserve">13.2805166244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021656036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2335052490234</t>
   </si>
   <si>
     <t xml:space="preserve">13.2178354263306</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1003065109253</t>
+    <t xml:space="preserve">13.1003074645996</t>
   </si>
   <si>
     <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611324310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786584854126</t>
+    <t xml:space="preserve">13.0611333847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786575317383</t>
   </si>
   <si>
     <t xml:space="preserve">12.8417501449585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2619514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2932920455933</t>
+    <t xml:space="preserve">12.2619524002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2932929992676</t>
   </si>
   <si>
     <t xml:space="preserve">12.3951482772827</t>
@@ -1151,34 +1151,34 @@
     <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6693782806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7320575714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7790679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850490570068</t>
+    <t xml:space="preserve">12.6693773269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7320585250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7790689468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850471496582</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846395492554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2570095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1081447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3118572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238136291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.351035118103</t>
+    <t xml:space="preserve">13.2570123672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1081428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3118562698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.123815536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510332107544</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801061630249</t>
@@ -1190,55 +1190,55 @@
     <t xml:space="preserve">14.2912454605103</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8397035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982627868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277471542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.317645072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9337253570557</t>
+    <t xml:space="preserve">14.8397054672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982637405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0825910568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549648284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.93372631073</t>
   </si>
   <si>
     <t xml:space="preserve">14.855372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452760696411</t>
+    <t xml:space="preserve">14.7221755981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452741622925</t>
   </si>
   <si>
     <t xml:space="preserve">14.6751661300659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0669221878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474347114563</t>
+    <t xml:space="preserve">15.0669212341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4743480682373</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4351720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.701566696167</t>
+    <t xml:space="preserve">15.435173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015657424927</t>
   </si>
   <si>
     <t xml:space="preserve">15.7172355651855</t>
@@ -1250,70 +1250,70 @@
     <t xml:space="preserve">15.0042409896851</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0904293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001180648804</t>
+    <t xml:space="preserve">15.0904302597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.200119972229</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157878875732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3568210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821834564209</t>
+    <t xml:space="preserve">15.3568229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978532791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821805953979</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918750762939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6702270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310529708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858949661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.889609336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683698654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269309997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1403312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8867149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926912307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390302658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548454284668</t>
+    <t xml:space="preserve">15.6702251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.631049156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269281387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1403331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8867139816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710422515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390293121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149244308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548463821411</t>
   </si>
   <si>
     <t xml:space="preserve">14.3267860412598</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">14.030647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8945827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866727828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467479705811</t>
+    <t xml:space="preserve">13.8945817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467489242554</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508937835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907215118408</t>
+    <t xml:space="preserve">14.254753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.550892829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907205581665</t>
   </si>
   <si>
     <t xml:space="preserve">15.3352642059326</t>
@@ -1355,73 +1355,73 @@
     <t xml:space="preserve">15.3192548751831</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5273542404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5833797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.807487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073923110962</t>
+    <t xml:space="preserve">15.5273561477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152061462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713296890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5833806991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8074884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073951721191</t>
   </si>
   <si>
     <t xml:space="preserve">15.6954355239868</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0471267700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351690292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870506286621</t>
+    <t xml:space="preserve">15.0471258163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391235351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870525360107</t>
   </si>
   <si>
     <t xml:space="preserve">14.9911012649536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8630409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991054534912</t>
+    <t xml:space="preserve">14.8630390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991035461426</t>
   </si>
   <si>
     <t xml:space="preserve">15.119161605835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4793329238892</t>
+    <t xml:space="preserve">15.4793310165405</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153974533081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5353574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6554145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.711443901062</t>
+    <t xml:space="preserve">15.5353584289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6554136276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114419937134</t>
   </si>
   <si>
     <t xml:space="preserve">15.7434577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7034387588501</t>
+    <t xml:space="preserve">15.7034397125244</t>
   </si>
   <si>
     <t xml:space="preserve">15.6234006881714</t>
@@ -1433,43 +1433,43 @@
     <t xml:space="preserve">15.3992938995361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.463324546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4953422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233064651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672780990601</t>
+    <t xml:space="preserve">15.4633255004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4953413009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4233074188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3672790527344</t>
   </si>
   <si>
     <t xml:space="preserve">15.0711402893066</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8230228424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
+    <t xml:space="preserve">14.8230199813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349796295166</t>
   </si>
   <si>
     <t xml:space="preserve">14.726975440979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1031532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.239218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708547592163</t>
+    <t xml:space="preserve">15.1031560897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2392206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628534317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708557128906</t>
   </si>
   <si>
     <t xml:space="preserve">14.3748083114624</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">14.5749034881592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4228324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107795715332</t>
+    <t xml:space="preserve">14.422833442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107786178589</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468431472778</t>
   </si>
   <si>
-    <t xml:space="preserve">14.342794418335</t>
+    <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
     <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2627553939819</t>
+    <t xml:space="preserve">14.2627563476562</t>
   </si>
   <si>
     <t xml:space="preserve">14.2947721481323</t>
@@ -1502,55 +1502,55 @@
     <t xml:space="preserve">14.1266918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747150421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6389350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.430835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347902297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666156768799</t>
+    <t xml:space="preserve">14.1747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6389360427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4308376312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588018417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666175842285</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466527938843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.118688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346960067749</t>
+    <t xml:space="preserve">14.1186876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346979141235</t>
   </si>
   <si>
     <t xml:space="preserve">14.0386514663696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2387456893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1106843948364</t>
+    <t xml:space="preserve">14.2387447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1106834411621</t>
   </si>
   <si>
     <t xml:space="preserve">13.6864833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7825269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584239959717</t>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.558422088623</t>
   </si>
   <si>
     <t xml:space="preserve">13.2862939834595</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">13.4863891601562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3903427124023</t>
+    <t xml:space="preserve">13.390341758728</t>
   </si>
   <si>
     <t xml:space="preserve">14.166711807251</t>
@@ -1568,34 +1568,34 @@
     <t xml:space="preserve">13.8865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7184982299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3023014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662378311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583288192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1262178421021</t>
+    <t xml:space="preserve">13.7184972763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662368774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1262168884277</t>
   </si>
   <si>
     <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1982536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460845947266</t>
+    <t xml:space="preserve">13.1982526779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460836410522</t>
   </si>
   <si>
     <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8620929718018</t>
+    <t xml:space="preserve">12.8620939254761</t>
   </si>
   <si>
     <t xml:space="preserve">13.3663330078125</t>
@@ -1607,46 +1607,46 @@
     <t xml:space="preserve">13.5744295120239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984420776367</t>
+    <t xml:space="preserve">13.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5664281845093</t>
+    <t xml:space="preserve">13.5664262771606</t>
   </si>
   <si>
     <t xml:space="preserve">13.5264072418213</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1742391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.174241065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8781023025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422252655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8540878295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7340307235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661417007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8140687942505</t>
+    <t xml:space="preserve">12.8781003952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422243118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8540897369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7340316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8140707015991</t>
   </si>
   <si>
     <t xml:space="preserve">12.9421310424805</t>
@@ -1655,67 +1655,67 @@
     <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060655593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4859142303467</t>
+    <t xml:space="preserve">12.8060665130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4859161376953</t>
   </si>
   <si>
     <t xml:space="preserve">12.5739555358887</t>
   </si>
   <si>
-    <t xml:space="preserve">13.27028465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424137115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706663131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785753250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104949951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062559127808</t>
+    <t xml:space="preserve">13.2702865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821500778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785743713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104940414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183088302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062549591064</t>
   </si>
   <si>
     <t xml:space="preserve">13.3103036880493</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064453125</t>
+    <t xml:space="preserve">13.6064443588257</t>
   </si>
   <si>
     <t xml:space="preserve">13.7745246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5824317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145437240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9506101608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8625650405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665224075317</t>
+    <t xml:space="preserve">13.5824346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624727249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145456314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9506092071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704759597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8625659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665233612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.9986305236816</t>
@@ -1724,94 +1724,94 @@
     <t xml:space="preserve">13.9906272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6544675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985363006592</t>
+    <t xml:space="preserve">13.654468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985382080078</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7905330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826211929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066347122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224527359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.646463394165</t>
+    <t xml:space="preserve">13.7905321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826250076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224536895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6464624404907</t>
   </si>
   <si>
     <t xml:space="preserve">13.9586133956909</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9025859832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8705720901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0786695480347</t>
+    <t xml:space="preserve">13.9025850296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.870569229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.078670501709</t>
   </si>
   <si>
     <t xml:space="preserve">13.6384620666504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4303636550903</t>
+    <t xml:space="preserve">13.4303617477417</t>
   </si>
   <si>
     <t xml:space="preserve">13.4383668899536</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3743333816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063501358032</t>
+    <t xml:space="preserve">13.3743343353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063510894775</t>
   </si>
   <si>
     <t xml:space="preserve">13.2462739944458</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0301723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.95814037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.742036819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3983478546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4703807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4943923950195</t>
+    <t xml:space="preserve">13.0301742553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.958137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7420358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3983469009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4703817367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4943933486938</t>
   </si>
   <si>
     <t xml:space="preserve">13.0381774902344</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9021120071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9101142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861045837402</t>
+    <t xml:space="preserve">12.9021129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9101152420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861036300659</t>
   </si>
   <si>
     <t xml:space="preserve">12.9901533126831</t>
@@ -1820,25 +1820,25 @@
     <t xml:space="preserve">12.870096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341249465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.998158454895</t>
+    <t xml:space="preserve">12.9341268539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
     <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6144485473633</t>
+    <t xml:space="preserve">13.6144495010376</t>
   </si>
   <si>
     <t xml:space="preserve">14.0665884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2340488433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931360244751</t>
+    <t xml:space="preserve">14.2340478897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931350708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.4098806381226</t>
@@ -1847,187 +1847,187 @@
     <t xml:space="preserve">14.7699193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694421768188</t>
+    <t xml:space="preserve">14.7950391769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694431304932</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522222518921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5354766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4350004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4601182937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.448130607605</t>
+    <t xml:space="preserve">14.535475730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192045211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.435001373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4601202011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708690643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4481296539307</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318593978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9038858413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806711196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.556978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4648742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555513381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816226959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756288528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328128814697</t>
+    <t xml:space="preserve">15.5318584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043601989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9038867950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806730270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569772720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4648733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923715591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9756269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667783737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830495834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411823272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328100204468</t>
   </si>
   <si>
     <t xml:space="preserve">15.4983682632446</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1215810775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634492874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462265014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797176361084</t>
+    <t xml:space="preserve">15.1215839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462255477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797185897827</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452749252319</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8787660598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6778182983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0294828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.426628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684934616089</t>
+    <t xml:space="preserve">14.8787679672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015092849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6778173446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0294818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1299562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.42662525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684915542603</t>
   </si>
   <si>
     <t xml:space="preserve">14.3094062805176</t>
   </si>
   <si>
-    <t xml:space="preserve">14.150318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275758743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196817398071</t>
+    <t xml:space="preserve">14.1503190994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196807861328</t>
   </si>
   <si>
     <t xml:space="preserve">14.6526966094971</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3512706756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940885543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024608612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457511901855</t>
+    <t xml:space="preserve">14.3512697219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024599075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
     <t xml:space="preserve">14.744800567627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9122581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309059143066</t>
+    <t xml:space="preserve">14.9122591018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
   </si>
   <si>
     <t xml:space="preserve">15.5151138305664</t>
@@ -2036,22 +2036,22 @@
     <t xml:space="preserve">15.0964651107788</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629739761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373779296875</t>
+    <t xml:space="preserve">15.0629749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
     <t xml:space="preserve">15.4397573471069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8500318527222</t>
+    <t xml:space="preserve">15.8500328063965</t>
   </si>
   <si>
     <t xml:space="preserve">15.7244396209717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8751497268677</t>
+    <t xml:space="preserve">15.875150680542</t>
   </si>
   <si>
     <t xml:space="preserve">15.6993179321289</t>
@@ -2063,91 +2063,91 @@
     <t xml:space="preserve">15.9002714157104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490831375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486040115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899950027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.389518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792432785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643999099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0211095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206314086914</t>
+    <t xml:space="preserve">15.5988435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54860496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3895168304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644008636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206323623657</t>
   </si>
   <si>
     <t xml:space="preserve">15.1048383712769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1132097244263</t>
+    <t xml:space="preserve">15.113208770752</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471780776978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2304344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1801929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
+    <t xml:space="preserve">15.230432510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.180193901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969385147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057909011841</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8249111175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3811454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718215942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136850357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220611572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067415237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825733184814</t>
+    <t xml:space="preserve">15.8249139785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3811473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718235015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220602035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825714111328</t>
   </si>
   <si>
     <t xml:space="preserve">15.4732494354248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9337615966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942756652832</t>
+    <t xml:space="preserve">15.9337606430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942737579346</t>
   </si>
   <si>
     <t xml:space="preserve">16.7961769104004</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">16.2016983032227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435626983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5198707580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1179676055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0426082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0761013031006</t>
+    <t xml:space="preserve">16.2435607910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5198726654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1179656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.042610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0258636474609</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765785217285</t>
+    <t xml:space="preserve">16.1765766143799</t>
   </si>
   <si>
     <t xml:space="preserve">16.2100715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.670581817627</t>
+    <t xml:space="preserve">16.6705856323242</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
@@ -2195,16 +2195,16 @@
     <t xml:space="preserve">16.5282402038574</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.092845916748</t>
+    <t xml:space="preserve">16.3440380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928478240967</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0509815216064</t>
+    <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
     <t xml:space="preserve">16.3021697998047</t>
@@ -2213,19 +2213,19 @@
     <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6957035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.482759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2483177185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5329990386963</t>
+    <t xml:space="preserve">16.6957015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4827613830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2483196258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5330009460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.0353775024414</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">17.9181537628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0521240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9516468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669654846191</t>
+    <t xml:space="preserve">18.0856151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9516487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669673919678</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846626281738</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">18.2028369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.867919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2363300323486</t>
+    <t xml:space="preserve">17.8679180145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.236328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.3702964782715</t>
@@ -2264,10 +2264,10 @@
     <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205341339111</t>
+    <t xml:space="preserve">18.6382312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205360412598</t>
   </si>
   <si>
     <t xml:space="preserve">18.4540271759033</t>
@@ -2285,37 +2285,37 @@
     <t xml:space="preserve">19.1908473968506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3248138427734</t>
+    <t xml:space="preserve">19.3248157501221</t>
   </si>
   <si>
     <t xml:space="preserve">19.4420356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.358304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745761871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3870391845703</t>
+    <t xml:space="preserve">19.3583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3870410919189</t>
   </si>
   <si>
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387065887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3368034362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4660148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210094451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525974273682</t>
+    <t xml:space="preserve">18.7387046813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3368015289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4660167694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210113525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
     <t xml:space="preserve">11.8226337432861</t>
@@ -2327,25 +2327,25 @@
     <t xml:space="preserve">12.5175895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2998924255371</t>
+    <t xml:space="preserve">12.2998933792114</t>
   </si>
   <si>
     <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6300554275513</t>
+    <t xml:space="preserve">12.023585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6300563812256</t>
   </si>
   <si>
     <t xml:space="preserve">12.1156873703003</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7269144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687788009644</t>
+    <t xml:space="preserve">12.7269134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687797546387</t>
   </si>
   <si>
     <t xml:space="preserve">13.1455631256104</t>
@@ -2366,40 +2366,40 @@
     <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0917081832886</t>
+    <t xml:space="preserve">14.0917091369629</t>
   </si>
   <si>
     <t xml:space="preserve">14.0079784393311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8907585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1921854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656377792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8572645187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0247240066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8321475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419458389282</t>
+    <t xml:space="preserve">13.8907566070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424211502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8572635650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0247259140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8321466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419448852539</t>
   </si>
   <si>
     <t xml:space="preserve">14.2173023223877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926588058472</t>
+    <t xml:space="preserve">14.2926597595215</t>
   </si>
   <si>
     <t xml:space="preserve">13.7316703796387</t>
@@ -2417,28 +2417,28 @@
     <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3345241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103578567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503849029541</t>
+    <t xml:space="preserve">14.3345251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354595184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503858566284</t>
   </si>
   <si>
     <t xml:space="preserve">14.9829502105713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1317300796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1229791641235</t>
+    <t xml:space="preserve">15.1317310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1229772567749</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281377792358</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0308513641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1358737945557</t>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0308532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.135871887207</t>
   </si>
   <si>
     <t xml:space="preserve">16.496997833252</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">16.4357376098633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2431983947754</t>
+    <t xml:space="preserve">16.2431964874268</t>
   </si>
   <si>
     <t xml:space="preserve">16.1031703948975</t>
@@ -2483,34 +2483,34 @@
     <t xml:space="preserve">16.1731853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7595481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5670127868652</t>
+    <t xml:space="preserve">16.7595500946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5670108795166</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845165252686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4882469177246</t>
+    <t xml:space="preserve">16.488245010376</t>
   </si>
   <si>
     <t xml:space="preserve">16.7157917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7858066558838</t>
+    <t xml:space="preserve">16.7858047485352</t>
   </si>
   <si>
     <t xml:space="preserve">16.2607021331787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4707412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7945575714111</t>
+    <t xml:space="preserve">16.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4707431793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7945556640625</t>
   </si>
   <si>
     <t xml:space="preserve">17.2846527099609</t>
@@ -2537,25 +2537,25 @@
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3086032867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2911014556885</t>
+    <t xml:space="preserve">18.8162040710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3086051940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2910995483398</t>
   </si>
   <si>
     <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4486331939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3786182403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3961219787598</t>
+    <t xml:space="preserve">18.4486312866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3786163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3961238861084</t>
   </si>
   <si>
     <t xml:space="preserve">17.9760398864746</t>
@@ -2564,40 +2564,40 @@
     <t xml:space="preserve">17.80100440979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.836009979248</t>
+    <t xml:space="preserve">17.888521194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
     <t xml:space="preserve">17.730993270874</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0110473632812</t>
+    <t xml:space="preserve">18.0110454559326</t>
   </si>
   <si>
     <t xml:space="preserve">18.4836406707764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6236686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5011425018311</t>
+    <t xml:space="preserve">18.6236667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5011405944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.8862190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9737377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0437488555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1487693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4988422393799</t>
+    <t xml:space="preserve">18.9737358093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0437507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1487712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4988384246826</t>
   </si>
   <si>
     <t xml:space="preserve">19.5513496398926</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787544250488</t>
+    <t xml:space="preserve">19.0787563323975</t>
   </si>
   <si>
     <t xml:space="preserve">19.1312675476074</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3938179016113</t>
+    <t xml:space="preserve">19.39381980896</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113216400146</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">19.1137638092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9562320709229</t>
+    <t xml:space="preserve">18.9562301635742</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3763160705566</t>
+    <t xml:space="preserve">19.376314163208</t>
   </si>
   <si>
     <t xml:space="preserve">18.6936817169189</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061630249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611164093018</t>
+    <t xml:space="preserve">18.7461929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.606164932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611145019531</t>
   </si>
   <si>
     <t xml:space="preserve">18.5186443328857</t>
@@ -2666,34 +2666,34 @@
     <t xml:space="preserve">18.7811965942383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6913757324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8664131164551</t>
+    <t xml:space="preserve">19.6913776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8664112091064</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7438869476318</t>
+    <t xml:space="preserve">19.7438850402832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8489093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2012825012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9912395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662750244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7636966705322</t>
+    <t xml:space="preserve">19.4813365936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2012805938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9912414550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
     <t xml:space="preserve">19.0087413787842</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.240894317627</t>
+    <t xml:space="preserve">17.2408962249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.8820743560791</t>
@@ -2714,37 +2714,37 @@
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0810604095459</t>
+    <t xml:space="preserve">17.5034465789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0810585021973</t>
   </si>
   <si>
     <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0635585784912</t>
+    <t xml:space="preserve">18.0635566711426</t>
   </si>
   <si>
     <t xml:space="preserve">18.2210865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685771942139</t>
+    <t xml:space="preserve">18.1685791015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060230255127</t>
+    <t xml:space="preserve">17.9060249328613</t>
   </si>
   <si>
     <t xml:space="preserve">17.6784820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8710174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.765998840332</t>
+    <t xml:space="preserve">17.8710193634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7659969329834</t>
   </si>
   <si>
     <t xml:space="preserve">17.5909652709961</t>
@@ -2753,25 +2753,25 @@
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1335716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1860809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5711555480957</t>
+    <t xml:space="preserve">18.0285530090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1335678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1860828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5711536407471</t>
   </si>
   <si>
     <t xml:space="preserve">19.2362880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2864933013916</t>
+    <t xml:space="preserve">19.9714336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790325164795</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1266593933105</t>
+    <t xml:space="preserve">21.1266613006592</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2789,34 +2789,34 @@
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143161773682</t>
+    <t xml:space="preserve">21.9143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0368404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668254852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1593627929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9318161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.229377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4219169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721202850342</t>
+    <t xml:space="preserve">22.0368385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1593647003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9318180084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2293758392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4219150543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4569206237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1243572235107</t>
+    <t xml:space="preserve">22.4569225311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1243553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444374084473</t>
+    <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
     <t xml:space="preserve">22.8595008850098</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745624542236</t>
+    <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1220531463623</t>
+    <t xml:space="preserve">23.1220512390137</t>
   </si>
   <si>
     <t xml:space="preserve">23.4546184539795</t>
@@ -2861,40 +2861,40 @@
     <t xml:space="preserve">22.6144523620605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9493236541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7742862701416</t>
+    <t xml:space="preserve">21.9493217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0018310546875</t>
+    <t xml:space="preserve">22.0018329620361</t>
   </si>
   <si>
     <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7590847015381</t>
+    <t xml:space="preserve">20.7590866088867</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4615287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592227935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4394187927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2118721008301</t>
+    <t xml:space="preserve">20.4615268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0414447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.439416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2118740081787</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2903,61 +2903,61 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940940856934</t>
+    <t xml:space="preserve">20.794095993042</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5292377471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7567844390869</t>
+    <t xml:space="preserve">21.529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7567825317383</t>
   </si>
   <si>
     <t xml:space="preserve">21.8442993164062</t>
   </si>
   <si>
-    <t xml:space="preserve">22.26438331604</t>
+    <t xml:space="preserve">22.2643852233887</t>
   </si>
   <si>
     <t xml:space="preserve">22.5969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">22.31689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2468795776367</t>
+    <t xml:space="preserve">22.3168926239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2468814849854</t>
   </si>
   <si>
     <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3343963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1068515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7217769622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8092937469482</t>
+    <t xml:space="preserve">22.3343982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1068534851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7217788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8092956542969</t>
   </si>
   <si>
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3869094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8267974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4942302703857</t>
+    <t xml:space="preserve">21.2841930389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3869075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8267955780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4942321777344</t>
   </si>
   <si>
     <t xml:space="preserve">21.5992527008057</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5817489624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2491855621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4767303466797</t>
+    <t xml:space="preserve">21.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2491836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4767284393311</t>
   </si>
   <si>
     <t xml:space="preserve">20.3915138244629</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">20.916618347168</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0391426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5954494476318</t>
+    <t xml:space="preserve">21.0391445159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
     <t xml:space="preserve">22.5774002075195</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">22.4691143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4149742126465</t>
+    <t xml:space="preserve">22.4149723052979</t>
   </si>
   <si>
     <t xml:space="preserve">22.6856861114502</t>
@@ -3011,28 +3011,28 @@
     <t xml:space="preserve">22.7398281097412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8661613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8842086791992</t>
+    <t xml:space="preserve">22.8661594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8842067718506</t>
   </si>
   <si>
     <t xml:space="preserve">22.5593528747559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8300628662109</t>
+    <t xml:space="preserve">22.8300647735596</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2632064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3534412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3173484802246</t>
+    <t xml:space="preserve">23.263204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.353443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
@@ -3041,40 +3041,40 @@
     <t xml:space="preserve">22.9203014373779</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0105400085449</t>
+    <t xml:space="preserve">23.0105381011963</t>
   </si>
   <si>
     <t xml:space="preserve">22.6134948730469</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7037315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3895359039307</t>
+    <t xml:space="preserve">22.7037334442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9383506774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3895378112793</t>
   </si>
   <si>
     <t xml:space="preserve">23.0646820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">23.28125</t>
+    <t xml:space="preserve">23.2812519073486</t>
   </si>
   <si>
     <t xml:space="preserve">22.6315422058105</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0540237426758</t>
+    <t xml:space="preserve">22.0540218353271</t>
   </si>
   <si>
     <t xml:space="preserve">22.0901184082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1081638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9744434356689</t>
+    <t xml:space="preserve">22.1081657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9744453430176</t>
   </si>
   <si>
     <t xml:space="preserve">23.2451572418213</t>
@@ -3083,34 +3083,34 @@
     <t xml:space="preserve">23.425630569458</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5339183807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7865829467773</t>
+    <t xml:space="preserve">23.5339164733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
     <t xml:space="preserve">23.570011138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9457378387451</t>
+    <t xml:space="preserve">21.9457397460938</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5052108764648</t>
+    <t xml:space="preserve">22.5052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969249725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8120193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466365814209</t>
+    <t xml:space="preserve">22.3969268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8120174407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466346740723</t>
   </si>
   <si>
     <t xml:space="preserve">22.5413055419922</t>
@@ -3131,19 +3131,19 @@
     <t xml:space="preserve">23.2090606689453</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1368732452393</t>
+    <t xml:space="preserve">23.1368713378906</t>
   </si>
   <si>
     <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1729679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.02858543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6495895385742</t>
+    <t xml:space="preserve">23.172966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0285873413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6495914459229</t>
   </si>
   <si>
     <t xml:space="preserve">23.1910152435303</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.461727142334</t>
+    <t xml:space="preserve">23.4617252349854</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8046283721924</t>
+    <t xml:space="preserve">23.2992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.804630279541</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
@@ -3173,19 +3173,19 @@
     <t xml:space="preserve">23.8948669433594</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9851055145264</t>
+    <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
     <t xml:space="preserve">24.0572948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5265293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1581916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8333358764648</t>
+    <t xml:space="preserve">24.5265274047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1581897735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8333339691162</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">25.3206157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6922264099121</t>
+    <t xml:space="preserve">26.6922245025635</t>
   </si>
   <si>
     <t xml:space="preserve">26.9629383087158</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">27.3419342041016</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2877941131592</t>
+    <t xml:space="preserve">27.2877922058105</t>
   </si>
   <si>
     <t xml:space="preserve">27.7028865814209</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">28.15407371521</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1721172332764</t>
+    <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
     <t xml:space="preserve">28.3345470428467</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">28.2443084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4863147735596</t>
+    <t xml:space="preserve">27.4863128662109</t>
   </si>
   <si>
     <t xml:space="preserve">28.2804050445557</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9014053344727</t>
+    <t xml:space="preserve">27.9014072418213</t>
   </si>
   <si>
     <t xml:space="preserve">27.8472652435303</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">26.5839405059814</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2590866088867</t>
+    <t xml:space="preserve">26.2590885162354</t>
   </si>
   <si>
     <t xml:space="preserve">26.2951812744141</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.591329574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7537574768066</t>
+    <t xml:space="preserve">25.5913314819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7537593841553</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">25.8620414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9235725402832</t>
+    <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
     <t xml:space="preserve">24.8694286346436</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">23.9670562744141</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549186706543</t>
+    <t xml:space="preserve">23.606107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549205780029</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
@@ -3359,16 +3359,16 @@
     <t xml:space="preserve">23.118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.479772567749</t>
+    <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.4330196380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9022541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510669708252</t>
+    <t xml:space="preserve">22.9022560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510688781738</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3377,55 +3377,55 @@
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217807769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1442623138428</t>
+    <t xml:space="preserve">22.7217788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652626037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1442604064941</t>
   </si>
   <si>
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4765033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3140773773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9490089416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.501091003418</t>
+    <t xml:space="preserve">21.4765014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3140754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.949010848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
     <t xml:space="preserve">24.9957637786865</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0933895111084</t>
+    <t xml:space="preserve">24.093391418457</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309597015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5732822418213</t>
+    <t xml:space="preserve">23.9309616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5732803344727</t>
   </si>
   <si>
     <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3854198455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493232727051</t>
+    <t xml:space="preserve">26.3854179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493251800537</t>
   </si>
   <si>
     <t xml:space="preserve">25.735710144043</t>
@@ -3440,22 +3440,22 @@
     <t xml:space="preserve">26.096658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6561336517334</t>
+    <t xml:space="preserve">26.6561317443848</t>
   </si>
   <si>
     <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1614608764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.919454574585</t>
+    <t xml:space="preserve">27.1614627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
   </si>
   <si>
-    <t xml:space="preserve">28.370641708374</t>
+    <t xml:space="preserve">28.3706436157227</t>
   </si>
   <si>
     <t xml:space="preserve">28.316499710083</t>
@@ -3464,16 +3464,16 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6774520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3886890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5691623687744</t>
+    <t xml:space="preserve">28.6233062744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6774482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3886871337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5691661834717</t>
   </si>
   <si>
     <t xml:space="preserve">28.7315921783447</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">29.3271598815918</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1105861663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0744934082031</t>
+    <t xml:space="preserve">29.1105880737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0744953155518</t>
   </si>
   <si>
     <t xml:space="preserve">29.3091106414795</t>
@@ -3497,31 +3497,31 @@
     <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6881103515625</t>
+    <t xml:space="preserve">29.6881084442139</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7676868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.424783706665</t>
+    <t xml:space="preserve">28.7676849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4247856140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.208215713501</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8366069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8005104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">26.8366050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8005123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">29.3813018798828</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1392955780029</t>
+    <t xml:space="preserve">30.1392974853516</t>
   </si>
   <si>
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739128112793</t>
+    <t xml:space="preserve">30.3739147186279</t>
   </si>
   <si>
     <t xml:space="preserve">30.6807193756104</t>
@@ -4674,6 +4674,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.3199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
   </si>
 </sst>
 </file>
@@ -61097,7 +61100,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494444444</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>317724</v>
@@ -61109,7 +61112,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="E2158" t="n">
-        <v>24.0200004577637</v>
+        <v>24.3400001525879</v>
       </c>
       <c r="F2158" t="n">
         <v>24.3199996948242</v>
@@ -61118,6 +61121,32 @@
         <v>1553</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494560185</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>625360</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>24.4200000762939</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>23.8799991607666</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>24.2999992370605</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -44,646 +44,646 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55665016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674789428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26927471160889</t>
+    <t xml:space="preserve">8.79373455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55664920806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674694061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
     <t xml:space="preserve">8.34830093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57101726531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5350980758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47761917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3626708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09684658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
+    <t xml:space="preserve">8.57101917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47762203216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36266994476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09684562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29082679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189449310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422298431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28364086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19024276733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74481010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820724487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073167800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92442083358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.046555519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0896635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471189498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21897983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59975528717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68597030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31238079071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3411169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41295909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043800354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432262420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1615047454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626541137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4416971206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804496765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33067798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1428804397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790367126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16541576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15039253234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286546707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8273811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728677749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906105041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253259658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40296077728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.804847240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94005918502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65460872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910846710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681070327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54193067550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977516174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207149505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475145339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958501815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479887008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451341629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685764312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456035614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719146728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986951828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742950439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953664779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197761535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4705662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9175238609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996387481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757175445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7522611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427490234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700132369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38417959213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812721252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441762924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403829574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736616134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605012893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990196228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219972610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332513809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975971221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956861495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327772140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215230941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074096679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0311222076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0198540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384815216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446599960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695486068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982162475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747644424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766658782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95508432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311847686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799945831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38422298431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28364181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645874023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19024467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325468063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6585955619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665372848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74481058120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461177825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92441892623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966255187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471141815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10403156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898078918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33393287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59975624084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596839904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606899261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043609619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742774963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16150569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626493453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169902801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519390106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24804782867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33067893981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16541576385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15039253234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530500411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69967937469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728677749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3090615272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253211975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216680526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94005966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65460824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46680974960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6020245552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465566635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6170482635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7447509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958406448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451246261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685764312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934650421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456035614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719051361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714500427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986856460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742807388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953664779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197761535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752290725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757223129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245321273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221612930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709806442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427442550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3916916847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690744400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38417959213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5081262588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441762924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403829574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595624923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990148544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92220020294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975971221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971181869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215230941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074096679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112125396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0198540687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1738486289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432279586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446504592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695295333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982210159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0677604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10532188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799850463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053573608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49593830108643</t>
+    <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25555896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091411590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5635461807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57856941223145</t>
+    <t xml:space="preserve">8.25555801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56354522705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57857036590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.69876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76636695861816</t>
+    <t xml:space="preserve">8.76636791229248</t>
   </si>
   <si>
     <t xml:space="preserve">8.77388000488281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7288064956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78890228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75134181976318</t>
+    <t xml:space="preserve">8.72880744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7513427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86402034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660404205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172401428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96918678283691</t>
+    <t xml:space="preserve">8.86402130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87904453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655567169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.9391393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421192169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60110473632812</t>
+    <t xml:space="preserve">8.98421096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60110569000244</t>
   </si>
   <si>
     <t xml:space="preserve">8.51096248626709</t>
@@ -695,40 +695,40 @@
     <t xml:space="preserve">8.61612892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53349781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5410099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73631954193115</t>
+    <t xml:space="preserve">8.53349876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54101085662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73632049560547</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90909290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9616756439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8565092086792</t>
+    <t xml:space="preserve">8.90909099578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96167469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85650825500488</t>
   </si>
   <si>
     <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2611026763916</t>
+    <t xml:space="preserve">9.26110363006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28460884094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38646411895752</t>
+    <t xml:space="preserve">9.2846097946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
     <t xml:space="preserve">9.42564105987549</t>
@@ -737,31 +737,31 @@
     <t xml:space="preserve">9.34728908538818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36295986175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44914627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41780567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481513977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966190338135</t>
+    <t xml:space="preserve">9.36296081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44914531707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41780662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966094970703</t>
   </si>
   <si>
     <t xml:space="preserve">9.53533267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80172538757324</t>
+    <t xml:space="preserve">9.80172824859619</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73120975494385</t>
+    <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.74687957763672</t>
@@ -770,37 +770,37 @@
     <t xml:space="preserve">9.77822017669678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79388999938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69987201690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84873580932617</t>
+    <t xml:space="preserve">9.79389095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69987106323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8487377166748</t>
   </si>
   <si>
     <t xml:space="preserve">9.80956172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71553993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69203567504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6215181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6450252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234310150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584926605225</t>
+    <t xml:space="preserve">9.71553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69203472137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62151908874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64502429962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.55100250244141</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">9.77038669586182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75471591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832130432129</t>
+    <t xml:space="preserve">9.75471496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832225799561</t>
   </si>
   <si>
     <t xml:space="preserve">9.51182746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50399112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37079620361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6371898651123</t>
+    <t xml:space="preserve">9.50399208068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37079524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63718891143799</t>
   </si>
   <si>
     <t xml:space="preserve">9.67636489868164</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">9.8330659866333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0211095809937</t>
+    <t xml:space="preserve">10.0211086273193</t>
   </si>
   <si>
     <t xml:space="preserve">10.1543073654175</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">10.3266792297363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326574325562</t>
+    <t xml:space="preserve">10.3031730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561635971069</t>
@@ -863,100 +863,100 @@
     <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072950363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248239517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953395843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893585205078</t>
+    <t xml:space="preserve">10.1072959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893604278564</t>
   </si>
   <si>
     <t xml:space="preserve">10.4285364151001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912157058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6165781021118</t>
+    <t xml:space="preserve">10.4912147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695657730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6165790557861</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4833812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5068855285645</t>
+    <t xml:space="preserve">10.522557258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4833822250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870956420898</t>
+    <t xml:space="preserve">10.6870946884155</t>
   </si>
   <si>
     <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6557540893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6087436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.593071937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382261276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5460624694824</t>
+    <t xml:space="preserve">10.6557550430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6087427139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5930728912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852394104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382280349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5460634231567</t>
   </si>
   <si>
     <t xml:space="preserve">10.514720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7027654647827</t>
+    <t xml:space="preserve">10.7027635574341</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004978179932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0475082397461</t>
+    <t xml:space="preserve">11.0475091934204</t>
   </si>
   <si>
     <t xml:space="preserve">11.0318393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.063178062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9769926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161695480347</t>
+    <t xml:space="preserve">11.0631799697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.976993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.016170501709</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926624298096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.24338722229</t>
+    <t xml:space="preserve">11.2433881759644</t>
   </si>
   <si>
     <t xml:space="preserve">11.3139028549194</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">11.2120475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941110610962</t>
+    <t xml:space="preserve">11.3765840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">11.7840099334717</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9250421524048</t>
+    <t xml:space="preserve">11.9250411987305</t>
   </si>
   <si>
     <t xml:space="preserve">11.5411205291748</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">11.7291650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605056762695</t>
+    <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
     <t xml:space="preserve">11.9485483169556</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388557434082</t>
+    <t xml:space="preserve">11.8388547897339</t>
   </si>
   <si>
     <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9877233505249</t>
+    <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
     <t xml:space="preserve">11.9642171859741</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">12.0739097595215</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1600952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.246280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227764129639</t>
+    <t xml:space="preserve">12.1600961685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2462825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227773666382</t>
   </si>
   <si>
     <t xml:space="preserve">12.3011274337769</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">12.5126762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5283460617065</t>
+    <t xml:space="preserve">12.5283451080322</t>
   </si>
   <si>
     <t xml:space="preserve">12.5361804962158</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">12.0347337722778</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481388092041</t>
+    <t xml:space="preserve">12.3794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
     <t xml:space="preserve">12.4970045089722</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">12.8025741577148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8574190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5831918716431</t>
+    <t xml:space="preserve">12.8574209213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5831909179688</t>
   </si>
   <si>
     <t xml:space="preserve">12.4813346862793</t>
@@ -1058,37 +1058,37 @@
     <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7633991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772127151489</t>
+    <t xml:space="preserve">12.7634000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772136688232</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089618682861</t>
+    <t xml:space="preserve">12.3089628219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.1130838394165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2697868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660734176636</t>
+    <t xml:space="preserve">12.2697858810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
     <t xml:space="preserve">11.9015369415283</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1679286956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891691207886</t>
+    <t xml:space="preserve">12.1679306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541170120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891710281372</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223678588867</t>
@@ -1100,43 +1100,43 @@
     <t xml:space="preserve">12.5910263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9201011657715</t>
+    <t xml:space="preserve">12.9201021194458</t>
   </si>
   <si>
     <t xml:space="preserve">12.9749460220337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9671106338501</t>
+    <t xml:space="preserve">12.9671115875244</t>
   </si>
   <si>
     <t xml:space="preserve">13.1159791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2256689071655</t>
+    <t xml:space="preserve">13.2256698608398</t>
   </si>
   <si>
     <t xml:space="preserve">13.2805166244507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.202166557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2335071563721</t>
+    <t xml:space="preserve">13.2021656036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2335042953491</t>
   </si>
   <si>
     <t xml:space="preserve">13.2178363800049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1003074645996</t>
+    <t xml:space="preserve">13.1003093719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611324310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786594390869</t>
+    <t xml:space="preserve">13.0611343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786603927612</t>
   </si>
   <si>
     <t xml:space="preserve">12.8417491912842</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">12.2619524002075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2932910919189</t>
+    <t xml:space="preserve">12.2932920455933</t>
   </si>
   <si>
     <t xml:space="preserve">12.3951482772827</t>
@@ -1154,55 +1154,55 @@
     <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6693782806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7320575714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7790679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850471496582</t>
+    <t xml:space="preserve">12.6693773269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7320585250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7790689468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850490570068</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846385955811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2570104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1081457138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3118581771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238145828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3510332107544</t>
+    <t xml:space="preserve">13.2570114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1081438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3118562698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.123815536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.351035118103</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450521469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912454605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277452468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825910568237</t>
+    <t xml:space="preserve">13.4450531005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982618331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277471542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0825929641724</t>
   </si>
   <si>
     <t xml:space="preserve">15.3176460266113</t>
@@ -1211,10 +1211,10 @@
     <t xml:space="preserve">15.2549648284912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9337253570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8553733825684</t>
+    <t xml:space="preserve">14.9337244033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8553714752197</t>
   </si>
   <si>
     <t xml:space="preserve">14.7221784591675</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">14.6751661300659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0669202804565</t>
+    <t xml:space="preserve">15.0669221878052</t>
   </si>
   <si>
     <t xml:space="preserve">15.1844491958618</t>
@@ -1235,163 +1235,163 @@
     <t xml:space="preserve">15.474347114563</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5605344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4351720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172355651855</t>
+    <t xml:space="preserve">15.5605335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4351749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.701566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172336578369</t>
   </si>
   <si>
     <t xml:space="preserve">14.8788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374359130859</t>
+    <t xml:space="preserve">15.0042409896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.090428352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374406814575</t>
   </si>
   <si>
     <t xml:space="preserve">15.2001180648804</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2157897949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3568210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978532791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821834564209</t>
+    <t xml:space="preserve">15.2157907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.356822013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821825027466</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6702270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858949661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.889609336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683717727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269290924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1403312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8867139816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390302658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750919342041</t>
+    <t xml:space="preserve">15.6702260971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896112442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269271850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1403350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8867149353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926950454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390312194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750938415527</t>
   </si>
   <si>
     <t xml:space="preserve">14.6149234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4548473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267860412598</t>
+    <t xml:space="preserve">14.4548454284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267869949341</t>
   </si>
   <si>
     <t xml:space="preserve">14.0306463241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8945837020874</t>
+    <t xml:space="preserve">13.8945827484131</t>
   </si>
   <si>
     <t xml:space="preserve">14.0866737365723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2467479705811</t>
+    <t xml:space="preserve">14.2467489242554</t>
   </si>
   <si>
     <t xml:space="preserve">14.286768913269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907205581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192548751831</t>
+    <t xml:space="preserve">14.254753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348834991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.550892829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907224655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192539215088</t>
   </si>
   <si>
     <t xml:space="preserve">15.5273542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5753765106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152061462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5833797454834</t>
+    <t xml:space="preserve">15.5753774642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713277816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.583381652832</t>
   </si>
   <si>
     <t xml:space="preserve">15.807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6073942184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954374313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471248626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391235351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870506286621</t>
+    <t xml:space="preserve">15.6073951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471277236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391254425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870515823364</t>
   </si>
   <si>
     <t xml:space="preserve">14.9911012649536</t>
@@ -1400,82 +1400,82 @@
     <t xml:space="preserve">14.8630409240723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9991054534912</t>
+    <t xml:space="preserve">14.9991035461426</t>
   </si>
   <si>
     <t xml:space="preserve">15.119161605835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4793329238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6153974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5353593826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6554145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114419937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434577941895</t>
+    <t xml:space="preserve">15.4793319702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6153993606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5353603363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6554164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434568405151</t>
   </si>
   <si>
     <t xml:space="preserve">15.7034387588501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6234006881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113458633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992938995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.463324546814</t>
+    <t xml:space="preserve">15.6234016418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113477706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992948532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4633274078369</t>
   </si>
   <si>
     <t xml:space="preserve">15.49534034729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4233064651489</t>
+    <t xml:space="preserve">15.4233055114746</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672800064087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0711402893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230228424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7269773483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1031551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2392177581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.462851524353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708566665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748083114624</t>
+    <t xml:space="preserve">15.0711393356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7269763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1031541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.239218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.470853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748073577881</t>
   </si>
   <si>
     <t xml:space="preserve">14.5749034881592</t>
@@ -1484,58 +1484,58 @@
     <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107795715332</t>
+    <t xml:space="preserve">14.3107776641846</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468431472778</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3427953720093</t>
+    <t xml:space="preserve">14.342794418335</t>
   </si>
   <si>
     <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2627563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2947721481323</t>
+    <t xml:space="preserve">14.2627573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.294771194458</t>
   </si>
   <si>
     <t xml:space="preserve">14.1266918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6389350891113</t>
+    <t xml:space="preserve">14.1747150421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707605361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.63893699646</t>
   </si>
   <si>
     <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3588018417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.334789276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666156768799</t>
+    <t xml:space="preserve">14.3588027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587076187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666166305542</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.118688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346969604492</t>
+    <t xml:space="preserve">14.1186876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346960067749</t>
   </si>
   <si>
     <t xml:space="preserve">14.0386505126953</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">14.2387466430664</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1106843948364</t>
+    <t xml:space="preserve">14.1106834411621</t>
   </si>
   <si>
     <t xml:space="preserve">13.686484336853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.782527923584</t>
+    <t xml:space="preserve">13.7825288772583</t>
   </si>
   <si>
     <t xml:space="preserve">13.5584239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2862930297852</t>
+    <t xml:space="preserve">13.2862949371338</t>
   </si>
   <si>
     <t xml:space="preserve">13.4863891601562</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667098999023</t>
+    <t xml:space="preserve">14.1667127609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7184982299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.302300453186</t>
+    <t xml:space="preserve">13.7184991836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023023605347</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662378311157</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">13.1262178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.222264289856</t>
+    <t xml:space="preserve">13.2222633361816</t>
   </si>
   <si>
     <t xml:space="preserve">13.1982526779175</t>
@@ -1598,55 +1598,55 @@
     <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8620920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823385238647</t>
+    <t xml:space="preserve">12.8620929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823394775391</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744295120239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.598443031311</t>
+    <t xml:space="preserve">13.5184020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023975372314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5664291381836</t>
+    <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
     <t xml:space="preserve">13.5264072418213</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1742391586304</t>
+    <t xml:space="preserve">13.174241065979</t>
   </si>
   <si>
     <t xml:space="preserve">13.1502294540405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8781003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422252655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8540878295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7340316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661417007446</t>
+    <t xml:space="preserve">12.9741449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.878101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422262191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8540887832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7340326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661436080933</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140697479248</t>
@@ -1661,28 +1661,28 @@
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.485915184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.27028465271</t>
+    <t xml:space="preserve">12.4859161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.573956489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2702875137329</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5424146652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785753250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104940414429</t>
+    <t xml:space="preserve">13.5424156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104949951172</t>
   </si>
   <si>
     <t xml:space="preserve">13.3183088302612</t>
@@ -1691,37 +1691,37 @@
     <t xml:space="preserve">13.2062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3103036880493</t>
+    <t xml:space="preserve">13.3103046417236</t>
   </si>
   <si>
     <t xml:space="preserve">13.6064462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.774525642395</t>
+    <t xml:space="preserve">13.7745246887207</t>
   </si>
   <si>
     <t xml:space="preserve">13.5824337005615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6624717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145437240601</t>
+    <t xml:space="preserve">13.6624708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145446777344</t>
   </si>
   <si>
     <t xml:space="preserve">13.950608253479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6704759597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8625659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665243148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986295700073</t>
+    <t xml:space="preserve">13.6704750061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862566947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665233612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986324310303</t>
   </si>
   <si>
     <t xml:space="preserve">13.990626335144</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">13.7985353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103979110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7905321121216</t>
+    <t xml:space="preserve">13.5103988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7905330657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826231002808</t>
@@ -1748,43 +1748,43 @@
     <t xml:space="preserve">13.6784791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6224527359009</t>
+    <t xml:space="preserve">13.6224536895752</t>
   </si>
   <si>
     <t xml:space="preserve">13.646463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9586133956909</t>
+    <t xml:space="preserve">13.9586124420166</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265024185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8705720901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0786685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384611129761</t>
+    <t xml:space="preserve">13.7265014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8705701828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.078670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384630203247</t>
   </si>
   <si>
     <t xml:space="preserve">13.430362701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383659362793</t>
+    <t xml:space="preserve">13.438364982605</t>
   </si>
   <si>
     <t xml:space="preserve">13.3743343353271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063510894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462759017944</t>
+    <t xml:space="preserve">13.4063520431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462749481201</t>
   </si>
   <si>
     <t xml:space="preserve">13.0301733016968</t>
@@ -1793,31 +1793,31 @@
     <t xml:space="preserve">12.9581394195557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.742036819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3983478546143</t>
+    <t xml:space="preserve">12.7420358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3983469009399</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0381765365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9021129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9101152420044</t>
+    <t xml:space="preserve">13.4943933486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0381774902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9021120071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9101161956787</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901533126831</t>
+    <t xml:space="preserve">12.9901542663574</t>
   </si>
   <si>
     <t xml:space="preserve">12.870096206665</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">12.998158454895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0221700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0665874481201</t>
+    <t xml:space="preserve">13.0221681594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665903091431</t>
   </si>
   <si>
     <t xml:space="preserve">14.2340497970581</t>
@@ -1844,79 +1844,79 @@
     <t xml:space="preserve">14.3931360244751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4098815917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950372695923</t>
+    <t xml:space="preserve">14.4098806381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7699184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.795036315918</t>
   </si>
   <si>
     <t xml:space="preserve">14.6694440841675</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5522212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5354776382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773401260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187301635742</t>
+    <t xml:space="preserve">14.5522193908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5354766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773420333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
   </si>
   <si>
     <t xml:space="preserve">14.4349994659424</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4601182937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071346282959</t>
+    <t xml:space="preserve">14.4601192474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708690643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713481903076</t>
   </si>
   <si>
     <t xml:space="preserve">15.3560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3141632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4481287002563</t>
+    <t xml:space="preserve">15.3141641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4481296539307</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318593978882</t>
+    <t xml:space="preserve">15.5318574905396</t>
   </si>
   <si>
     <t xml:space="preserve">15.0043621063232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9038858413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806711196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569763183594</t>
+    <t xml:space="preserve">14.9876165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9038867950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569801330566</t>
   </si>
   <si>
     <t xml:space="preserve">15.4648742675781</t>
@@ -1925,88 +1925,88 @@
     <t xml:space="preserve">15.2555513381958</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4816226959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923734664917</t>
+    <t xml:space="preserve">15.4816236495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.992374420166</t>
   </si>
   <si>
     <t xml:space="preserve">15.9756269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8667793273926</t>
+    <t xml:space="preserve">15.8667783737183</t>
   </si>
   <si>
     <t xml:space="preserve">15.8165397644043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328109741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983701705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215829849243</t>
+    <t xml:space="preserve">15.7830486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12158203125</t>
   </si>
   <si>
     <t xml:space="preserve">15.1634492874146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0462265014648</t>
+    <t xml:space="preserve">15.0462255477905</t>
   </si>
   <si>
     <t xml:space="preserve">15.079719543457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8452739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8787679672241</t>
+    <t xml:space="preserve">14.8452758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8787660598755</t>
   </si>
   <si>
     <t xml:space="preserve">14.4015102386475</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6778173446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0294828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1299571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4266262054443</t>
+    <t xml:space="preserve">14.6778163909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0294818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4266271591187</t>
   </si>
   <si>
     <t xml:space="preserve">14.3596429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4684934616089</t>
+    <t xml:space="preserve">14.4684915542603</t>
   </si>
   <si>
     <t xml:space="preserve">14.3094053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">14.150318145752</t>
+    <t xml:space="preserve">14.1503190994263</t>
   </si>
   <si>
     <t xml:space="preserve">14.6275777816772</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7196807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526975631714</t>
+    <t xml:space="preserve">14.7196798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526985168457</t>
   </si>
   <si>
     <t xml:space="preserve">14.3512706756592</t>
@@ -2015,64 +2015,64 @@
     <t xml:space="preserve">14.5940866470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6024608612061</t>
+    <t xml:space="preserve">14.6024599075317</t>
   </si>
   <si>
     <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7448015213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9122581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383323669434</t>
+    <t xml:space="preserve">14.7448024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.912260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">15.3309078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5151138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629720687866</t>
+    <t xml:space="preserve">15.515115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964651107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629730224609</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397573471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500318527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.724437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993179321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9002714157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988416671753</t>
+    <t xml:space="preserve">15.4397583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500337600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993188858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6072158813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9002695083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988435745239</t>
   </si>
   <si>
     <t xml:space="preserve">15.6490812301636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5486040115356</t>
+    <t xml:space="preserve">15.54860496521</t>
   </si>
   <si>
     <t xml:space="preserve">15.4899950027466</t>
@@ -2090,40 +2090,40 @@
     <t xml:space="preserve">15.2722978591919</t>
   </si>
   <si>
-    <t xml:space="preserve">15.021107673645</t>
+    <t xml:space="preserve">15.0211086273193</t>
   </si>
   <si>
     <t xml:space="preserve">14.92063331604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471780776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.230432510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1801910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969385147095</t>
+    <t xml:space="preserve">15.1048402786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132106781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2304344177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1801948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969404220581</t>
   </si>
   <si>
     <t xml:space="preserve">15.3057889938354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8835248947144</t>
+    <t xml:space="preserve">15.88352394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.8249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3811454772949</t>
+    <t xml:space="preserve">15.3811464309692</t>
   </si>
   <si>
     <t xml:space="preserve">15.1718215942383</t>
@@ -2135,40 +2135,40 @@
     <t xml:space="preserve">15.2220592498779</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5067415237427</t>
+    <t xml:space="preserve">15.5067405700684</t>
   </si>
   <si>
     <t xml:space="preserve">15.9672536849976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6825733184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337615966797</t>
+    <t xml:space="preserve">15.6825723648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732484817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337635040283</t>
   </si>
   <si>
     <t xml:space="preserve">16.3942756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.796178817749</t>
+    <t xml:space="preserve">16.7961750030518</t>
   </si>
   <si>
     <t xml:space="preserve">16.637092590332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2016983032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2435626983643</t>
+    <t xml:space="preserve">16.201696395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2435607910156</t>
   </si>
   <si>
     <t xml:space="preserve">16.519868850708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1179656982422</t>
+    <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
     <t xml:space="preserve">16.042610168457</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0258636474609</t>
+    <t xml:space="preserve">16.0258617401123</t>
   </si>
   <si>
     <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765785217285</t>
+    <t xml:space="preserve">16.1765804290771</t>
   </si>
   <si>
     <t xml:space="preserve">16.2100696563721</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">16.670581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.628719329834</t>
+    <t xml:space="preserve">16.6287174224854</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440361022949</t>
+    <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928478240967</t>
@@ -2210,22 +2210,22 @@
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3021697998047</t>
+    <t xml:space="preserve">16.3021717071533</t>
   </si>
   <si>
     <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6957015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645889282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.482759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2483177185059</t>
+    <t xml:space="preserve">16.6957035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.164587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4827613830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2483196258545</t>
   </si>
   <si>
     <t xml:space="preserve">17.5329990386963</t>
@@ -2246,16 +2246,16 @@
     <t xml:space="preserve">17.9516487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6669654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8846645355225</t>
+    <t xml:space="preserve">17.6669673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8846664428711</t>
   </si>
   <si>
     <t xml:space="preserve">18.2028350830078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.867919921875</t>
+    <t xml:space="preserve">17.8679161071777</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2273,28 +2273,28 @@
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540252685547</t>
+    <t xml:space="preserve">18.4540271759033</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9229106903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2410869598389</t>
+    <t xml:space="preserve">18.9229125976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2410831451416</t>
   </si>
   <si>
     <t xml:space="preserve">19.1908473968506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3248138427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4420375823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3583068847656</t>
+    <t xml:space="preserve">19.3248157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4420356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3583087921143</t>
   </si>
   <si>
     <t xml:space="preserve">19.2745761871338</t>
@@ -2306,25 +2306,25 @@
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387046813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3368034362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4660148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7819080352783</t>
+    <t xml:space="preserve">18.7387065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3368053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4660167694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210094451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8226346969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7819089889526</t>
   </si>
   <si>
     <t xml:space="preserve">12.5175895690918</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">12.2998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3082647323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.023585319519</t>
+    <t xml:space="preserve">12.3082666397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0235843658447</t>
   </si>
   <si>
     <t xml:space="preserve">11.6300554275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1156883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7269144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687788009644</t>
+    <t xml:space="preserve">12.1156873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7269134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687797546387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144495010376</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">13.1455631256104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8859996795654</t>
+    <t xml:space="preserve">12.8860015869141</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563138961792</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9912328720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591676712036</t>
+    <t xml:space="preserve">13.4386157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.991231918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917081832886</t>
@@ -2381,46 +2381,46 @@
     <t xml:space="preserve">13.89075756073</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1921863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424211502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656377792358</t>
+    <t xml:space="preserve">14.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424230575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656368255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8321475982666</t>
+    <t xml:space="preserve">14.0247259140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8321466445923</t>
   </si>
   <si>
     <t xml:space="preserve">14.1419448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.217303276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926597595215</t>
+    <t xml:space="preserve">14.2173023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926588058472</t>
   </si>
   <si>
     <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6898059844971</t>
+    <t xml:space="preserve">13.6898069381714</t>
   </si>
   <si>
     <t xml:space="preserve">13.7986545562744</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9493684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9828615188599</t>
+    <t xml:space="preserve">13.9493675231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">14.4182538986206</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5103578567505</t>
+    <t xml:space="preserve">14.5103569030762</t>
   </si>
   <si>
     <t xml:space="preserve">15.0354614257812</t>
@@ -2444,22 +2444,22 @@
     <t xml:space="preserve">15.1317300796509</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1229791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281377792358</t>
+    <t xml:space="preserve">15.1229782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281358718872</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0658588409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3721733093262</t>
+    <t xml:space="preserve">16.1906890869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.065860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
     <t xml:space="preserve">17.4684371948242</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357357025146</t>
+    <t xml:space="preserve">16.4357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">16.2431964874268</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">16.1031703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1731834411621</t>
+    <t xml:space="preserve">16.1731853485107</t>
   </si>
   <si>
     <t xml:space="preserve">16.7595500946045</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460529327393</t>
+    <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735958099365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8535137176514</t>
+    <t xml:space="preserve">17.853515625</t>
   </si>
   <si>
     <t xml:space="preserve">17.941032409668</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162040710449</t>
+    <t xml:space="preserve">18.8162059783936</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4486331939697</t>
+    <t xml:space="preserve">18.4486312866211</t>
   </si>
   <si>
     <t xml:space="preserve">18.3786201477051</t>
@@ -2567,16 +2567,16 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.80100440979</t>
+    <t xml:space="preserve">17.8010025024414</t>
   </si>
   <si>
     <t xml:space="preserve">17.8885231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8360080718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.730993270874</t>
+    <t xml:space="preserve">17.8360118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7309913635254</t>
   </si>
   <si>
     <t xml:space="preserve">18.0110454559326</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">18.5011425018311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8862171173096</t>
+    <t xml:space="preserve">18.8862190246582</t>
   </si>
   <si>
     <t xml:space="preserve">18.9737358093262</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">19.0437488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1487712860107</t>
+    <t xml:space="preserve">19.1487693786621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4988403320312</t>
@@ -2612,34 +2612,34 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787563323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1312694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.586353302002</t>
+    <t xml:space="preserve">19.0787544250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1312675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5863552093506</t>
   </si>
   <si>
     <t xml:space="preserve">19.4638328552246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3413105010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3938179016113</t>
+    <t xml:space="preserve">19.34130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3938159942627</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113216400146</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2537899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1137638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562320709229</t>
+    <t xml:space="preserve">19.253791809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1137657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562339782715</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061630249023</t>
+    <t xml:space="preserve">18.6061611175537</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611164093018</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4136257171631</t>
+    <t xml:space="preserve">18.4136238098145</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
@@ -2675,22 +2675,22 @@
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664131164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4463272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7438869476318</t>
+    <t xml:space="preserve">19.8664112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4463291168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7438850402832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8489074707031</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4813365936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2012825012207</t>
+    <t xml:space="preserve">19.4813346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
     <t xml:space="preserve">18.9912395477295</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">19.1662731170654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7636966705322</t>
+    <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
     <t xml:space="preserve">19.0087413787842</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.240894317627</t>
+    <t xml:space="preserve">17.2408962249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.8820743560791</t>
@@ -2720,19 +2720,19 @@
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0810604095459</t>
+    <t xml:space="preserve">17.5034465789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0810585021973</t>
   </si>
   <si>
     <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0635566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2210865020752</t>
+    <t xml:space="preserve">18.0635547637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2210884094238</t>
   </si>
   <si>
     <t xml:space="preserve">18.1685791015625</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">17.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6784820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8710174560547</t>
+    <t xml:space="preserve">17.9060249328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6784801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
     <t xml:space="preserve">17.765998840332</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1335716247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1860790252686</t>
+    <t xml:space="preserve">18.1335697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1860809326172</t>
   </si>
   <si>
     <t xml:space="preserve">18.5711574554443</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">19.9714317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2864933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316799163818</t>
+    <t xml:space="preserve">20.2864952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316818237305</t>
   </si>
   <si>
     <t xml:space="preserve">21.1266574859619</t>
   </si>
   <si>
-    <t xml:space="preserve">21.704273223877</t>
+    <t xml:space="preserve">21.7042713165283</t>
   </si>
   <si>
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8793087005615</t>
+    <t xml:space="preserve">21.9143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8793067932129</t>
   </si>
   <si>
     <t xml:space="preserve">22.0368404388428</t>
@@ -2810,10 +2810,10 @@
     <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9318161010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.229377746582</t>
+    <t xml:space="preserve">21.9318180084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2293758392334</t>
   </si>
   <si>
     <t xml:space="preserve">22.4219169616699</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">22.9470176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4721202850342</t>
+    <t xml:space="preserve">23.4721183776855</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2843,34 +2843,34 @@
     <t xml:space="preserve">22.5444374084473</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8595008850098</t>
+    <t xml:space="preserve">22.8594989776611</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.174560546875</t>
+    <t xml:space="preserve">23.1745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1220531463623</t>
+    <t xml:space="preserve">23.1220512390137</t>
   </si>
   <si>
     <t xml:space="preserve">23.4546165466309</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7742862701416</t>
+    <t xml:space="preserve">22.7894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9493236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919281005859</t>
@@ -2882,19 +2882,19 @@
     <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7590847015381</t>
+    <t xml:space="preserve">20.7590866088867</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4615287780762</t>
+    <t xml:space="preserve">20.4615268707275</t>
   </si>
   <si>
     <t xml:space="preserve">20.041446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4592247009277</t>
+    <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
     <t xml:space="preserve">22.4394187927246</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.26438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5969505310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.31689453125</t>
+    <t xml:space="preserve">22.2643852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5969486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3168926239014</t>
   </si>
   <si>
     <t xml:space="preserve">22.2468814849854</t>
@@ -2939,13 +2939,13 @@
     <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3343982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1068515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7217769622803</t>
+    <t xml:space="preserve">22.3343963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1068534851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7217750549316</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
@@ -2954,16 +2954,16 @@
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841930389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3869094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8267974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4942302703857</t>
+    <t xml:space="preserve">21.2841911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3869075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8267993927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4942321777344</t>
   </si>
   <si>
     <t xml:space="preserve">21.5992527008057</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">21.5817489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3016929626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2491855621338</t>
+    <t xml:space="preserve">21.3016948699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
     <t xml:space="preserve">21.4767303466797</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">20.3915138244629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.916618347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0391426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5954494476318</t>
+    <t xml:space="preserve">20.9166164398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0391445159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
     <t xml:space="preserve">22.5774002075195</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">22.4691143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4149742126465</t>
+    <t xml:space="preserve">22.4149723052979</t>
   </si>
   <si>
     <t xml:space="preserve">22.6856861114502</t>
@@ -3017,28 +3017,28 @@
     <t xml:space="preserve">22.7398281097412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8661613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8842086791992</t>
+    <t xml:space="preserve">22.8661594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8842067718506</t>
   </si>
   <si>
     <t xml:space="preserve">22.5593528747559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8300628662109</t>
+    <t xml:space="preserve">22.8300647735596</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2632064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3534412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3173484802246</t>
+    <t xml:space="preserve">23.263204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.353443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
@@ -3047,40 +3047,40 @@
     <t xml:space="preserve">22.9203014373779</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0105400085449</t>
+    <t xml:space="preserve">23.0105381011963</t>
   </si>
   <si>
     <t xml:space="preserve">22.6134948730469</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7037315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3895359039307</t>
+    <t xml:space="preserve">22.7037334442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9383506774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3895378112793</t>
   </si>
   <si>
     <t xml:space="preserve">23.0646820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">23.28125</t>
+    <t xml:space="preserve">23.2812519073486</t>
   </si>
   <si>
     <t xml:space="preserve">22.6315422058105</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0540237426758</t>
+    <t xml:space="preserve">22.0540218353271</t>
   </si>
   <si>
     <t xml:space="preserve">22.0901184082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1081638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9744434356689</t>
+    <t xml:space="preserve">22.1081657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9744453430176</t>
   </si>
   <si>
     <t xml:space="preserve">23.2451572418213</t>
@@ -3089,34 +3089,34 @@
     <t xml:space="preserve">23.425630569458</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5339183807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7865829467773</t>
+    <t xml:space="preserve">23.5339164733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
     <t xml:space="preserve">23.570011138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9457378387451</t>
+    <t xml:space="preserve">21.9457397460938</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5052108764648</t>
+    <t xml:space="preserve">22.5052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969249725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8120193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466365814209</t>
+    <t xml:space="preserve">22.3969268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8120174407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466346740723</t>
   </si>
   <si>
     <t xml:space="preserve">22.5413055419922</t>
@@ -3137,19 +3137,19 @@
     <t xml:space="preserve">23.2090606689453</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1368732452393</t>
+    <t xml:space="preserve">23.1368713378906</t>
   </si>
   <si>
     <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1729679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.02858543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6495895385742</t>
+    <t xml:space="preserve">23.172966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0285873413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6495914459229</t>
   </si>
   <si>
     <t xml:space="preserve">23.1910152435303</t>
@@ -3158,16 +3158,16 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.461727142334</t>
+    <t xml:space="preserve">23.4617252349854</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8046283721924</t>
+    <t xml:space="preserve">23.2992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.804630279541</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
@@ -3179,19 +3179,19 @@
     <t xml:space="preserve">23.8948669433594</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9851055145264</t>
+    <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
     <t xml:space="preserve">24.0572948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5265293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1581916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8333358764648</t>
+    <t xml:space="preserve">24.5265274047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1581897735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8333339691162</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">25.3206157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6922264099121</t>
+    <t xml:space="preserve">26.6922245025635</t>
   </si>
   <si>
     <t xml:space="preserve">26.9629383087158</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">27.3419342041016</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2877941131592</t>
+    <t xml:space="preserve">27.2877922058105</t>
   </si>
   <si>
     <t xml:space="preserve">27.7028865814209</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">28.15407371521</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1721172332764</t>
+    <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
     <t xml:space="preserve">28.3345470428467</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">28.2443084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4863147735596</t>
+    <t xml:space="preserve">27.4863128662109</t>
   </si>
   <si>
     <t xml:space="preserve">28.2804050445557</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9014053344727</t>
+    <t xml:space="preserve">27.9014072418213</t>
   </si>
   <si>
     <t xml:space="preserve">27.8472652435303</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">26.5839405059814</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2590866088867</t>
+    <t xml:space="preserve">26.2590885162354</t>
   </si>
   <si>
     <t xml:space="preserve">26.2951812744141</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.591329574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7537574768066</t>
+    <t xml:space="preserve">25.5913314819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7537593841553</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">25.8620414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9235725402832</t>
+    <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
     <t xml:space="preserve">24.8694286346436</t>
@@ -3353,10 +3353,10 @@
     <t xml:space="preserve">23.9670562744141</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549186706543</t>
+    <t xml:space="preserve">23.606107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549205780029</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">23.118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.479772567749</t>
+    <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.4330196380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9022541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510669708252</t>
+    <t xml:space="preserve">22.9022560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510688781738</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3383,55 +3383,55 @@
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217807769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1442623138428</t>
+    <t xml:space="preserve">22.7217788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652626037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1442604064941</t>
   </si>
   <si>
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4765033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3140773773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9490089416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.501091003418</t>
+    <t xml:space="preserve">21.4765014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3140754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.949010848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
     <t xml:space="preserve">24.9957637786865</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0933895111084</t>
+    <t xml:space="preserve">24.093391418457</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309597015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5732822418213</t>
+    <t xml:space="preserve">23.9309616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5732803344727</t>
   </si>
   <si>
     <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3854198455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493232727051</t>
+    <t xml:space="preserve">26.3854179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493251800537</t>
   </si>
   <si>
     <t xml:space="preserve">25.735710144043</t>
@@ -3446,22 +3446,22 @@
     <t xml:space="preserve">26.096658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6561336517334</t>
+    <t xml:space="preserve">26.6561317443848</t>
   </si>
   <si>
     <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1614608764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.919454574585</t>
+    <t xml:space="preserve">27.1614627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
   </si>
   <si>
-    <t xml:space="preserve">28.370641708374</t>
+    <t xml:space="preserve">28.3706436157227</t>
   </si>
   <si>
     <t xml:space="preserve">28.316499710083</t>
@@ -3470,16 +3470,16 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233043670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6774520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3886890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5691623687744</t>
+    <t xml:space="preserve">28.6233062744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6774482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3886871337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5691661834717</t>
   </si>
   <si>
     <t xml:space="preserve">28.7315921783447</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">29.3271598815918</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1105861663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0744934082031</t>
+    <t xml:space="preserve">29.1105880737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0744953155518</t>
   </si>
   <si>
     <t xml:space="preserve">29.3091106414795</t>
@@ -3503,31 +3503,31 @@
     <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6881103515625</t>
+    <t xml:space="preserve">29.6881084442139</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7676868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.424783706665</t>
+    <t xml:space="preserve">28.7676849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4247856140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.208215713501</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8366069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8005104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">26.8366050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8005123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">29.3813018798828</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1392955780029</t>
+    <t xml:space="preserve">30.1392974853516</t>
   </si>
   <si>
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739128112793</t>
+    <t xml:space="preserve">30.3739147186279</t>
   </si>
   <si>
     <t xml:space="preserve">30.6807193756104</t>
@@ -61216,7 +61216,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6511458333</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>411425</v>
@@ -61237,6 +61237,32 @@
         <v>1558</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6495717593</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>361572</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>23.6599998474121</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>23.2399997711182</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>23.6000003814697</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>23.4400005340576</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1561">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,133 +38,133 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85121059417725</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373359680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55665016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674789428711</t>
+    <t xml:space="preserve">8.79373455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55664920806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674884796143</t>
   </si>
   <si>
     <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34830188751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53509616851807</t>
+    <t xml:space="preserve">8.34830093383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57101917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509521484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.47762107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3626708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09684658050537</t>
+    <t xml:space="preserve">8.36266994476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09684753417969</t>
   </si>
   <si>
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98189544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247566223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053573608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38422393798828</t>
+    <t xml:space="preserve">7.9818959236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053478240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422298431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.28364181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208686828613</t>
+    <t xml:space="preserve">8.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
   </si>
   <si>
     <t xml:space="preserve">8.19024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11121559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859651565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820676803589</t>
+    <t xml:space="preserve">8.11121463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325658798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665372848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480867385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820629119873</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500247955322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073072433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92442178726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878984451294</t>
+    <t xml:space="preserve">7.78073215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92442035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878841400146</t>
   </si>
   <si>
     <t xml:space="preserve">8.046555519104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17587566375732</t>
+    <t xml:space="preserve">8.17587471008301</t>
   </si>
   <si>
     <t xml:space="preserve">8.08966255187988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07529258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160629272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9747109413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10403156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11840057373047</t>
+    <t xml:space="preserve">8.07529354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471189498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402965545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11839866638184</t>
   </si>
   <si>
     <t xml:space="preserve">8.21898078918457</t>
@@ -173,22 +173,22 @@
     <t xml:space="preserve">8.33393287658691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59975624084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033645629883</t>
+    <t xml:space="preserve">8.59975528717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033740997314</t>
   </si>
   <si>
     <t xml:space="preserve">8.68596935272217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59257125854492</t>
+    <t xml:space="preserve">8.59257221221924</t>
   </si>
   <si>
     <t xml:space="preserve">8.54228115081787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40577602386475</t>
+    <t xml:space="preserve">8.40577793121338</t>
   </si>
   <si>
     <t xml:space="preserve">8.31237888336182</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">8.36985397338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34111595153809</t>
+    <t xml:space="preserve">8.3411169052124</t>
   </si>
   <si>
     <t xml:space="preserve">8.49917507171631</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">8.54946517944336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45606899261475</t>
+    <t xml:space="preserve">8.45606803894043</t>
   </si>
   <si>
     <t xml:space="preserve">8.41296100616455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47043609619141</t>
+    <t xml:space="preserve">8.47043800354004</t>
   </si>
   <si>
     <t xml:space="preserve">8.22616577148438</t>
@@ -230,52 +230,52 @@
     <t xml:space="preserve">8.23335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03218555450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626445770264</t>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626398086548</t>
   </si>
   <si>
     <t xml:space="preserve">8.44169807434082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30519390106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527446746826</t>
+    <t xml:space="preserve">8.30519580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527351379395</t>
   </si>
   <si>
     <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24804782867432</t>
+    <t xml:space="preserve">8.24804592132568</t>
   </si>
   <si>
     <t xml:space="preserve">8.18795108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28560733795166</t>
+    <t xml:space="preserve">8.28560543060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.3306770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23302268981934</t>
+    <t xml:space="preserve">8.23302173614502</t>
   </si>
   <si>
     <t xml:space="preserve">8.18043994903564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1428804397583</t>
+    <t xml:space="preserve">8.14288139343262</t>
   </si>
   <si>
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1654167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048831939697</t>
+    <t xml:space="preserve">8.16541576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048736572266</t>
   </si>
   <si>
     <t xml:space="preserve">8.15039253234863</t>
@@ -284,31 +284,31 @@
     <t xml:space="preserve">8.01517868041992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73723888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178651809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
+    <t xml:space="preserve">7.73723936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188135147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4517879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530595779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286451339722</t>
   </si>
   <si>
     <t xml:space="preserve">7.84991598129272</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82738208770752</t>
+    <t xml:space="preserve">7.82737970352173</t>
   </si>
   <si>
     <t xml:space="preserve">7.69967937469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76728582382202</t>
+    <t xml:space="preserve">7.76728630065918</t>
   </si>
   <si>
     <t xml:space="preserve">7.30906009674072</t>
@@ -317,52 +317,52 @@
     <t xml:space="preserve">7.13253211975098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4029598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216871261597</t>
+    <t xml:space="preserve">7.40296030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944324493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
   </si>
   <si>
     <t xml:space="preserve">7.80484628677368</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94005823135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65460777282715</t>
+    <t xml:space="preserve">7.94005966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65460681915283</t>
   </si>
   <si>
     <t xml:space="preserve">7.33910942077637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46681118011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57949018478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54193019866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
+    <t xml:space="preserve">7.46681070327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202407836914</t>
   </si>
   <si>
     <t xml:space="preserve">7.75977468490601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68465566635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6170482635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6621208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207197189331</t>
+    <t xml:space="preserve">7.684654712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207340240479</t>
   </si>
   <si>
     <t xml:space="preserve">7.7447509765625</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">7.63958406448364</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77479839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451293945312</t>
+    <t xml:space="preserve">7.77479887008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451246261597</t>
   </si>
   <si>
     <t xml:space="preserve">7.49685764312744</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">7.48934698104858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62455892562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719146728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714262008667</t>
+    <t xml:space="preserve">7.62456035614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719194412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
   </si>
   <si>
     <t xml:space="preserve">7.81986904144287</t>
@@ -398,91 +398,91 @@
     <t xml:space="preserve">7.85742902755737</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60953664779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5719780921936</t>
+    <t xml:space="preserve">7.60953712463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197618484497</t>
   </si>
   <si>
     <t xml:space="preserve">7.50436973571777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47807931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752338409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001129150391</t>
+    <t xml:space="preserve">7.4780797958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4705662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752481460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996435165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001224517822</t>
   </si>
   <si>
     <t xml:space="preserve">7.94757223129272</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09029769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235837936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8724536895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470355987549</t>
+    <t xml:space="preserve">8.09029674530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245225906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
   </si>
   <si>
     <t xml:space="preserve">7.7222146987915</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66963195800781</t>
+    <t xml:space="preserve">7.66963148117065</t>
   </si>
   <si>
     <t xml:space="preserve">7.64709615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44427490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3916916847229</t>
+    <t xml:space="preserve">7.44427537918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169120788574</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939535140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38417959213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652620315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5081262588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441667556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403734207153</t>
+    <t xml:space="preserve">7.52690696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812578201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441762924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403924942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.9259557723999</t>
@@ -491,31 +491,31 @@
     <t xml:space="preserve">7.02736568450928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990196228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92220020294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332418441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849157333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971229553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956909179688</t>
+    <t xml:space="preserve">6.98605012893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97102689743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990148544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219972610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332513809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9597601890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971181869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956861495972</t>
   </si>
   <si>
     <t xml:space="preserve">6.81327724456787</t>
@@ -524,88 +524,88 @@
     <t xml:space="preserve">6.89215230941772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83581304550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074048995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112077713013</t>
+    <t xml:space="preserve">6.83581352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449701309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074144363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341997146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112173080444</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717554092407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384815216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638204574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432374954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446504592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695343017578</t>
+    <t xml:space="preserve">7.01985359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0160984992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384719848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5569543838501</t>
   </si>
   <si>
     <t xml:space="preserve">7.78982257843018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78230953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747644424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98512983322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761869430542</t>
+    <t xml:space="preserve">7.782310962677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733371734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761917114258</t>
   </si>
   <si>
     <t xml:space="preserve">8.04522514343262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06776237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10531997680664</t>
+    <t xml:space="preserve">8.06776142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532093048096</t>
   </si>
   <si>
     <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9550838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799850463867</t>
+    <t xml:space="preserve">7.95508289337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311847686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297622680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799945831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.49593925476074</t>
@@ -614,16 +614,16 @@
     <t xml:space="preserve">8.26307106018066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25555896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091602325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56354427337646</t>
+    <t xml:space="preserve">8.25555801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56354522705078</t>
   </si>
   <si>
     <t xml:space="preserve">8.57857036590576</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">8.69876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76636695861816</t>
+    <t xml:space="preserve">8.76636791229248</t>
   </si>
   <si>
     <t xml:space="preserve">8.7738790512085</t>
@@ -641,46 +641,46 @@
     <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75134181976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86402130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87904453277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655757904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660499572754</t>
+    <t xml:space="preserve">8.78890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86402034759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8790454864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660404205322</t>
   </si>
   <si>
     <t xml:space="preserve">8.99172401428223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9691858291626</t>
+    <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.93914031982422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421096801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406967163086</t>
+    <t xml:space="preserve">8.98421192169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406776428223</t>
   </si>
   <si>
     <t xml:space="preserve">8.71378421783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60110473632812</t>
+    <t xml:space="preserve">8.60110569000244</t>
   </si>
   <si>
     <t xml:space="preserve">8.51096248626709</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61612987518311</t>
+    <t xml:space="preserve">8.61612892150879</t>
   </si>
   <si>
     <t xml:space="preserve">8.53349781036377</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">8.5410099029541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631858825684</t>
+    <t xml:space="preserve">8.73631954193115</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8565092086792</t>
+    <t xml:space="preserve">8.85651016235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26110363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30811500549316</t>
+    <t xml:space="preserve">9.26110458374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30811309814453</t>
   </si>
   <si>
     <t xml:space="preserve">9.28460884094238</t>
@@ -728,31 +728,31 @@
     <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4256420135498</t>
+    <t xml:space="preserve">9.42564105987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.3472900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36295890808105</t>
+    <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914627075195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41780567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966190338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533172607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
+    <t xml:space="preserve">9.41780662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172538757324</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
@@ -761,25 +761,25 @@
     <t xml:space="preserve">9.73120975494385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74687957763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77821922302246</t>
+    <t xml:space="preserve">9.74688053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">9.79389095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69987010955811</t>
+    <t xml:space="preserve">9.69987106323242</t>
   </si>
   <si>
     <t xml:space="preserve">9.84873676300049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80956268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553993225098</t>
+    <t xml:space="preserve">9.80956077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">9.59801292419434</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">9.69203472137451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6215181350708</t>
+    <t xml:space="preserve">9.62151908874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.64502334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58234310150146</t>
+    <t xml:space="preserve">9.58234214782715</t>
   </si>
   <si>
     <t xml:space="preserve">9.60584831237793</t>
@@ -803,40 +803,40 @@
     <t xml:space="preserve">9.55100154876709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55883693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77038669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75471591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399208068848</t>
+    <t xml:space="preserve">9.558837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72337436676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75471496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399303436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63718891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636394500732</t>
+    <t xml:space="preserve">9.63718795776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636585235596</t>
   </si>
   <si>
     <t xml:space="preserve">9.7077054977417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8330659866333</t>
+    <t xml:space="preserve">9.83306694030762</t>
   </si>
   <si>
     <t xml:space="preserve">10.0211095809937</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">10.1543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3266792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031730651855</t>
+    <t xml:space="preserve">10.326678276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031740188599</t>
   </si>
   <si>
     <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2561635971069</t>
+    <t xml:space="preserve">10.2561616897583</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621408462524</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248220443726</t>
+    <t xml:space="preserve">10.2248229980469</t>
   </si>
   <si>
     <t xml:space="preserve">10.2953386306763</t>
@@ -875,34 +875,34 @@
     <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912147521973</t>
+    <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695676803589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165790557861</t>
+    <t xml:space="preserve">10.6165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225563049316</t>
+    <t xml:space="preserve">10.522557258606</t>
   </si>
   <si>
     <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5068855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6635885238647</t>
+    <t xml:space="preserve">10.5068864822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6635875701904</t>
   </si>
   <si>
     <t xml:space="preserve">10.6870946884155</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6479177474976</t>
+    <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
     <t xml:space="preserve">10.6557540893555</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">10.5930728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852384567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382270812988</t>
+    <t xml:space="preserve">10.5852375030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382261276245</t>
   </si>
   <si>
     <t xml:space="preserve">10.5460624694824</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">10.5147228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7027654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0004987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0475091934204</t>
+    <t xml:space="preserve">10.7027645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0004978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0475101470947</t>
   </si>
   <si>
     <t xml:space="preserve">11.0318393707275</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0161695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9926624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.24338722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3139038085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.21204662323</t>
+    <t xml:space="preserve">11.0161685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9926633834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433881759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3139019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2120475769043</t>
   </si>
   <si>
     <t xml:space="preserve">11.3765840530396</t>
@@ -968,34 +968,34 @@
     <t xml:space="preserve">11.4157590866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8466911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9250431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7291650772095</t>
+    <t xml:space="preserve">11.4941101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.784010887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8466901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9250421524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7291641235352</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485473632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172058105469</t>
+    <t xml:space="preserve">11.9485483169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388547897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
     <t xml:space="preserve">11.9877233505249</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">12.0739088058472</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1600961685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2462825775146</t>
+    <t xml:space="preserve">12.1600952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.246280670166</t>
   </si>
   <si>
     <t xml:space="preserve">12.2227764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3011283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512674331665</t>
+    <t xml:space="preserve">12.3011274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5126752853394</t>
   </si>
   <si>
     <t xml:space="preserve">12.5283451080322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5361814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0347328186035</t>
+    <t xml:space="preserve">12.5361804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0347337722778</t>
   </si>
   <si>
     <t xml:space="preserve">12.3794784545898</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970054626465</t>
+    <t xml:space="preserve">12.4970035552979</t>
   </si>
   <si>
     <t xml:space="preserve">12.8025751113892</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">12.5831899642944</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4813346862793</t>
+    <t xml:space="preserve">12.4813356399536</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7634000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772136688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6458721160889</t>
+    <t xml:space="preserve">12.7633991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772127151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6458711624146</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089628219604</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2697858810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9015369415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.167929649353</t>
+    <t xml:space="preserve">12.2697868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660743713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.901535987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1679286956787</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541170120239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4891700744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223669052124</t>
+    <t xml:space="preserve">12.4891691207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223659515381</t>
   </si>
   <si>
     <t xml:space="preserve">12.3324670791626</t>
@@ -1097,22 +1097,22 @@
     <t xml:space="preserve">12.5910263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9201021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.974946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671106338501</t>
+    <t xml:space="preserve">12.9201011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9749441146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671125411987</t>
   </si>
   <si>
     <t xml:space="preserve">13.1159791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2256679534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805166244507</t>
+    <t xml:space="preserve">13.2256698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2805185317993</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
@@ -1121,34 +1121,34 @@
     <t xml:space="preserve">13.2335052490234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003093719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9592771530151</t>
+    <t xml:space="preserve">13.2178373336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003084182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9592781066895</t>
   </si>
   <si>
     <t xml:space="preserve">13.0611333847046</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786603927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2619524002075</t>
+    <t xml:space="preserve">13.1786584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
     <t xml:space="preserve">12.2932910919189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3951473236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048398971558</t>
+    <t xml:space="preserve">12.395149230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048389434814</t>
   </si>
   <si>
     <t xml:space="preserve">12.6693773269653</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846385955811</t>
+    <t xml:space="preserve">12.6850481033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846405029297</t>
   </si>
   <si>
     <t xml:space="preserve">13.2570114135742</t>
@@ -1172,28 +1172,28 @@
     <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118562698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238136291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.351035118103</t>
+    <t xml:space="preserve">13.3118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238145828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510322570801</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801052093506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982608795166</t>
+    <t xml:space="preserve">13.4450550079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982627868652</t>
   </si>
   <si>
     <t xml:space="preserve">15.0277452468872</t>
@@ -1202,61 +1202,61 @@
     <t xml:space="preserve">15.0825929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">15.317645072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549657821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9337244033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669221878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474347114563</t>
+    <t xml:space="preserve">15.3176441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549648284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.93372631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855375289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751680374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4743490219116</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4351739883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172346115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904264450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374368667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.200119972229</t>
+    <t xml:space="preserve">15.4351711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015676498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.090428352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001180648804</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157907485962</t>
@@ -1265,145 +1265,145 @@
     <t xml:space="preserve">15.356822013855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4978561401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821805953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918760299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702260971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310510635376</t>
+    <t xml:space="preserve">15.4978542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918741226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310520172119</t>
   </si>
   <si>
     <t xml:space="preserve">15.6858968734741</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8896083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683717727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269281387329</t>
+    <t xml:space="preserve">15.8896102905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269290924072</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867130279541</t>
+    <t xml:space="preserve">14.8867139816284</t>
   </si>
   <si>
     <t xml:space="preserve">14.7926912307739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8710441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750919342041</t>
+    <t xml:space="preserve">14.8710432052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390331268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750947952271</t>
   </si>
   <si>
     <t xml:space="preserve">14.6149234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4548454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0306482315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8945827484131</t>
+    <t xml:space="preserve">14.4548473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.030647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8945837020874</t>
   </si>
   <si>
     <t xml:space="preserve">14.0866727828979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2467489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2547540664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668069839478</t>
+    <t xml:space="preserve">14.2467470169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668060302734</t>
   </si>
   <si>
     <t xml:space="preserve">14.5348844528198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5508918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192548751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753765106201</t>
+    <t xml:space="preserve">14.5508937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907205581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273561477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753755569458</t>
   </si>
   <si>
     <t xml:space="preserve">15.2152080535889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4713296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.583381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8074884414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073923110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954364776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471267700195</t>
+    <t xml:space="preserve">15.4713277816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5833797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.807487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073913574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471258163452</t>
   </si>
   <si>
     <t xml:space="preserve">15.1351709365845</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0391254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.991099357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630390167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991054534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.119161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793310165405</t>
+    <t xml:space="preserve">15.0391225814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870515823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911022186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991073608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1191625595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793319702148</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153974533081</t>
@@ -1412,40 +1412,40 @@
     <t xml:space="preserve">15.5353584289551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6554155349731</t>
+    <t xml:space="preserve">15.6554174423218</t>
   </si>
   <si>
     <t xml:space="preserve">15.7114410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7434577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6234006881714</t>
+    <t xml:space="preserve">15.7434568405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034406661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6233997344971</t>
   </si>
   <si>
     <t xml:space="preserve">15.5113477706909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3992948532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.463324546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4953413009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233064651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672780990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071138381958</t>
+    <t xml:space="preserve">15.3992929458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4633235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4953422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4233055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3672819137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711402893066</t>
   </si>
   <si>
     <t xml:space="preserve">14.8230228424072</t>
@@ -1457,49 +1457,49 @@
     <t xml:space="preserve">14.726975440979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1031532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2392177581787</t>
+    <t xml:space="preserve">15.1031541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.239218711853</t>
   </si>
   <si>
     <t xml:space="preserve">14.8070135116577</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4628496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708528518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748073577881</t>
+    <t xml:space="preserve">14.4628505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708547592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748083114624</t>
   </si>
   <si>
     <t xml:space="preserve">14.5749034881592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4228343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107776641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468431472778</t>
+    <t xml:space="preserve">14.422833442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107805252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468450546265</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.294771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126690864563</t>
+    <t xml:space="preserve">14.2787656784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2947721481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1266937255859</t>
   </si>
   <si>
     <t xml:space="preserve">14.1747140884399</t>
@@ -1511,52 +1511,52 @@
     <t xml:space="preserve">14.63893699646</t>
   </si>
   <si>
-    <t xml:space="preserve">14.430835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588018417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347902297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666147232056</t>
+    <t xml:space="preserve">14.4308376312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347883224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666166305542</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466527938843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.118688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346950531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386514663696</t>
+    <t xml:space="preserve">14.1186895370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386505126953</t>
   </si>
   <si>
     <t xml:space="preserve">14.2387456893921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1106853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.686484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584230422974</t>
+    <t xml:space="preserve">14.1106834411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6864833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5584239959717</t>
   </si>
   <si>
     <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4863882064819</t>
+    <t xml:space="preserve">13.4863891601562</t>
   </si>
   <si>
     <t xml:space="preserve">13.3903427124023</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">14.166711807251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8865766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7184972763062</t>
+    <t xml:space="preserve">13.8865795135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7184991836548</t>
   </si>
   <si>
     <t xml:space="preserve">13.3023014068604</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">13.1262178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982536315918</t>
+    <t xml:space="preserve">13.222264289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982526779175</t>
   </si>
   <si>
     <t xml:space="preserve">12.8460845947266</t>
@@ -1595,49 +1595,49 @@
     <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8620920181274</t>
+    <t xml:space="preserve">12.8620929718018</t>
   </si>
   <si>
     <t xml:space="preserve">13.3663330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3823394775391</t>
+    <t xml:space="preserve">13.3823375701904</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744304656982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184030532837</t>
+    <t xml:space="preserve">13.5184020996094</t>
   </si>
   <si>
     <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5023965835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5664262771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264081954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1742391586304</t>
+    <t xml:space="preserve">13.5023975372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5664281845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264072418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
     <t xml:space="preserve">13.1502294540405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9741458892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8781023025513</t>
+    <t xml:space="preserve">12.9741439819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
     <t xml:space="preserve">13.1422252655029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8540878295898</t>
+    <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
     <t xml:space="preserve">12.7340316772461</t>
@@ -1646,46 +1646,46 @@
     <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8140697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9421310424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7500400543213</t>
+    <t xml:space="preserve">12.8140707015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9421300888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7500410079956</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4859142303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5739555358887</t>
+    <t xml:space="preserve">12.485915184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
     <t xml:space="preserve">13.2702856063843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104959487915</t>
+    <t xml:space="preserve">12.9821491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706663131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785753250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104940414429</t>
   </si>
   <si>
     <t xml:space="preserve">13.3183078765869</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2062559127808</t>
+    <t xml:space="preserve">13.2062568664551</t>
   </si>
   <si>
     <t xml:space="preserve">13.3103036880493</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">13.6064462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.774525642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824327468872</t>
+    <t xml:space="preserve">13.7745246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824346542358</t>
   </si>
   <si>
     <t xml:space="preserve">13.6624708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145427703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9506092071533</t>
+    <t xml:space="preserve">13.8145437240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.950608253479</t>
   </si>
   <si>
     <t xml:space="preserve">13.6704759597778</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">13.862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7665233612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986324310303</t>
+    <t xml:space="preserve">13.7665224075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986305236816</t>
   </si>
   <si>
     <t xml:space="preserve">13.9906272888184</t>
@@ -1730,43 +1730,43 @@
     <t xml:space="preserve">13.7985353469849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103979110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7905330657959</t>
+    <t xml:space="preserve">13.5103988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7905311584473</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784782409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224536895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6464624404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586124420166</t>
+    <t xml:space="preserve">14.0066356658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6464643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586133956909</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8705711364746</t>
+    <t xml:space="preserve">13.7265024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8705701828003</t>
   </si>
   <si>
     <t xml:space="preserve">14.0786695480347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6384620666504</t>
+    <t xml:space="preserve">13.6384611129761</t>
   </si>
   <si>
     <t xml:space="preserve">13.4303617477417</t>
@@ -1775,40 +1775,40 @@
     <t xml:space="preserve">13.4383659362793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3743343353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063501358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462730407715</t>
+    <t xml:space="preserve">13.3743352890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063510894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462749481201</t>
   </si>
   <si>
     <t xml:space="preserve">13.0301733016968</t>
   </si>
   <si>
-    <t xml:space="preserve">12.95814037323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7420349121094</t>
+    <t xml:space="preserve">12.9581394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.742036819458</t>
   </si>
   <si>
     <t xml:space="preserve">13.3983469009399</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4703807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4943923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0381774902344</t>
+    <t xml:space="preserve">13.4703798294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4943933486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0381765365601</t>
   </si>
   <si>
     <t xml:space="preserve">12.9021120071411</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101142883301</t>
+    <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861055374146</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">12.870096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341259002686</t>
+    <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
     <t xml:space="preserve">12.9981565475464</t>
@@ -1829,529 +1829,529 @@
     <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
+    <t xml:space="preserve">13.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665884017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2340497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4098806381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7699203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950372695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694440841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5354776382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773410797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187311172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4349994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4601192474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3680171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.970871925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.071346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.448130607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5820960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043611526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9038848876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569753646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4648752212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923715591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9756278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830495834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411813735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983682632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462255477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.079719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8452739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8787679672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015092849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6778173446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0294818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1299562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.42662525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1503190994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275777816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512706756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940866470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457530975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.744800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9122581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309078216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.515115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964660644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629739761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4397563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500308990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751497268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993179321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.607213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9002704620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988416671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490812301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54860496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3895177841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792432785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644008636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.92063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2304334640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.180193901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057889938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.88352394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8249130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3811473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718215942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220602035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067415237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672536849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825733184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.933762550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7961769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.201696395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2435626983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5198707580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1179676055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0426120758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0761051177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2854270935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765766143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2100715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6705837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.628719329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5282421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3440361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928497314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1263408660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0509834289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3021697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6957015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.482759475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2483177185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5330009460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0353775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.918155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0856151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9516487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8846645355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2028350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679180145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2363300323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4707717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4540252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.554500579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9229125976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2410850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1908473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3248138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4420356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745761871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3870410919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7387046813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3368034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4660148620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210113525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525974273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8226337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7819080352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5175895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3082666397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0235843658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6300554275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1156873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7269144058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687788009644</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.6144504547119</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0665884017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2340497970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931341171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098806381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694440841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522203445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5354766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4349994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4601192474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.368016242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4481315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5820989608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318574905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9038867950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.556978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4648742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756288528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667783737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328119277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215810775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462265014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797204971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8452749252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8787660598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015102386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6778173446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0294818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378522872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.426628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596420288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094043731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1503200531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275777816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512706756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5151138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964651107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629739761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373788833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4397563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500318527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.875150680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993188858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9002695083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490831375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899950027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.389518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643999099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722959518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021107673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.92063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471780776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2304344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.180193901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835220336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8249130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3811454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718235015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220582962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825704574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732484817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337596893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7961769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637092590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.201696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2435607910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.519868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1179676055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.042610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0761013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0258617401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2854270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2100696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.670581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.628719329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5282421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3440380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928478240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1263408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0509815216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3021717071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6957015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645889282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4827613830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2483196258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5329990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0353775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9181537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0856151580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0521221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9516468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8846645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2028369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8679161071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2363300323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4707717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4540271759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5545024871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9229125976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2410850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.190845489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3248138427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4420337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.358304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745761871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3870429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.504264831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7387046813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3368053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4660167694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210094451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7819080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998924255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3082666397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0235843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6300554275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1156873703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7269134521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144495010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1455631256104</t>
+    <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8860015869141</t>
@@ -2363,49 +2363,49 @@
     <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.991231918335</t>
+    <t xml:space="preserve">13.9912328720093</t>
   </si>
   <si>
     <t xml:space="preserve">14.2591676712036</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0917081832886</t>
+    <t xml:space="preserve">14.0917072296143</t>
   </si>
   <si>
     <t xml:space="preserve">14.0079784393311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.89075756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1921834945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424230575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656377792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8572645187378</t>
+    <t xml:space="preserve">13.8907566070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1921854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424211502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656368255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8572654724121</t>
   </si>
   <si>
     <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321466445923</t>
+    <t xml:space="preserve">13.8321475982666</t>
   </si>
   <si>
     <t xml:space="preserve">14.1419448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2173023223877</t>
+    <t xml:space="preserve">14.217303276062</t>
   </si>
   <si>
     <t xml:space="preserve">14.2926588058472</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7316694259644</t>
+    <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6898059844971</t>
@@ -2417,67 +2417,67 @@
     <t xml:space="preserve">13.9493675231934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828596115112</t>
+    <t xml:space="preserve">13.9828615188599</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182538986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103578567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354614257812</t>
+    <t xml:space="preserve">14.4182529449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354623794556</t>
   </si>
   <si>
     <t xml:space="preserve">14.6503849029541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9829502105713</t>
+    <t xml:space="preserve">14.9829511642456</t>
   </si>
   <si>
     <t xml:space="preserve">15.1317300796509</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1229782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281377792358</t>
+    <t xml:space="preserve">15.1229772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281368255615</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906871795654</t>
+    <t xml:space="preserve">16.1906890869141</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3721694946289</t>
+    <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
     <t xml:space="preserve">17.4684391021729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0833644866943</t>
+    <t xml:space="preserve">17.0833625793457</t>
   </si>
   <si>
     <t xml:space="preserve">17.0308513641357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1358757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4969959259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4357395172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2431964874268</t>
+    <t xml:space="preserve">17.1358737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.496997833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2431983947754</t>
   </si>
   <si>
     <t xml:space="preserve">16.1031703948975</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">16.1731853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7595481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5670127868652</t>
+    <t xml:space="preserve">16.7595500946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5670108795166</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845165252686</t>
@@ -2498,13 +2498,13 @@
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7858066558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2607021331787</t>
+    <t xml:space="preserve">16.7157897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7858047485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2607002258301</t>
   </si>
   <si>
     <t xml:space="preserve">16.3307151794434</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">16.4707412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7945575714111</t>
+    <t xml:space="preserve">16.7945594787598</t>
   </si>
   <si>
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460529327393</t>
+    <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
@@ -2531,16 +2531,16 @@
     <t xml:space="preserve">17.941032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1160659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3436126708984</t>
+    <t xml:space="preserve">18.1160678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162059783936</t>
+    <t xml:space="preserve">18.8162040710449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8010063171387</t>
+    <t xml:space="preserve">17.80100440979</t>
   </si>
   <si>
     <t xml:space="preserve">17.8885231018066</t>
@@ -2573,10 +2573,10 @@
     <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7309913635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0110473632812</t>
+    <t xml:space="preserve">17.730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0110454559326</t>
   </si>
   <si>
     <t xml:space="preserve">18.4836406707764</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">18.8862190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9737377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0437488555908</t>
+    <t xml:space="preserve">18.9737358093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">19.1487693786621</t>
@@ -2606,16 +2606,16 @@
     <t xml:space="preserve">19.5513477325439</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2187805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0787544250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1312675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5863571166992</t>
+    <t xml:space="preserve">19.2187824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0787563323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1312656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.586353302002</t>
   </si>
   <si>
     <t xml:space="preserve">19.4638328552246</t>
@@ -2654,37 +2654,37 @@
     <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061611175537</t>
+    <t xml:space="preserve">18.6061630249023</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5186462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4136276245117</t>
+    <t xml:space="preserve">18.518648147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4136257171631</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6913757324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8664112091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4463291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7438869476318</t>
+    <t xml:space="preserve">19.6913776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8664131164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7438850402832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8489093780518</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4813346862793</t>
+    <t xml:space="preserve">19.4813365936279</t>
   </si>
   <si>
     <t xml:space="preserve">19.2012805938721</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">18.9912395477295</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1662731170654</t>
+    <t xml:space="preserve">19.1662712097168</t>
   </si>
   <si>
     <t xml:space="preserve">18.7636947631836</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820743560791</t>
+    <t xml:space="preserve">16.8820724487305</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">17.5034446716309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0810604095459</t>
+    <t xml:space="preserve">18.0810585021973</t>
   </si>
   <si>
     <t xml:space="preserve">18.588659286499</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">18.0635566711426</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2210865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1685771942139</t>
+    <t xml:space="preserve">18.2210884094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1685791015625</t>
   </si>
   <si>
     <t xml:space="preserve">17.9935417175293</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">17.9060249328613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784801483154</t>
+    <t xml:space="preserve">17.6784820556641</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7659969329834</t>
+    <t xml:space="preserve">17.765998840332</t>
   </si>
   <si>
     <t xml:space="preserve">17.5909652709961</t>
@@ -2756,76 +2756,76 @@
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285511016846</t>
+    <t xml:space="preserve">18.0285491943359</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1860828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5711555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714317321777</t>
+    <t xml:space="preserve">18.1860809326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5711574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362861633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714298248291</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316799163818</t>
+    <t xml:space="preserve">20.4790325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316818237305</t>
   </si>
   <si>
     <t xml:space="preserve">21.1266593933105</t>
   </si>
   <si>
-    <t xml:space="preserve">21.704273223877</t>
+    <t xml:space="preserve">21.7042713165283</t>
   </si>
   <si>
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143142700195</t>
+    <t xml:space="preserve">21.9143161773682</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0368404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668254852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1593627929688</t>
+    <t xml:space="preserve">22.0368385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1593608856201</t>
   </si>
   <si>
     <t xml:space="preserve">21.9318180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2293758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4219169616699</t>
+    <t xml:space="preserve">22.229377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
     <t xml:space="preserve">22.9470157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4721202850342</t>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8747024536133</t>
+    <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
     <t xml:space="preserve">22.4569206237793</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444374084473</t>
+    <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
     <t xml:space="preserve">22.8595008850098</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745624542236</t>
+    <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1220512390137</t>
+    <t xml:space="preserve">23.1220531463623</t>
   </si>
   <si>
     <t xml:space="preserve">23.4546165466309</t>
@@ -2864,22 +2864,22 @@
     <t xml:space="preserve">22.6144523620605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9493236541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7742881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4919300079346</t>
+    <t xml:space="preserve">21.9493217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4919281005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.0018310546875</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4417209625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7590847015381</t>
+    <t xml:space="preserve">21.441722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7590885162354</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">20.4615287780762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592247009277</t>
+    <t xml:space="preserve">20.0414447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
     <t xml:space="preserve">22.4394187927246</t>
@@ -2906,40 +2906,40 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940940856934</t>
+    <t xml:space="preserve">20.7940921783447</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5292377471924</t>
+    <t xml:space="preserve">21.529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">21.7567844390869</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8442993164062</t>
+    <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
     <t xml:space="preserve">22.2643852233887</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5969486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.31689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2468795776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0893516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3343963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1068534851074</t>
+    <t xml:space="preserve">22.5969505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3168926239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2468814849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0893478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3343982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1068515777588</t>
   </si>
   <si>
     <t xml:space="preserve">21.7217750549316</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841892242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3869075775146</t>
+    <t xml:space="preserve">21.2841911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3869094848633</t>
   </si>
   <si>
     <t xml:space="preserve">21.8267993927002</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5817470550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016948699951</t>
+    <t xml:space="preserve">21.5817489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016929626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -2981,19 +2981,19 @@
     <t xml:space="preserve">21.4767303466797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3915157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9166164398193</t>
+    <t xml:space="preserve">20.3915138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.916618347168</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5954494476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5774002075195</t>
+    <t xml:space="preserve">22.5954475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5774021148682</t>
   </si>
   <si>
     <t xml:space="preserve">22.3066864013672</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">22.4871616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4691143035889</t>
+    <t xml:space="preserve">22.4691162109375</t>
   </si>
   <si>
     <t xml:space="preserve">22.4149723052979</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">22.5593509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8300647735596</t>
+    <t xml:space="preserve">22.8300628662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.353443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.317346572876</t>
+    <t xml:space="preserve">23.3534393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3173484802246</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9203014373779</t>
+    <t xml:space="preserve">22.9203033447266</t>
   </si>
   <si>
     <t xml:space="preserve">23.0105381011963</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">22.7037334442139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3895359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0646800994873</t>
+    <t xml:space="preserve">22.9383506774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3895378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0646820068359</t>
   </si>
   <si>
     <t xml:space="preserve">23.2812519073486</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">22.1081657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9744434356689</t>
+    <t xml:space="preserve">22.9744453430176</t>
   </si>
   <si>
     <t xml:space="preserve">23.2451572418213</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
-    <t xml:space="preserve">23.570011138916</t>
+    <t xml:space="preserve">23.5700130462646</t>
   </si>
   <si>
     <t xml:space="preserve">21.9457378387451</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">23.0466365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5413055419922</t>
+    <t xml:space="preserve">22.5413036346436</t>
   </si>
   <si>
     <t xml:space="preserve">22.3247356414795</t>
@@ -3125,10 +3125,10 @@
     <t xml:space="preserve">22.0720691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2344970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5232563018799</t>
+    <t xml:space="preserve">22.2344989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5232582092285</t>
   </si>
   <si>
     <t xml:space="preserve">23.2090606689453</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">23.1368713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0827312469482</t>
+    <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
     <t xml:space="preserve">23.1729679107666</t>
@@ -3155,34 +3155,34 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4617252349854</t>
+    <t xml:space="preserve">23.461727142334</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.804630279541</t>
+    <t xml:space="preserve">23.2992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8046283721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.551965713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8948669433594</t>
+    <t xml:space="preserve">23.5519638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8948650360107</t>
   </si>
   <si>
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5265293121338</t>
+    <t xml:space="preserve">24.0572910308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5265274047852</t>
   </si>
   <si>
     <t xml:space="preserve">25.1581916809082</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">24.7430973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3206157684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6922264099121</t>
+    <t xml:space="preserve">25.3206176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6922245025635</t>
   </si>
   <si>
     <t xml:space="preserve">26.9629383087158</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">27.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.15407371521</t>
+    <t xml:space="preserve">27.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1540718078613</t>
   </si>
   <si>
     <t xml:space="preserve">28.172119140625</t>
@@ -3224,19 +3224,19 @@
     <t xml:space="preserve">28.334545135498</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2443084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4863128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2804050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9014072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8472652435303</t>
+    <t xml:space="preserve">28.2443103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4863147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.280403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9014091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8472671508789</t>
   </si>
   <si>
     <t xml:space="preserve">28.0999298095703</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">27.7570285797119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0351257324219</t>
+    <t xml:space="preserve">27.0351276397705</t>
   </si>
   <si>
     <t xml:space="preserve">26.4937038421631</t>
@@ -3263,10 +3263,10 @@
     <t xml:space="preserve">26.5839385986328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2590866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2951812744141</t>
+    <t xml:space="preserve">26.2590885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2951793670654</t>
   </si>
   <si>
     <t xml:space="preserve">26.6019897460938</t>
@@ -3281,13 +3281,13 @@
     <t xml:space="preserve">26.8727016448975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8079013824463</t>
+    <t xml:space="preserve">25.8078994750977</t>
   </si>
   <si>
     <t xml:space="preserve">25.591329574585</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7537593841553</t>
+    <t xml:space="preserve">25.7537574768066</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">25.6093769073486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7718029022217</t>
+    <t xml:space="preserve">25.7718048095703</t>
   </si>
   <si>
     <t xml:space="preserve">25.3386650085449</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">25.843994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.880090713501</t>
+    <t xml:space="preserve">25.8800888061523</t>
   </si>
   <si>
     <t xml:space="preserve">25.6274242401123</t>
@@ -3326,40 +3326,40 @@
     <t xml:space="preserve">25.6635208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6996154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5117511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8620414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9235725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8694286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2738628387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1294841766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9670543670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.606107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549205780029</t>
+    <t xml:space="preserve">25.699613571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5117492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8620433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8694305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2738647460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1294822692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9670562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6061058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549186706543</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">23.118824005127</t>
+    <t xml:space="preserve">23.1188259124756</t>
   </si>
   <si>
     <t xml:space="preserve">23.4797744750977</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">22.4330215454102</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9022560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510688781738</t>
+    <t xml:space="preserve">22.9022541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510669708252</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3383,31 +3383,31 @@
     <t xml:space="preserve">22.7217807769775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2525463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652626037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1442623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7111186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4765033721924</t>
+    <t xml:space="preserve">22.2525444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1442604064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7111206054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.476505279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949010848999</t>
+    <t xml:space="preserve">23.9490089416504</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957637786865</t>
+    <t xml:space="preserve">24.9957618713379</t>
   </si>
   <si>
     <t xml:space="preserve">24.0933895111084</t>
@@ -3416,22 +3416,22 @@
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309616088867</t>
+    <t xml:space="preserve">23.9309635162354</t>
   </si>
   <si>
     <t xml:space="preserve">25.5732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0531768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493251800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7357082366943</t>
+    <t xml:space="preserve">27.0531749725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3854198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.735710144043</t>
   </si>
   <si>
     <t xml:space="preserve">26.7644157409668</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">26.096658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6561336517334</t>
+    <t xml:space="preserve">26.6561317443848</t>
   </si>
   <si>
     <t xml:space="preserve">26.4395599365234</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">27.1614608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9194564819336</t>
+    <t xml:space="preserve">27.919454574585</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
@@ -3467,22 +3467,22 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233062744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6774501800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3886871337891</t>
+    <t xml:space="preserve">28.6233043670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6774482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3886890411377</t>
   </si>
   <si>
     <t xml:space="preserve">28.569164276123</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7315921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271598815918</t>
+    <t xml:space="preserve">28.7315902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271579742432</t>
   </si>
   <si>
     <t xml:space="preserve">29.1105861663818</t>
@@ -3500,19 +3500,19 @@
     <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6881084442139</t>
+    <t xml:space="preserve">29.6881103515625</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7676868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8759727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4247856140137</t>
+    <t xml:space="preserve">28.7676849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8759708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.424783706665</t>
   </si>
   <si>
     <t xml:space="preserve">28.2082138061523</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">26.8005123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3533,16 +3533,16 @@
     <t xml:space="preserve">28.460880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3813018798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1392955780029</t>
+    <t xml:space="preserve">29.3812999725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1392974853516</t>
   </si>
   <si>
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739147186279</t>
+    <t xml:space="preserve">30.3739128112793</t>
   </si>
   <si>
     <t xml:space="preserve">30.680721282959</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115482330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.29248046875</t>
+    <t xml:space="preserve">31.8115501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2924766540527</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436443328857</t>
+    <t xml:space="preserve">30.6436462402344</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548732757568</t>
+    <t xml:space="preserve">30.7548713684082</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229801177979</t>
+    <t xml:space="preserve">28.6229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375991821289</t>
+    <t xml:space="preserve">28.4375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.473611831665</t>
+    <t xml:space="preserve">27.4736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.788761138916</t>
+    <t xml:space="preserve">27.7887592315674</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5488262176514</t>
+    <t xml:space="preserve">28.548828125</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.030818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381275177002</t>
+    <t xml:space="preserve">29.0308208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381294250488</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3653,13 +3653,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718181610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.179126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892913818359</t>
+    <t xml:space="preserve">29.2718162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892932891846</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522163391113</t>
+    <t xml:space="preserve">28.2522144317627</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.160587310791</t>
+    <t xml:space="preserve">29.1605854034424</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3695,13 +3695,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037113189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851737976074</t>
+    <t xml:space="preserve">31.4037094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149402618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851718902588</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857040405273</t>
+    <t xml:space="preserve">31.8857021331787</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3728,16 +3728,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081581115723</t>
+    <t xml:space="preserve">32.1081619262695</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274307250977</t>
+    <t xml:space="preserve">31.4778614044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274326324463</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.920654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094234466553</t>
+    <t xml:space="preserve">29.9206523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094253540039</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3779,19 +3779,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393928527832</t>
+    <t xml:space="preserve">29.4942760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393909454346</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944751739502</t>
+    <t xml:space="preserve">26.0276336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607883453369</t>
+    <t xml:space="preserve">25.8607864379883</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2304878234863</t>
+    <t xml:space="preserve">25.3787937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.230489730835</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3830,13 +3830,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179973602295</t>
+    <t xml:space="preserve">27.4179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600551605225</t>
+    <t xml:space="preserve">28.6600570678711</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.84543800354</t>
+    <t xml:space="preserve">28.8454399108887</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746723175049</t>
+    <t xml:space="preserve">28.4746742248535</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3872,22 +3872,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4005222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443775177002</t>
+    <t xml:space="preserve">28.400520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443756103516</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9185276031494</t>
+    <t xml:space="preserve">27.918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6589946746826</t>
+    <t xml:space="preserve">27.658992767334</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702217102051</t>
+    <t xml:space="preserve">27.7702236175537</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.343843460083</t>
+    <t xml:space="preserve">27.3438453674316</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3932,16 +3932,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090923309326</t>
+    <t xml:space="preserve">26.0090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6568698883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495613098145</t>
+    <t xml:space="preserve">25.656867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495594024658</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3953,7 +3953,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383285522461</t>
+    <t xml:space="preserve">25.6383304595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3962,7 +3962,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237113952637</t>
+    <t xml:space="preserve">25.8237133026123</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096263885498</t>
+    <t xml:space="preserve">26.5096244812012</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012535095215</t>
+    <t xml:space="preserve">25.6012554168701</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4007,10 +4007,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007232666016</t>
+    <t xml:space="preserve">24.7114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007213592529</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962688446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108879089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445766448975</t>
+    <t xml:space="preserve">24.3962707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445747375488</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0821838378906</t>
+    <t xml:space="preserve">25.082181930542</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4055,22 +4055,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8968029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3602561950684</t>
+    <t xml:space="preserve">24.896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.360258102417</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.675407409668</t>
+    <t xml:space="preserve">25.6754055023193</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950073242188</t>
+    <t xml:space="preserve">26.6950054168701</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4082,13 +4082,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816516876221</t>
+    <t xml:space="preserve">25.7866363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816535949707</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714870452881</t>
+    <t xml:space="preserve">25.4714851379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>
@@ -4692,6 +4692,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.6599998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9599990844727</t>
   </si>
 </sst>
 </file>
@@ -61297,7 +61300,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6496527778</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>233195</v>
@@ -61318,6 +61321,32 @@
         <v>1559</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6493171296</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>180090</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>23.9799995422363</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>23.6599998474121</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>23.8199996948242</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>23.9599990844727</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1562">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,31 +44,31 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373455047607</t>
+    <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.55664920806885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32674884796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26927280426025</t>
+    <t xml:space="preserve">8.32674789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26927471160889</t>
   </si>
   <si>
     <t xml:space="preserve">8.34830093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57101917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53509521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47762107849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36266994476318</t>
+    <t xml:space="preserve">8.57101821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47762203216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3626708984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684753417969</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9818959236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247852325439</t>
+    <t xml:space="preserve">7.98189640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247756958008</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053478240967</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">8.28364181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19024276733398</t>
+    <t xml:space="preserve">8.27645778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1902437210083</t>
   </si>
   <si>
     <t xml:space="preserve">8.11121463775635</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">7.72325658798218</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665372848511</t>
+    <t xml:space="preserve">7.6585955619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665468215942</t>
   </si>
   <si>
     <t xml:space="preserve">7.74480867385864</t>
@@ -125,19 +125,19 @@
     <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500247955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92442035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878841400146</t>
+    <t xml:space="preserve">7.83820724487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073167800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92441987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878889083862</t>
   </si>
   <si>
     <t xml:space="preserve">8.046555519104</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">8.17587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08966255187988</t>
+    <t xml:space="preserve">8.08966064453125</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529354095459</t>
@@ -161,10 +161,10 @@
     <t xml:space="preserve">7.97471189498901</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10402965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839866638184</t>
+    <t xml:space="preserve">8.10403156280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11839962005615</t>
   </si>
   <si>
     <t xml:space="preserve">8.21898078918457</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">8.59975528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70033740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596935272217</t>
+    <t xml:space="preserve">8.70033836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596839904785</t>
   </si>
   <si>
     <t xml:space="preserve">8.59257221221924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54228115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577793121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237888336182</t>
+    <t xml:space="preserve">8.54228210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31237983703613</t>
   </si>
   <si>
     <t xml:space="preserve">8.36985397338867</t>
@@ -200,46 +200,46 @@
     <t xml:space="preserve">8.3411169052124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49917507171631</t>
+    <t xml:space="preserve">8.49917316436768</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946517944336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45606803894043</t>
+    <t xml:space="preserve">8.45606899261475</t>
   </si>
   <si>
     <t xml:space="preserve">8.41296100616455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47043800354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742774963379</t>
+    <t xml:space="preserve">8.47043609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742870330811</t>
   </si>
   <si>
     <t xml:space="preserve">8.15432357788086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16150569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626398086548</t>
+    <t xml:space="preserve">8.16150665283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2333517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626445770264</t>
   </si>
   <si>
     <t xml:space="preserve">8.44169807434082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30519580841064</t>
+    <t xml:space="preserve">8.30519390106201</t>
   </si>
   <si>
     <t xml:space="preserve">8.07527351379395</t>
@@ -248,28 +248,28 @@
     <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795108795166</t>
+    <t xml:space="preserve">8.24804496765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795204162598</t>
   </si>
   <si>
     <t xml:space="preserve">8.28560543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3306770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14288139343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790367126465</t>
+    <t xml:space="preserve">8.33067798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302364349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1428804397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790271759033</t>
   </si>
   <si>
     <t xml:space="preserve">8.16541576385498</t>
@@ -281,76 +281,76 @@
     <t xml:space="preserve">8.15039253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01517868041992</t>
+    <t xml:space="preserve">8.01517963409424</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188135147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4517879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530595779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286451339722</t>
+    <t xml:space="preserve">7.51188182830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286403656006</t>
   </si>
   <si>
     <t xml:space="preserve">7.84991598129272</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82737970352173</t>
+    <t xml:space="preserve">7.82738161087036</t>
   </si>
   <si>
     <t xml:space="preserve">7.69967937469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76728630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906009674072</t>
+    <t xml:space="preserve">7.76728677749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906057357788</t>
   </si>
   <si>
     <t xml:space="preserve">7.13253211975098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40296030044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944324493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216775894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484628677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94005966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65460681915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910942077637</t>
+    <t xml:space="preserve">7.4029598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944181442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94005918502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910989761353</t>
   </si>
   <si>
     <t xml:space="preserve">7.46681070327759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
+    <t xml:space="preserve">7.57948875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977325439453</t>
   </si>
   <si>
     <t xml:space="preserve">7.684654712677</t>
@@ -362,163 +362,163 @@
     <t xml:space="preserve">7.66211938858032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63207340240479</t>
+    <t xml:space="preserve">7.63207149505615</t>
   </si>
   <si>
     <t xml:space="preserve">7.7447509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63958406448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479887008667</t>
+    <t xml:space="preserve">7.63958501815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479839324951</t>
   </si>
   <si>
     <t xml:space="preserve">7.59451246261597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49685764312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934698104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456035614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719194412231</t>
+    <t xml:space="preserve">7.49685907363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934602737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456130981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.707190990448</t>
   </si>
   <si>
     <t xml:space="preserve">7.67714405059814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81986904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742902755737</t>
+    <t xml:space="preserve">7.81986999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742950439453</t>
   </si>
   <si>
     <t xml:space="preserve">7.60953712463379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57197618484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4780797958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310350418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4705662727356</t>
+    <t xml:space="preserve">7.57197713851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056674957275</t>
   </si>
   <si>
     <t xml:space="preserve">7.91752481460571</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87996435165405</t>
+    <t xml:space="preserve">7.87996387481689</t>
   </si>
   <si>
     <t xml:space="preserve">7.91001224517822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94757223129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029674530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245225906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470403671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7222146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427537918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169120788574</t>
+    <t xml:space="preserve">7.94757175445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029865264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226259231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8123574256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7147045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6696310043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427585601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169263839722</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690696716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554351806641</t>
+    <t xml:space="preserve">7.52690553665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554304122925</t>
   </si>
   <si>
     <t xml:space="preserve">7.38418054580688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812578201294</t>
+    <t xml:space="preserve">7.28652477264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5081262588501</t>
   </si>
   <si>
     <t xml:space="preserve">7.53441762924194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29403924942017</t>
+    <t xml:space="preserve">7.29403781890869</t>
   </si>
   <si>
     <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02736568450928</t>
+    <t xml:space="preserve">7.02736520767212</t>
   </si>
   <si>
     <t xml:space="preserve">6.98605012893677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97102689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990148544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219972610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332513809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9597601890564</t>
+    <t xml:space="preserve">6.97102642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92220020294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975971221924</t>
   </si>
   <si>
     <t xml:space="preserve">6.94849109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92971181869507</t>
+    <t xml:space="preserve">6.92971038818359</t>
   </si>
   <si>
     <t xml:space="preserve">6.83956861495972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81327724456787</t>
+    <t xml:space="preserve">6.81327629089355</t>
   </si>
   <si>
     <t xml:space="preserve">6.89215230941772</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">6.83581352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79449701309204</t>
+    <t xml:space="preserve">6.79449796676636</t>
   </si>
   <si>
     <t xml:space="preserve">6.79074144363403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90341997146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112173080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717554092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01985359191895</t>
+    <t xml:space="preserve">6.90341901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0311222076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01985311508179</t>
   </si>
   <si>
     <t xml:space="preserve">7.0160984992981</t>
@@ -551,43 +551,43 @@
     <t xml:space="preserve">7.17384719848633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19638347625732</t>
+    <t xml:space="preserve">7.19638299942017</t>
   </si>
   <si>
     <t xml:space="preserve">7.47432327270508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5644645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972726821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5569543838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982257843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.782310962677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761917114258</t>
+    <t xml:space="preserve">7.56446504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972822189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982162475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747453689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761821746826</t>
   </si>
   <si>
     <t xml:space="preserve">8.04522514343262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06776142120361</t>
+    <t xml:space="preserve">8.0677604675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.10532093048096</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95508289337158</t>
+    <t xml:space="preserve">7.95508241653442</t>
   </si>
   <si>
     <t xml:space="preserve">8.29311847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20297622680664</t>
+    <t xml:space="preserve">8.20297527313232</t>
   </si>
   <si>
     <t xml:space="preserve">8.21799945831299</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26307106018066</t>
+    <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
     <t xml:space="preserve">8.25555801391602</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">8.69876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76636791229248</t>
+    <t xml:space="preserve">8.76636600494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.7738790512085</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">8.86402034759521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655662536621</t>
+    <t xml:space="preserve">8.87904453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655567169189</t>
   </si>
   <si>
     <t xml:space="preserve">8.91660404205322</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">8.98421192169189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89406776428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378421783447</t>
+    <t xml:space="preserve">8.89406967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378326416016</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110569000244</t>
@@ -689,46 +689,46 @@
     <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61612892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349781036377</t>
+    <t xml:space="preserve">8.61612987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349685668945</t>
   </si>
   <si>
     <t xml:space="preserve">8.5410099029541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909194946289</t>
+    <t xml:space="preserve">8.73631858825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909099578857</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85651016235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10440063476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26110458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30811309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28460884094238</t>
+    <t xml:space="preserve">8.85650825500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10440158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26110363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30811500549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28460788726807</t>
   </si>
   <si>
     <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42564105987549</t>
+    <t xml:space="preserve">9.42564010620117</t>
   </si>
   <si>
     <t xml:space="preserve">9.3472900390625</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">9.41780662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481513977051</t>
+    <t xml:space="preserve">9.46481609344482</t>
   </si>
   <si>
     <t xml:space="preserve">9.51966094970703</t>
@@ -752,46 +752,46 @@
     <t xml:space="preserve">9.53533267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80172538757324</t>
+    <t xml:space="preserve">9.80172634124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73120975494385</t>
+    <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.74688053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79389095306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69987106323242</t>
+    <t xml:space="preserve">9.77821922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79389190673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69987010955811</t>
   </si>
   <si>
     <t xml:space="preserve">9.84873676300049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80956077575684</t>
+    <t xml:space="preserve">9.80956172943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.71553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59801292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69203472137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62151908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64502334594727</t>
+    <t xml:space="preserve">9.59801387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69203567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6215181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
     <t xml:space="preserve">9.58234214782715</t>
@@ -800,70 +800,70 @@
     <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55100154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.558837890625</t>
+    <t xml:space="preserve">9.55100345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55883693695068</t>
   </si>
   <si>
     <t xml:space="preserve">9.72337436676025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7703857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75471496582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399303436279</t>
+    <t xml:space="preserve">9.77038478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.754714012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182651519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399398803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63718795776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7077054977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83306694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0211095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.326678276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031740188599</t>
+    <t xml:space="preserve">9.6371898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70770359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83306789398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543073654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3266792297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031721115112</t>
   </si>
   <si>
     <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2561616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1621408462524</t>
+    <t xml:space="preserve">10.2561626434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248229980469</t>
+    <t xml:space="preserve">10.2248239517212</t>
   </si>
   <si>
     <t xml:space="preserve">10.2953386306763</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5695676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6165771484375</t>
+    <t xml:space="preserve">10.5695667266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6165790557861</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6635875701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6870946884155</t>
+    <t xml:space="preserve">10.6635885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6870927810669</t>
   </si>
   <si>
     <t xml:space="preserve">10.6479187011719</t>
@@ -908,70 +908,70 @@
     <t xml:space="preserve">10.6557540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6087417602539</t>
+    <t xml:space="preserve">10.6087427139282</t>
   </si>
   <si>
     <t xml:space="preserve">10.5930728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382261276245</t>
+    <t xml:space="preserve">10.5852384567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382270812988</t>
   </si>
   <si>
     <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5147228240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027645111084</t>
+    <t xml:space="preserve">10.514720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027635574341</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004978179932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0475101470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0318393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9769926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161685943604</t>
+    <t xml:space="preserve">11.0475091934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0318384170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0631790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9769945144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0161695480347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926633834839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2433881759644</t>
+    <t xml:space="preserve">11.2433862686157</t>
   </si>
   <si>
     <t xml:space="preserve">11.3139019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2120475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3765840530396</t>
+    <t xml:space="preserve">11.21204662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3765830993652</t>
   </si>
   <si>
     <t xml:space="preserve">11.4157590866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.784010887146</t>
+    <t xml:space="preserve">11.4941091537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
     <t xml:space="preserve">11.8466901779175</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">11.9250421524048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5411214828491</t>
+    <t xml:space="preserve">11.5411195755005</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291641235352</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605047225952</t>
+    <t xml:space="preserve">11.7605056762695</t>
   </si>
   <si>
     <t xml:space="preserve">11.9485483169556</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9877233505249</t>
+    <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
     <t xml:space="preserve">11.9642171859741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0739088058472</t>
+    <t xml:space="preserve">12.0739078521729</t>
   </si>
   <si>
     <t xml:space="preserve">12.1600952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.246280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227764129639</t>
+    <t xml:space="preserve">12.2462825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227745056152</t>
   </si>
   <si>
     <t xml:space="preserve">12.3011274337769</t>
@@ -1022,46 +1022,46 @@
     <t xml:space="preserve">12.5126752853394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5283451080322</t>
+    <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0347337722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481378555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4970035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8025751113892</t>
+    <t xml:space="preserve">12.0347328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4970054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8025741577148</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831899642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813356399536</t>
+    <t xml:space="preserve">12.5831909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813365936279</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7633991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772127151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6458711624146</t>
+    <t xml:space="preserve">12.7634000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772146224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6458730697632</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089628219604</t>
@@ -1070,49 +1070,49 @@
     <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2697868347168</t>
+    <t xml:space="preserve">12.2697858810425</t>
   </si>
   <si>
     <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.901535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1679286956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541170120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891691207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223659515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3324670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910263061523</t>
+    <t xml:space="preserve">11.9015369415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1679306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541179656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223669052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3324680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.591025352478</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9749441146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671125411987</t>
+    <t xml:space="preserve">12.974946975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671115875244</t>
   </si>
   <si>
     <t xml:space="preserve">13.1159791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2256698608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805185317993</t>
+    <t xml:space="preserve">13.2256708145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2805166244507</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">13.2335052490234</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178373336792</t>
+    <t xml:space="preserve">13.2178354263306</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003084182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9592781066895</t>
+    <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
     <t xml:space="preserve">13.0611333847046</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786584854126</t>
+    <t xml:space="preserve">13.1786603927612</t>
   </si>
   <si>
     <t xml:space="preserve">12.8417501449585</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2932910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.395149230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048389434814</t>
+    <t xml:space="preserve">12.2932920455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3951482772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
     <t xml:space="preserve">12.6693773269653</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">12.6850481033325</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0846405029297</t>
+    <t xml:space="preserve">13.0846395492554</t>
   </si>
   <si>
     <t xml:space="preserve">13.2570114135742</t>
@@ -1172,73 +1172,73 @@
     <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118572235107</t>
+    <t xml:space="preserve">13.3118553161621</t>
   </si>
   <si>
     <t xml:space="preserve">13.1238145828247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3510322570801</t>
+    <t xml:space="preserve">13.3510332107544</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801052093506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450550079346</t>
+    <t xml:space="preserve">13.4450521469116</t>
   </si>
   <si>
     <t xml:space="preserve">14.2912464141846</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8397035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982627868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277452468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176441192627</t>
+    <t xml:space="preserve">14.8397026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176469802856</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549648284912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.93372631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855375289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221775054932</t>
+    <t xml:space="preserve">14.9337224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855372428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221803665161</t>
   </si>
   <si>
     <t xml:space="preserve">15.1452732086182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6751680374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669231414795</t>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669202804565</t>
   </si>
   <si>
     <t xml:space="preserve">15.1844482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4743490219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4351711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015676498413</t>
+    <t xml:space="preserve">15.4743461608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4351739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.701566696167</t>
   </si>
   <si>
     <t xml:space="preserve">15.7172355651855</t>
@@ -1247,226 +1247,226 @@
     <t xml:space="preserve">14.8788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.090428352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001180648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157907485962</t>
+    <t xml:space="preserve">15.0042409896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.090425491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001209259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157897949219</t>
   </si>
   <si>
     <t xml:space="preserve">15.356822013855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4978542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858968734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896102905273</t>
+    <t xml:space="preserve">15.4978551864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918750762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702260971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896112442017</t>
   </si>
   <si>
     <t xml:space="preserve">15.5683708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8269290924072</t>
+    <t xml:space="preserve">15.8269271850586</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867139816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926912307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390331268311</t>
+    <t xml:space="preserve">14.8867158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390293121338</t>
   </si>
   <si>
     <t xml:space="preserve">14.9750947952271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6149234771729</t>
+    <t xml:space="preserve">14.6149225234985</t>
   </si>
   <si>
     <t xml:space="preserve">14.4548473358154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3267841339111</t>
+    <t xml:space="preserve">14.3267869949341</t>
   </si>
   <si>
     <t xml:space="preserve">14.030647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866727828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2547512054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508937835693</t>
+    <t xml:space="preserve">13.8945817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.254753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668069839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5508918762207</t>
   </si>
   <si>
     <t xml:space="preserve">14.1907205581665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3352661132812</t>
+    <t xml:space="preserve">15.3352651596069</t>
   </si>
   <si>
     <t xml:space="preserve">15.3192558288574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5273561477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753755569458</t>
+    <t xml:space="preserve">15.5273571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753774642944</t>
   </si>
   <si>
     <t xml:space="preserve">15.2152080535889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4713277816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5833797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.807487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471258163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391225814819</t>
+    <t xml:space="preserve">15.4713287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.583381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8074865341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954355239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471286773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391273498535</t>
   </si>
   <si>
     <t xml:space="preserve">14.8870515823364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9911022186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991073608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191625595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793319702148</t>
+    <t xml:space="preserve">14.9911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1191606521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793329238892</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153974533081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5353584289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6554174423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434568405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034406661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233997344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113477706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992929458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4633235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4953422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672819137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0711402893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230228424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.726975440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1031541824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.239218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628505706787</t>
+    <t xml:space="preserve">15.5353593826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6554136276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114419937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434597015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234016418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.463324546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.49534034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4233045578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3672790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711393356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7269773483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1031532287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2392196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628496170044</t>
   </si>
   <si>
     <t xml:space="preserve">14.4708547592163</t>
@@ -1475,79 +1475,79 @@
     <t xml:space="preserve">14.3748083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5749034881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.422833442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107805252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468450546265</t>
+    <t xml:space="preserve">14.5749044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4228324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107776641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468421936035</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787656784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627573013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2947721481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1266937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1747140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.63893699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4308376312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347883224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666166305542</t>
+    <t xml:space="preserve">14.2787628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627563476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.294771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126690864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1747150421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707605361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6389360427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4308366775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588018417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347902297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666175842285</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466527938843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1186895370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346969604492</t>
+    <t xml:space="preserve">14.1186876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346960067749</t>
   </si>
   <si>
     <t xml:space="preserve">14.0386505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2387456893921</t>
+    <t xml:space="preserve">14.2387466430664</t>
   </si>
   <si>
     <t xml:space="preserve">14.1106834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.782527923584</t>
+    <t xml:space="preserve">13.686484336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825288772583</t>
   </si>
   <si>
     <t xml:space="preserve">13.5584239959717</t>
@@ -1565,58 +1565,58 @@
     <t xml:space="preserve">14.166711807251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8865795135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7184991836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3023014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662368774414</t>
+    <t xml:space="preserve">13.8865776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7184972763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662378311157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262178421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.222264289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982526779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460845947266</t>
+    <t xml:space="preserve">13.1262159347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2222633361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460855484009</t>
   </si>
   <si>
     <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8620929718018</t>
+    <t xml:space="preserve">12.8620920181274</t>
   </si>
   <si>
     <t xml:space="preserve">13.3663330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3823375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744304656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184020996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5023975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5664281845093</t>
+    <t xml:space="preserve">13.3823385238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744285583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5023965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
     <t xml:space="preserve">13.5264072418213</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502294540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741439819336</t>
+    <t xml:space="preserve">13.1502304077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741449356079</t>
   </si>
   <si>
     <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1422252655029</t>
+    <t xml:space="preserve">13.1422243118286</t>
   </si>
   <si>
     <t xml:space="preserve">12.8540887832642</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9661426544189</t>
+    <t xml:space="preserve">12.9661436080933</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140707015991</t>
@@ -1652,94 +1652,94 @@
     <t xml:space="preserve">12.9421300888062</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7500410079956</t>
+    <t xml:space="preserve">12.7500419616699</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.485915184021</t>
+    <t xml:space="preserve">12.4859132766724</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2702856063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424146652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706663131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785753250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104940414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183078765869</t>
+    <t xml:space="preserve">13.2702865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821481704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183097839355</t>
   </si>
   <si>
     <t xml:space="preserve">13.2062568664551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3103036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6064462661743</t>
+    <t xml:space="preserve">13.3103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6064472198486</t>
   </si>
   <si>
     <t xml:space="preserve">13.7745246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5824346542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624708175659</t>
+    <t xml:space="preserve">13.5824327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624717712402</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145437240601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.950608253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704759597778</t>
+    <t xml:space="preserve">13.9506101608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704740524292</t>
   </si>
   <si>
     <t xml:space="preserve">13.862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7665224075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985353469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7905311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826231002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066356658936</t>
+    <t xml:space="preserve">13.7665214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986324310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.654468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985372543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7905321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826221466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066366195679</t>
   </si>
   <si>
     <t xml:space="preserve">13.6784791946411</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">13.6464643478394</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9586133956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9025859832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265024185181</t>
+    <t xml:space="preserve">13.9586124420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9025869369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265014648438</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705701828003</t>
@@ -1769,13 +1769,13 @@
     <t xml:space="preserve">13.6384611129761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4303617477417</t>
+    <t xml:space="preserve">13.4303607940674</t>
   </si>
   <si>
     <t xml:space="preserve">13.4383659362793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3743352890015</t>
+    <t xml:space="preserve">13.3743343353271</t>
   </si>
   <si>
     <t xml:space="preserve">13.4063510894775</t>
@@ -1784,55 +1784,55 @@
     <t xml:space="preserve">13.2462749481201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0301733016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9581394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.742036819458</t>
+    <t xml:space="preserve">13.0301723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9581384658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7420349121094</t>
   </si>
   <si>
     <t xml:space="preserve">13.3983469009399</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4703798294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4943933486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0381765365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9021120071411</t>
+    <t xml:space="preserve">13.4703807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4943923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0381774902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9021129608154</t>
   </si>
   <si>
     <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8861055374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.870096206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9341268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9981565475464</t>
+    <t xml:space="preserve">12.8861045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9901523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8700971603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9341259002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
     <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6144485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0665884017944</t>
+    <t xml:space="preserve">13.6144504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665893554688</t>
   </si>
   <si>
     <t xml:space="preserve">14.2340497970581</t>
@@ -1844,40 +1844,40 @@
     <t xml:space="preserve">14.4098806381226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7699203491211</t>
+    <t xml:space="preserve">14.7699193954468</t>
   </si>
   <si>
     <t xml:space="preserve">14.7950372695923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6694440841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5354776382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187311172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4349994659424</t>
+    <t xml:space="preserve">14.6694431304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522203445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.535475730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773401260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192045211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4350004196167</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3680171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.970871925354</t>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708690643311</t>
   </si>
   <si>
     <t xml:space="preserve">15.071346282959</t>
@@ -1886,37 +1886,37 @@
     <t xml:space="preserve">15.3560256958008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3141641616821</t>
+    <t xml:space="preserve">15.3141651153564</t>
   </si>
   <si>
     <t xml:space="preserve">15.448130607605</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5820960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318603515625</t>
+    <t xml:space="preserve">15.5820980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318584442139</t>
   </si>
   <si>
     <t xml:space="preserve">15.0043611526489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9038848876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8536472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806701660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569753646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4648752212524</t>
+    <t xml:space="preserve">14.9876165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9038867950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806692123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569791793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4648733139038</t>
   </si>
   <si>
     <t xml:space="preserve">15.2555513381958</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">15.4816217422485</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9923715591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756278991699</t>
+    <t xml:space="preserve">15.9923725128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9756259918213</t>
   </si>
   <si>
     <t xml:space="preserve">15.8667793273926</t>
@@ -1937,31 +1937,31 @@
     <t xml:space="preserve">15.8165407180786</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7830495834351</t>
+    <t xml:space="preserve">15.7830476760864</t>
   </si>
   <si>
     <t xml:space="preserve">15.7411813735962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328090667725</t>
+    <t xml:space="preserve">15.7328128814697</t>
   </si>
   <si>
     <t xml:space="preserve">15.4983682632446</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1215839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462255477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.079719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8452739715576</t>
+    <t xml:space="preserve">15.1215829849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634492874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797204971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8452758789062</t>
   </si>
   <si>
     <t xml:space="preserve">14.8787679672241</t>
@@ -1973,22 +1973,22 @@
     <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1299562454224</t>
+    <t xml:space="preserve">15.0294828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1299543380737</t>
   </si>
   <si>
     <t xml:space="preserve">15.0378532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.42662525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684925079346</t>
+    <t xml:space="preserve">14.4266271591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596420288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684915542603</t>
   </si>
   <si>
     <t xml:space="preserve">14.3094053268433</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">14.1503190994263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6275777816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526975631714</t>
+    <t xml:space="preserve">14.6275768280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196807861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526985168457</t>
   </si>
   <si>
     <t xml:space="preserve">14.3512706756592</t>
@@ -2012,67 +2012,67 @@
     <t xml:space="preserve">14.5940866470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6024608612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744800567627</t>
+    <t xml:space="preserve">14.6024599075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457521438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7448015213013</t>
   </si>
   <si>
     <t xml:space="preserve">14.9122581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1383295059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.515115737915</t>
+    <t xml:space="preserve">15.1383304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151138305664</t>
   </si>
   <si>
     <t xml:space="preserve">15.0964660644531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629739761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373798370361</t>
+    <t xml:space="preserve">15.0629730224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373779296875</t>
   </si>
   <si>
     <t xml:space="preserve">15.4397563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8500308990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244367599487</t>
+    <t xml:space="preserve">15.8500328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244386672974</t>
   </si>
   <si>
     <t xml:space="preserve">15.8751497268677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6993179321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9002704620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490812301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.54860496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899940490723</t>
+    <t xml:space="preserve">15.6993198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6072158813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9002685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490831375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5486030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899959564209</t>
   </si>
   <si>
     <t xml:space="preserve">15.3895177841187</t>
@@ -2084,19 +2084,19 @@
     <t xml:space="preserve">15.3644008636475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2722969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.92063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132125854492</t>
+    <t xml:space="preserve">15.2722978591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021107673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206323623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.113208770752</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471771240234</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">15.2304334640503</t>
   </si>
   <si>
-    <t xml:space="preserve">15.180193901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969394683838</t>
+    <t xml:space="preserve">15.1801929473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969404220581</t>
   </si>
   <si>
     <t xml:space="preserve">15.3057889938354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.88352394104</t>
+    <t xml:space="preserve">15.8835220336914</t>
   </si>
   <si>
     <t xml:space="preserve">15.8249130249023</t>
@@ -2126,34 +2126,34 @@
     <t xml:space="preserve">15.1718215942383</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2136869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220602035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067415237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672536849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825733184814</t>
+    <t xml:space="preserve">15.2136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.506739616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672517776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825714111328</t>
   </si>
   <si>
     <t xml:space="preserve">15.4732494354248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.933762550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942756652832</t>
+    <t xml:space="preserve">15.9337644577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942775726318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7961769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.637092590332</t>
+    <t xml:space="preserve">16.6370944976807</t>
   </si>
   <si>
     <t xml:space="preserve">16.201696395874</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">16.2435626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5198707580566</t>
+    <t xml:space="preserve">16.519868850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.1179676055908</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">16.0426120758057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761051177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0258636474609</t>
+    <t xml:space="preserve">16.0761032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0258617401123</t>
   </si>
   <si>
     <t xml:space="preserve">16.2854270935059</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">16.6705837249756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.628719329834</t>
+    <t xml:space="preserve">16.6287174224854</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282421112061</t>
@@ -2201,16 +2201,16 @@
     <t xml:space="preserve">16.0928497314453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1263408660889</t>
+    <t xml:space="preserve">16.1263389587402</t>
   </si>
   <si>
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3021697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366153717041</t>
+    <t xml:space="preserve">16.3021717071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366134643555</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">17.2483177185059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5330009460449</t>
+    <t xml:space="preserve">17.5329990386963</t>
   </si>
   <si>
     <t xml:space="preserve">18.0353775024414</t>
@@ -2237,19 +2237,19 @@
     <t xml:space="preserve">18.0856151580811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0521221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669673919678</t>
+    <t xml:space="preserve">18.0521240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9516468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669654846191</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2028350830078</t>
+    <t xml:space="preserve">18.2028369903564</t>
   </si>
   <si>
     <t xml:space="preserve">17.8679180145264</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">18.2363300323486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3702964782715</t>
+    <t xml:space="preserve">18.3702945709229</t>
   </si>
   <si>
     <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382312774658</t>
+    <t xml:space="preserve">18.6382331848145</t>
   </si>
   <si>
     <t xml:space="preserve">18.4205341339111</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">18.4540252685547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.554500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9229125976562</t>
+    <t xml:space="preserve">18.5545024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9229106903076</t>
   </si>
   <si>
     <t xml:space="preserve">19.2410850524902</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">19.3248138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4420356750488</t>
+    <t xml:space="preserve">19.4420337677002</t>
   </si>
   <si>
     <t xml:space="preserve">19.3583068847656</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2745761871338</t>
+    <t xml:space="preserve">19.2745742797852</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387046813965</t>
+    <t xml:space="preserve">18.7387065887451</t>
   </si>
   <si>
     <t xml:space="preserve">18.3368034362793</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">12.5175895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2998924255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3082666397095</t>
+    <t xml:space="preserve">12.2998933792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
     <t xml:space="preserve">12.0235843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6300554275513</t>
+    <t xml:space="preserve">11.630054473877</t>
   </si>
   <si>
     <t xml:space="preserve">12.1156873703003</t>
@@ -2345,16 +2345,16 @@
     <t xml:space="preserve">12.7269144058228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7687788009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144504547119</t>
+    <t xml:space="preserve">12.7687797546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144495010376</t>
   </si>
   <si>
     <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8860015869141</t>
+    <t xml:space="preserve">12.8860025405884</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563129425049</t>
@@ -2363,28 +2363,28 @@
     <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9912328720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591676712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0917072296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0079784393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8907566070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1921854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424211502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656368255615</t>
+    <t xml:space="preserve">13.9912309646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0917081832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0079774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.89075756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656387329102</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572654724121</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.217303276062</t>
+    <t xml:space="preserve">13.832145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173023223877</t>
   </si>
   <si>
     <t xml:space="preserve">14.2926588058472</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6898059844971</t>
+    <t xml:space="preserve">13.6898069381714</t>
   </si>
   <si>
     <t xml:space="preserve">13.7986536026001</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">13.9493675231934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828615188599</t>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">14.5103569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0354623794556</t>
+    <t xml:space="preserve">15.0354604721069</t>
   </si>
   <si>
     <t xml:space="preserve">14.6503849029541</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">14.9829511642456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1317300796509</t>
+    <t xml:space="preserve">15.1317310333252</t>
   </si>
   <si>
     <t xml:space="preserve">15.1229772567749</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906890869141</t>
+    <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
@@ -2459,13 +2459,13 @@
     <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4684391021729</t>
+    <t xml:space="preserve">17.4684410095215</t>
   </si>
   <si>
     <t xml:space="preserve">17.0833625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0308513641357</t>
+    <t xml:space="preserve">17.0308532714844</t>
   </si>
   <si>
     <t xml:space="preserve">17.1358737945557</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357357025146</t>
+    <t xml:space="preserve">16.4357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">16.2431983947754</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">16.4707412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7945594787598</t>
+    <t xml:space="preserve">16.7945575714111</t>
   </si>
   <si>
     <t xml:space="preserve">17.2846527099609</t>
@@ -2522,19 +2522,19 @@
     <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2735977172852</t>
+    <t xml:space="preserve">18.2735996246338</t>
   </si>
   <si>
     <t xml:space="preserve">17.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.941032409668</t>
+    <t xml:space="preserve">17.9410343170166</t>
   </si>
   <si>
     <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3436107635498</t>
+    <t xml:space="preserve">18.3436088562012</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4486312866211</t>
+    <t xml:space="preserve">18.4486331939697</t>
   </si>
   <si>
     <t xml:space="preserve">18.3786182403564</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.80100440979</t>
+    <t xml:space="preserve">17.8010063171387</t>
   </si>
   <si>
     <t xml:space="preserve">17.8885231018066</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.730993270874</t>
+    <t xml:space="preserve">17.7309913635254</t>
   </si>
   <si>
     <t xml:space="preserve">18.0110454559326</t>
@@ -2609,16 +2609,16 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787563323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1312656402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.586353302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4638328552246</t>
+    <t xml:space="preserve">19.0787544250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1312675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5863552093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4638347625732</t>
   </si>
   <si>
     <t xml:space="preserve">19.34130859375</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">19.4113235473633</t>
   </si>
   <si>
-    <t xml:space="preserve">19.253791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1137657165527</t>
+    <t xml:space="preserve">19.2537899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1137638092041</t>
   </si>
   <si>
     <t xml:space="preserve">18.9562339782715</t>
@@ -2648,25 +2648,25 @@
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7461910247803</t>
+    <t xml:space="preserve">18.8337097167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7461891174316</t>
   </si>
   <si>
     <t xml:space="preserve">18.6061630249023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3611164093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.518648147583</t>
+    <t xml:space="preserve">18.3611145019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
     <t xml:space="preserve">18.4136257171631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7811965942383</t>
+    <t xml:space="preserve">18.7811985015869</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">19.4463272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7438850402832</t>
+    <t xml:space="preserve">19.7438869476318</t>
   </si>
   <si>
     <t xml:space="preserve">19.8489093780518</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662712097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7636947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0087413787842</t>
+    <t xml:space="preserve">18.9912414550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.763692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0087432861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.2035846710205</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820724487305</t>
+    <t xml:space="preserve">16.8820743560791</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0635566711426</t>
+    <t xml:space="preserve">18.0635547637939</t>
   </si>
   <si>
     <t xml:space="preserve">18.2210884094238</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">18.1685791015625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9935417175293</t>
+    <t xml:space="preserve">17.9935436248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060249328613</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">17.765998840332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5909652709961</t>
+    <t xml:space="preserve">17.5909633636475</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
@@ -2765,31 +2765,31 @@
     <t xml:space="preserve">18.1860809326172</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5711574554443</t>
+    <t xml:space="preserve">18.5711555480957</t>
   </si>
   <si>
     <t xml:space="preserve">19.2362861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714298248291</t>
+    <t xml:space="preserve">19.9714317321777</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316818237305</t>
+    <t xml:space="preserve">20.4790306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
     <t xml:space="preserve">21.1266593933105</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7042713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8968105316162</t>
+    <t xml:space="preserve">21.704273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8968124389648</t>
   </si>
   <si>
     <t xml:space="preserve">21.9143161773682</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">22.229377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4219150543213</t>
+    <t xml:space="preserve">22.4219131469727</t>
   </si>
   <si>
     <t xml:space="preserve">22.9470157623291</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745643615723</t>
+    <t xml:space="preserve">23.1745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
@@ -2885,16 +2885,16 @@
     <t xml:space="preserve">21.3717079162598</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4615287780762</t>
+    <t xml:space="preserve">20.4615268707275</t>
   </si>
   <si>
     <t xml:space="preserve">20.0414447784424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4592266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4394187927246</t>
+    <t xml:space="preserve">21.4592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.439416885376</t>
   </si>
   <si>
     <t xml:space="preserve">22.2118721008301</t>
@@ -2921,10 +2921,10 @@
     <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2643852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5969505310059</t>
+    <t xml:space="preserve">22.26438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5969486236572</t>
   </si>
   <si>
     <t xml:space="preserve">22.3168926239014</t>
@@ -2942,10 +2942,10 @@
     <t xml:space="preserve">22.1068515777588</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7217750549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8092956542969</t>
+    <t xml:space="preserve">21.7217769622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8092937469482</t>
   </si>
   <si>
     <t xml:space="preserve">21.1966724395752</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">22.3869094848633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267993927002</t>
+    <t xml:space="preserve">21.8267974853516</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942321777344</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4767303466797</t>
+    <t xml:space="preserve">21.4767284393311</t>
   </si>
   <si>
     <t xml:space="preserve">20.3915138244629</t>
@@ -4695,6 +4695,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.9599990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0799999237061</t>
   </si>
 </sst>
 </file>
@@ -61326,7 +61329,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6493171296</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>180090</v>
@@ -61347,6 +61350,32 @@
         <v>1560</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6493287037</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>228896</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>24.2399997711182</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>23.8799991607666</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>24.0599994659424</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>24.0799999237061</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1563">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55664920806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674789428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26927471160889</t>
+    <t xml:space="preserve">8.79373645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55664825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674884796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
     <t xml:space="preserve">8.34830093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57101821899414</t>
+    <t xml:space="preserve">8.57101917266846</t>
   </si>
   <si>
     <t xml:space="preserve">8.53509616851807</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98189640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
+    <t xml:space="preserve">7.9818959236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247661590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053478240967</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">8.38422298431396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28364181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208686828613</t>
+    <t xml:space="preserve">8.28363990783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645874023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
   </si>
   <si>
     <t xml:space="preserve">8.1902437210083</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">8.11121463775635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72325658798218</t>
+    <t xml:space="preserve">7.72325706481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.6585955619812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81665468215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480867385864</t>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74481010437012</t>
   </si>
   <si>
     <t xml:space="preserve">8.01063346862793</t>
@@ -125,49 +125,49 @@
     <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820724487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073167800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92441987991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587471008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966064453125</t>
+    <t xml:space="preserve">7.83820629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500247955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9244213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878936767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04655361175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0896635055542</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529354095459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160486221313</t>
+    <t xml:space="preserve">8.13276672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160438537598</t>
   </si>
   <si>
     <t xml:space="preserve">7.97471189498901</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10403156280518</t>
+    <t xml:space="preserve">8.10402965545654</t>
   </si>
   <si>
     <t xml:space="preserve">8.11839962005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21898078918457</t>
+    <t xml:space="preserve">8.21898174285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.33393287658691</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">8.68596839904785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59257221221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985397338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
+    <t xml:space="preserve">8.59257125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228019714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31237888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3698558807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111785888672</t>
   </si>
   <si>
     <t xml:space="preserve">8.49917316436768</t>
@@ -215,31 +215,31 @@
     <t xml:space="preserve">8.47043609619141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22616672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432357788086</t>
+    <t xml:space="preserve">8.22616577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432167053223</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150665283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2333517074585</t>
+    <t xml:space="preserve">8.23335075378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.03218650817871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99626445770264</t>
+    <t xml:space="preserve">7.99626541137695</t>
   </si>
   <si>
     <t xml:space="preserve">8.44169807434082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30519390106201</t>
+    <t xml:space="preserve">8.30519485473633</t>
   </si>
   <si>
     <t xml:space="preserve">8.07527351379395</t>
@@ -248,34 +248,34 @@
     <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24804496765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795204162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560543060303</t>
+    <t xml:space="preserve">8.248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560829162598</t>
   </si>
   <si>
     <t xml:space="preserve">8.33067798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23302364349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790271759033</t>
+    <t xml:space="preserve">8.23302268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18043899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14287948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
     <t xml:space="preserve">8.16541576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21048736572266</t>
+    <t xml:space="preserve">8.21048831939697</t>
   </si>
   <si>
     <t xml:space="preserve">8.15039253234863</t>
@@ -284,175 +284,175 @@
     <t xml:space="preserve">8.01517963409424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73723936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530643463135</t>
+    <t xml:space="preserve">7.73723888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530595779419</t>
   </si>
   <si>
     <t xml:space="preserve">7.34286403656006</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84991598129272</t>
+    <t xml:space="preserve">7.8499174118042</t>
   </si>
   <si>
     <t xml:space="preserve">7.82738161087036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69967937469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728677749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906057357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253211975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4029598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484676361084</t>
+    <t xml:space="preserve">7.69968032836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728630065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3090615272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253259658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295839309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216823577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484580993652</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46681070327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948875427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977325439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.684654712677</t>
+    <t xml:space="preserve">7.65460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910894393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4668116569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6020245552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977373123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465518951416</t>
   </si>
   <si>
     <t xml:space="preserve">7.61704874038696</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66211938858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207149505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7447509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958501815796</t>
+    <t xml:space="preserve">7.66211891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475049972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6395845413208</t>
   </si>
   <si>
     <t xml:space="preserve">7.77479839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59451246261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685907363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456130981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.707190990448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714405059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986999511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742950439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953712463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50437021255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807884216309</t>
+    <t xml:space="preserve">7.59451341629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685859680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62455987930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719194412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714357376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986808776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742998123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953617095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197761535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807931900024</t>
   </si>
   <si>
     <t xml:space="preserve">7.49310302734375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752481460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996387481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757175445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029865264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8123574256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7147045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6696310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427585601807</t>
+    <t xml:space="preserve">7.47056722640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001272201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757223129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221422195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963243484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427490234375</t>
   </si>
   <si>
     <t xml:space="preserve">7.39169263839722</t>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939487457275</t>
+    <t xml:space="preserve">7.52690601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939535140991</t>
   </si>
   <si>
     <t xml:space="preserve">7.45554304122925</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">7.38418054580688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652477264404</t>
+    <t xml:space="preserve">7.2865252494812</t>
   </si>
   <si>
     <t xml:space="preserve">7.5081262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53441762924194</t>
+    <t xml:space="preserve">7.53441858291626</t>
   </si>
   <si>
     <t xml:space="preserve">7.29403781890869</t>
@@ -488,22 +488,22 @@
     <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02736520767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92220020294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332466125488</t>
+    <t xml:space="preserve">7.02736473083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990148544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219877243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332513809204</t>
   </si>
   <si>
     <t xml:space="preserve">6.95975971221924</t>
@@ -512,97 +512,97 @@
     <t xml:space="preserve">6.94849109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92971038818359</t>
+    <t xml:space="preserve">6.92971181869507</t>
   </si>
   <si>
     <t xml:space="preserve">6.83956861495972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215230941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581352233887</t>
+    <t xml:space="preserve">6.81327724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215183258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581256866455</t>
   </si>
   <si>
     <t xml:space="preserve">6.79449796676636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79074144363403</t>
+    <t xml:space="preserve">6.79074239730835</t>
   </si>
   <si>
     <t xml:space="preserve">6.90341901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0311222076416</t>
+    <t xml:space="preserve">7.03112125396729</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717601776123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985311508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0160984992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384719848633</t>
+    <t xml:space="preserve">7.01985359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384910583496</t>
   </si>
   <si>
     <t xml:space="preserve">7.19638299942017</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47432327270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446504592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972822189331</t>
+    <t xml:space="preserve">7.47432231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446599960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972583770752</t>
   </si>
   <si>
     <t xml:space="preserve">7.55695343017578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78982162475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747453689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733324050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0677604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10532093048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508241653442</t>
+    <t xml:space="preserve">7.78982210159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78231000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513078689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10531997680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9550838470459</t>
   </si>
   <si>
     <t xml:space="preserve">8.29311847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20297527313232</t>
+    <t xml:space="preserve">8.20297622680664</t>
   </si>
   <si>
     <t xml:space="preserve">8.21799945831299</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26307010650635</t>
+    <t xml:space="preserve">8.26307106018066</t>
   </si>
   <si>
     <t xml:space="preserve">8.25555801391602</t>
@@ -626,31 +626,31 @@
     <t xml:space="preserve">8.56354522705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57857036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69876003265381</t>
+    <t xml:space="preserve">8.57856941223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69875907897949</t>
   </si>
   <si>
     <t xml:space="preserve">8.76636600494385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7738790512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72880744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78890323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7513427734375</t>
+    <t xml:space="preserve">8.77387809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7288064956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78890228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75134372711182</t>
   </si>
   <si>
     <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86402034759521</t>
+    <t xml:space="preserve">8.86402225494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.87904453277588</t>
@@ -662,76 +662,76 @@
     <t xml:space="preserve">8.91660404205322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99172401428223</t>
+    <t xml:space="preserve">8.99172210693359</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93914031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98421192169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378326416016</t>
+    <t xml:space="preserve">8.9391393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98421096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378421783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096248626709</t>
+    <t xml:space="preserve">8.51096153259277</t>
   </si>
   <si>
     <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61612987518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349685668945</t>
+    <t xml:space="preserve">8.61612892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349876403809</t>
   </si>
   <si>
     <t xml:space="preserve">8.5410099029541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631858825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392551422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909099578857</t>
+    <t xml:space="preserve">8.73631954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392646789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909290313721</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85650825500488</t>
+    <t xml:space="preserve">8.8565092086792</t>
   </si>
   <si>
     <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26110363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30811500549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28460788726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38646507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42564010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3472900390625</t>
+    <t xml:space="preserve">9.2611026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30811405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28460884094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38646602630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42564105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34728908538818</t>
   </si>
   <si>
     <t xml:space="preserve">9.36295986175537</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">9.41780662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966094970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
+    <t xml:space="preserve">9.46481704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966190338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533172607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172729492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73121070861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74688053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77821922302246</t>
+    <t xml:space="preserve">9.73120975494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74688148498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">9.79389190673828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69987010955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84873676300049</t>
+    <t xml:space="preserve">9.69986915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8487377166748</t>
   </si>
   <si>
     <t xml:space="preserve">9.80956172943115</t>
@@ -782,76 +782,76 @@
     <t xml:space="preserve">9.71553897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59801387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69203567504883</t>
+    <t xml:space="preserve">9.59801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69203472137451</t>
   </si>
   <si>
     <t xml:space="preserve">9.6215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64502429962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234214782715</t>
+    <t xml:space="preserve">9.64502334594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234310150146</t>
   </si>
   <si>
     <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55100345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55883693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77038478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.754714012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399398803711</t>
+    <t xml:space="preserve">9.55100250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55883598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72337532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75471496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6371898651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70770359039307</t>
+    <t xml:space="preserve">9.63718891143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70770454406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.83306789398193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543073654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3266792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031721115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326574325562</t>
+    <t xml:space="preserve">10.0211095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543064117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326678276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561626434326</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248239517212</t>
+    <t xml:space="preserve">10.2248229980469</t>
   </si>
   <si>
     <t xml:space="preserve">10.2953386306763</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5695667266846</t>
+    <t xml:space="preserve">10.5695676803589</t>
   </si>
   <si>
     <t xml:space="preserve">10.6165790557861</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6244134902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.522557258606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4833812713623</t>
+    <t xml:space="preserve">10.6244144439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5225563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.483380317688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5068864822388</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870927810669</t>
+    <t xml:space="preserve">10.6870946884155</t>
   </si>
   <si>
     <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6557540893555</t>
+    <t xml:space="preserve">10.6557531356812</t>
   </si>
   <si>
     <t xml:space="preserve">10.6087427139282</t>
@@ -923,28 +923,28 @@
     <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.514720916748</t>
+    <t xml:space="preserve">10.5147228240967</t>
   </si>
   <si>
     <t xml:space="preserve">10.7027635574341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0004978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0475091934204</t>
+    <t xml:space="preserve">11.0004987716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0475082397461</t>
   </si>
   <si>
     <t xml:space="preserve">11.0318384170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0631790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9769945144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
+    <t xml:space="preserve">11.0631799697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9769926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
     <t xml:space="preserve">11.0161695480347</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">11.21204662323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765830993652</t>
+    <t xml:space="preserve">11.3765850067139</t>
   </si>
   <si>
     <t xml:space="preserve">11.4157590866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4941091537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8466901779175</t>
+    <t xml:space="preserve">11.4941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.784010887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8466911315918</t>
   </si>
   <si>
     <t xml:space="preserve">11.9250421524048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5411195755005</t>
+    <t xml:space="preserve">11.5411214828491</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291641235352</t>
@@ -989,58 +989,58 @@
     <t xml:space="preserve">11.7605056762695</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485483169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388547897339</t>
+    <t xml:space="preserve">11.9485473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388557434082</t>
   </si>
   <si>
     <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9877223968506</t>
+    <t xml:space="preserve">11.9877233505249</t>
   </si>
   <si>
     <t xml:space="preserve">11.9642171859741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0739078521729</t>
+    <t xml:space="preserve">12.0739068984985</t>
   </si>
   <si>
     <t xml:space="preserve">12.1600952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2462825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227745056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5126752853394</t>
+    <t xml:space="preserve">12.2462816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512674331665</t>
   </si>
   <si>
     <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5361804962158</t>
+    <t xml:space="preserve">12.5361814498901</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347328186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794794082642</t>
+    <t xml:space="preserve">12.3794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970054626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8025741577148</t>
+    <t xml:space="preserve">12.4970045089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8025751113892</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
@@ -1049,25 +1049,25 @@
     <t xml:space="preserve">12.5831909179688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4813365936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537065505981</t>
+    <t xml:space="preserve">12.4813346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772146224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6458730697632</t>
+    <t xml:space="preserve">12.6772127151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6458711624146</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089628219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1130847930908</t>
+    <t xml:space="preserve">12.1130838394165</t>
   </si>
   <si>
     <t xml:space="preserve">12.2697858810425</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541179656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891700744629</t>
+    <t xml:space="preserve">12.2541160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891691207886</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223669052124</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">12.3324680328369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.591025352478</t>
+    <t xml:space="preserve">12.5910272598267</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201011657715</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">12.974946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9671115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159791946411</t>
+    <t xml:space="preserve">12.9671106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159801483154</t>
   </si>
   <si>
     <t xml:space="preserve">13.2256708145142</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2805166244507</t>
+    <t xml:space="preserve">13.2805156707764</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2335052490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178354263306</t>
+    <t xml:space="preserve">13.2335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178344726562</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003084182739</t>
@@ -1130,16 +1130,16 @@
     <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786603927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2619514465332</t>
+    <t xml:space="preserve">13.0611343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2619524002075</t>
   </si>
   <si>
     <t xml:space="preserve">12.2932920455933</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850481033325</t>
+    <t xml:space="preserve">12.6850471496582</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846395492554</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">13.2570114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3118553161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238145828247</t>
+    <t xml:space="preserve">13.1081428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3118572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238136291504</t>
   </si>
   <si>
     <t xml:space="preserve">13.3510332107544</t>
@@ -1184,37 +1184,37 @@
     <t xml:space="preserve">13.6801052093506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450521469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.082592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176469802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9337224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221803665161</t>
+    <t xml:space="preserve">13.4450540542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912454605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397054672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277471542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0825929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176431655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.93372631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855375289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221775054932</t>
   </si>
   <si>
     <t xml:space="preserve">15.1452732086182</t>
@@ -1223,100 +1223,100 @@
     <t xml:space="preserve">14.6751651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0669202804565</t>
+    <t xml:space="preserve">15.0669231414795</t>
   </si>
   <si>
     <t xml:space="preserve">15.1844482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4743461608887</t>
+    <t xml:space="preserve">15.474347114563</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4351739883423</t>
+    <t xml:space="preserve">15.435170173645</t>
   </si>
   <si>
     <t xml:space="preserve">15.701566696167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7172355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042409896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.090425491333</t>
+    <t xml:space="preserve">15.7172374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788805007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042400360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904273986816</t>
   </si>
   <si>
     <t xml:space="preserve">15.1374378204346</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2001209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157897949219</t>
+    <t xml:space="preserve">15.2001171112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157888412476</t>
   </si>
   <si>
     <t xml:space="preserve">15.356822013855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4978551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821815490723</t>
+    <t xml:space="preserve">15.4978532791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821805953979</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918750762939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6702260971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858959197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896112442017</t>
+    <t xml:space="preserve">15.6702270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858978271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.889609336853</t>
   </si>
   <si>
     <t xml:space="preserve">15.5683708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8269271850586</t>
+    <t xml:space="preserve">15.8269281387329</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867158889771</t>
+    <t xml:space="preserve">14.8867139816284</t>
   </si>
   <si>
     <t xml:space="preserve">14.7926931381226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8710460662842</t>
+    <t xml:space="preserve">14.8710441589355</t>
   </si>
   <si>
     <t xml:space="preserve">14.8390293121338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9750947952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6149225234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267869949341</t>
+    <t xml:space="preserve">14.9750919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548482894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267850875854</t>
   </si>
   <si>
     <t xml:space="preserve">14.030647277832</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">14.0866737365723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2467489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867679595947</t>
+    <t xml:space="preserve">14.2467498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
     <t xml:space="preserve">14.254753112793</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">14.5348854064941</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5508918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907205581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352651596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273571014404</t>
+    <t xml:space="preserve">14.5508937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907224655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192567825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273551940918</t>
   </si>
   <si>
     <t xml:space="preserve">15.5753774642944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2152080535889</t>
+    <t xml:space="preserve">15.2152070999146</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713287353516</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">15.583381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8074865341187</t>
+    <t xml:space="preserve">15.8074884414673</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073932647705</t>
@@ -1382,22 +1382,22 @@
     <t xml:space="preserve">15.0471286773682</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1351699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870515823364</t>
+    <t xml:space="preserve">15.1351709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391254425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870525360107</t>
   </si>
   <si>
     <t xml:space="preserve">14.9911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8630390167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991054534912</t>
+    <t xml:space="preserve">14.8630380630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991035461426</t>
   </si>
   <si>
     <t xml:space="preserve">15.1191606521606</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">15.5353593826294</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6554136276245</t>
+    <t xml:space="preserve">15.6554155349731</t>
   </si>
   <si>
     <t xml:space="preserve">15.7114419937134</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7434597015381</t>
+    <t xml:space="preserve">15.7434568405151</t>
   </si>
   <si>
     <t xml:space="preserve">15.7034378051758</t>
@@ -1439,43 +1439,43 @@
     <t xml:space="preserve">15.49534034729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4233045578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672790527344</t>
+    <t xml:space="preserve">15.4233064651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3672800064087</t>
   </si>
   <si>
     <t xml:space="preserve">15.0711393356323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8230218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349805831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7269773483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1031532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2392196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708547592163</t>
+    <t xml:space="preserve">14.8230228424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7269763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1031560897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2392206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070135116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708557128906</t>
   </si>
   <si>
     <t xml:space="preserve">14.3748083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5749044418335</t>
+    <t xml:space="preserve">14.5749034881592</t>
   </si>
   <si>
     <t xml:space="preserve">14.4228324890137</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">14.3107776641846</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468421936035</t>
+    <t xml:space="preserve">14.4468431472778</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627563476562</t>
+    <t xml:space="preserve">14.2787637710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627553939819</t>
   </si>
   <si>
     <t xml:space="preserve">14.294771194458</t>
@@ -1502,13 +1502,13 @@
     <t xml:space="preserve">14.126690864563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747150421143</t>
+    <t xml:space="preserve">14.1747131347656</t>
   </si>
   <si>
     <t xml:space="preserve">14.2707605361938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6389360427856</t>
+    <t xml:space="preserve">14.6389350891113</t>
   </si>
   <si>
     <t xml:space="preserve">14.4308366775513</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">14.3347902297974</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666175842285</t>
+    <t xml:space="preserve">14.1587076187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666156768799</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466527938843</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">14.1346960067749</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0386505126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2387466430664</t>
+    <t xml:space="preserve">14.0386514663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2387456893921</t>
   </si>
   <si>
     <t xml:space="preserve">14.1106834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.686484336853</t>
+    <t xml:space="preserve">13.6864833831787</t>
   </si>
   <si>
     <t xml:space="preserve">13.7825288772583</t>
@@ -1556,46 +1556,46 @@
     <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4863891601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3903427124023</t>
+    <t xml:space="preserve">13.4863882064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.390341758728</t>
   </si>
   <si>
     <t xml:space="preserve">14.166711807251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8865776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7184972763062</t>
+    <t xml:space="preserve">13.8865785598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7184982299805</t>
   </si>
   <si>
     <t xml:space="preserve">13.3023023605347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662378311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583288192749</t>
+    <t xml:space="preserve">13.1662368774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583297729492</t>
   </si>
   <si>
     <t xml:space="preserve">13.1262159347534</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460855484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.006160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620920181274</t>
+    <t xml:space="preserve">13.222264289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982526779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460845947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0061616897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620929718018</t>
   </si>
   <si>
     <t xml:space="preserve">13.3663330078125</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">13.5184030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5984401702881</t>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
@@ -1619,46 +1619,46 @@
     <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5264072418213</t>
+    <t xml:space="preserve">13.526406288147</t>
   </si>
   <si>
     <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8781003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422243118286</t>
+    <t xml:space="preserve">13.1502294540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741458892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.878101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422252655029</t>
   </si>
   <si>
     <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7340316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661436080933</t>
+    <t xml:space="preserve">12.7340307235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140707015991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9421300888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7500419616699</t>
+    <t xml:space="preserve">12.9421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.750039100647</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4859132766724</t>
+    <t xml:space="preserve">12.485915184021</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
@@ -1667,88 +1667,88 @@
     <t xml:space="preserve">13.2702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9821481704712</t>
+    <t xml:space="preserve">12.9821491241455</t>
   </si>
   <si>
     <t xml:space="preserve">13.5424156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0706644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104949951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062568664551</t>
+    <t xml:space="preserve">14.0706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785753250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104940414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183078765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062559127808</t>
   </si>
   <si>
     <t xml:space="preserve">13.3103046417236</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064472198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7745246887207</t>
+    <t xml:space="preserve">13.6064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7745237350464</t>
   </si>
   <si>
     <t xml:space="preserve">13.5824327468872</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6624717712402</t>
+    <t xml:space="preserve">13.6624736785889</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145437240601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9506101608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704740524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.862566947937</t>
+    <t xml:space="preserve">13.9506092071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704759597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8625650405884</t>
   </si>
   <si>
     <t xml:space="preserve">13.7665214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9986324310303</t>
+    <t xml:space="preserve">13.998631477356</t>
   </si>
   <si>
     <t xml:space="preserve">13.990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">13.654468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103998184204</t>
+    <t xml:space="preserve">13.6544694900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5104007720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.7905321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826221466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066366195679</t>
+    <t xml:space="preserve">13.9826231002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066347122192</t>
   </si>
   <si>
     <t xml:space="preserve">13.6784791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6224527359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6464643478394</t>
+    <t xml:space="preserve">13.6224546432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6464624404907</t>
   </si>
   <si>
     <t xml:space="preserve">13.9586124420166</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">13.9025869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265014648438</t>
+    <t xml:space="preserve">13.7265033721924</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705701828003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0786695480347</t>
+    <t xml:space="preserve">14.0786685943604</t>
   </si>
   <si>
     <t xml:space="preserve">13.6384611129761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4303607940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4383659362793</t>
+    <t xml:space="preserve">13.4303617477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4383668899536</t>
   </si>
   <si>
     <t xml:space="preserve">13.3743343353271</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">13.4063510894775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2462749481201</t>
+    <t xml:space="preserve">13.2462739944458</t>
   </si>
   <si>
     <t xml:space="preserve">13.0301723480225</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">12.9581384658813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7420349121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3983469009399</t>
+    <t xml:space="preserve">12.7420358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3983478546143</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703807830811</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">13.0381774902344</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9021129608154</t>
+    <t xml:space="preserve">12.9021120071411</t>
   </si>
   <si>
     <t xml:space="preserve">12.9101152420044</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901523590088</t>
+    <t xml:space="preserve">12.9901533126831</t>
   </si>
   <si>
     <t xml:space="preserve">12.8700971603394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341259002686</t>
+    <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
     <t xml:space="preserve">12.9981575012207</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">14.0665893554688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2340497970581</t>
+    <t xml:space="preserve">14.2340488433838</t>
   </si>
   <si>
     <t xml:space="preserve">14.3931350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4098806381226</t>
+    <t xml:space="preserve">14.4098796844482</t>
   </si>
   <si>
     <t xml:space="preserve">14.7699193954468</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">14.7950372695923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6694431304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522203445435</t>
+    <t xml:space="preserve">14.6694440841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522212982178</t>
   </si>
   <si>
     <t xml:space="preserve">14.535475730896</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">14.5773401260376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6192045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187292098999</t>
+    <t xml:space="preserve">14.6192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187311172485</t>
   </si>
   <si>
     <t xml:space="preserve">14.4350004196167</t>
@@ -1874,46 +1874,46 @@
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.368016242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141651153564</t>
+    <t xml:space="preserve">14.3680171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708681106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141622543335</t>
   </si>
   <si>
     <t xml:space="preserve">15.448130607605</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5820980072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318584442139</t>
+    <t xml:space="preserve">15.5820960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318565368652</t>
   </si>
   <si>
     <t xml:space="preserve">15.0043611526489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876165390015</t>
+    <t xml:space="preserve">14.9876146316528</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038867950439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8536491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569791793823</t>
+    <t xml:space="preserve">14.8536472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806711196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569772720337</t>
   </si>
   <si>
     <t xml:space="preserve">15.4648733139038</t>
@@ -1925,40 +1925,40 @@
     <t xml:space="preserve">15.4816217422485</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9923725128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756259918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165407180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328128814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983682632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215829849243</t>
+    <t xml:space="preserve">15.992374420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9756278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.81653881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830495834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.498366355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215839385986</t>
   </si>
   <si>
     <t xml:space="preserve">15.1634492874146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0462245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797204971313</t>
+    <t xml:space="preserve">15.0462255477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797176361084</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">15.0294828414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1299543380737</t>
+    <t xml:space="preserve">15.129958152771</t>
   </si>
   <si>
     <t xml:space="preserve">15.0378532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4266271591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596420288086</t>
+    <t xml:space="preserve">14.4266262054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596448898315</t>
   </si>
   <si>
     <t xml:space="preserve">14.4684915542603</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">14.3094053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503190994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275768280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196807861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526985168457</t>
+    <t xml:space="preserve">14.150318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275777816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526966094971</t>
   </si>
   <si>
     <t xml:space="preserve">14.3512706756592</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">14.6024599075317</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9457521438599</t>
+    <t xml:space="preserve">14.9457511901855</t>
   </si>
   <si>
     <t xml:space="preserve">14.7448015213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9122581481934</t>
+    <t xml:space="preserve">14.9122591018677</t>
   </si>
   <si>
     <t xml:space="preserve">15.1383304595947</t>
@@ -2030,16 +2030,16 @@
     <t xml:space="preserve">15.330906867981</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5151138305664</t>
+    <t xml:space="preserve">15.515115737915</t>
   </si>
   <si>
     <t xml:space="preserve">15.0964660644531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629730224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373779296875</t>
+    <t xml:space="preserve">15.0629720687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
     <t xml:space="preserve">15.4397563934326</t>
@@ -2051,67 +2051,67 @@
     <t xml:space="preserve">15.7244386672974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993198394775</t>
+    <t xml:space="preserve">15.8751516342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993179321289</t>
   </si>
   <si>
     <t xml:space="preserve">15.6072158813477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9002685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988435745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490831375122</t>
+    <t xml:space="preserve">15.9002704620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988416671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490793228149</t>
   </si>
   <si>
     <t xml:space="preserve">15.5486030578613</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4899959564209</t>
+    <t xml:space="preserve">15.4899940490723</t>
   </si>
   <si>
     <t xml:space="preserve">15.3895177841187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9792432785034</t>
+    <t xml:space="preserve">14.9792423248291</t>
   </si>
   <si>
     <t xml:space="preserve">15.3644008636475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2722978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021107673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206323623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.113208770752</t>
+    <t xml:space="preserve">15.2722969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132097244263</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471771240234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2304334640503</t>
+    <t xml:space="preserve">15.230432510376</t>
   </si>
   <si>
     <t xml:space="preserve">15.1801929473877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
+    <t xml:space="preserve">15.1969394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057880401611</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835220336914</t>
@@ -2129,28 +2129,28 @@
     <t xml:space="preserve">15.2136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2220573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.506739616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
+    <t xml:space="preserve">15.2220602035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067415237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672536849976</t>
   </si>
   <si>
     <t xml:space="preserve">15.6825714111328</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337644577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7961769104004</t>
+    <t xml:space="preserve">15.4732475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.933762550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942737579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.796178817749</t>
   </si>
   <si>
     <t xml:space="preserve">16.6370944976807</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435626983643</t>
+    <t xml:space="preserve">16.2435607910156</t>
   </si>
   <si>
     <t xml:space="preserve">16.519868850708</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0426120758057</t>
+    <t xml:space="preserve">16.042610168457</t>
   </si>
   <si>
     <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0258617401123</t>
+    <t xml:space="preserve">16.0258636474609</t>
   </si>
   <si>
     <t xml:space="preserve">16.2854270935059</t>
@@ -2186,22 +2186,22 @@
     <t xml:space="preserve">16.2100715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6705837249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6287174224854</t>
+    <t xml:space="preserve">16.6705856323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.628719329834</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440361022949</t>
+    <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928497314453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1263389587402</t>
+    <t xml:space="preserve">16.1263408660889</t>
   </si>
   <si>
     <t xml:space="preserve">16.0509834289551</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">16.3021717071533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5366134643555</t>
+    <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
@@ -2219,19 +2219,19 @@
     <t xml:space="preserve">17.1645889282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.482759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2483177185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5329990386963</t>
+    <t xml:space="preserve">17.4827613830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2483196258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5330009460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.0353775024414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.918155670166</t>
+    <t xml:space="preserve">17.9181537628174</t>
   </si>
   <si>
     <t xml:space="preserve">18.0856151580811</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">17.9516468048096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6669654846191</t>
+    <t xml:space="preserve">17.6669673919678</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846645355225</t>
@@ -2252,31 +2252,31 @@
     <t xml:space="preserve">18.2028369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8679180145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2363300323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3702945709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4707717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382331848145</t>
+    <t xml:space="preserve">17.867919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4707736968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382312774658</t>
   </si>
   <si>
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540252685547</t>
+    <t xml:space="preserve">18.4540271759033</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9229106903076</t>
+    <t xml:space="preserve">18.9229125976562</t>
   </si>
   <si>
     <t xml:space="preserve">19.2410850524902</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">19.3248138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4420337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3583068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745742797852</t>
+    <t xml:space="preserve">19.4420356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3583087921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387065887451</t>
+    <t xml:space="preserve">18.7387046813965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3368034362793</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">11.8226337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7819080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5175895690918</t>
+    <t xml:space="preserve">13.7819089889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5175886154175</t>
   </si>
   <si>
     <t xml:space="preserve">12.2998933792114</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">12.1156873703003</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7269144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687797546387</t>
+    <t xml:space="preserve">12.7269134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687788009644</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144495010376</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8860025405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6563129425049</t>
+    <t xml:space="preserve">12.8860006332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6563138961792</t>
   </si>
   <si>
     <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9912309646606</t>
+    <t xml:space="preserve">13.991231918335</t>
   </si>
   <si>
     <t xml:space="preserve">14.2591686248779</t>
@@ -2387,34 +2387,34 @@
     <t xml:space="preserve">13.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8572654724121</t>
+    <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
     <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.832145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419458389282</t>
+    <t xml:space="preserve">13.8321475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419448852539</t>
   </si>
   <si>
     <t xml:space="preserve">14.2173023223877</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926588058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7316703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6898069381714</t>
+    <t xml:space="preserve">14.2926607131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7316694259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6898050308228</t>
   </si>
   <si>
     <t xml:space="preserve">13.7986536026001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9493675231934</t>
+    <t xml:space="preserve">13.9493684768677</t>
   </si>
   <si>
     <t xml:space="preserve">13.9828605651855</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354604721069</t>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103559494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354614257812</t>
   </si>
   <si>
     <t xml:space="preserve">14.6503849029541</t>
@@ -2441,40 +2441,40 @@
     <t xml:space="preserve">15.1317310333252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1229772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281368255615</t>
+    <t xml:space="preserve">15.1229763031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281358718872</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906871795654</t>
+    <t xml:space="preserve">16.1906890869141</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3721714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4684410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
+    <t xml:space="preserve">17.3721694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
   </si>
   <si>
     <t xml:space="preserve">17.0308532714844</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1358737945557</t>
+    <t xml:space="preserve">17.135871887207</t>
   </si>
   <si>
     <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357376098633</t>
+    <t xml:space="preserve">16.4357357025146</t>
   </si>
   <si>
     <t xml:space="preserve">16.2431983947754</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157897949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7858047485352</t>
+    <t xml:space="preserve">16.7157917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7858066558838</t>
   </si>
   <si>
     <t xml:space="preserve">16.2607002258301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4707412719727</t>
+    <t xml:space="preserve">16.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4707431793213</t>
   </si>
   <si>
     <t xml:space="preserve">16.7945575714111</t>
@@ -2519,22 +2519,22 @@
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460548400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2735996246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9410343170166</t>
+    <t xml:space="preserve">18.0460529327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2735977172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8535137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.941032409668</t>
   </si>
   <si>
     <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3436088562012</t>
+    <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">18.2911014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3261089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4486331939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3786182403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3961200714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9760398864746</t>
+    <t xml:space="preserve">18.3261070251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4486312866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3786163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.976037979126</t>
   </si>
   <si>
     <t xml:space="preserve">17.8010063171387</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">18.4836406707764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6236686706543</t>
+    <t xml:space="preserve">18.6236667633057</t>
   </si>
   <si>
     <t xml:space="preserve">18.5011425018311</t>
@@ -2603,28 +2603,28 @@
     <t xml:space="preserve">19.4988403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5513477325439</t>
+    <t xml:space="preserve">19.5513496398926</t>
   </si>
   <si>
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787544250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1312675476074</t>
+    <t xml:space="preserve">19.0787563323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1312656402588</t>
   </si>
   <si>
     <t xml:space="preserve">19.5863552093506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4638347625732</t>
+    <t xml:space="preserve">19.463830947876</t>
   </si>
   <si>
     <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3938179016113</t>
+    <t xml:space="preserve">19.39381980896</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113235473633</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">19.2537899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1137638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562339782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3063011169434</t>
+    <t xml:space="preserve">19.1137657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562320709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.306303024292</t>
   </si>
   <si>
     <t xml:space="preserve">19.376314163208</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7461891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061630249023</t>
+    <t xml:space="preserve">18.7461910247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.606164932251</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611145019531</t>
@@ -2666,16 +2666,16 @@
     <t xml:space="preserve">18.4136257171631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7811985015869</t>
+    <t xml:space="preserve">18.7811965942383</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664131164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4463272094727</t>
+    <t xml:space="preserve">19.8664112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4463291168213</t>
   </si>
   <si>
     <t xml:space="preserve">19.7438869476318</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">18.9912414550781</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1662731170654</t>
+    <t xml:space="preserve">19.1662712097168</t>
   </si>
   <si>
     <t xml:space="preserve">18.763692855835</t>
@@ -2717,22 +2717,22 @@
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0810585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.588659286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0635547637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2210884094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1685791015625</t>
+    <t xml:space="preserve">17.5034465789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0810604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5886611938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0635566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2210865020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1685771942139</t>
   </si>
   <si>
     <t xml:space="preserve">17.9935436248779</t>
@@ -2747,22 +2747,22 @@
     <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5909633636475</t>
+    <t xml:space="preserve">17.7659969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5909652709961</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285491943359</t>
+    <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1860809326172</t>
+    <t xml:space="preserve">18.1860828399658</t>
   </si>
   <si>
     <t xml:space="preserve">18.5711555480957</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">19.2362861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714317321777</t>
+    <t xml:space="preserve">19.9714298248291</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1266593933105</t>
+    <t xml:space="preserve">21.1266613006592</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2804,22 +2804,22 @@
     <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1593608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9318180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.229377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4219131469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721221923828</t>
+    <t xml:space="preserve">22.1593627929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9318199157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2293758392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4219150543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721202850342</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2846,22 +2846,22 @@
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745624542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7719841003418</t>
+    <t xml:space="preserve">23.1745643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7719860076904</t>
   </si>
   <si>
     <t xml:space="preserve">23.1220531463623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4546165466309</t>
+    <t xml:space="preserve">23.4546184539795</t>
   </si>
   <si>
     <t xml:space="preserve">22.7894878387451</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6144523620605</t>
+    <t xml:space="preserve">22.6144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493217468262</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">22.4919281005859</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0018310546875</t>
+    <t xml:space="preserve">22.0018329620361</t>
   </si>
   <si>
     <t xml:space="preserve">21.441722869873</t>
@@ -2891,13 +2891,13 @@
     <t xml:space="preserve">20.0414447784424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4592247009277</t>
+    <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
     <t xml:space="preserve">22.439416885376</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2118721008301</t>
+    <t xml:space="preserve">22.2118740081787</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2906,16 +2906,16 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4067134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.529239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7567844390869</t>
+    <t xml:space="preserve">20.7940940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4067153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5292415618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7567825317383</t>
   </si>
   <si>
     <t xml:space="preserve">21.8443012237549</t>
@@ -2924,10 +2924,10 @@
     <t xml:space="preserve">22.26438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5969486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3168926239014</t>
+    <t xml:space="preserve">22.5969467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.31689453125</t>
   </si>
   <si>
     <t xml:space="preserve">22.2468814849854</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">22.0893478393555</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3343982696533</t>
+    <t xml:space="preserve">22.334400177002</t>
   </si>
   <si>
     <t xml:space="preserve">22.1068515777588</t>
@@ -2945,16 +2945,16 @@
     <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8092937469482</t>
+    <t xml:space="preserve">21.8092956542969</t>
   </si>
   <si>
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3869094848633</t>
+    <t xml:space="preserve">21.2841892242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3869075775146</t>
   </si>
   <si>
     <t xml:space="preserve">21.8267974853516</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">21.5817489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3016929626465</t>
+    <t xml:space="preserve">21.3016948699951</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">22.3066864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4871616363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4691162109375</t>
+    <t xml:space="preserve">22.4871635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4691143035889</t>
   </si>
   <si>
     <t xml:space="preserve">22.4149723052979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6856842041016</t>
+    <t xml:space="preserve">22.6856861114502</t>
   </si>
   <si>
     <t xml:space="preserve">22.7398281097412</t>
@@ -3020,10 +3020,10 @@
     <t xml:space="preserve">22.8842067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5593509674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8300628662109</t>
+    <t xml:space="preserve">22.5593528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8300647735596</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3534393310547</t>
+    <t xml:space="preserve">23.3534412384033</t>
   </si>
   <si>
     <t xml:space="preserve">23.3173484802246</t>
@@ -3041,16 +3041,16 @@
     <t xml:space="preserve">22.9924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9203033447266</t>
+    <t xml:space="preserve">22.9203014373779</t>
   </si>
   <si>
     <t xml:space="preserve">23.0105381011963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6134929656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7037334442139</t>
+    <t xml:space="preserve">22.6134948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7037315368652</t>
   </si>
   <si>
     <t xml:space="preserve">22.9383506774902</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">23.2812519073486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6315441131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0540237426758</t>
+    <t xml:space="preserve">22.6315422058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0540218353271</t>
   </si>
   <si>
     <t xml:space="preserve">22.0901184082031</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">21.7472171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5052108764648</t>
+    <t xml:space="preserve">22.5052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.3427829742432</t>
@@ -3113,16 +3113,16 @@
     <t xml:space="preserve">22.8120174407959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0466365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5413036346436</t>
+    <t xml:space="preserve">23.0466346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5413055419922</t>
   </si>
   <si>
     <t xml:space="preserve">22.3247356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0720691680908</t>
+    <t xml:space="preserve">22.0720710754395</t>
   </si>
   <si>
     <t xml:space="preserve">22.2344989776611</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">23.1729679107666</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0285873413086</t>
+    <t xml:space="preserve">23.0285892486572</t>
   </si>
   <si>
     <t xml:space="preserve">22.6495914459229</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.461727142334</t>
+    <t xml:space="preserve">23.4617252349854</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
@@ -3173,19 +3173,19 @@
     <t xml:space="preserve">23.5519638061523</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8948650360107</t>
+    <t xml:space="preserve">23.8948669433594</t>
   </si>
   <si>
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572910308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5265274047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1581916809082</t>
+    <t xml:space="preserve">24.0572929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5265293121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1581897735596</t>
   </si>
   <si>
     <t xml:space="preserve">24.8333358764648</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">27.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8653106689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1540718078613</t>
+    <t xml:space="preserve">27.8653125762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.15407371521</t>
   </si>
   <si>
     <t xml:space="preserve">28.172119140625</t>
@@ -3227,16 +3227,16 @@
     <t xml:space="preserve">28.2443103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4863147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.280403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9014091491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8472671508789</t>
+    <t xml:space="preserve">27.4863128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2804050445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9014072418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8472652435303</t>
   </si>
   <si>
     <t xml:space="preserve">28.0999298095703</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">27.0351276397705</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4937038421631</t>
+    <t xml:space="preserve">26.4937019348145</t>
   </si>
   <si>
     <t xml:space="preserve">26.2771339416504</t>
@@ -3257,22 +3257,22 @@
     <t xml:space="preserve">26.4756565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6380825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5839385986328</t>
+    <t xml:space="preserve">26.6380844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5839405059814</t>
   </si>
   <si>
     <t xml:space="preserve">26.2590885162354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2951793670654</t>
+    <t xml:space="preserve">26.2951812744141</t>
   </si>
   <si>
     <t xml:space="preserve">26.6019897460938</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1688480377197</t>
+    <t xml:space="preserve">26.1688499450684</t>
   </si>
   <si>
     <t xml:space="preserve">26.2049465179443</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">26.8727016448975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8078994750977</t>
+    <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
     <t xml:space="preserve">25.591329574585</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">25.843994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8800888061523</t>
+    <t xml:space="preserve">25.880090713501</t>
   </si>
   <si>
     <t xml:space="preserve">25.6274242401123</t>
@@ -3323,16 +3323,16 @@
     <t xml:space="preserve">25.789852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6635208129883</t>
+    <t xml:space="preserve">25.6635189056396</t>
   </si>
   <si>
     <t xml:space="preserve">25.699613571167</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5117492675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8620433807373</t>
+    <t xml:space="preserve">26.5117511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8620414733887</t>
   </si>
   <si>
     <t xml:space="preserve">24.9235744476318</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">24.8694305419922</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2738647460938</t>
+    <t xml:space="preserve">24.2738628387451</t>
   </si>
   <si>
     <t xml:space="preserve">24.1294822692871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9670562744141</t>
+    <t xml:space="preserve">23.9670581817627</t>
   </si>
   <si>
     <t xml:space="preserve">23.6061058044434</t>
@@ -3362,10 +3362,10 @@
     <t xml:space="preserve">23.1188259124756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4797744750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4330215454102</t>
+    <t xml:space="preserve">23.4797763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4330196380615</t>
   </si>
   <si>
     <t xml:space="preserve">22.9022541046143</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">22.4510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1262130737305</t>
+    <t xml:space="preserve">22.1262149810791</t>
   </si>
   <si>
     <t xml:space="preserve">21.8735485076904</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">22.2525444030762</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7652645111084</t>
+    <t xml:space="preserve">21.7652626037598</t>
   </si>
   <si>
     <t xml:space="preserve">22.1442604064941</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.476505279541</t>
+    <t xml:space="preserve">21.4765033721924</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
@@ -3422,10 +3422,10 @@
     <t xml:space="preserve">25.5732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0531749725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3854198455811</t>
+    <t xml:space="preserve">27.0531768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3854179382324</t>
   </si>
   <si>
     <t xml:space="preserve">26.3493232727051</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1614608764648</t>
+    <t xml:space="preserve">27.1614627838135</t>
   </si>
   <si>
     <t xml:space="preserve">27.919454574585</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">27.8292179107666</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3706436157227</t>
+    <t xml:space="preserve">28.370641708374</t>
   </si>
   <si>
     <t xml:space="preserve">28.316499710083</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233043670654</t>
+    <t xml:space="preserve">28.6233062744141</t>
   </si>
   <si>
     <t xml:space="preserve">28.6774482727051</t>
@@ -3479,13 +3479,13 @@
     <t xml:space="preserve">28.569164276123</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7315902709961</t>
+    <t xml:space="preserve">28.7315921783447</t>
   </si>
   <si>
     <t xml:space="preserve">29.3271579742432</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1105861663818</t>
+    <t xml:space="preserve">29.1105880737305</t>
   </si>
   <si>
     <t xml:space="preserve">29.0744953155518</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">29.4173946380615</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4895858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6881103515625</t>
+    <t xml:space="preserve">29.4895877838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6881084442139</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">28.424783706665</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2082138061523</t>
+    <t xml:space="preserve">28.208215713501</t>
   </si>
   <si>
     <t xml:space="preserve">26.8366050720215</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">26.8005123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5043621063232</t>
+    <t xml:space="preserve">27.5043640136719</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">28.460880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3812999725342</t>
+    <t xml:space="preserve">29.3813018798828</t>
   </si>
   <si>
     <t xml:space="preserve">30.1392974853516</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">30.3739128112793</t>
   </si>
   <si>
-    <t xml:space="preserve">30.680721282959</t>
+    <t xml:space="preserve">30.6807193756104</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812496185303</t>
@@ -4698,6 +4698,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.0799999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5200004577637</t>
   </si>
 </sst>
 </file>
@@ -61355,7 +61358,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6493287037</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>228896</v>
@@ -61376,6 +61379,32 @@
         <v>1561</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.649525463</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>484326</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>24.0200004577637</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>23.9400005340576</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>23.5200004577637</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121059417725</t>
+    <t xml:space="preserve">8.85121154785156</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55664825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674884796143</t>
+    <t xml:space="preserve">8.79373550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55665016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674694061279</t>
   </si>
   <si>
     <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34830093383789</t>
+    <t xml:space="preserve">8.34830188751221</t>
   </si>
   <si>
     <t xml:space="preserve">8.57101917266846</t>
@@ -68,55 +68,55 @@
     <t xml:space="preserve">8.47762203216553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3626708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09684753417969</t>
+    <t xml:space="preserve">8.36267185211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09684658050537</t>
   </si>
   <si>
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9818959236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247661590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053478240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38422298431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28363990783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645874023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1902437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6585955619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665420532227</t>
+    <t xml:space="preserve">7.98189449310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28364181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325563430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859651565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665468215942</t>
   </si>
   <si>
     <t xml:space="preserve">7.74481010437012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01063346862793</t>
+    <t xml:space="preserve">8.01063251495361</t>
   </si>
   <si>
     <t xml:space="preserve">8.20461273193359</t>
@@ -125,136 +125,136 @@
     <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820629119873</t>
+    <t xml:space="preserve">7.83820676803589</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500247955322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073120117188</t>
+    <t xml:space="preserve">7.78073263168335</t>
   </si>
   <si>
     <t xml:space="preserve">7.9244213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93878936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04655361175537</t>
+    <t xml:space="preserve">7.93878984451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04655456542969</t>
   </si>
   <si>
     <t xml:space="preserve">8.17587566375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0896635055542</t>
+    <t xml:space="preserve">8.08966255187988</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529354095459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276672363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471189498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898174285889</t>
+    <t xml:space="preserve">8.13276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9747109413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11839866638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21898078918457</t>
   </si>
   <si>
     <t xml:space="preserve">8.33393287658691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59975528717041</t>
+    <t xml:space="preserve">8.59975624084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.70033836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68596839904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228019714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3698558807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34111785888672</t>
+    <t xml:space="preserve">8.68596935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3123779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111595153809</t>
   </si>
   <si>
     <t xml:space="preserve">8.49917316436768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54946517944336</t>
+    <t xml:space="preserve">8.54946422576904</t>
   </si>
   <si>
     <t xml:space="preserve">8.45606899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41296100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043609619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742774963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432167053223</t>
+    <t xml:space="preserve">8.41296005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432071685791</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150665283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626541137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560829162598</t>
+    <t xml:space="preserve">8.23334884643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626493453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169998168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560733795166</t>
   </si>
   <si>
     <t xml:space="preserve">8.33067798614502</t>
@@ -266,64 +266,64 @@
     <t xml:space="preserve">8.18043899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14287948608398</t>
+    <t xml:space="preserve">8.1428804397583</t>
   </si>
   <si>
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16541576385498</t>
+    <t xml:space="preserve">8.16541481018066</t>
   </si>
   <si>
     <t xml:space="preserve">8.21048831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15039253234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517963409424</t>
+    <t xml:space="preserve">8.15039157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517868041992</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178699493408</t>
+    <t xml:space="preserve">7.51188325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178747177124</t>
   </si>
   <si>
     <t xml:space="preserve">7.30530595779419</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34286403656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8499174118042</t>
+    <t xml:space="preserve">7.34286451339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991645812988</t>
   </si>
   <si>
     <t xml:space="preserve">7.82738161087036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69968032836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3090615272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253259658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295839309692</t>
+    <t xml:space="preserve">7.69967937469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253164291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295934677124</t>
   </si>
   <si>
     <t xml:space="preserve">7.54944133758545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69216823577881</t>
+    <t xml:space="preserve">7.69216728210449</t>
   </si>
   <si>
     <t xml:space="preserve">7.80484580993652</t>
@@ -335,37 +335,37 @@
     <t xml:space="preserve">7.65460777282715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33910894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4668116569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192972183228</t>
+    <t xml:space="preserve">7.33911037445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681070327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192876815796</t>
   </si>
   <si>
     <t xml:space="preserve">7.6020245552063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75977373123169</t>
+    <t xml:space="preserve">7.75977468490601</t>
   </si>
   <si>
     <t xml:space="preserve">7.68465518951416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61704874038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475049972534</t>
+    <t xml:space="preserve">7.61704969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475145339966</t>
   </si>
   <si>
     <t xml:space="preserve">7.6395845413208</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">7.49685859680176</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48934698104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62455987930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714357376099</t>
+    <t xml:space="preserve">7.48934602737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456083297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70718908309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6771445274353</t>
   </si>
   <si>
     <t xml:space="preserve">7.81986808776855</t>
@@ -398,49 +398,49 @@
     <t xml:space="preserve">7.85742998123169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60953617095947</t>
+    <t xml:space="preserve">7.60953760147095</t>
   </si>
   <si>
     <t xml:space="preserve">7.57197761535645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50437068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056722640991</t>
+    <t xml:space="preserve">7.50436973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4705662727356</t>
   </si>
   <si>
     <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87996482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001272201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757223129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029769897461</t>
+    <t xml:space="preserve">7.87996292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9100136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757127761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029865264893</t>
   </si>
   <si>
     <t xml:space="preserve">7.75226354598999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81235694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245321273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470308303833</t>
+    <t xml:space="preserve">7.81235790252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245225906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470212936401</t>
   </si>
   <si>
     <t xml:space="preserve">7.72221422195435</t>
@@ -449,13 +449,13 @@
     <t xml:space="preserve">7.66963243484497</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64709520339966</t>
+    <t xml:space="preserve">7.64709615707397</t>
   </si>
   <si>
     <t xml:space="preserve">7.44427490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39169263839722</t>
+    <t xml:space="preserve">7.3916916847229</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
@@ -464,49 +464,49 @@
     <t xml:space="preserve">7.52690601348877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51939535140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2865252494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5081262588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403781890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9259557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736473083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9710259437561</t>
+    <t xml:space="preserve">7.51939487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418006896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652620315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812673568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441762924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736568450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605155944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97102642059326</t>
   </si>
   <si>
     <t xml:space="preserve">7.04990148544312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92219877243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332513809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975971221924</t>
+    <t xml:space="preserve">6.92219924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975923538208</t>
   </si>
   <si>
     <t xml:space="preserve">6.94849109649658</t>
@@ -521,58 +521,58 @@
     <t xml:space="preserve">6.81327724456787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89215183258057</t>
+    <t xml:space="preserve">6.89215278625488</t>
   </si>
   <si>
     <t xml:space="preserve">6.83581256866455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79449796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074239730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112125396729</t>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074144363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112173080444</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717601776123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985359191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384910583496</t>
+    <t xml:space="preserve">7.01985454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384767532349</t>
   </si>
   <si>
     <t xml:space="preserve">7.19638299942017</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47432231903076</t>
+    <t xml:space="preserve">7.4743218421936</t>
   </si>
   <si>
     <t xml:space="preserve">7.56446599960327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72972583770752</t>
+    <t xml:space="preserve">7.72972679138184</t>
   </si>
   <si>
     <t xml:space="preserve">7.55695343017578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78982210159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78231000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747596740723</t>
+    <t xml:space="preserve">7.7898211479187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747501373291</t>
   </si>
   <si>
     <t xml:space="preserve">7.98513078689575</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">7.79733419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97761869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10531997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766563415527</t>
+    <t xml:space="preserve">7.97761964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0677604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
     <t xml:space="preserve">7.9550838470459</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26307106018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25555801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814170837402</t>
+    <t xml:space="preserve">8.26307010650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814266204834</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56354522705078</t>
+    <t xml:space="preserve">8.5635461807251</t>
   </si>
   <si>
     <t xml:space="preserve">8.57856941223145</t>
@@ -632,37 +632,37 @@
     <t xml:space="preserve">8.69875907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76636600494385</t>
+    <t xml:space="preserve">8.76636505126953</t>
   </si>
   <si>
     <t xml:space="preserve">8.77387809753418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7288064956665</t>
+    <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
     <t xml:space="preserve">8.78890228271484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75134372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646179199219</t>
+    <t xml:space="preserve">8.7513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8264627456665</t>
   </si>
   <si>
     <t xml:space="preserve">8.86402225494385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87904453277588</t>
+    <t xml:space="preserve">8.87904357910156</t>
   </si>
   <si>
     <t xml:space="preserve">8.88655567169189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91660404205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172210693359</t>
+    <t xml:space="preserve">8.91660499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172306060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918773651123</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">8.9391393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421096801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406871795654</t>
+    <t xml:space="preserve">8.98421192169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406967163086</t>
   </si>
   <si>
     <t xml:space="preserve">8.71378421783447</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">8.60110569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42833232879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61612892150879</t>
+    <t xml:space="preserve">8.51096343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42833137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61612987518311</t>
   </si>
   <si>
     <t xml:space="preserve">8.53349876403809</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90909290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9616756439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8565092086792</t>
+    <t xml:space="preserve">8.90909385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96167659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85651016235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2611026763916</t>
+    <t xml:space="preserve">9.26110363006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.30811405181885</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">9.38646602630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42564105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34728908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36295986175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44914627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41780662536621</t>
+    <t xml:space="preserve">9.42563915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3472900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36295890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44914722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41780757904053</t>
   </si>
   <si>
     <t xml:space="preserve">9.46481704711914</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">9.53533172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80172729492188</t>
+    <t xml:space="preserve">9.80172634124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73120975494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74688148498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77822113037109</t>
+    <t xml:space="preserve">9.73121070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74688053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822017669678</t>
   </si>
   <si>
     <t xml:space="preserve">9.79389190673828</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69986915588379</t>
+    <t xml:space="preserve">9.69987010955811</t>
   </si>
   <si>
     <t xml:space="preserve">9.8487377166748</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55883598327637</t>
+    <t xml:space="preserve">9.55883693695068</t>
   </si>
   <si>
     <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7703857421875</t>
+    <t xml:space="preserve">9.77038478851318</t>
   </si>
   <si>
     <t xml:space="preserve">9.75471496582031</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37079524993896</t>
+    <t xml:space="preserve">9.37079429626465</t>
   </si>
   <si>
     <t xml:space="preserve">9.63718891143799</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">9.70770454406738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83306789398193</t>
+    <t xml:space="preserve">9.83306694030762</t>
   </si>
   <si>
     <t xml:space="preserve">10.0211095809937</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">10.1543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.326678276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031730651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2561626434326</t>
+    <t xml:space="preserve">10.3266792297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2561635971069</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621417999268</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">10.2248229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2953386306763</t>
+    <t xml:space="preserve">10.295337677002</t>
   </si>
   <si>
     <t xml:space="preserve">10.3893604278564</t>
@@ -875,46 +875,46 @@
     <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912157058716</t>
+    <t xml:space="preserve">10.4912166595459</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695676803589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165790557861</t>
+    <t xml:space="preserve">10.6165781021118</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244144439697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5225563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.483380317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5068864822388</t>
+    <t xml:space="preserve">10.522557258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4833812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5068874359131</t>
   </si>
   <si>
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870946884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6479187011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6557531356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6087427139282</t>
+    <t xml:space="preserve">10.6870937347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6479177474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6557540893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6087436676025</t>
   </si>
   <si>
     <t xml:space="preserve">10.5930728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852384567261</t>
+    <t xml:space="preserve">10.5852375030518</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382270812988</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5147228240967</t>
+    <t xml:space="preserve">10.5147218704224</t>
   </si>
   <si>
     <t xml:space="preserve">10.7027635574341</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9769926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9926633834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433862686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3139019012451</t>
+    <t xml:space="preserve">10.9769916534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0161685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9926624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433881759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3139028549194</t>
   </si>
   <si>
     <t xml:space="preserve">11.21204662323</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">11.3765850067139</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4157590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.784010887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8466911315918</t>
+    <t xml:space="preserve">11.4157609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840089797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
     <t xml:space="preserve">11.9250421524048</t>
@@ -992,19 +992,19 @@
     <t xml:space="preserve">11.9485473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388557434082</t>
+    <t xml:space="preserve">11.8388547897339</t>
   </si>
   <si>
     <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9877233505249</t>
+    <t xml:space="preserve">11.9877243041992</t>
   </si>
   <si>
     <t xml:space="preserve">11.9642171859741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0739068984985</t>
+    <t xml:space="preserve">12.0739078521729</t>
   </si>
   <si>
     <t xml:space="preserve">12.1600952148438</t>
@@ -1013,115 +1013,115 @@
     <t xml:space="preserve">12.2462816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2227773666382</t>
+    <t xml:space="preserve">12.2227783203125</t>
   </si>
   <si>
     <t xml:space="preserve">12.3011264801025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283460617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5361814498901</t>
+    <t xml:space="preserve">12.512677192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347328186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794784545898</t>
+    <t xml:space="preserve">12.3794775009155</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970045089722</t>
+    <t xml:space="preserve">12.4970054626465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8025751113892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8574199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5831909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537075042725</t>
+    <t xml:space="preserve">12.8574209213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5831918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813356399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772127151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6458711624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3089628219604</t>
+    <t xml:space="preserve">12.6772117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6458721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3089618682861</t>
   </si>
   <si>
     <t xml:space="preserve">12.1130838394165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2697858810425</t>
+    <t xml:space="preserve">12.2697868347168</t>
   </si>
   <si>
     <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9015369415283</t>
+    <t xml:space="preserve">11.901535987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891691207886</t>
+    <t xml:space="preserve">12.2541170120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891681671143</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223669052124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3324680328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910272598267</t>
+    <t xml:space="preserve">12.3324670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.591025352478</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.974946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256708145142</t>
+    <t xml:space="preserve">12.9749479293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256698608398</t>
   </si>
   <si>
     <t xml:space="preserve">13.2805156707764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2335033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178344726562</t>
+    <t xml:space="preserve">13.2021646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2335052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178354263306</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003084182739</t>
@@ -1130,25 +1130,25 @@
     <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611343383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786584854126</t>
+    <t xml:space="preserve">13.0611333847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786603927612</t>
   </si>
   <si>
     <t xml:space="preserve">12.8417491912842</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2619524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2932920455933</t>
+    <t xml:space="preserve">12.2619514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2932929992676</t>
   </si>
   <si>
     <t xml:space="preserve">12.3951482772827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048408508301</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
     <t xml:space="preserve">12.6693773269653</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850471496582</t>
+    <t xml:space="preserve">12.6850490570068</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846395492554</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">13.1081428527832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118572235107</t>
+    <t xml:space="preserve">13.3118562698364</t>
   </si>
   <si>
     <t xml:space="preserve">13.1238136291504</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">13.6801052093506</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450540542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912454605103</t>
+    <t xml:space="preserve">13.4450531005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912464141846</t>
   </si>
   <si>
     <t xml:space="preserve">14.8397054672241</t>
@@ -1196,31 +1196,31 @@
     <t xml:space="preserve">15.0982627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0277471542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176431655884</t>
+    <t xml:space="preserve">15.0277490615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.317645072937</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549629211426</t>
   </si>
   <si>
-    <t xml:space="preserve">14.93372631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.855375289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751651763916</t>
+    <t xml:space="preserve">14.933723449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.855372428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452722549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
   </si>
   <si>
     <t xml:space="preserve">15.0669231414795</t>
@@ -1235,34 +1235,34 @@
     <t xml:space="preserve">15.5605354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.435170173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788805007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001171112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157888412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.356822013855</t>
+    <t xml:space="preserve">15.4351739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015647888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788785934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042409896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374387741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001190185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3568210601807</t>
   </si>
   <si>
     <t xml:space="preserve">15.4978532791138</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">15.4821805953979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5918750762939</t>
+    <t xml:space="preserve">15.5918731689453</t>
   </si>
   <si>
     <t xml:space="preserve">15.6702270507812</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">15.6310520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6858978271484</t>
+    <t xml:space="preserve">15.6858959197998</t>
   </si>
   <si>
     <t xml:space="preserve">15.889609336853</t>
@@ -1298,70 +1298,70 @@
     <t xml:space="preserve">14.8867139816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7926931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390293121338</t>
+    <t xml:space="preserve">14.7926921844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710432052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390302658081</t>
   </si>
   <si>
     <t xml:space="preserve">14.9750919342041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548482894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267850875854</t>
+    <t xml:space="preserve">14.6149244308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548454284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267869949341</t>
   </si>
   <si>
     <t xml:space="preserve">14.030647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8945817947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866737365723</t>
+    <t xml:space="preserve">13.8945827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866718292236</t>
   </si>
   <si>
     <t xml:space="preserve">14.2467498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2867670059204</t>
+    <t xml:space="preserve">14.286768913269</t>
   </si>
   <si>
     <t xml:space="preserve">14.254753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508937835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907224655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352632522583</t>
+    <t xml:space="preserve">14.3668050765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5508947372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.335262298584</t>
   </si>
   <si>
     <t xml:space="preserve">15.3192567825317</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5273551940918</t>
+    <t xml:space="preserve">15.5273571014404</t>
   </si>
   <si>
     <t xml:space="preserve">15.5753774642944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2152070999146</t>
+    <t xml:space="preserve">15.2152080535889</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713287353516</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">15.6073932647705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6954355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471286773682</t>
+    <t xml:space="preserve">15.6954336166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471258163452</t>
   </si>
   <si>
     <t xml:space="preserve">15.1351709365845</t>
@@ -1391,22 +1391,22 @@
     <t xml:space="preserve">14.8870525360107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9911003112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630380630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991035461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793329238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6153974533081</t>
+    <t xml:space="preserve">14.9911031723022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991044998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.119161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793310165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6153955459595</t>
   </si>
   <si>
     <t xml:space="preserve">15.5353593826294</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">15.7114419937134</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7434568405151</t>
+    <t xml:space="preserve">15.7434577941895</t>
   </si>
   <si>
     <t xml:space="preserve">15.7034378051758</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">15.6234016418457</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5113468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992938995361</t>
+    <t xml:space="preserve">15.5113487243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992958068848</t>
   </si>
   <si>
     <t xml:space="preserve">15.463324546814</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">15.0711393356323</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8230228424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349796295166</t>
+    <t xml:space="preserve">14.8230209350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349786758423</t>
   </si>
   <si>
     <t xml:space="preserve">14.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1031560897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2392206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
+    <t xml:space="preserve">15.1031541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.239221572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.807014465332</t>
   </si>
   <si>
     <t xml:space="preserve">14.4628524780273</t>
@@ -1475,13 +1475,13 @@
     <t xml:space="preserve">14.3748083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5749034881592</t>
+    <t xml:space="preserve">14.5749044418335</t>
   </si>
   <si>
     <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107776641846</t>
+    <t xml:space="preserve">14.3107786178589</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468431472778</t>
@@ -1490,37 +1490,37 @@
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787637710571</t>
+    <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627553939819</t>
   </si>
   <si>
-    <t xml:space="preserve">14.294771194458</t>
+    <t xml:space="preserve">14.2947721481323</t>
   </si>
   <si>
     <t xml:space="preserve">14.126690864563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6389350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4308366775513</t>
+    <t xml:space="preserve">14.1747140884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.638934135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.430835723877</t>
   </si>
   <si>
     <t xml:space="preserve">14.3588018417358</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3347902297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587076187134</t>
+    <t xml:space="preserve">14.3347911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587066650391</t>
   </si>
   <si>
     <t xml:space="preserve">13.9666156768799</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">14.1186876296997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346960067749</t>
+    <t xml:space="preserve">14.1346950531006</t>
   </si>
   <si>
     <t xml:space="preserve">14.0386514663696</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">14.1106834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825288772583</t>
+    <t xml:space="preserve">13.6864824295044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782527923584</t>
   </si>
   <si>
     <t xml:space="preserve">13.5584239959717</t>
@@ -1556,61 +1556,61 @@
     <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4863882064819</t>
+    <t xml:space="preserve">13.4863891601562</t>
   </si>
   <si>
     <t xml:space="preserve">13.390341758728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.166711807251</t>
+    <t xml:space="preserve">14.1667127609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7184982299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3023023605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1262159347534</t>
+    <t xml:space="preserve">13.7184972763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023014068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662378311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583288192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1262168884277</t>
   </si>
   <si>
     <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1982526779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460845947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0061616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620929718018</t>
+    <t xml:space="preserve">13.1982517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460855484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620920181274</t>
   </si>
   <si>
     <t xml:space="preserve">13.3663330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3823385238647</t>
+    <t xml:space="preserve">13.3823375701904</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744285583496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984411239624</t>
+    <t xml:space="preserve">13.518404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984420776367</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
@@ -1631,31 +1631,31 @@
     <t xml:space="preserve">12.9741458892822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.878101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422252655029</t>
+    <t xml:space="preserve">12.8781003952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422262191772</t>
   </si>
   <si>
     <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7340307235718</t>
+    <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
     <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8140707015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9421310424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.750039100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8060665130615</t>
+    <t xml:space="preserve">12.8140697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9421291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7500400543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8060674667358</t>
   </si>
   <si>
     <t xml:space="preserve">12.485915184021</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">13.2702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9821491241455</t>
+    <t xml:space="preserve">12.9821481704712</t>
   </si>
   <si>
     <t xml:space="preserve">13.5424156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0706653594971</t>
+    <t xml:space="preserve">14.0706644058228</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785753250122</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">13.3183078765869</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2062559127808</t>
+    <t xml:space="preserve">13.2062549591064</t>
   </si>
   <si>
     <t xml:space="preserve">13.3103046417236</t>
@@ -1697,40 +1697,40 @@
     <t xml:space="preserve">13.7745237350464</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5824327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624736785889</t>
+    <t xml:space="preserve">13.5824337005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624727249146</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145437240601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9506092071533</t>
+    <t xml:space="preserve">13.9506101608276</t>
   </si>
   <si>
     <t xml:space="preserve">13.6704759597778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8625650405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.998631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544694900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5104007720947</t>
+    <t xml:space="preserve">13.8625679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665224075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.654468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103998184204</t>
   </si>
   <si>
     <t xml:space="preserve">13.7905321121216</t>
@@ -1739,25 +1739,25 @@
     <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066347122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224546432495</t>
+    <t xml:space="preserve">14.0066337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224527359009</t>
   </si>
   <si>
     <t xml:space="preserve">13.6464624404907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9586124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9025869369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265033721924</t>
+    <t xml:space="preserve">13.9586133956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9025859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265024185181</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705701828003</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">13.4303617477417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383668899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743343353271</t>
+    <t xml:space="preserve">13.4383678436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743352890015</t>
   </si>
   <si>
     <t xml:space="preserve">13.4063510894775</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">13.0301723480225</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9581384658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7420358657837</t>
+    <t xml:space="preserve">12.9581394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.742036819458</t>
   </si>
   <si>
     <t xml:space="preserve">13.3983478546143</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">12.9021120071411</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101152420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861045837402</t>
+    <t xml:space="preserve">12.9101161956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861036300659</t>
   </si>
   <si>
     <t xml:space="preserve">12.9901533126831</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8700971603394</t>
+    <t xml:space="preserve">12.870096206665</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6144504547119</t>
+    <t xml:space="preserve">13.6144485473633</t>
   </si>
   <si>
     <t xml:space="preserve">14.0665893554688</t>
@@ -1844,31 +1844,31 @@
     <t xml:space="preserve">14.4098796844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694440841675</t>
+    <t xml:space="preserve">14.7699184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694450378418</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522212982178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.535475730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773401260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
+    <t xml:space="preserve">14.5354766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192045211792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5187311172485</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4350004196167</t>
+    <t xml:space="preserve">14.435001373291</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
@@ -1877,16 +1877,16 @@
     <t xml:space="preserve">14.3680171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9708681106567</t>
+    <t xml:space="preserve">14.9708700180054</t>
   </si>
   <si>
     <t xml:space="preserve">15.0713453292847</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141622543335</t>
+    <t xml:space="preserve">15.3560247421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141613006592</t>
   </si>
   <si>
     <t xml:space="preserve">15.448130607605</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">15.5820960998535</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876146316528</t>
+    <t xml:space="preserve">15.5318584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043621063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876155853271</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038867950439</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">14.8536472320557</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2806711196899</t>
+    <t xml:space="preserve">15.2806701660156</t>
   </si>
   <si>
     <t xml:space="preserve">15.5569772720337</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4648733139038</t>
+    <t xml:space="preserve">15.4648752212524</t>
   </si>
   <si>
     <t xml:space="preserve">15.2555513381958</t>
@@ -1928,37 +1928,37 @@
     <t xml:space="preserve">15.992374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9756278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.81653881073</t>
+    <t xml:space="preserve">15.9756259918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165369033813</t>
   </si>
   <si>
     <t xml:space="preserve">15.7830495834351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7411832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328109741211</t>
+    <t xml:space="preserve">15.7411813735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328090667725</t>
   </si>
   <si>
     <t xml:space="preserve">15.498366355896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1215839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634492874146</t>
+    <t xml:space="preserve">15.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634483337402</t>
   </si>
   <si>
     <t xml:space="preserve">15.0462255477905</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0797176361084</t>
+    <t xml:space="preserve">15.0797185897827</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
@@ -1973,19 +1973,19 @@
     <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294828414917</t>
+    <t xml:space="preserve">15.0294809341431</t>
   </si>
   <si>
     <t xml:space="preserve">15.129958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0378532409668</t>
+    <t xml:space="preserve">15.0378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.4266262054443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3596448898315</t>
+    <t xml:space="preserve">14.3596439361572</t>
   </si>
   <si>
     <t xml:space="preserve">14.4684915542603</t>
@@ -1994,28 +1994,28 @@
     <t xml:space="preserve">14.3094053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">14.150318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275777816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196817398071</t>
+    <t xml:space="preserve">14.1503190994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196807861328</t>
   </si>
   <si>
     <t xml:space="preserve">14.6526966094971</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3512706756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940866470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457511901855</t>
+    <t xml:space="preserve">14.3512697219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
     <t xml:space="preserve">14.7448015213013</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">14.9122591018677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1383304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.330906867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.515115737915</t>
+    <t xml:space="preserve">15.1383295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309078216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151138305664</t>
   </si>
   <si>
     <t xml:space="preserve">15.0964660644531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629720687866</t>
+    <t xml:space="preserve">15.0629730224609</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">15.8500328063965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7244386672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8751516342163</t>
+    <t xml:space="preserve">15.7244367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751497268677</t>
   </si>
   <si>
     <t xml:space="preserve">15.6993179321289</t>
@@ -2060,58 +2060,58 @@
     <t xml:space="preserve">15.6072158813477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9002704620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490793228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486030578613</t>
+    <t xml:space="preserve">15.9002685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490812301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54860496521</t>
   </si>
   <si>
     <t xml:space="preserve">15.4899940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3895177841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3644008636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722969055176</t>
+    <t xml:space="preserve">15.38951587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792432785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3643999099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722959518433</t>
   </si>
   <si>
     <t xml:space="preserve">15.0211086273193</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9206314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471771240234</t>
+    <t xml:space="preserve">14.9206323623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.113208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471780776978</t>
   </si>
   <si>
     <t xml:space="preserve">15.230432510376</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1801929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057880401611</t>
+    <t xml:space="preserve">15.1801948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969385147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057889938354</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835220336914</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">15.3811473846436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1718215942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220602035522</t>
+    <t xml:space="preserve">15.1718225479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220592498779</t>
   </si>
   <si>
     <t xml:space="preserve">15.5067415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9672536849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825714111328</t>
+    <t xml:space="preserve">15.9672517776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825733184814</t>
   </si>
   <si>
     <t xml:space="preserve">15.4732475280762</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">15.933762550354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3942737579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.796178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6370944976807</t>
+    <t xml:space="preserve">16.3942756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7961769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637092590332</t>
   </si>
   <si>
     <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435607910156</t>
+    <t xml:space="preserve">16.2435626983643</t>
   </si>
   <si>
     <t xml:space="preserve">16.519868850708</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">16.042610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761032104492</t>
+    <t xml:space="preserve">16.0761051177979</t>
   </si>
   <si>
     <t xml:space="preserve">16.0258636474609</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">16.2100715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6705856323242</t>
+    <t xml:space="preserve">16.670581817627</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928497314453</t>
+    <t xml:space="preserve">16.3440361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928478240967</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3021717071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366153717041</t>
+    <t xml:space="preserve">16.302173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366172790527</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">17.9181537628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856151580811</t>
+    <t xml:space="preserve">18.0856132507324</t>
   </si>
   <si>
     <t xml:space="preserve">18.0521240234375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9516468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669673919678</t>
+    <t xml:space="preserve">17.9516487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669654846191</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846645355225</t>
@@ -2255,13 +2255,13 @@
     <t xml:space="preserve">17.867919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.236328125</t>
+    <t xml:space="preserve">18.2363300323486</t>
   </si>
   <si>
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707736968994</t>
+    <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382312774658</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540271759033</t>
+    <t xml:space="preserve">18.4540252685547</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">19.2410850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1908473968506</t>
+    <t xml:space="preserve">19.190845489502</t>
   </si>
   <si>
     <t xml:space="preserve">19.3248138427734</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">19.3583087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2745780944824</t>
+    <t xml:space="preserve">19.2745761871338</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2309,40 +2309,40 @@
     <t xml:space="preserve">18.3368034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4660148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210113525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525974273682</t>
+    <t xml:space="preserve">17.4660129547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
     <t xml:space="preserve">11.8226337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7819089889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5175886154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998933792114</t>
+    <t xml:space="preserve">13.781909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5175895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998924255371</t>
   </si>
   <si>
     <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235843658447</t>
+    <t xml:space="preserve">12.023585319519</t>
   </si>
   <si>
     <t xml:space="preserve">11.630054473877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1156873703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7269134521484</t>
+    <t xml:space="preserve">12.115686416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7269144058228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7687788009644</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">13.6144495010376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.145562171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8860006332397</t>
+    <t xml:space="preserve">13.1455631256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8860015869141</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563138961792</t>
@@ -2375,31 +2375,31 @@
     <t xml:space="preserve">14.0079774856567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.89075756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1921844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656387329102</t>
+    <t xml:space="preserve">13.8907556533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1921854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656396865845</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8321475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173023223877</t>
+    <t xml:space="preserve">14.0247259140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8321466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.217303276062</t>
   </si>
   <si>
     <t xml:space="preserve">14.2926607131958</t>
@@ -2411,31 +2411,31 @@
     <t xml:space="preserve">13.6898050308228</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7986536026001</t>
+    <t xml:space="preserve">13.7986545562744</t>
   </si>
   <si>
     <t xml:space="preserve">13.9493684768677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828605651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3345251083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4182538986206</t>
+    <t xml:space="preserve">13.9828615188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3345260620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.418251991272</t>
   </si>
   <si>
     <t xml:space="preserve">14.5103559494019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0354614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829511642456</t>
+    <t xml:space="preserve">15.0354604721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503858566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829502105713</t>
   </si>
   <si>
     <t xml:space="preserve">15.1317310333252</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906890869141</t>
+    <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">17.3721694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4684391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833644866943</t>
+    <t xml:space="preserve">17.4684410095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833625793457</t>
   </si>
   <si>
     <t xml:space="preserve">17.0308532714844</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">16.2607002258301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3307132720947</t>
+    <t xml:space="preserve">16.3307151794434</t>
   </si>
   <si>
     <t xml:space="preserve">16.4707431793213</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460529327393</t>
+    <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8535137176514</t>
+    <t xml:space="preserve">17.853515625</t>
   </si>
   <si>
     <t xml:space="preserve">17.941032409668</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5361499786377</t>
+    <t xml:space="preserve">18.5361480712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.8162040710449</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">18.4486312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3786163330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.976037979126</t>
+    <t xml:space="preserve">18.3786182403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3961219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
     <t xml:space="preserve">17.8010063171387</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">18.6236667633057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5011425018311</t>
+    <t xml:space="preserve">18.5011405944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.8862190246582</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437507629395</t>
+    <t xml:space="preserve">19.0437488555908</t>
   </si>
   <si>
     <t xml:space="preserve">19.1487693786621</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">19.4988403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5513496398926</t>
+    <t xml:space="preserve">19.5513477325439</t>
   </si>
   <si>
     <t xml:space="preserve">19.2187824249268</t>
@@ -2615,19 +2615,19 @@
     <t xml:space="preserve">19.1312656402588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5863552093506</t>
+    <t xml:space="preserve">19.586353302002</t>
   </si>
   <si>
     <t xml:space="preserve">19.463830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.34130859375</t>
+    <t xml:space="preserve">19.3413066864014</t>
   </si>
   <si>
     <t xml:space="preserve">19.39381980896</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4113235473633</t>
+    <t xml:space="preserve">19.4113216400146</t>
   </si>
   <si>
     <t xml:space="preserve">19.2537899017334</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337097167969</t>
+    <t xml:space="preserve">18.8337078094482</t>
   </si>
   <si>
     <t xml:space="preserve">18.7461910247803</t>
@@ -2663,16 +2663,16 @@
     <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4136257171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7811965942383</t>
+    <t xml:space="preserve">18.4136238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7811946868896</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664112091064</t>
+    <t xml:space="preserve">19.8664131164551</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463291168213</t>
@@ -2696,13 +2696,13 @@
     <t xml:space="preserve">19.1662712097168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.763692855835</t>
+    <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
     <t xml:space="preserve">19.0087432861328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2035846710205</t>
+    <t xml:space="preserve">18.2035827636719</t>
   </si>
   <si>
     <t xml:space="preserve">17.6084671020508</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820743560791</t>
+    <t xml:space="preserve">16.8820724487305</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">17.5034465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0810604095459</t>
+    <t xml:space="preserve">18.0810585021973</t>
   </si>
   <si>
     <t xml:space="preserve">18.5886611938477</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">18.2210865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935436248779</t>
+    <t xml:space="preserve">18.1685791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935417175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060249328613</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">17.7659969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5909652709961</t>
+    <t xml:space="preserve">17.5909633636475</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285511016846</t>
+    <t xml:space="preserve">18.0285491943359</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">18.5711555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2362861633301</t>
+    <t xml:space="preserve">19.2362880706787</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714298248291</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266613006592</t>
+    <t xml:space="preserve">20.4790325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316780090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266593933105</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2804,10 +2804,10 @@
     <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1593627929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9318199157715</t>
+    <t xml:space="preserve">22.1593647003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9318180084229</t>
   </si>
   <si>
     <t xml:space="preserve">22.2293758392334</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9470176696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721202850342</t>
+    <t xml:space="preserve">22.9470157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4569206237793</t>
+    <t xml:space="preserve">22.4569225311279</t>
   </si>
   <si>
     <t xml:space="preserve">22.1243572235107</t>
@@ -2843,25 +2843,25 @@
     <t xml:space="preserve">22.8595008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6669616699219</t>
+    <t xml:space="preserve">22.6669635772705</t>
   </si>
   <si>
     <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7719860076904</t>
+    <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
     <t xml:space="preserve">23.1220531463623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4546184539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7894878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144542694092</t>
+    <t xml:space="preserve">23.4546165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144523620605</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493217468262</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">22.0018329620361</t>
   </si>
   <si>
-    <t xml:space="preserve">21.441722869873</t>
+    <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
     <t xml:space="preserve">20.7590885162354</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.439416885376</t>
+    <t xml:space="preserve">22.4394149780273</t>
   </si>
   <si>
     <t xml:space="preserve">22.2118740081787</t>
@@ -2924,16 +2924,16 @@
     <t xml:space="preserve">22.26438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5969467163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.31689453125</t>
+    <t xml:space="preserve">22.5969486236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3168926239014</t>
   </si>
   <si>
     <t xml:space="preserve">22.2468814849854</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0893478393555</t>
+    <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
     <t xml:space="preserve">22.334400177002</t>
@@ -2945,19 +2945,19 @@
     <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8092956542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1966724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2841892242432</t>
+    <t xml:space="preserve">21.8092937469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1966743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2841911315918</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267974853516</t>
+    <t xml:space="preserve">21.8267993927002</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942321777344</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5817489624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016948699951</t>
+    <t xml:space="preserve">21.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016929626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -61384,7 +61384,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.649525463</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>484326</v>
@@ -61405,6 +61405,32 @@
         <v>1562</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6495023148</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>335247</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>23.7399997711182</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>23.4400005340576</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>23.5200004577637</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>23.6000003814697</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1564">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85121059417725</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55665016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674694061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26927280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830188751221</t>
+    <t xml:space="preserve">8.79373645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55664825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26927375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830093383789</t>
   </si>
   <si>
     <t xml:space="preserve">8.57101917266846</t>
@@ -65,79 +65,79 @@
     <t xml:space="preserve">8.53509616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47762203216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36267185211182</t>
+    <t xml:space="preserve">8.47762107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36266994476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684658050537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189449310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053573608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38422203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28364181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645683288574</t>
+    <t xml:space="preserve">8.29082489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9818959236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247661590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053382873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422298431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28363990783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645778656006</t>
   </si>
   <si>
     <t xml:space="preserve">8.26208877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19024467468262</t>
+    <t xml:space="preserve">8.1902437210083</t>
   </si>
   <si>
     <t xml:space="preserve">8.11121559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72325563430786</t>
+    <t xml:space="preserve">7.72325706481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.65859651565552</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81665468215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74481010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461273193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820676803589</t>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7448091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558555603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820724487305</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500247955322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073263168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9244213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878984451294</t>
+    <t xml:space="preserve">7.78073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92441987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878936767578</t>
   </si>
   <si>
     <t xml:space="preserve">8.04655456542969</t>
@@ -146,25 +146,25 @@
     <t xml:space="preserve">8.17587566375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08966255187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160486221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9747109413147</t>
+    <t xml:space="preserve">8.08966159820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160343170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471189498901</t>
   </si>
   <si>
     <t xml:space="preserve">8.10403060913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11839866638184</t>
+    <t xml:space="preserve">8.11840152740479</t>
   </si>
   <si>
     <t xml:space="preserve">8.21898078918457</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">8.59975624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70033836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596935272217</t>
+    <t xml:space="preserve">8.70033740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596839904785</t>
   </si>
   <si>
     <t xml:space="preserve">8.59257221221924</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">8.54228115081787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40577697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3123779296875</t>
+    <t xml:space="preserve">8.40577507019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31237983703613</t>
   </si>
   <si>
     <t xml:space="preserve">8.36985397338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34111595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606899261475</t>
+    <t xml:space="preserve">8.34111785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606708526611</t>
   </si>
   <si>
     <t xml:space="preserve">8.41296005249023</t>
@@ -218,91 +218,91 @@
     <t xml:space="preserve">8.22616672515869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19742870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432071685791</t>
+    <t xml:space="preserve">8.19742774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432262420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150665283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23334884643555</t>
+    <t xml:space="preserve">8.23334980010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.03218746185303</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99626493453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519580841064</t>
+    <t xml:space="preserve">7.99626445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519390106201</t>
   </si>
   <si>
     <t xml:space="preserve">8.07527256011963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05273723602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795204162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560733795166</t>
+    <t xml:space="preserve">8.05273914337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804782867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560638427734</t>
   </si>
   <si>
     <t xml:space="preserve">8.33067798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043899536133</t>
+    <t xml:space="preserve">8.23302173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18043994903564</t>
   </si>
   <si>
     <t xml:space="preserve">8.1428804397583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16541481018066</t>
+    <t xml:space="preserve">8.15790462493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1654167175293</t>
   </si>
   <si>
     <t xml:space="preserve">8.21048831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15039157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517868041992</t>
+    <t xml:space="preserve">8.15039253234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517772674561</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188325881958</t>
+    <t xml:space="preserve">7.51188182830811</t>
   </si>
   <si>
     <t xml:space="preserve">7.45178747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30530595779419</t>
+    <t xml:space="preserve">7.30530500411987</t>
   </si>
   <si>
     <t xml:space="preserve">7.34286451339722</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84991645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738161087036</t>
+    <t xml:space="preserve">7.84991836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82738065719604</t>
   </si>
   <si>
     <t xml:space="preserve">7.69967937469482</t>
@@ -311,58 +311,58 @@
     <t xml:space="preserve">7.76728534698486</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30906200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253164291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295934677124</t>
+    <t xml:space="preserve">7.30906105041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253259658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295839309692</t>
   </si>
   <si>
     <t xml:space="preserve">7.54944133758545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69216728210449</t>
+    <t xml:space="preserve">7.69216823577881</t>
   </si>
   <si>
     <t xml:space="preserve">7.80484580993652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94005918502808</t>
+    <t xml:space="preserve">7.94005823135376</t>
   </si>
   <si>
     <t xml:space="preserve">7.65460777282715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33911037445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46681070327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192876815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6020245552063</t>
+    <t xml:space="preserve">7.33910846710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4668116569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57949018478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202503204346</t>
   </si>
   <si>
     <t xml:space="preserve">7.75977468490601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68465518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704969406128</t>
+    <t xml:space="preserve">7.68465614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6170482635498</t>
   </si>
   <si>
     <t xml:space="preserve">7.66211986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63207340240479</t>
+    <t xml:space="preserve">7.63207292556763</t>
   </si>
   <si>
     <t xml:space="preserve">7.74475145339966</t>
@@ -374,127 +374,127 @@
     <t xml:space="preserve">7.77479839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59451341629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685859680176</t>
+    <t xml:space="preserve">7.59451150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685764312744</t>
   </si>
   <si>
     <t xml:space="preserve">7.48934602737427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62456083297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70718908309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6771445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986808776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742998123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953760147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197761535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310350418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4705662727356</t>
+    <t xml:space="preserve">7.62456130981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719003677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742950439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953664779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5719780921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437116622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807836532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056770324707</t>
   </si>
   <si>
     <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87996292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9100136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757127761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029865264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235790252686</t>
+    <t xml:space="preserve">7.87996482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001272201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757413864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029674530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226259231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
   </si>
   <si>
     <t xml:space="preserve">7.87245225906372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71470212936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963243484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3916916847229</t>
+    <t xml:space="preserve">7.71470308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427442550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169263839722</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554351806641</t>
+    <t xml:space="preserve">7.52690744400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5193943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554256439209</t>
   </si>
   <si>
     <t xml:space="preserve">7.38418006896973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652620315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812673568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441762924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403877258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595672607422</t>
+    <t xml:space="preserve">7.28652572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812530517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441667556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
     <t xml:space="preserve">7.02736568450928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98605155944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102642059326</t>
+    <t xml:space="preserve">6.98605108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
   </si>
   <si>
     <t xml:space="preserve">7.04990148544312</t>
@@ -509,70 +509,70 @@
     <t xml:space="preserve">6.95975923538208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94849109649658</t>
+    <t xml:space="preserve">6.9484920501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.92971181869507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327724456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074144363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112173080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01985454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609754562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384767532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4743218421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446599960327</t>
+    <t xml:space="preserve">6.83956909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215183258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074096679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90342044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112125396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01985502243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384815216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446409225464</t>
   </si>
   <si>
     <t xml:space="preserve">7.72972679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55695343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7898211479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747501373291</t>
+    <t xml:space="preserve">7.55695390701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982210159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78231000900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747692108154</t>
   </si>
   <si>
     <t xml:space="preserve">7.98513078689575</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">7.97761964797974</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04522609710693</t>
+    <t xml:space="preserve">8.04522514343262</t>
   </si>
   <si>
     <t xml:space="preserve">8.0677604675293</t>
@@ -599,67 +599,67 @@
     <t xml:space="preserve">7.9550838470459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29311847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
+    <t xml:space="preserve">8.29311752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297431945801</t>
   </si>
   <si>
     <t xml:space="preserve">8.21799945831299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49593925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307010650635</t>
+    <t xml:space="preserve">8.49593830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26306915283203</t>
   </si>
   <si>
     <t xml:space="preserve">8.25555896759033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5635461807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57856941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69875907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636505126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77387809753418</t>
+    <t xml:space="preserve">8.30814170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091602325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56354522705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57857036590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69876098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636600494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
     <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8264627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86402225494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87904357910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660499572754</t>
+    <t xml:space="preserve">8.78890132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75134468078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86402130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87904453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660404205322</t>
   </si>
   <si>
     <t xml:space="preserve">8.99172306060791</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">8.9391393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421192169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406967163086</t>
+    <t xml:space="preserve">8.98421096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406871795654</t>
   </si>
   <si>
     <t xml:space="preserve">8.71378421783447</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">8.60110569000244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42833137512207</t>
+    <t xml:space="preserve">8.51096248626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
     <t xml:space="preserve">8.61612987518311</t>
@@ -698,16 +698,16 @@
     <t xml:space="preserve">8.5410099029541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96167659759521</t>
+    <t xml:space="preserve">8.73631858825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392742156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
     <t xml:space="preserve">8.85651016235352</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26110363006592</t>
+    <t xml:space="preserve">9.2611026763916</t>
   </si>
   <si>
     <t xml:space="preserve">9.30811405181885</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">9.38646602630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42563915252686</t>
+    <t xml:space="preserve">9.42564105987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.3472900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36295890808105</t>
+    <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914722442627</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">9.41780757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966190338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533172607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85657215118408</t>
+    <t xml:space="preserve">9.46481609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85657119750977</t>
   </si>
   <si>
     <t xml:space="preserve">9.73121070861816</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">9.74688053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77822017669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79389190673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69987010955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8487377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553897857666</t>
+    <t xml:space="preserve">9.77822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79389095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69987106323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71554088592529</t>
   </si>
   <si>
     <t xml:space="preserve">9.59801292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69203472137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6215181350708</t>
+    <t xml:space="preserve">9.69203567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62151908874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.64502334594727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58234310150146</t>
+    <t xml:space="preserve">9.58234214782715</t>
   </si>
   <si>
     <t xml:space="preserve">9.60584831237793</t>
@@ -809,16 +809,16 @@
     <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77038478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75471496582031</t>
+    <t xml:space="preserve">9.77038669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75471591949463</t>
   </si>
   <si>
     <t xml:space="preserve">9.48832130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51182746887207</t>
+    <t xml:space="preserve">9.51182842254639</t>
   </si>
   <si>
     <t xml:space="preserve">9.50399208068848</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">10.0211095809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3266792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326574325562</t>
+    <t xml:space="preserve">10.1543054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326678276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031721115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561635971069</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.295337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893604278564</t>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893594741821</t>
   </si>
   <si>
     <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695676803589</t>
+    <t xml:space="preserve">10.4912157058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695667266846</t>
   </si>
   <si>
     <t xml:space="preserve">10.6165781021118</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">10.522557258606</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4833812713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5068874359131</t>
+    <t xml:space="preserve">10.483380317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870937347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6479177474976</t>
+    <t xml:space="preserve">10.6870946884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
     <t xml:space="preserve">10.6557540893555</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">10.5930728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852375030518</t>
+    <t xml:space="preserve">10.5852384567261</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5460624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5147218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027635574341</t>
+    <t xml:space="preserve">10.5460615158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004987716675</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0475082397461</t>
+    <t xml:space="preserve">11.0475091934204</t>
   </si>
   <si>
     <t xml:space="preserve">11.0318384170532</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9769916534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161685943604</t>
+    <t xml:space="preserve">10.976993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240020751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0161695480347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926624298096</t>
@@ -962,22 +962,22 @@
     <t xml:space="preserve">11.21204662323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840089797974</t>
+    <t xml:space="preserve">11.3765840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
     <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9250421524048</t>
+    <t xml:space="preserve">11.9250431060791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5411214828491</t>
@@ -986,43 +986,43 @@
     <t xml:space="preserve">11.7291641235352</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605056762695</t>
+    <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
     <t xml:space="preserve">11.9485473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388547897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172067642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9877243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9642171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1600952148438</t>
+    <t xml:space="preserve">11.8388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172058105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9877233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9642181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739088058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1600942611694</t>
   </si>
   <si>
     <t xml:space="preserve">12.2462816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2227783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512677192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283470153809</t>
+    <t xml:space="preserve">12.2227764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5126752853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">12.5361804962158</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">12.0347328186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794775009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481388092041</t>
+    <t xml:space="preserve">12.3794784545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
     <t xml:space="preserve">12.4970054626465</t>
@@ -1046,46 +1046,46 @@
     <t xml:space="preserve">12.8574209213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831918716431</t>
+    <t xml:space="preserve">12.5831909179688</t>
   </si>
   <si>
     <t xml:space="preserve">12.4813356399536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6537065505981</t>
+    <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772117614746</t>
+    <t xml:space="preserve">12.6772127151489</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089618682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1130838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.901535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1679306030273</t>
+    <t xml:space="preserve">12.3089609146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1130847930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697858810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9015369415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.167929649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541170120239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4891681671143</t>
+    <t xml:space="preserve">12.4891691207886</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223669052124</t>
@@ -1094,16 +1094,16 @@
     <t xml:space="preserve">12.3324670791626</t>
   </si>
   <si>
-    <t xml:space="preserve">12.591025352478</t>
+    <t xml:space="preserve">12.5910263061523</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9749479293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671096801758</t>
+    <t xml:space="preserve">12.9749460220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671106338501</t>
   </si>
   <si>
     <t xml:space="preserve">13.1159791946411</t>
@@ -1112,43 +1112,43 @@
     <t xml:space="preserve">13.2256698608398</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2805156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2335052490234</t>
+    <t xml:space="preserve">13.2805166244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021656036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2335033416748</t>
   </si>
   <si>
     <t xml:space="preserve">13.2178354263306</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1003084182739</t>
+    <t xml:space="preserve">13.1003093719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786603927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417491912842</t>
+    <t xml:space="preserve">13.0611343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417501449585</t>
   </si>
   <si>
     <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2932929992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3951482772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048398971558</t>
+    <t xml:space="preserve">12.2932920455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3951473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048408508301</t>
   </si>
   <si>
     <t xml:space="preserve">12.6693773269653</t>
@@ -1160,73 +1160,73 @@
     <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846395492554</t>
+    <t xml:space="preserve">12.6850481033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846385955811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2570114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081428527832</t>
+    <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
     <t xml:space="preserve">13.3118562698364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1238136291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3510332107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6801052093506</t>
+    <t xml:space="preserve">13.1238145828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510341644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6801061630249</t>
   </si>
   <si>
     <t xml:space="preserve">13.4450531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397054672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982627868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277490615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.082592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.317645072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.933723449707</t>
+    <t xml:space="preserve">14.2912445068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982618331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0825901031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176431655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549648284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9337253570557</t>
   </si>
   <si>
     <t xml:space="preserve">14.855372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452722549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844482421875</t>
+    <t xml:space="preserve">14.7221775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669212341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844491958618</t>
   </si>
   <si>
     <t xml:space="preserve">15.474347114563</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">15.7015647888184</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7172355651855</t>
+    <t xml:space="preserve">15.7172374725342</t>
   </si>
   <si>
     <t xml:space="preserve">14.8788785934448</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042409896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374387741089</t>
+    <t xml:space="preserve">15.0042390823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374378204346</t>
   </si>
   <si>
     <t xml:space="preserve">15.2001190185547</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">15.2157897949219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3568210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978532791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821805953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918731689453</t>
+    <t xml:space="preserve">15.3568229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978551864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918769836426</t>
   </si>
   <si>
     <t xml:space="preserve">15.6702270507812</t>
@@ -1280,13 +1280,13 @@
     <t xml:space="preserve">15.6310520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6858959197998</t>
+    <t xml:space="preserve">15.6858978271484</t>
   </si>
   <si>
     <t xml:space="preserve">15.889609336853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5683708190918</t>
+    <t xml:space="preserve">15.5683689117432</t>
   </si>
   <si>
     <t xml:space="preserve">15.8269281387329</t>
@@ -1298,43 +1298,43 @@
     <t xml:space="preserve">14.8867139816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7926921844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390302658081</t>
+    <t xml:space="preserve">14.7926940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390312194824</t>
   </si>
   <si>
     <t xml:space="preserve">14.9750919342041</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6149244308472</t>
+    <t xml:space="preserve">14.6149225234985</t>
   </si>
   <si>
     <t xml:space="preserve">14.4548454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3267869949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.030647277832</t>
+    <t xml:space="preserve">14.3267860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0306463241577</t>
   </si>
   <si>
     <t xml:space="preserve">13.8945827484131</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0866718292236</t>
+    <t xml:space="preserve">14.0866746902466</t>
   </si>
   <si>
     <t xml:space="preserve">14.2467498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">14.286768913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.254753112793</t>
+    <t xml:space="preserve">14.2867670059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547521591187</t>
   </si>
   <si>
     <t xml:space="preserve">14.3668050765991</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">14.5348844528198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5508947372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907215118408</t>
+    <t xml:space="preserve">14.5508909225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907224655151</t>
   </si>
   <si>
     <t xml:space="preserve">15.335262298584</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">15.5273571014404</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5753774642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152080535889</t>
+    <t xml:space="preserve">15.5753755569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152090072632</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713287353516</t>
@@ -1376,43 +1376,43 @@
     <t xml:space="preserve">15.6073932647705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6954336166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471258163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630399703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991044998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.119161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793310165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6153955459595</t>
+    <t xml:space="preserve">15.6954355239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471277236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391244888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870544433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911012649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630380630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1191625595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793329238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6153993606567</t>
   </si>
   <si>
     <t xml:space="preserve">15.5353593826294</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6554155349731</t>
+    <t xml:space="preserve">15.6554136276245</t>
   </si>
   <si>
     <t xml:space="preserve">15.7114419937134</t>
@@ -1421,16 +1421,16 @@
     <t xml:space="preserve">15.7434577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7034378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6234016418457</t>
+    <t xml:space="preserve">15.703441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234035491943</t>
   </si>
   <si>
     <t xml:space="preserve">15.5113487243652</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3992958068848</t>
+    <t xml:space="preserve">15.3992938995361</t>
   </si>
   <si>
     <t xml:space="preserve">15.463324546814</t>
@@ -1445,34 +1445,34 @@
     <t xml:space="preserve">15.3672800064087</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0711393356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230209350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
+    <t xml:space="preserve">15.071138381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230228424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349805831909</t>
   </si>
   <si>
     <t xml:space="preserve">14.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1031541824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.239221572876</t>
+    <t xml:space="preserve">15.1031551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2392196655273</t>
   </si>
   <si>
     <t xml:space="preserve">14.807014465332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4628524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748083114624</t>
+    <t xml:space="preserve">14.4628486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708547592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748073577881</t>
   </si>
   <si>
     <t xml:space="preserve">14.5749044418335</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107786178589</t>
+    <t xml:space="preserve">14.3107776641846</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468431472778</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3427934646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2787647247314</t>
+    <t xml:space="preserve">14.3427953720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2787637710571</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627553939819</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2947721481323</t>
+    <t xml:space="preserve">14.2947731018066</t>
   </si>
   <si>
     <t xml:space="preserve">14.126690864563</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">14.1747140884399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2707595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.638934135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.430835723877</t>
+    <t xml:space="preserve">14.2707586288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6389360427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
     <t xml:space="preserve">14.3588018417358</t>
@@ -1520,16 +1520,16 @@
     <t xml:space="preserve">14.3347911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666156768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0466527938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1186876296997</t>
+    <t xml:space="preserve">14.1587076187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0466537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1186866760254</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346950531006</t>
@@ -1538,31 +1538,31 @@
     <t xml:space="preserve">14.0386514663696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2387456893921</t>
+    <t xml:space="preserve">14.2387466430664</t>
   </si>
   <si>
     <t xml:space="preserve">14.1106834411621</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6864824295044</t>
+    <t xml:space="preserve">13.686484336853</t>
   </si>
   <si>
     <t xml:space="preserve">13.782527923584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5584239959717</t>
+    <t xml:space="preserve">13.5584230422974</t>
   </si>
   <si>
     <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4863891601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.390341758728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1667127609253</t>
+    <t xml:space="preserve">13.4863882064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3903427124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1667108535767</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865785598755</t>
@@ -1571,46 +1571,46 @@
     <t xml:space="preserve">13.7184972763062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3023014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662378311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3583288192749</t>
+    <t xml:space="preserve">13.3023023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.16623878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3583278656006</t>
   </si>
   <si>
     <t xml:space="preserve">13.1262168884277</t>
   </si>
   <si>
-    <t xml:space="preserve">13.222264289856</t>
+    <t xml:space="preserve">13.2222633361816</t>
   </si>
   <si>
     <t xml:space="preserve">13.1982517242432</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8460855484009</t>
+    <t xml:space="preserve">12.8460836410522</t>
   </si>
   <si>
     <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8620920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744285583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984420776367</t>
+    <t xml:space="preserve">12.8620929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823385238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744295120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.526406288147</t>
+    <t xml:space="preserve">13.5264081954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741458892822</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1422262191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8540887832642</t>
+    <t xml:space="preserve">13.1422243118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8540878295898</t>
   </si>
   <si>
     <t xml:space="preserve">12.7340316772461</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8140697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9421291351318</t>
+    <t xml:space="preserve">12.8140707015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9421300888062</t>
   </si>
   <si>
     <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060674667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.485915184021</t>
+    <t xml:space="preserve">12.8060665130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4859142303467</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
@@ -1673,109 +1673,109 @@
     <t xml:space="preserve">13.5424156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0706644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785753250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104940414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062549591064</t>
+    <t xml:space="preserve">14.0706634521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785743713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183088302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062559127808</t>
   </si>
   <si>
     <t xml:space="preserve">13.3103046417236</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7745237350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824337005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624727249146</t>
+    <t xml:space="preserve">13.6064462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7745246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624708175659</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145437240601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9506101608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704759597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8625679016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665224075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.654468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985382080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7905321121216</t>
+    <t xml:space="preserve">13.9506092071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704750061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862566947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.998631477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544675827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103979110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7905330657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066337585449</t>
+    <t xml:space="preserve">14.0066356658936</t>
   </si>
   <si>
     <t xml:space="preserve">13.6784782409668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6224527359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6464624404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586133956909</t>
+    <t xml:space="preserve">13.6224536895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.646463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586124420166</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265024185181</t>
+    <t xml:space="preserve">13.7265014648438</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705701828003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0786685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384611129761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4303617477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4383678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743352890015</t>
+    <t xml:space="preserve">14.0786695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.430362701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4383659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743343353271</t>
   </si>
   <si>
     <t xml:space="preserve">13.4063510894775</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">13.2462739944458</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0301723480225</t>
+    <t xml:space="preserve">13.0301733016968</t>
   </si>
   <si>
     <t xml:space="preserve">12.9581394195557</t>
   </si>
   <si>
-    <t xml:space="preserve">12.742036819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3983478546143</t>
+    <t xml:space="preserve">12.7420358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3983469009399</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703807830811</t>
@@ -1802,34 +1802,34 @@
     <t xml:space="preserve">13.4943923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0381774902344</t>
+    <t xml:space="preserve">13.0381765365601</t>
   </si>
   <si>
     <t xml:space="preserve">12.9021120071411</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101161956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861036300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.870096206665</t>
+    <t xml:space="preserve">12.9101152420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9901523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8700971603394</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9981575012207</t>
+    <t xml:space="preserve">12.9981565475464</t>
   </si>
   <si>
     <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6144485473633</t>
+    <t xml:space="preserve">13.6144504547119</t>
   </si>
   <si>
     <t xml:space="preserve">14.0665893554688</t>
@@ -1850,76 +1850,76 @@
     <t xml:space="preserve">14.7950382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6694450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522212982178</t>
+    <t xml:space="preserve">14.6694431304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522193908691</t>
   </si>
   <si>
     <t xml:space="preserve">14.5354766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5773391723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187311172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.435001373291</t>
+    <t xml:space="preserve">14.5773401260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4350004196167</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3680171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713453292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560247421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.448130607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5820960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876155853271</t>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708681106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.071346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4481287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5820980072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043611526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876165390015</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038867950439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8536472320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806701660156</t>
+    <t xml:space="preserve">14.85364818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806711196899</t>
   </si>
   <si>
     <t xml:space="preserve">15.5569772720337</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4648752212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555513381958</t>
+    <t xml:space="preserve">15.4648733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555503845215</t>
   </si>
   <si>
     <t xml:space="preserve">15.4816217422485</t>
@@ -1931,31 +1931,31 @@
     <t xml:space="preserve">15.9756259918213</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8667793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165369033813</t>
+    <t xml:space="preserve">15.8667774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165407180786</t>
   </si>
   <si>
     <t xml:space="preserve">15.7830495834351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7411813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.498366355896</t>
+    <t xml:space="preserve">15.7411832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983682632446</t>
   </si>
   <si>
     <t xml:space="preserve">15.12158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1634483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462255477905</t>
+    <t xml:space="preserve">15.1634492874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462245941162</t>
   </si>
   <si>
     <t xml:space="preserve">15.0797185897827</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">14.8452758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8787679672241</t>
+    <t xml:space="preserve">14.8787670135498</t>
   </si>
   <si>
     <t xml:space="preserve">14.4015092849731</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">15.0294809341431</t>
   </si>
   <si>
-    <t xml:space="preserve">15.129958152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378522872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4266262054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596439361572</t>
+    <t xml:space="preserve">15.1299562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378513336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4266271591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596429824829</t>
   </si>
   <si>
     <t xml:space="preserve">14.4684915542603</t>
@@ -1997,37 +1997,37 @@
     <t xml:space="preserve">14.1503190994263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6275787353516</t>
+    <t xml:space="preserve">14.6275768280029</t>
   </si>
   <si>
     <t xml:space="preserve">14.7196807861328</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6526966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512697219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594087600708</t>
+    <t xml:space="preserve">14.6526975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512706756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940856933594</t>
   </si>
   <si>
     <t xml:space="preserve">14.6024608612061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9457521438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7448015213013</t>
+    <t xml:space="preserve">14.9457511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.744800567627</t>
   </si>
   <si>
     <t xml:space="preserve">14.9122591018677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1383295059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309078216553</t>
+    <t xml:space="preserve">15.1383285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
   </si>
   <si>
     <t xml:space="preserve">15.5151138305664</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">15.0964660644531</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629730224609</t>
+    <t xml:space="preserve">15.0629720687866</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">15.8500328063965</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7244367599487</t>
+    <t xml:space="preserve">15.7244386672974</t>
   </si>
   <si>
     <t xml:space="preserve">15.8751497268677</t>
@@ -2057,49 +2057,49 @@
     <t xml:space="preserve">15.6993179321289</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6072158813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9002685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988435745239</t>
+    <t xml:space="preserve">15.607213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9002704620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988416671753</t>
   </si>
   <si>
     <t xml:space="preserve">15.6490812301636</t>
   </si>
   <si>
-    <t xml:space="preserve">15.54860496521</t>
+    <t xml:space="preserve">15.5486030578613</t>
   </si>
   <si>
     <t xml:space="preserve">15.4899940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">15.38951587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792432785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643999099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722959518433</t>
+    <t xml:space="preserve">15.3895196914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792442321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3643989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722988128662</t>
   </si>
   <si>
     <t xml:space="preserve">15.0211086273193</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9206323623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.113208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471780776978</t>
+    <t xml:space="preserve">14.9206314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132097244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471771240234</t>
   </si>
   <si>
     <t xml:space="preserve">15.230432510376</t>
@@ -2108,28 +2108,28 @@
     <t xml:space="preserve">15.1801948547363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1969385147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835220336914</t>
+    <t xml:space="preserve">15.1969413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.88352394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.8249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3811473846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718225479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220592498779</t>
+    <t xml:space="preserve">15.3811454772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718235015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220582962036</t>
   </si>
   <si>
     <t xml:space="preserve">15.5067415237427</t>
@@ -2138,28 +2138,28 @@
     <t xml:space="preserve">15.9672517776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6825733184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732475280762</t>
+    <t xml:space="preserve">15.6825714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732494354248</t>
   </si>
   <si>
     <t xml:space="preserve">15.933762550354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3942756652832</t>
+    <t xml:space="preserve">16.3942775726318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7961769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.637092590332</t>
+    <t xml:space="preserve">16.6370944976807</t>
   </si>
   <si>
     <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435626983643</t>
+    <t xml:space="preserve">16.2435607910156</t>
   </si>
   <si>
     <t xml:space="preserve">16.519868850708</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">16.042610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761051177979</t>
+    <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0258636474609</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">16.2100715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.670581817627</t>
+    <t xml:space="preserve">16.6705837249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
@@ -2201,28 +2201,28 @@
     <t xml:space="preserve">16.0928478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1263408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0509834289551</t>
+    <t xml:space="preserve">16.1263389587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0509815216064</t>
   </si>
   <si>
     <t xml:space="preserve">16.302173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5366172790527</t>
+    <t xml:space="preserve">16.5366134643555</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1645889282227</t>
+    <t xml:space="preserve">17.164587020874</t>
   </si>
   <si>
     <t xml:space="preserve">17.4827613830566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2483196258545</t>
+    <t xml:space="preserve">17.2483177185059</t>
   </si>
   <si>
     <t xml:space="preserve">17.5330009460449</t>
@@ -2234,25 +2234,25 @@
     <t xml:space="preserve">17.9181537628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856132507324</t>
+    <t xml:space="preserve">18.0856151580811</t>
   </si>
   <si>
     <t xml:space="preserve">18.0521240234375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669654846191</t>
+    <t xml:space="preserve">17.9516468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669673919678</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2028369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.867919921875</t>
+    <t xml:space="preserve">18.2028350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679180145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2270,49 +2270,49 @@
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540252685547</t>
+    <t xml:space="preserve">18.4540271759033</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9229125976562</t>
+    <t xml:space="preserve">18.9229106903076</t>
   </si>
   <si>
     <t xml:space="preserve">19.2410850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.190845489502</t>
+    <t xml:space="preserve">19.1908473968506</t>
   </si>
   <si>
     <t xml:space="preserve">19.3248138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4420356750488</t>
+    <t xml:space="preserve">19.4420337677002</t>
   </si>
   <si>
     <t xml:space="preserve">19.3583087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2745761871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3870410919189</t>
+    <t xml:space="preserve">19.2745780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3870429992676</t>
   </si>
   <si>
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387046813965</t>
+    <t xml:space="preserve">18.7387065887451</t>
   </si>
   <si>
     <t xml:space="preserve">18.3368034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4660129547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210132598877</t>
+    <t xml:space="preserve">17.4660167694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210094451904</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525993347168</t>
@@ -2321,25 +2321,25 @@
     <t xml:space="preserve">11.8226337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.781909942627</t>
+    <t xml:space="preserve">13.781907081604</t>
   </si>
   <si>
     <t xml:space="preserve">12.5175895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2998924255371</t>
+    <t xml:space="preserve">12.2998933792114</t>
   </si>
   <si>
     <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">12.023585319519</t>
+    <t xml:space="preserve">12.0235843658447</t>
   </si>
   <si>
     <t xml:space="preserve">11.630054473877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.115686416626</t>
+    <t xml:space="preserve">12.1156873703003</t>
   </si>
   <si>
     <t xml:space="preserve">12.7269144058228</t>
@@ -2351,13 +2351,13 @@
     <t xml:space="preserve">13.6144495010376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1455631256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8860015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6563138961792</t>
+    <t xml:space="preserve">13.145562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8860006332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6563129425049</t>
   </si>
   <si>
     <t xml:space="preserve">13.4386157989502</t>
@@ -2375,67 +2375,67 @@
     <t xml:space="preserve">14.0079774856567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8907556533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1921854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656396865845</t>
+    <t xml:space="preserve">13.89075756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656387329102</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247259140015</t>
+    <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1419458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.217303276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926607131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7316694259644</t>
+    <t xml:space="preserve">14.1419448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6898050308228</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7986545562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9493684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9828615188599</t>
+    <t xml:space="preserve">13.7986536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9493675231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345260620117</t>
   </si>
   <si>
-    <t xml:space="preserve">14.418251991272</t>
+    <t xml:space="preserve">14.4182538986206</t>
   </si>
   <si>
     <t xml:space="preserve">14.5103559494019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0354604721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503858566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829502105713</t>
+    <t xml:space="preserve">15.0354614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829511642456</t>
   </si>
   <si>
     <t xml:space="preserve">15.1317310333252</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906871795654</t>
+    <t xml:space="preserve">16.1906890869141</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">17.3721694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4684410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
   </si>
   <si>
     <t xml:space="preserve">17.0308532714844</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">16.2607002258301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3307151794434</t>
+    <t xml:space="preserve">16.3307132720947</t>
   </si>
   <si>
     <t xml:space="preserve">16.4707431793213</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460548400879</t>
+    <t xml:space="preserve">18.0460529327393</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.853515625</t>
+    <t xml:space="preserve">17.8535137176514</t>
   </si>
   <si>
     <t xml:space="preserve">17.941032409668</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5361480712891</t>
+    <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.8162040710449</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">18.4486312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3786182403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3961219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9760398864746</t>
+    <t xml:space="preserve">18.3786163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.976037979126</t>
   </si>
   <si>
     <t xml:space="preserve">17.8010063171387</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">18.6236667633057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5011405944824</t>
+    <t xml:space="preserve">18.5011425018311</t>
   </si>
   <si>
     <t xml:space="preserve">18.8862190246582</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437488555908</t>
+    <t xml:space="preserve">19.0437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">19.1487693786621</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">19.4988403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5513477325439</t>
+    <t xml:space="preserve">19.5513496398926</t>
   </si>
   <si>
     <t xml:space="preserve">19.2187824249268</t>
@@ -2615,19 +2615,19 @@
     <t xml:space="preserve">19.1312656402588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.586353302002</t>
+    <t xml:space="preserve">19.5863552093506</t>
   </si>
   <si>
     <t xml:space="preserve">19.463830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3413066864014</t>
+    <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
     <t xml:space="preserve">19.39381980896</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4113216400146</t>
+    <t xml:space="preserve">19.4113235473633</t>
   </si>
   <si>
     <t xml:space="preserve">19.2537899017334</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337078094482</t>
+    <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7461910247803</t>
@@ -2663,16 +2663,16 @@
     <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4136238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7811946868896</t>
+    <t xml:space="preserve">18.4136257171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7811965942383</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664131164551</t>
+    <t xml:space="preserve">19.8664112091064</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463291168213</t>
@@ -2696,13 +2696,13 @@
     <t xml:space="preserve">19.1662712097168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7636947631836</t>
+    <t xml:space="preserve">18.763692855835</t>
   </si>
   <si>
     <t xml:space="preserve">19.0087432861328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2035827636719</t>
+    <t xml:space="preserve">18.2035846710205</t>
   </si>
   <si>
     <t xml:space="preserve">17.6084671020508</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820724487305</t>
+    <t xml:space="preserve">16.8820743560791</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">17.5034465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0810585021973</t>
+    <t xml:space="preserve">18.0810604095459</t>
   </si>
   <si>
     <t xml:space="preserve">18.5886611938477</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">18.2210865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935417175293</t>
+    <t xml:space="preserve">18.1685771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935436248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060249328613</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">17.7659969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5909633636475</t>
+    <t xml:space="preserve">17.5909652709961</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285491943359</t>
+    <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">18.5711555480957</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2362880706787</t>
+    <t xml:space="preserve">19.2362861633301</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714298248291</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266593933105</t>
+    <t xml:space="preserve">20.4790306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266613006592</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2804,10 +2804,10 @@
     <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1593647003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9318180084229</t>
+    <t xml:space="preserve">22.1593627929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9318199157715</t>
   </si>
   <si>
     <t xml:space="preserve">22.2293758392334</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721221923828</t>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721202850342</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4569225311279</t>
+    <t xml:space="preserve">22.4569206237793</t>
   </si>
   <si>
     <t xml:space="preserve">22.1243572235107</t>
@@ -2843,25 +2843,25 @@
     <t xml:space="preserve">22.8595008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6669635772705</t>
+    <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
     <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7719841003418</t>
+    <t xml:space="preserve">22.7719860076904</t>
   </si>
   <si>
     <t xml:space="preserve">23.1220531463623</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4546165466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144523620605</t>
+    <t xml:space="preserve">23.4546184539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493217468262</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">22.0018329620361</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4417209625244</t>
+    <t xml:space="preserve">21.441722869873</t>
   </si>
   <si>
     <t xml:space="preserve">20.7590885162354</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4394149780273</t>
+    <t xml:space="preserve">22.439416885376</t>
   </si>
   <si>
     <t xml:space="preserve">22.2118740081787</t>
@@ -2924,16 +2924,16 @@
     <t xml:space="preserve">22.26438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5969486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3168926239014</t>
+    <t xml:space="preserve">22.5969467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.31689453125</t>
   </si>
   <si>
     <t xml:space="preserve">22.2468814849854</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0893497467041</t>
+    <t xml:space="preserve">22.0893478393555</t>
   </si>
   <si>
     <t xml:space="preserve">22.334400177002</t>
@@ -2945,19 +2945,19 @@
     <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8092937469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1966743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2841911315918</t>
+    <t xml:space="preserve">21.8092956542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1966724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2841892242432</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267993927002</t>
+    <t xml:space="preserve">21.8267974853516</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942321777344</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016929626465</t>
+    <t xml:space="preserve">21.5817489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016948699951</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -4701,6 +4701,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.5200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7800006866455</t>
   </si>
 </sst>
 </file>
@@ -61410,7 +61413,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6495023148</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>335247</v>
@@ -61431,6 +61434,32 @@
         <v>1550</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493171296</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>322534</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>23.8799991607666</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>23.5200004577637</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>23.6000003814697</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>23.7800006866455</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1567">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121059417725</t>
+    <t xml:space="preserve">8.85120964050293</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">8.34830093383789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57101917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53509616851807</t>
+    <t xml:space="preserve">8.57101821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509521484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.47762107849121</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">8.09684658050537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29082679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053478240967</t>
+    <t xml:space="preserve">8.29082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9818959236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247661590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053573608398</t>
   </si>
   <si>
     <t xml:space="preserve">8.38422393798828</t>
@@ -92,31 +92,31 @@
     <t xml:space="preserve">8.28364181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7232551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6585955619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480962753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063442230225</t>
+    <t xml:space="preserve">8.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1902437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325611114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480867385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
   </si>
   <si>
     <t xml:space="preserve">8.20461273193359</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820676803589</t>
+    <t xml:space="preserve">7.83820581436157</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500247955322</t>
@@ -134,28 +134,28 @@
     <t xml:space="preserve">7.78073120117188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92442083358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04655456542969</t>
+    <t xml:space="preserve">7.92441987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878889083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.046555519104</t>
   </si>
   <si>
     <t xml:space="preserve">8.17587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08966255187988</t>
+    <t xml:space="preserve">8.0896635055542</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529258728027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160486221313</t>
+    <t xml:space="preserve">8.13276767730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160390853882</t>
   </si>
   <si>
     <t xml:space="preserve">7.97471284866333</t>
@@ -173,34 +173,34 @@
     <t xml:space="preserve">8.3339319229126</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59975624084473</t>
+    <t xml:space="preserve">8.59975528717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.70033836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6859712600708</t>
+    <t xml:space="preserve">8.68596935272217</t>
   </si>
   <si>
     <t xml:space="preserve">8.59257125854492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54228115081787</t>
+    <t xml:space="preserve">8.54228019714355</t>
   </si>
   <si>
     <t xml:space="preserve">8.40577602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31237983703613</t>
+    <t xml:space="preserve">8.31237888336182</t>
   </si>
   <si>
     <t xml:space="preserve">8.36985397338867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34111785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917316436768</t>
+    <t xml:space="preserve">8.3411169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946422576904</t>
@@ -209,52 +209,52 @@
     <t xml:space="preserve">8.45606803894043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41296005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043704986572</t>
+    <t xml:space="preserve">8.41296100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043800354004</t>
   </si>
   <si>
     <t xml:space="preserve">8.22616577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19742679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432262420654</t>
+    <t xml:space="preserve">8.19742774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432167053223</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150665283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2333517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218650817871</t>
+    <t xml:space="preserve">8.23335075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218746185303</t>
   </si>
   <si>
     <t xml:space="preserve">7.99626445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44169902801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519580841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527160644531</t>
+    <t xml:space="preserve">8.44169807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527351379395</t>
   </si>
   <si>
     <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24804592132568</t>
+    <t xml:space="preserve">8.248046875</t>
   </si>
   <si>
     <t xml:space="preserve">8.18795108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28560638427734</t>
+    <t xml:space="preserve">8.28560543060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.33067798614502</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">8.21048736572266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15039253234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723840713501</t>
+    <t xml:space="preserve">8.15039348602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723888397217</t>
   </si>
   <si>
     <t xml:space="preserve">7.51188230514526</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">7.45178699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30530595779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286546707153</t>
+    <t xml:space="preserve">7.30530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286499023438</t>
   </si>
   <si>
     <t xml:space="preserve">7.84991693496704</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">7.82738208770752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69967842102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728677749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906105041504</t>
+    <t xml:space="preserve">7.69968128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728582382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3090615272522</t>
   </si>
   <si>
     <t xml:space="preserve">7.13253211975098</t>
@@ -320,70 +320,70 @@
     <t xml:space="preserve">7.40295934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54944086074829</t>
+    <t xml:space="preserve">7.54944181442261</t>
   </si>
   <si>
     <t xml:space="preserve">7.69216728210449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80484676361084</t>
+    <t xml:space="preserve">7.80484580993652</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46681070327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57949018478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192876815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6020245552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977277755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704969406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207292556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475193023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958549499512</t>
+    <t xml:space="preserve">7.65460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4668116569519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202407836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977468490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475145339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6395845413208</t>
   </si>
   <si>
     <t xml:space="preserve">7.77479791641235</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59451246261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685907363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934698104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456035614014</t>
+    <t xml:space="preserve">7.59451293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4968581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934602737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62455987930298</t>
   </si>
   <si>
     <t xml:space="preserve">7.70719146728516</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">7.57197713851929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50437068939209</t>
+    <t xml:space="preserve">7.50436925888062</t>
   </si>
   <si>
     <t xml:space="preserve">7.47807931900024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49310302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752338409424</t>
+    <t xml:space="preserve">7.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4705662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996435165405</t>
@@ -428,145 +428,145 @@
     <t xml:space="preserve">7.94757080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09029674530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235694885254</t>
+    <t xml:space="preserve">8.09029769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235790252686</t>
   </si>
   <si>
     <t xml:space="preserve">7.87245225906372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71470355987549</t>
+    <t xml:space="preserve">7.71470260620117</t>
   </si>
   <si>
     <t xml:space="preserve">7.7222146987915</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66963243484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709615707397</t>
+    <t xml:space="preserve">7.66963195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709663391113</t>
   </si>
   <si>
     <t xml:space="preserve">7.44427537918091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39169263839722</t>
+    <t xml:space="preserve">7.39169216156006</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690649032593</t>
+    <t xml:space="preserve">7.52690601348877</t>
   </si>
   <si>
     <t xml:space="preserve">7.5193943977356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45554208755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38417959213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652667999268</t>
+    <t xml:space="preserve">7.45554304122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418006896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652572631836</t>
   </si>
   <si>
     <t xml:space="preserve">7.50812578201294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53441715240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403829574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9259557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102737426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990291595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332418441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9597601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849061965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971229553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956861495972</t>
+    <t xml:space="preserve">7.5344181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595624923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736520767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97102642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990148544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219972610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975875854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849157333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971181869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956909179688</t>
   </si>
   <si>
     <t xml:space="preserve">6.81327724456787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89215183258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581256866455</t>
+    <t xml:space="preserve">6.89215278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581352233887</t>
   </si>
   <si>
     <t xml:space="preserve">6.79449701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79074144363403</t>
+    <t xml:space="preserve">6.79074192047119</t>
   </si>
   <si>
     <t xml:space="preserve">6.90341949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03112125396729</t>
+    <t xml:space="preserve">7.0311222076416</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717554092407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985454559326</t>
+    <t xml:space="preserve">7.01985359191895</t>
   </si>
   <si>
     <t xml:space="preserve">7.01609802246094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17384815216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638204574585</t>
+    <t xml:space="preserve">7.17384767532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638299942017</t>
   </si>
   <si>
     <t xml:space="preserve">7.47432279586792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56446599960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982210159302</t>
+    <t xml:space="preserve">7.56446504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695390701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7898211479187</t>
   </si>
   <si>
     <t xml:space="preserve">7.78230905532837</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">7.88747549057007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98513174057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97762060165405</t>
+    <t xml:space="preserve">7.98513078689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733371734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761964797974</t>
   </si>
   <si>
     <t xml:space="preserve">8.04522609710693</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">8.06776142120361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10532188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766563415527</t>
+    <t xml:space="preserve">8.10532093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
     <t xml:space="preserve">7.95508289337158</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">8.29311847686768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20297622680664</t>
+    <t xml:space="preserve">8.20297527313232</t>
   </si>
   <si>
     <t xml:space="preserve">8.21799945831299</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26306915283203</t>
+    <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
     <t xml:space="preserve">8.25555896759033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30814170837402</t>
+    <t xml:space="preserve">8.30814266204834</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091506958008</t>
@@ -626,64 +626,64 @@
     <t xml:space="preserve">8.56354522705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57856941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69875907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636695861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77388000488281</t>
+    <t xml:space="preserve">8.57856845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636600494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
     <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75134181976318</t>
+    <t xml:space="preserve">8.78890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7513427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86402034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87904644012451</t>
+    <t xml:space="preserve">8.86402130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87904453277588</t>
   </si>
   <si>
     <t xml:space="preserve">8.88655662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91660499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172401428223</t>
+    <t xml:space="preserve">8.91660404205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172306060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93913841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98421096801758</t>
+    <t xml:space="preserve">8.9391393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98421192169189</t>
   </si>
   <si>
     <t xml:space="preserve">8.89406967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71378231048584</t>
+    <t xml:space="preserve">8.71378326416016</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096248626709</t>
+    <t xml:space="preserve">8.51096343994141</t>
   </si>
   <si>
     <t xml:space="preserve">8.42833232879639</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">8.61612892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53349781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54101085662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73631858825684</t>
+    <t xml:space="preserve">8.53349876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5410099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73631954193115</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90909290313721</t>
+    <t xml:space="preserve">8.90909194946289</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
@@ -716,16 +716,16 @@
     <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26110458374023</t>
+    <t xml:space="preserve">9.2611026763916</t>
   </si>
   <si>
     <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28460884094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38646507263184</t>
+    <t xml:space="preserve">9.2846097946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38646602630615</t>
   </si>
   <si>
     <t xml:space="preserve">9.42564010620117</t>
@@ -737,37 +737,37 @@
     <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44914722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41780662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966094970703</t>
+    <t xml:space="preserve">9.44914627075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41780567169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
     <t xml:space="preserve">9.53533267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80172729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85657119750977</t>
+    <t xml:space="preserve">9.80172634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8565731048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74687957763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79389095306396</t>
+    <t xml:space="preserve">9.74688053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822017669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79389190673828</t>
   </si>
   <si>
     <t xml:space="preserve">9.69986915588379</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">9.8487377166748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80956172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553993225098</t>
+    <t xml:space="preserve">9.80956077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">9.59801292419434</t>
@@ -791,25 +791,25 @@
     <t xml:space="preserve">9.62151908874512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64502429962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234310150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584926605225</t>
+    <t xml:space="preserve">9.64502334594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55883693695068</t>
+    <t xml:space="preserve">9.558837890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77038669586182</t>
+    <t xml:space="preserve">9.7703857421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.75471496582031</t>
@@ -818,28 +818,28 @@
     <t xml:space="preserve">9.48832130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51182746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399017333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37079429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6371898651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7077054977417</t>
+    <t xml:space="preserve">9.51182842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399303436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37079524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63718891143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70770454406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.83306694030762</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0211095809937</t>
+    <t xml:space="preserve">10.021110534668</t>
   </si>
   <si>
     <t xml:space="preserve">10.1543064117432</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">10.326678276062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031730651855</t>
+    <t xml:space="preserve">10.3031740188599</t>
   </si>
   <si>
     <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2561626434326</t>
+    <t xml:space="preserve">10.2561635971069</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621408462524</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953395843506</t>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953386306763</t>
   </si>
   <si>
     <t xml:space="preserve">10.3893604278564</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">10.4912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5695676803589</t>
+    <t xml:space="preserve">10.5695667266846</t>
   </si>
   <si>
     <t xml:space="preserve">10.6165771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6244144439697</t>
+    <t xml:space="preserve">10.6244134902954</t>
   </si>
   <si>
     <t xml:space="preserve">10.522557258606</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870946884155</t>
+    <t xml:space="preserve">10.6870937347412</t>
   </si>
   <si>
     <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6557531356812</t>
+    <t xml:space="preserve">10.6557540893555</t>
   </si>
   <si>
     <t xml:space="preserve">10.6087427139282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5930728912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852375030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382270812988</t>
+    <t xml:space="preserve">10.5930738449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852384567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382280349731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5147228240967</t>
+    <t xml:space="preserve">10.514720916748</t>
   </si>
   <si>
     <t xml:space="preserve">10.7027645111084</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">11.0475091934204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0318384170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0631790161133</t>
+    <t xml:space="preserve">11.0318393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
     <t xml:space="preserve">10.9769926071167</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">11.0240039825439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0161695480347</t>
+    <t xml:space="preserve">11.0161685943604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926633834839</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">11.24338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139028549194</t>
+    <t xml:space="preserve">11.3139019012451</t>
   </si>
   <si>
     <t xml:space="preserve">11.21204662323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765830993652</t>
+    <t xml:space="preserve">11.3765859603882</t>
   </si>
   <si>
     <t xml:space="preserve">11.4157590866089</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">11.4941101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7840099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8466911315918</t>
+    <t xml:space="preserve">11.7840089797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
     <t xml:space="preserve">11.9250421524048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5411205291748</t>
+    <t xml:space="preserve">11.5411214828491</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291641235352</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485464096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388566970825</t>
+    <t xml:space="preserve">11.9485473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388547897339</t>
   </si>
   <si>
     <t xml:space="preserve">11.9172067642212</t>
@@ -1001,16 +1001,16 @@
     <t xml:space="preserve">11.9877233505249</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9642162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1600952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.246280670166</t>
+    <t xml:space="preserve">11.9642171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739088058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1600961685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2462816238403</t>
   </si>
   <si>
     <t xml:space="preserve">12.2227764129639</t>
@@ -1019,25 +1019,25 @@
     <t xml:space="preserve">12.3011264801025</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5126752853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283451080322</t>
+    <t xml:space="preserve">12.5126762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0347337722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794775009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481397628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4970054626465</t>
+    <t xml:space="preserve">12.0347328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794784545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4970045089722</t>
   </si>
   <si>
     <t xml:space="preserve">12.8025751113892</t>
@@ -1052,13 +1052,13 @@
     <t xml:space="preserve">12.4813346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6537075042725</t>
+    <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772127151489</t>
+    <t xml:space="preserve">12.6772136688232</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">12.3089618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1130838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660734176636</t>
+    <t xml:space="preserve">12.1130847930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697858810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
     <t xml:space="preserve">11.901535987854</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541170120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891691207886</t>
+    <t xml:space="preserve">12.2541160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891681671143</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223669052124</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">12.3324680328369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5910263061523</t>
+    <t xml:space="preserve">12.591025352478</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9749479293823</t>
+    <t xml:space="preserve">12.974946975708</t>
   </si>
   <si>
     <t xml:space="preserve">12.9671106338501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1159801483154</t>
+    <t xml:space="preserve">13.1159791946411</t>
   </si>
   <si>
     <t xml:space="preserve">13.2256698608398</t>
@@ -1115,67 +1115,67 @@
     <t xml:space="preserve">13.2805166244507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021646499634</t>
+    <t xml:space="preserve">13.2021656036377</t>
   </si>
   <si>
     <t xml:space="preserve">13.2335062026978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003074645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9592771530151</t>
+    <t xml:space="preserve">13.2178363800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003084182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9592761993408</t>
   </si>
   <si>
     <t xml:space="preserve">13.0611333847046</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417501449585</t>
+    <t xml:space="preserve">13.1786594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417482376099</t>
   </si>
   <si>
     <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2932920455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3951473236084</t>
+    <t xml:space="preserve">12.2932929992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.395149230957</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6693773269653</t>
+    <t xml:space="preserve">12.669376373291</t>
   </si>
   <si>
     <t xml:space="preserve">12.7320585250854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7790699005127</t>
+    <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
     <t xml:space="preserve">12.6850481033325</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0846405029297</t>
+    <t xml:space="preserve">13.0846395492554</t>
   </si>
   <si>
     <t xml:space="preserve">13.2570114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081428527832</t>
+    <t xml:space="preserve">13.1081418991089</t>
   </si>
   <si>
     <t xml:space="preserve">13.3118562698364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1238145828247</t>
+    <t xml:space="preserve">13.1238136291504</t>
   </si>
   <si>
     <t xml:space="preserve">13.3510322570801</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">14.2912454605103</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8397054672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982627868652</t>
+    <t xml:space="preserve">14.8397045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982618331909</t>
   </si>
   <si>
     <t xml:space="preserve">15.0277481079102</t>
@@ -1202,34 +1202,34 @@
     <t xml:space="preserve">15.0825939178467</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3176469802856</t>
+    <t xml:space="preserve">15.3176460266113</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549648284912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9337224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8553733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452722549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669212341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4743480682373</t>
+    <t xml:space="preserve">14.9337244033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8553714752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221784591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452741622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844463348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.474347114563</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605354309082</t>
@@ -1238,37 +1238,37 @@
     <t xml:space="preserve">15.435173034668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.701566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172346115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042409896851</t>
+    <t xml:space="preserve">15.7015657424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172365188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042381286621</t>
   </si>
   <si>
     <t xml:space="preserve">15.0904273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1374397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157907485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3568210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821834564209</t>
+    <t xml:space="preserve">15.1374387741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001190185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157878875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3568201065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821815490723</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918741226196</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">15.6702260971069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6310510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858959197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896112442017</t>
+    <t xml:space="preserve">15.6310520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858968734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.889609336853</t>
   </si>
   <si>
     <t xml:space="preserve">15.5683689117432</t>
@@ -1292,76 +1292,76 @@
     <t xml:space="preserve">15.8269290924072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1403312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8867168426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926921844482</t>
+    <t xml:space="preserve">16.1403331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8867149353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926931381226</t>
   </si>
   <si>
     <t xml:space="preserve">14.8710432052612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8390312194824</t>
+    <t xml:space="preserve">14.8390293121338</t>
   </si>
   <si>
     <t xml:space="preserve">14.9750938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548444747925</t>
+    <t xml:space="preserve">14.6149244308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548463821411</t>
   </si>
   <si>
     <t xml:space="preserve">14.3267869949341</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0306463241577</t>
+    <t xml:space="preserve">14.030647277832</t>
   </si>
   <si>
     <t xml:space="preserve">13.8945827484131</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0866737365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867670059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.254753112793</t>
+    <t xml:space="preserve">14.0866727828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547512054443</t>
   </si>
   <si>
     <t xml:space="preserve">14.3668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5348863601685</t>
+    <t xml:space="preserve">14.5348854064941</t>
   </si>
   <si>
     <t xml:space="preserve">14.5508947372437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1907224655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273561477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152070999146</t>
+    <t xml:space="preserve">14.1907215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.335262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152061462402</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713277816772</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">15.583381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.807487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073942184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471258163452</t>
+    <t xml:space="preserve">15.8074893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471267700195</t>
   </si>
   <si>
     <t xml:space="preserve">15.1351699829102</t>
@@ -1388,76 +1388,76 @@
     <t xml:space="preserve">15.0391254425049</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8870534896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911022186279</t>
+    <t xml:space="preserve">14.8870525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911003112793</t>
   </si>
   <si>
     <t xml:space="preserve">14.8630390167236</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9991044998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793329238892</t>
+    <t xml:space="preserve">14.9991054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1191596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793338775635</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153955459595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5353603363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6554155349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434568405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034387588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233997344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113477706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4633264541626</t>
+    <t xml:space="preserve">15.5353584289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6554164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434549331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034406661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234016418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992929458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4633235931396</t>
   </si>
   <si>
     <t xml:space="preserve">15.49534034729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4233064651489</t>
+    <t xml:space="preserve">15.4233074188232</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">15.071138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230237960815</t>
+    <t xml:space="preserve">15.0711402893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230228424072</t>
   </si>
   <si>
     <t xml:space="preserve">14.7349786758423</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7269763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1031541824341</t>
+    <t xml:space="preserve">14.726975440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.103157043457</t>
   </si>
   <si>
     <t xml:space="preserve">15.2392196655273</t>
@@ -1469,25 +1469,25 @@
     <t xml:space="preserve">14.462851524353</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4708547592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748092651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5749044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4228315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107786178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468431472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3427925109863</t>
+    <t xml:space="preserve">14.4708557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5749034881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.422833442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107776641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468412399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.342794418335</t>
   </si>
   <si>
     <t xml:space="preserve">14.2787647247314</t>
@@ -1499,55 +1499,55 @@
     <t xml:space="preserve">14.294771194458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1266918182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1747150421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6389360427856</t>
+    <t xml:space="preserve">14.126690864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707605361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6389350891113</t>
   </si>
   <si>
     <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3588047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347911834717</t>
+    <t xml:space="preserve">14.3588018417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347902297974</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587066650391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9666166305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.04665184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1186866760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346969604492</t>
+    <t xml:space="preserve">13.9666175842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0466527938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.118688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346960067749</t>
   </si>
   <si>
     <t xml:space="preserve">14.0386514663696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2387437820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1106834411621</t>
+    <t xml:space="preserve">14.2387447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1106824874878</t>
   </si>
   <si>
     <t xml:space="preserve">13.6864833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7825298309326</t>
+    <t xml:space="preserve">13.7825288772583</t>
   </si>
   <si>
     <t xml:space="preserve">13.5584230422974</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667127609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8865776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7184963226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3023023605347</t>
+    <t xml:space="preserve">14.166711807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8865785598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7184982299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023014068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662368774414</t>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.222264289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982517242432</t>
+    <t xml:space="preserve">13.1262178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2222633361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982526779175</t>
   </si>
   <si>
     <t xml:space="preserve">12.8460845947266</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">12.8620929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823385238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744295120239</t>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744285583496</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184030532837</t>
@@ -1613,40 +1613,40 @@
     <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5023956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5664262771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.174241065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1502304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741449356079</t>
+    <t xml:space="preserve">13.5023965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.566427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.526406288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1742401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1502294540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741458892822</t>
   </si>
   <si>
     <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1422243118286</t>
+    <t xml:space="preserve">13.1422262191772</t>
   </si>
   <si>
     <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7340316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8140707015991</t>
+    <t xml:space="preserve">12.7340307235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661436080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8140697479248</t>
   </si>
   <si>
     <t xml:space="preserve">12.9421300888062</t>
@@ -1655,25 +1655,25 @@
     <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060665130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.485915184021</t>
+    <t xml:space="preserve">12.8060655593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4859161376953</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.27028465271</t>
+    <t xml:space="preserve">13.2702856063843</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5424156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706653594971</t>
+    <t xml:space="preserve">13.5424165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706663131714</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785743713379</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">13.7104930877686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3183069229126</t>
+    <t xml:space="preserve">13.3183078765869</t>
   </si>
   <si>
     <t xml:space="preserve">13.2062549591064</t>
@@ -1697,19 +1697,19 @@
     <t xml:space="preserve">13.7745237350464</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5824337005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145446777344</t>
+    <t xml:space="preserve">13.5824327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145437240601</t>
   </si>
   <si>
     <t xml:space="preserve">13.950608253479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6704759597778</t>
+    <t xml:space="preserve">13.6704750061035</t>
   </si>
   <si>
     <t xml:space="preserve">13.8625659942627</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">13.998631477356</t>
   </si>
   <si>
-    <t xml:space="preserve">13.990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985372543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103998184204</t>
+    <t xml:space="preserve">13.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.654468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985353469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103988647461</t>
   </si>
   <si>
     <t xml:space="preserve">13.7905321121216</t>
@@ -1739,28 +1739,28 @@
     <t xml:space="preserve">13.9826240539551</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066337585449</t>
+    <t xml:space="preserve">14.0066356658936</t>
   </si>
   <si>
     <t xml:space="preserve">13.6784791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6224546432495</t>
+    <t xml:space="preserve">13.6224536895752</t>
   </si>
   <si>
     <t xml:space="preserve">13.6464624404907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9586143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9025859832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265043258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.870569229126</t>
+    <t xml:space="preserve">13.9586124420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9025869369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8705701828003</t>
   </si>
   <si>
     <t xml:space="preserve">14.0786685943604</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">13.6384611129761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4303617477417</t>
+    <t xml:space="preserve">13.430362701416</t>
   </si>
   <si>
     <t xml:space="preserve">13.4383668899536</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">13.0301723480225</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9581394195557</t>
+    <t xml:space="preserve">12.958137512207</t>
   </si>
   <si>
     <t xml:space="preserve">12.7420358657837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3983478546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4703807830811</t>
+    <t xml:space="preserve">13.3983469009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4703817367554</t>
   </si>
   <si>
     <t xml:space="preserve">13.4943923950195</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">12.9021129608154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101142883301</t>
+    <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861036300659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8700971603394</t>
+    <t xml:space="preserve">12.9901542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8700952529907</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0221700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0665893554688</t>
+    <t xml:space="preserve">13.0221691131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144495010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665884017944</t>
   </si>
   <si>
     <t xml:space="preserve">14.2340488433838</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">14.4098796844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7699184417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950391769409</t>
+    <t xml:space="preserve">14.7699193954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950372695923</t>
   </si>
   <si>
     <t xml:space="preserve">14.6694440841675</t>
@@ -1868,25 +1868,25 @@
     <t xml:space="preserve">14.5187301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.435001373291</t>
+    <t xml:space="preserve">14.4349994659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3680171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713443756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141632080078</t>
+    <t xml:space="preserve">14.3680152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708690643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141622543335</t>
   </si>
   <si>
     <t xml:space="preserve">15.448130607605</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">15.5318584442139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0043601989746</t>
+    <t xml:space="preserve">15.0043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">14.9876165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9038867950439</t>
+    <t xml:space="preserve">14.9038877487183</t>
   </si>
   <si>
     <t xml:space="preserve">14.85364818573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2806711196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569763183594</t>
+    <t xml:space="preserve">15.2806692123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569791793823</t>
   </si>
   <si>
     <t xml:space="preserve">15.4648733139038</t>
@@ -1934,34 +1934,34 @@
     <t xml:space="preserve">15.8667793273926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.81653881073</t>
+    <t xml:space="preserve">15.8165378570557</t>
   </si>
   <si>
     <t xml:space="preserve">15.7830476760864</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7411813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328109741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.498366355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215810775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634492874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462265014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.079719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8452758789062</t>
+    <t xml:space="preserve">15.7411823272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215829849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8452749252319</t>
   </si>
   <si>
     <t xml:space="preserve">14.8787679672241</t>
@@ -1970,25 +1970,25 @@
     <t xml:space="preserve">14.4015092849731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6778163909912</t>
+    <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
     <t xml:space="preserve">15.0294818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1299562454224</t>
+    <t xml:space="preserve">15.1299571990967</t>
   </si>
   <si>
     <t xml:space="preserve">15.0378532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4266271591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596448898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684906005859</t>
+    <t xml:space="preserve">14.4266262054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684915542603</t>
   </si>
   <si>
     <t xml:space="preserve">14.3094053268433</t>
@@ -2003,70 +2003,70 @@
     <t xml:space="preserve">14.7196817398071</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6526966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512678146362</t>
+    <t xml:space="preserve">14.6526975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512697219849</t>
   </si>
   <si>
     <t xml:space="preserve">14.5940866470337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6024618148804</t>
+    <t xml:space="preserve">14.6024599075317</t>
   </si>
   <si>
     <t xml:space="preserve">14.9457511901855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383295059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309087753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.515115737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629711151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4397573471069</t>
+    <t xml:space="preserve">14.7448015213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9122581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309078216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151138305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964651107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629739761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373788833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4397563934326</t>
   </si>
   <si>
     <t xml:space="preserve">15.8500308990479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7244367599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8751516342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993188858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9002695083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988435745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490821838379</t>
+    <t xml:space="preserve">15.7244396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.875150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993179321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6072158813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9002714157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988416671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490802764893</t>
   </si>
   <si>
     <t xml:space="preserve">15.5486030578613</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">15.4899940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3895177841187</t>
+    <t xml:space="preserve">15.3895168304443</t>
   </si>
   <si>
     <t xml:space="preserve">14.9792432785034</t>
@@ -2087,49 +2087,49 @@
     <t xml:space="preserve">15.2722969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.021110534668</t>
+    <t xml:space="preserve">15.021107673645</t>
   </si>
   <si>
     <t xml:space="preserve">14.9206314086914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1048393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471780776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2304334640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1801929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.88352394104</t>
+    <t xml:space="preserve">15.1048383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.113208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2304315567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1801919937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969404220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057880401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835229873657</t>
   </si>
   <si>
     <t xml:space="preserve">15.8249139785767</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3811445236206</t>
+    <t xml:space="preserve">15.3811473846436</t>
   </si>
   <si>
     <t xml:space="preserve">15.1718235015869</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2136878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220602035522</t>
+    <t xml:space="preserve">15.2136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220611572266</t>
   </si>
   <si>
     <t xml:space="preserve">15.5067415237427</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">15.9672527313232</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6825742721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732494354248</t>
+    <t xml:space="preserve">15.6825714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732475280762</t>
   </si>
   <si>
     <t xml:space="preserve">15.933762550354</t>
@@ -2150,67 +2150,67 @@
     <t xml:space="preserve">16.3942737579346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7961769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6370906829834</t>
+    <t xml:space="preserve">16.796178817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637092590332</t>
   </si>
   <si>
     <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435626983643</t>
+    <t xml:space="preserve">16.2435607910156</t>
   </si>
   <si>
     <t xml:space="preserve">16.5198707580566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1179695129395</t>
+    <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
     <t xml:space="preserve">16.0426082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0258636474609</t>
+    <t xml:space="preserve">16.0761013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0258655548096</t>
   </si>
   <si>
     <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765804290771</t>
+    <t xml:space="preserve">16.1765766143799</t>
   </si>
   <si>
     <t xml:space="preserve">16.2100696563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6705837249756</t>
+    <t xml:space="preserve">16.6705856323242</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5282402038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3440361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.092845916748</t>
+    <t xml:space="preserve">16.5282421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3440380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928497314453</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0509853363037</t>
+    <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
     <t xml:space="preserve">16.3021717071533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5366153717041</t>
+    <t xml:space="preserve">16.5366172790527</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
@@ -2219,22 +2219,22 @@
     <t xml:space="preserve">17.1645889282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4827613830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2483177185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5329971313477</t>
+    <t xml:space="preserve">17.4827632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2483196258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329990386963</t>
   </si>
   <si>
     <t xml:space="preserve">18.0353775024414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9181537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0856132507324</t>
+    <t xml:space="preserve">17.918155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0856170654297</t>
   </si>
   <si>
     <t xml:space="preserve">18.0521240234375</t>
@@ -2243,34 +2243,34 @@
     <t xml:space="preserve">17.9516487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6669673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8846645355225</t>
+    <t xml:space="preserve">17.6669692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8846626281738</t>
   </si>
   <si>
     <t xml:space="preserve">18.2028369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.867919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2363300323486</t>
+    <t xml:space="preserve">17.8679180145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.236328125</t>
   </si>
   <si>
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707736968994</t>
+    <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382312774658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4205322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4540252685547</t>
+    <t xml:space="preserve">18.4205341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4540271759033</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">18.9229125976562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2410850524902</t>
+    <t xml:space="preserve">19.2410831451416</t>
   </si>
   <si>
     <t xml:space="preserve">19.1908473968506</t>
@@ -2291,28 +2291,28 @@
     <t xml:space="preserve">19.4420375823975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3583087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745780944824</t>
+    <t xml:space="preserve">19.3583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745761871338</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5042629241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7387027740479</t>
+    <t xml:space="preserve">18.504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7387046813965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3368015289307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4660167694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210094451904</t>
+    <t xml:space="preserve">17.4660148620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210113525391</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525993347168</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">11.8226327896118</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7819089889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5175886154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998924255371</t>
+    <t xml:space="preserve">13.7819080352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5175895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998933792114</t>
   </si>
   <si>
     <t xml:space="preserve">12.3082647323608</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235843658447</t>
+    <t xml:space="preserve">12.023585319519</t>
   </si>
   <si>
     <t xml:space="preserve">11.6300554275513</t>
@@ -2351,28 +2351,28 @@
     <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8860006332397</t>
+    <t xml:space="preserve">12.8859996795654</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563148498535</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386167526245</t>
+    <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
     <t xml:space="preserve">13.991231918335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2591686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0917081832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0079774856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8907566070557</t>
+    <t xml:space="preserve">14.2591695785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0917091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0079784393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.89075756073</t>
   </si>
   <si>
     <t xml:space="preserve">14.1921844482422</t>
@@ -2390,55 +2390,55 @@
     <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321475982666</t>
+    <t xml:space="preserve">13.8321466445923</t>
   </si>
   <si>
     <t xml:space="preserve">14.1419458389282</t>
   </si>
   <si>
-    <t xml:space="preserve">14.217303276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926578521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7316694259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6898050308228</t>
+    <t xml:space="preserve">14.2173023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7316703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6898059844971</t>
   </si>
   <si>
     <t xml:space="preserve">13.7986545562744</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9493684768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9828615188599</t>
+    <t xml:space="preserve">13.9493675231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103549957275</t>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103569030762</t>
   </si>
   <si>
     <t xml:space="preserve">15.0354604721069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6503858566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1317310333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1229763031006</t>
+    <t xml:space="preserve">14.6503849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1317319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1229772567749</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281358718872</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">17.3721694946289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4684410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
   </si>
   <si>
     <t xml:space="preserve">17.0308532714844</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357357025146</t>
+    <t xml:space="preserve">16.4357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">16.2431983947754</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">16.1031703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1731853485107</t>
+    <t xml:space="preserve">16.1731834411621</t>
   </si>
   <si>
     <t xml:space="preserve">16.7595500946045</t>
@@ -2501,40 +2501,40 @@
     <t xml:space="preserve">16.7858066558838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4707431793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7945575714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846527099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0460548400879</t>
+    <t xml:space="preserve">16.2607021331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4707412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7945556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846546173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0460529327393</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.941032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1160678863525</t>
+    <t xml:space="preserve">17.8535137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9410343170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1160659790039</t>
   </si>
   <si>
     <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5361480712891</t>
+    <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.8162040710449</t>
@@ -2543,10 +2543,10 @@
     <t xml:space="preserve">18.3086051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2911014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3261070251465</t>
+    <t xml:space="preserve">18.2910995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
     <t xml:space="preserve">18.4486312866211</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">18.3786182403564</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3961219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9760398864746</t>
+    <t xml:space="preserve">18.3961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.976037979126</t>
   </si>
   <si>
     <t xml:space="preserve">17.8010063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8885231018066</t>
+    <t xml:space="preserve">17.888521194458</t>
   </si>
   <si>
     <t xml:space="preserve">17.8360118865967</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">18.5011405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8862190246582</t>
+    <t xml:space="preserve">18.8862171173096</t>
   </si>
   <si>
     <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437488555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1487693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4988403320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5513477325439</t>
+    <t xml:space="preserve">19.0437507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1487712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4988384246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5513496398926</t>
   </si>
   <si>
     <t xml:space="preserve">19.2187824249268</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">19.1312656402588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.586353302002</t>
+    <t xml:space="preserve">19.5863552093506</t>
   </si>
   <si>
     <t xml:space="preserve">19.463830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3413066864014</t>
+    <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
     <t xml:space="preserve">19.39381980896</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">19.2537899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1137657165527</t>
+    <t xml:space="preserve">19.1137638092041</t>
   </si>
   <si>
     <t xml:space="preserve">18.9562320709229</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">19.376314163208</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6936817169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8337078094482</t>
+    <t xml:space="preserve">18.6936798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7461910247803</t>
@@ -2660,16 +2660,16 @@
     <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4136238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7811946868896</t>
+    <t xml:space="preserve">18.4136276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7811965942383</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664131164551</t>
+    <t xml:space="preserve">19.8664112091064</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463291168213</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912414550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662712097168</t>
+    <t xml:space="preserve">18.9912395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662731170654</t>
   </si>
   <si>
     <t xml:space="preserve">18.7636947631836</t>
@@ -2708,19 +2708,19 @@
     <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820724487305</t>
+    <t xml:space="preserve">16.8820743560791</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034465789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0810585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5886611938477</t>
+    <t xml:space="preserve">17.5034484863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0810604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
     <t xml:space="preserve">18.0635566711426</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">18.2210865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935417175293</t>
+    <t xml:space="preserve">18.1685771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935436248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060249328613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784820556641</t>
+    <t xml:space="preserve">17.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285491943359</t>
+    <t xml:space="preserve">18.0285530090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
@@ -2768,19 +2768,19 @@
     <t xml:space="preserve">19.2362880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714298248291</t>
+    <t xml:space="preserve">19.9714317321777</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2316780090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266593933105</t>
+    <t xml:space="preserve">20.4790306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2316799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266613006592</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2789,19 +2789,19 @@
     <t xml:space="preserve">21.8968124389648</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143161773682</t>
+    <t xml:space="preserve">21.9143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0368385314941</t>
+    <t xml:space="preserve">22.0368404388428</t>
   </si>
   <si>
     <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1593647003174</t>
+    <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
     <t xml:space="preserve">21.9318180084229</t>
@@ -2810,13 +2810,13 @@
     <t xml:space="preserve">22.2293758392334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4219150543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721221923828</t>
+    <t xml:space="preserve">22.4219169616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721202850342</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2825,10 +2825,10 @@
     <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4569225311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1243572235107</t>
+    <t xml:space="preserve">22.4569206237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1243553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8595008850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6669635772705</t>
+    <t xml:space="preserve">22.8595027923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
     <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7719841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1220531463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4546165466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144523620605</t>
+    <t xml:space="preserve">22.7719860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1220512390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4546184539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493217468262</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">21.7742862701416</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4919281005859</t>
+    <t xml:space="preserve">22.4919300079346</t>
   </si>
   <si>
     <t xml:space="preserve">22.0018329620361</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4394149780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2118740081787</t>
+    <t xml:space="preserve">22.439416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940940856934</t>
+    <t xml:space="preserve">20.794095993042</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067153930664</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5292415618896</t>
+    <t xml:space="preserve">21.529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">21.7567825317383</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">22.26438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5969486236572</t>
+    <t xml:space="preserve">22.5969467163086</t>
   </si>
   <si>
     <t xml:space="preserve">22.3168926239014</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">22.334400177002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1068515777588</t>
+    <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
     <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8092937469482</t>
+    <t xml:space="preserve">21.8092956542969</t>
   </si>
   <si>
     <t xml:space="preserve">21.1966743469238</t>
@@ -2954,19 +2954,19 @@
     <t xml:space="preserve">22.3869075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267993927002</t>
+    <t xml:space="preserve">21.8267955780029</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942321777344</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5992527008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1441631317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.581750869751</t>
+    <t xml:space="preserve">21.5992546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1441612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5817489624023</t>
   </si>
   <si>
     <t xml:space="preserve">21.3016929626465</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">21.4767284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3915138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.916618347168</t>
+    <t xml:space="preserve">20.3915157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
@@ -4710,6 +4710,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.8400001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7000007629395</t>
   </si>
 </sst>
 </file>
@@ -61549,7 +61552,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6516550926</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>278151</v>
@@ -61570,6 +61573,32 @@
         <v>1565</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6494097222</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>232063</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>23.9400005340576</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>23.6200008392334</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>23.8600006103516</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>23.7000007629395</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1568">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85120964050293</t>
+    <t xml:space="preserve">8.85121059417725</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55664825439453</t>
+    <t xml:space="preserve">8.55664920806885</t>
   </si>
   <si>
     <t xml:space="preserve">8.32674884796143</t>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34830093383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53509521484375</t>
+    <t xml:space="preserve">8.34830188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57101917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509616851807</t>
   </si>
   <si>
     <t xml:space="preserve">8.47762107849121</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9818959236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247661590576</t>
+    <t xml:space="preserve">7.98189496994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247756958008</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053573608398</t>
@@ -95,43 +95,43 @@
     <t xml:space="preserve">8.27645683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1902437210083</t>
+    <t xml:space="preserve">8.26208877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">8.11121463775635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72325611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480867385864</t>
+    <t xml:space="preserve">7.72325658798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480962753296</t>
   </si>
   <si>
     <t xml:space="preserve">8.01063346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20461273193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558460235596</t>
+    <t xml:space="preserve">8.20461368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558364868164</t>
   </si>
   <si>
     <t xml:space="preserve">7.83820581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02500247955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073120117188</t>
+    <t xml:space="preserve">8.02500152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073072433472</t>
   </si>
   <si>
     <t xml:space="preserve">7.92441987991333</t>
@@ -140,25 +140,25 @@
     <t xml:space="preserve">7.93878889083862</t>
   </si>
   <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587471008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0896635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276767730713</t>
+    <t xml:space="preserve">8.04655647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966159820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276863098145</t>
   </si>
   <si>
     <t xml:space="preserve">7.93160390853882</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97471284866333</t>
+    <t xml:space="preserve">7.9747109413147</t>
   </si>
   <si>
     <t xml:space="preserve">8.10403060913086</t>
@@ -167,40 +167,40 @@
     <t xml:space="preserve">8.11839962005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21898078918457</t>
+    <t xml:space="preserve">8.21898174285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.3339319229126</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59975528717041</t>
+    <t xml:space="preserve">8.59975624084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.70033836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68596935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228019714355</t>
+    <t xml:space="preserve">8.68596839904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228210449219</t>
   </si>
   <si>
     <t xml:space="preserve">8.40577602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31237888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985397338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917411804199</t>
+    <t xml:space="preserve">8.3123779296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917316436768</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946422576904</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">8.41296100616455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47043800354004</t>
+    <t xml:space="preserve">8.47043704986572</t>
   </si>
   <si>
     <t xml:space="preserve">8.22616577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19742774963379</t>
+    <t xml:space="preserve">8.19742870330811</t>
   </si>
   <si>
     <t xml:space="preserve">8.15432167053223</t>
@@ -230,40 +230,40 @@
     <t xml:space="preserve">8.23335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03218746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169807434082</t>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626541137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169902801514</t>
   </si>
   <si>
     <t xml:space="preserve">8.30519485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07527351379395</t>
+    <t xml:space="preserve">8.07527446746826</t>
   </si>
   <si>
     <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560543060303</t>
+    <t xml:space="preserve">8.24804592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560638427734</t>
   </si>
   <si>
     <t xml:space="preserve">8.33067798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
+    <t xml:space="preserve">8.23302364349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
   </si>
   <si>
     <t xml:space="preserve">8.14288139343262</t>
@@ -272,118 +272,118 @@
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1654167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15039348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178699493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69968128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728582382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3090615272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253211975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484580993652</t>
+    <t xml:space="preserve">8.16541481018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048641204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15039157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723840713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4517879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530595779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286451339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991645812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8273811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7672872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906105041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40296030044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484533309937</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4668116569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465614318848</t>
+    <t xml:space="preserve">7.65460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910846710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681070327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948923110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54193019866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6020245552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977373123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465566635132</t>
   </si>
   <si>
     <t xml:space="preserve">7.61704874038696</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66211891174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207340240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475145339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6395845413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479791641235</t>
+    <t xml:space="preserve">7.66211938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207197189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958501815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479839324951</t>
   </si>
   <si>
     <t xml:space="preserve">7.59451293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4968581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62455987930298</t>
+    <t xml:space="preserve">7.49685859680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934650421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456083297729</t>
   </si>
   <si>
     <t xml:space="preserve">7.70719146728516</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">7.67714357376099</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81986904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742902755737</t>
+    <t xml:space="preserve">7.81986999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742855072021</t>
   </si>
   <si>
     <t xml:space="preserve">7.60953617095947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57197713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436925888062</t>
+    <t xml:space="preserve">7.57197761535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50436973571777</t>
   </si>
   <si>
     <t xml:space="preserve">7.47807931900024</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">7.49310350418091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4705662727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752433776855</t>
+    <t xml:space="preserve">7.47056722640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9175238609314</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996435165405</t>
@@ -425,37 +425,37 @@
     <t xml:space="preserve">7.91001224517822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94757080078125</t>
+    <t xml:space="preserve">7.94757175445557</t>
   </si>
   <si>
     <t xml:space="preserve">8.09029769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75226354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235790252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245225906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470260620117</t>
+    <t xml:space="preserve">7.75226306915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470308303833</t>
   </si>
   <si>
     <t xml:space="preserve">7.7222146987915</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66963195800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709663391113</t>
+    <t xml:space="preserve">7.66963243484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709711074829</t>
   </si>
   <si>
     <t xml:space="preserve">7.44427537918091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39169216156006</t>
+    <t xml:space="preserve">7.39169263839722</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
@@ -464,37 +464,37 @@
     <t xml:space="preserve">7.52690601348877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5193943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554304122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418006896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812578201294</t>
+    <t xml:space="preserve">7.51939392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38417959213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652620315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5081262588501</t>
   </si>
   <si>
     <t xml:space="preserve">7.5344181060791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29403686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595624923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736520767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605108261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102642059326</t>
+    <t xml:space="preserve">7.29403734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736616134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97102689743042</t>
   </si>
   <si>
     <t xml:space="preserve">7.04990148544312</t>
@@ -503,46 +503,46 @@
     <t xml:space="preserve">6.92219972610474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84332466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849157333374</t>
+    <t xml:space="preserve">6.8433256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975923538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
   </si>
   <si>
     <t xml:space="preserve">6.92971181869507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956909179688</t>
+    <t xml:space="preserve">6.83956813812256</t>
   </si>
   <si>
     <t xml:space="preserve">6.81327724456787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89215278625488</t>
+    <t xml:space="preserve">6.89215135574341</t>
   </si>
   <si>
     <t xml:space="preserve">6.83581352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79449701309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074192047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0311222076416</t>
+    <t xml:space="preserve">6.79449796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074096679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112173080444</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717554092407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985359191895</t>
+    <t xml:space="preserve">7.0198540687561</t>
   </si>
   <si>
     <t xml:space="preserve">7.01609802246094</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">7.17384767532349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19638299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432279586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446504592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972583770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695390701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7898211479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230905532837</t>
+    <t xml:space="preserve">7.19638442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972822189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5569543838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982305526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230953216553</t>
   </si>
   <si>
     <t xml:space="preserve">7.88747549057007</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98513078689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733371734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761964797974</t>
+    <t xml:space="preserve">7.98513221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761821746826</t>
   </si>
   <si>
     <t xml:space="preserve">8.04522609710693</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">8.06776142120361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10532093048096</t>
+    <t xml:space="preserve">8.10532188415527</t>
   </si>
   <si>
     <t xml:space="preserve">8.00766658782959</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">7.95508289337158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29311847686768</t>
+    <t xml:space="preserve">8.29311752319336</t>
   </si>
   <si>
     <t xml:space="preserve">8.20297527313232</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25555896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814266204834</t>
+    <t xml:space="preserve">8.2555570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814170837402</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091506958008</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">8.56354522705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57856845855713</t>
+    <t xml:space="preserve">8.57857036590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.69876003265381</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72880744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78890323638916</t>
+    <t xml:space="preserve">8.7288064956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78890228271484</t>
   </si>
   <si>
     <t xml:space="preserve">8.7513427734375</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86402130126953</t>
+    <t xml:space="preserve">8.86402225494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.87904453277588</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">8.88655662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91660404205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172306060791</t>
+    <t xml:space="preserve">8.91660499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9391393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98421192169189</t>
+    <t xml:space="preserve">8.93913841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98421096801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.89406967163086</t>
@@ -683,37 +683,37 @@
     <t xml:space="preserve">8.60110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42833232879639</t>
+    <t xml:space="preserve">8.51096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42833137512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.61612892150879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53349876403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5410099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73631954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909194946289</t>
+    <t xml:space="preserve">8.53349781036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54101085662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73632049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909290313721</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8565092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10440158843994</t>
+    <t xml:space="preserve">8.85650825500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10439968109131</t>
   </si>
   <si>
     <t xml:space="preserve">9.2611026763916</t>
@@ -722,25 +722,25 @@
     <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2846097946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38646602630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42564010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3472900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36295986175537</t>
+    <t xml:space="preserve">9.28460884094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38646411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42564105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34728908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36295890808105</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914627075195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41780567169189</t>
+    <t xml:space="preserve">9.41780471801758</t>
   </si>
   <si>
     <t xml:space="preserve">9.46481513977051</t>
@@ -749,52 +749,52 @@
     <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53533267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8565731048584</t>
+    <t xml:space="preserve">9.53533363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172538757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
     <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74688053131104</t>
+    <t xml:space="preserve">9.74687957763672</t>
   </si>
   <si>
     <t xml:space="preserve">9.77822017669678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79389190673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69986915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8487377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69203472137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62151908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64502334594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234214782715</t>
+    <t xml:space="preserve">9.79389095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69987010955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71554088592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801483154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69203567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62152004241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6450252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234310150146</t>
   </si>
   <si>
     <t xml:space="preserve">9.60584831237793</t>
@@ -803,82 +803,82 @@
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.558837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337532043457</t>
+    <t xml:space="preserve">9.55883884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72337436676025</t>
   </si>
   <si>
     <t xml:space="preserve">9.7703857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75471496582031</t>
+    <t xml:space="preserve">9.75471591949463</t>
   </si>
   <si>
     <t xml:space="preserve">9.48832130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51182842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399303436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37079524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63718891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70770454406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83306694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.021110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543064117432</t>
+    <t xml:space="preserve">9.51182651519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37079429626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6371898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7077054977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83306789398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0211095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543054580688</t>
   </si>
   <si>
     <t xml:space="preserve">10.326678276062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031740188599</t>
+    <t xml:space="preserve">10.3031730651855</t>
   </si>
   <si>
     <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2561635971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1621408462524</t>
+    <t xml:space="preserve">10.2561626434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248220443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953386306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4285364151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4912166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695667266846</t>
+    <t xml:space="preserve">10.2248210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953395843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893613815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4285354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4912147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695657730103</t>
   </si>
   <si>
     <t xml:space="preserve">10.6165771484375</t>
@@ -908,46 +908,46 @@
     <t xml:space="preserve">10.6557540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6087427139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5930738449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852384567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382280349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5460624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.514720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027645111084</t>
+    <t xml:space="preserve">10.6087417602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.593071937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852365493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382251739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5460615158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5147199630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027635574341</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004987716675</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0475091934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0318393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9769926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161685943604</t>
+    <t xml:space="preserve">11.047511100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0318384170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0631809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.976993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240049362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0161695480347</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926633834839</t>
@@ -962,43 +962,43 @@
     <t xml:space="preserve">11.21204662323</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765859603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840089797974</t>
+    <t xml:space="preserve">11.3765840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
     <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9250421524048</t>
+    <t xml:space="preserve">11.9250411987305</t>
   </si>
   <si>
     <t xml:space="preserve">11.5411214828491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7291641235352</t>
+    <t xml:space="preserve">11.7291631698608</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485473632812</t>
+    <t xml:space="preserve">11.9485464096069</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388547897339</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9172067642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9877233505249</t>
+    <t xml:space="preserve">11.9172058105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
     <t xml:space="preserve">11.9642171859741</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">12.0739088058472</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1600961685181</t>
+    <t xml:space="preserve">12.1600971221924</t>
   </si>
   <si>
     <t xml:space="preserve">12.2462816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2227764129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011264801025</t>
+    <t xml:space="preserve">12.2227773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011274337769</t>
   </si>
   <si>
     <t xml:space="preserve">12.5126762390137</t>
@@ -1025,28 +1025,28 @@
     <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5361804962158</t>
+    <t xml:space="preserve">12.5361814498901</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347328186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481388092041</t>
+    <t xml:space="preserve">12.3794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
     <t xml:space="preserve">12.4970045089722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8025751113892</t>
+    <t xml:space="preserve">12.8025732040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831918716431</t>
+    <t xml:space="preserve">12.5831909179688</t>
   </si>
   <si>
     <t xml:space="preserve">12.4813346862793</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7634000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772136688232</t>
+    <t xml:space="preserve">12.7633991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772127151489</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089618682861</t>
+    <t xml:space="preserve">12.3089628219604</t>
   </si>
   <si>
     <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2697858810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660743713379</t>
+    <t xml:space="preserve">12.2697868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660734176636</t>
   </si>
   <si>
     <t xml:space="preserve">11.901535987854</t>
@@ -1082,19 +1082,19 @@
     <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891681671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223669052124</t>
+    <t xml:space="preserve">12.2541170120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891691207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223678588867</t>
   </si>
   <si>
     <t xml:space="preserve">12.3324680328369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.591025352478</t>
+    <t xml:space="preserve">12.5910263061523</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201011657715</t>
@@ -1103,55 +1103,55 @@
     <t xml:space="preserve">12.974946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9671106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256698608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805166244507</t>
+    <t xml:space="preserve">12.9671115875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256689071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.280517578125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2335062026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178363800049</t>
+    <t xml:space="preserve">13.2335042953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178344726562</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003084182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9592761993408</t>
+    <t xml:space="preserve">12.9592771530151</t>
   </si>
   <si>
     <t xml:space="preserve">13.0611333847046</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786594390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417482376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2619514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2932929992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.395149230957</t>
+    <t xml:space="preserve">13.1786584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2619524002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2932920455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3951482772827</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.669376373291</t>
+    <t xml:space="preserve">12.6693773269653</t>
   </si>
   <si>
     <t xml:space="preserve">12.7320585250854</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">12.7790689468384</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850481033325</t>
+    <t xml:space="preserve">12.6850490570068</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846395492554</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">13.2570114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081418991089</t>
+    <t xml:space="preserve">13.1081428527832</t>
   </si>
   <si>
     <t xml:space="preserve">13.3118562698364</t>
@@ -1178,16 +1178,16 @@
     <t xml:space="preserve">13.1238136291504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3510322570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6801061630249</t>
+    <t xml:space="preserve">13.3510332107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6801071166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.4450540542603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912454605103</t>
+    <t xml:space="preserve">14.2912445068359</t>
   </si>
   <si>
     <t xml:space="preserve">14.8397045135498</t>
@@ -1196,100 +1196,100 @@
     <t xml:space="preserve">15.0982618331909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0277481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825939178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176460266113</t>
+    <t xml:space="preserve">15.0277462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0825929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.31764793396</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549648284912</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9337244033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8553714752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844463348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474347114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.435173034668</t>
+    <t xml:space="preserve">14.933723449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8553733825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452722549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4743461608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4351711273193</t>
   </si>
   <si>
     <t xml:space="preserve">15.7015657424927</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7172365188599</t>
+    <t xml:space="preserve">15.7172355651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.8788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042381286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374387741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001190185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157878875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3568201065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702260971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858968734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.889609336853</t>
+    <t xml:space="preserve">15.0042390823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904264450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.200119972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3568210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978532791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918750762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858978271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896083831787</t>
   </si>
   <si>
     <t xml:space="preserve">15.5683689117432</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8269290924072</t>
+    <t xml:space="preserve">15.8269281387329</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">14.7926931381226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8710432052612</t>
+    <t xml:space="preserve">14.8710451126099</t>
   </si>
   <si>
     <t xml:space="preserve">14.8390293121338</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9750938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6149244308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548463821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267869949341</t>
+    <t xml:space="preserve">14.9750919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548482894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267860412598</t>
   </si>
   <si>
     <t xml:space="preserve">14.030647277832</t>
@@ -1328,58 +1328,58 @@
     <t xml:space="preserve">14.0866727828979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2467498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2547512054443</t>
+    <t xml:space="preserve">14.2467489242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.254753112793</t>
   </si>
   <si>
     <t xml:space="preserve">14.3668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5348854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508947372437</t>
+    <t xml:space="preserve">14.5348844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.550892829895</t>
   </si>
   <si>
     <t xml:space="preserve">14.1907215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">15.335262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192577362061</t>
+    <t xml:space="preserve">15.3352642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192548751831</t>
   </si>
   <si>
     <t xml:space="preserve">15.5273542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5753793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152061462402</t>
+    <t xml:space="preserve">15.5753784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152080535889</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713277816772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.583381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8074893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471267700195</t>
+    <t xml:space="preserve">15.5833806991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8074865341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471258163452</t>
   </si>
   <si>
     <t xml:space="preserve">15.1351699829102</t>
@@ -1388,22 +1388,22 @@
     <t xml:space="preserve">15.0391254425049</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8870525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911003112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630390167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991054534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793338775635</t>
+    <t xml:space="preserve">14.8870515823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911012649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991035461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.119161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793329238892</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153955459595</t>
@@ -1412,61 +1412,61 @@
     <t xml:space="preserve">15.5353584289551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6554164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434549331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034406661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6234016418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992929458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4633235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.49534034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233074188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0711402893066</t>
+    <t xml:space="preserve">15.6554155349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114400863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434597015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.62340259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113477706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4633255004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4953393936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.423303604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.367280960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.071138381958</t>
   </si>
   <si>
     <t xml:space="preserve">14.8230228424072</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7349786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.726975440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.103157043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2392196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.462851524353</t>
+    <t xml:space="preserve">14.7349796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7269763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1031560897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2392206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628505706787</t>
   </si>
   <si>
     <t xml:space="preserve">14.4708557128906</t>
@@ -1475,52 +1475,52 @@
     <t xml:space="preserve">14.3748083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5749034881592</t>
+    <t xml:space="preserve">14.5749053955078</t>
   </si>
   <si>
     <t xml:space="preserve">14.422833442688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107776641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468412399292</t>
+    <t xml:space="preserve">14.3107786178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468431472778</t>
   </si>
   <si>
     <t xml:space="preserve">14.342794418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787647247314</t>
+    <t xml:space="preserve">14.2787637710571</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627553939819</t>
   </si>
   <si>
-    <t xml:space="preserve">14.294771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126690864563</t>
+    <t xml:space="preserve">14.2947721481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1266918182373</t>
   </si>
   <si>
     <t xml:space="preserve">14.1747131347656</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2707605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6389350891113</t>
+    <t xml:space="preserve">14.2707595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.638934135437</t>
   </si>
   <si>
     <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3588018417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347902297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587066650391</t>
+    <t xml:space="preserve">14.3588027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.334789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587076187134</t>
   </si>
   <si>
     <t xml:space="preserve">13.9666175842285</t>
@@ -1529,31 +1529,31 @@
     <t xml:space="preserve">14.0466527938843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.118688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346960067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386514663696</t>
+    <t xml:space="preserve">14.1186876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386505126953</t>
   </si>
   <si>
     <t xml:space="preserve">14.2387447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1106824874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584230422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2862949371338</t>
+    <t xml:space="preserve">14.1106834411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.686484336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.558422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
     <t xml:space="preserve">13.4863891601562</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.166711807251</t>
+    <t xml:space="preserve">14.1667108535767</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865785598755</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">13.7184982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3023014068604</t>
+    <t xml:space="preserve">13.3023023605347</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662368774414</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">13.1262178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2222633361816</t>
+    <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
     <t xml:space="preserve">13.1982526779175</t>
@@ -1592,19 +1592,19 @@
     <t xml:space="preserve">12.8460845947266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006160736084</t>
+    <t xml:space="preserve">13.0061616897583</t>
   </si>
   <si>
     <t xml:space="preserve">12.8620929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744285583496</t>
+    <t xml:space="preserve">13.3663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823385238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744304656982</t>
   </si>
   <si>
     <t xml:space="preserve">13.5184030532837</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">13.5023965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.566427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.526406288147</t>
+    <t xml:space="preserve">13.5664262771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264081954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741458892822</t>
@@ -1634,19 +1634,19 @@
     <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1422262191772</t>
+    <t xml:space="preserve">13.1422252655029</t>
   </si>
   <si>
     <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7340307235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661436080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8140697479248</t>
+    <t xml:space="preserve">12.7340316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8140707015991</t>
   </si>
   <si>
     <t xml:space="preserve">12.9421300888062</t>
@@ -1655,154 +1655,154 @@
     <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060655593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4859161376953</t>
+    <t xml:space="preserve">12.8060665130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.485915184021</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2702856063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706663131714</t>
+    <t xml:space="preserve">13.2702865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821500778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706653594971</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785743713379</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7104930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062549591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3103036880493</t>
+    <t xml:space="preserve">13.7104940414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062559127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3103046417236</t>
   </si>
   <si>
     <t xml:space="preserve">13.6064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7745237350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145437240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.950608253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8625659942627</t>
+    <t xml:space="preserve">13.7745246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824337005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145456314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9506072998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704759597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8625679016113</t>
   </si>
   <si>
     <t xml:space="preserve">13.7665224075317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.998631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.654468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985353469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103988647461</t>
+    <t xml:space="preserve">13.9986305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544675827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103979110718</t>
   </si>
   <si>
     <t xml:space="preserve">13.7905321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826240539551</t>
+    <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6784791946411</t>
+    <t xml:space="preserve">13.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">13.6224536895752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6464624404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9025869369507</t>
+    <t xml:space="preserve">13.646463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586133956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9025850296021</t>
   </si>
   <si>
     <t xml:space="preserve">13.7265024185181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8705701828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0786685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384611129761</t>
+    <t xml:space="preserve">13.8705711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0786695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384620666504</t>
   </si>
   <si>
     <t xml:space="preserve">13.430362701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383668899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743343353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063510894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0301723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.958137512207</t>
+    <t xml:space="preserve">13.4383659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743352890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063491821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462749481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0301742553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9581384658813</t>
   </si>
   <si>
     <t xml:space="preserve">12.7420358657837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3983469009399</t>
+    <t xml:space="preserve">13.3983478546143</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0381774902344</t>
+    <t xml:space="preserve">13.4943943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0381765365601</t>
   </si>
   <si>
     <t xml:space="preserve">12.9021129608154</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8861036300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9901542663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8700952529907</t>
+    <t xml:space="preserve">12.8861045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9901523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8700971603394</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
@@ -1829,67 +1829,67 @@
     <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6144495010376</t>
+    <t xml:space="preserve">13.6144485473633</t>
   </si>
   <si>
     <t xml:space="preserve">14.0665884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2340488433838</t>
+    <t xml:space="preserve">14.2340478897095</t>
   </si>
   <si>
     <t xml:space="preserve">14.3931350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4098796844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950372695923</t>
+    <t xml:space="preserve">14.4098806381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7699184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950382232666</t>
   </si>
   <si>
     <t xml:space="preserve">14.6694440841675</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5522222518921</t>
+    <t xml:space="preserve">14.5522212982178</t>
   </si>
   <si>
     <t xml:space="preserve">14.5354766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5773401260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192045211792</t>
+    <t xml:space="preserve">14.5773391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192035675049</t>
   </si>
   <si>
     <t xml:space="preserve">14.5187301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4349994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4601192474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713453292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560276031494</t>
+    <t xml:space="preserve">14.435001373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4601202011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708700180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713472366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560256958008</t>
   </si>
   <si>
     <t xml:space="preserve">15.3141622543335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.448130607605</t>
+    <t xml:space="preserve">15.4481315612793</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
@@ -1904,16 +1904,16 @@
     <t xml:space="preserve">14.9876165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9038877487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569791793823</t>
+    <t xml:space="preserve">14.9038867950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536472320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806711196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569772720337</t>
   </si>
   <si>
     <t xml:space="preserve">15.4648733139038</t>
@@ -1931,40 +1931,40 @@
     <t xml:space="preserve">15.9756269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8667793273926</t>
+    <t xml:space="preserve">15.8667783737183</t>
   </si>
   <si>
     <t xml:space="preserve">15.8165378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7830476760864</t>
+    <t xml:space="preserve">15.7830495834351</t>
   </si>
   <si>
     <t xml:space="preserve">15.7411823272705</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328119277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8452749252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8787679672241</t>
+    <t xml:space="preserve">15.7328100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.498366355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462255477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8452758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8787670135498</t>
   </si>
   <si>
     <t xml:space="preserve">14.4015092849731</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294818878174</t>
+    <t xml:space="preserve">15.0294799804688</t>
   </si>
   <si>
     <t xml:space="preserve">15.1299571990967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0378532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4266262054443</t>
+    <t xml:space="preserve">15.0378522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4266271591187</t>
   </si>
   <si>
     <t xml:space="preserve">14.3596439361572</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">14.4684915542603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3094053268433</t>
+    <t xml:space="preserve">14.3094062805176</t>
   </si>
   <si>
     <t xml:space="preserve">14.150318145752</t>
@@ -2000,34 +2000,34 @@
     <t xml:space="preserve">14.6275787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512697219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940866470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457511901855</t>
+    <t xml:space="preserve">14.7196807861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526956558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512687683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594087600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
     <t xml:space="preserve">14.7448015213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9122581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309078216553</t>
+    <t xml:space="preserve">14.912260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.138331413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
   </si>
   <si>
     <t xml:space="preserve">15.5151138305664</t>
@@ -2036,19 +2036,19 @@
     <t xml:space="preserve">15.0964651107788</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629739761353</t>
+    <t xml:space="preserve">15.0629730224609</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500308990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244396209717</t>
+    <t xml:space="preserve">15.4397573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.724437713623</t>
   </si>
   <si>
     <t xml:space="preserve">15.875150680542</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">15.6072158813477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9002714157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490802764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486030578613</t>
+    <t xml:space="preserve">15.9002695083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54860496521</t>
   </si>
   <si>
     <t xml:space="preserve">15.4899940490723</t>
@@ -2078,19 +2078,19 @@
     <t xml:space="preserve">15.3895168304443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9792432785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643999099731</t>
+    <t xml:space="preserve">14.9792442321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3643989562988</t>
   </si>
   <si>
     <t xml:space="preserve">15.2722969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.021107673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206314086914</t>
+    <t xml:space="preserve">15.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206323623657</t>
   </si>
   <si>
     <t xml:space="preserve">15.1048383712769</t>
@@ -2099,25 +2099,25 @@
     <t xml:space="preserve">15.113208770752</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2471771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2304315567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1801919937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057880401611</t>
+    <t xml:space="preserve">15.2471780776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.230432510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.180193901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969385147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057909011841</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8249139785767</t>
+    <t xml:space="preserve">15.824912071228</t>
   </si>
   <si>
     <t xml:space="preserve">15.3811473846436</t>
@@ -2126,79 +2126,79 @@
     <t xml:space="preserve">15.1718235015869</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2136859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220611572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067415237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825714111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732475280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.933762550354</t>
+    <t xml:space="preserve">15.2136878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220602035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825733184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337606430054</t>
   </si>
   <si>
     <t xml:space="preserve">16.3942737579346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.796178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637092590332</t>
+    <t xml:space="preserve">16.7961769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6370906829834</t>
   </si>
   <si>
     <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2435607910156</t>
+    <t xml:space="preserve">16.2435626983643</t>
   </si>
   <si>
     <t xml:space="preserve">16.5198707580566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1179676055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0426082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0761013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0258655548096</t>
+    <t xml:space="preserve">16.1179656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.042610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0761032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0258636474609</t>
   </si>
   <si>
     <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1765766143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2100696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6705856323242</t>
+    <t xml:space="preserve">16.1765785217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2100715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6705837249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5282421112061</t>
+    <t xml:space="preserve">16.5282402038574</t>
   </si>
   <si>
     <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0928497314453</t>
+    <t xml:space="preserve">16.0928478240967</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">16.3021717071533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5366172790527</t>
+    <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">17.918155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856170654297</t>
+    <t xml:space="preserve">18.0856151580811</t>
   </si>
   <si>
     <t xml:space="preserve">18.0521240234375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8846626281738</t>
+    <t xml:space="preserve">17.9516506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
     <t xml:space="preserve">18.2028369903564</t>
@@ -2264,10 +2264,10 @@
     <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205341339111</t>
+    <t xml:space="preserve">18.6382293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205360412598</t>
   </si>
   <si>
     <t xml:space="preserve">18.4540271759033</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">18.9229125976562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2410831451416</t>
+    <t xml:space="preserve">19.2410850524902</t>
   </si>
   <si>
     <t xml:space="preserve">19.1908473968506</t>
@@ -2291,10 +2291,10 @@
     <t xml:space="preserve">19.4420375823975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3583068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745761871338</t>
+    <t xml:space="preserve">19.3583087921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">18.7387046813965</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3368015289307</t>
+    <t xml:space="preserve">18.3368034362793</t>
   </si>
   <si>
     <t xml:space="preserve">17.4660148620605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5210113525391</t>
+    <t xml:space="preserve">18.5210132598877</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525993347168</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">12.2998933792114</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3082647323608</t>
+    <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
     <t xml:space="preserve">12.023585319519</t>
@@ -2345,40 +2345,40 @@
     <t xml:space="preserve">12.7269134521484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7687788009644</t>
+    <t xml:space="preserve">12.7687797546387</t>
   </si>
   <si>
     <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8859996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6563148498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4386157989502</t>
+    <t xml:space="preserve">12.8860006332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6563138961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4386167526245</t>
   </si>
   <si>
     <t xml:space="preserve">13.991231918335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2591695785522</t>
+    <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0079784393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.89075756073</t>
+    <t xml:space="preserve">14.0079774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8907566070557</t>
   </si>
   <si>
     <t xml:space="preserve">14.1921844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2424221038818</t>
+    <t xml:space="preserve">14.2424211502075</t>
   </si>
   <si>
     <t xml:space="preserve">13.8656387329102</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247249603271</t>
+    <t xml:space="preserve">14.0247259140015</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321466445923</t>
@@ -2402,16 +2402,16 @@
     <t xml:space="preserve">14.2926597595215</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7316703796387</t>
+    <t xml:space="preserve">13.7316694259644</t>
   </si>
   <si>
     <t xml:space="preserve">13.6898059844971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7986545562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9493675231934</t>
+    <t xml:space="preserve">13.7986536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9493684768677</t>
   </si>
   <si>
     <t xml:space="preserve">13.9828605651855</t>
@@ -2420,28 +2420,28 @@
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182538986206</t>
+    <t xml:space="preserve">14.418251991272</t>
   </si>
   <si>
     <t xml:space="preserve">14.5103569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0354604721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1317319869995</t>
+    <t xml:space="preserve">15.0354595184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503858566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829502105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1317310333252</t>
   </si>
   <si>
     <t xml:space="preserve">15.1229772567749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9281358718872</t>
+    <t xml:space="preserve">15.9281377792358</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.065860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3721694946289</t>
+    <t xml:space="preserve">17.0658588409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
     <t xml:space="preserve">17.4684391021729</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">16.4357376098633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2431983947754</t>
+    <t xml:space="preserve">16.2431964874268</t>
   </si>
   <si>
     <t xml:space="preserve">16.1031703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1731834411621</t>
+    <t xml:space="preserve">16.1731853485107</t>
   </si>
   <si>
     <t xml:space="preserve">16.7595500946045</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">16.5845165252686</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4882469177246</t>
+    <t xml:space="preserve">16.488245010376</t>
   </si>
   <si>
     <t xml:space="preserve">16.7157917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7858066558838</t>
+    <t xml:space="preserve">16.7858047485352</t>
   </si>
   <si>
     <t xml:space="preserve">16.2607021331787</t>
@@ -2507,13 +2507,13 @@
     <t xml:space="preserve">16.3307132720947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4707412719727</t>
+    <t xml:space="preserve">16.4707431793213</t>
   </si>
   <si>
     <t xml:space="preserve">16.7945556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2846546173096</t>
+    <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
     <t xml:space="preserve">18.0460529327393</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">17.8535137176514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9410343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1160659790039</t>
+    <t xml:space="preserve">17.941032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
     <t xml:space="preserve">18.3436107635498</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">18.4486312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3786182403564</t>
+    <t xml:space="preserve">18.3786163330078</t>
   </si>
   <si>
     <t xml:space="preserve">18.3961238861084</t>
   </si>
   <si>
-    <t xml:space="preserve">17.976037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8010063171387</t>
+    <t xml:space="preserve">17.9760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.80100440979</t>
   </si>
   <si>
     <t xml:space="preserve">17.888521194458</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7309913635254</t>
+    <t xml:space="preserve">17.730993270874</t>
   </si>
   <si>
     <t xml:space="preserve">18.0110454559326</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">18.5011405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8862171173096</t>
+    <t xml:space="preserve">18.8862190246582</t>
   </si>
   <si>
     <t xml:space="preserve">18.9737358093262</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">19.0787563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1312656402588</t>
+    <t xml:space="preserve">19.1312675476074</t>
   </si>
   <si>
     <t xml:space="preserve">19.5863552093506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.463830947876</t>
+    <t xml:space="preserve">19.4638328552246</t>
   </si>
   <si>
     <t xml:space="preserve">19.34130859375</t>
@@ -2633,22 +2633,22 @@
     <t xml:space="preserve">19.1137638092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9562320709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.306303024292</t>
+    <t xml:space="preserve">18.9562301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
     <t xml:space="preserve">19.376314163208</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6936798095703</t>
+    <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
     <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7461910247803</t>
+    <t xml:space="preserve">18.7461929321289</t>
   </si>
   <si>
     <t xml:space="preserve">18.606164932251</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">18.3611145019531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5186462402344</t>
+    <t xml:space="preserve">18.5186443328857</t>
   </si>
   <si>
     <t xml:space="preserve">18.4136276245117</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">19.8664112091064</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4463291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7438869476318</t>
+    <t xml:space="preserve">19.4463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7438850402832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8489093780518</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912395477295</t>
+    <t xml:space="preserve">18.9912414550781</t>
   </si>
   <si>
     <t xml:space="preserve">19.1662731170654</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0087432861328</t>
+    <t xml:space="preserve">19.0087413787842</t>
   </si>
   <si>
     <t xml:space="preserve">18.2035827636719</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.240894317627</t>
+    <t xml:space="preserve">17.2408962249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.8820743560791</t>
@@ -2714,10 +2714,10 @@
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034484863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0810604095459</t>
+    <t xml:space="preserve">17.5034465789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0810585021973</t>
   </si>
   <si>
     <t xml:space="preserve">18.588659286499</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">18.2210865020752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935436248779</t>
+    <t xml:space="preserve">18.1685791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935417175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060249328613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784801483154</t>
+    <t xml:space="preserve">17.6784820556641</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">17.7659969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5909633636475</t>
+    <t xml:space="preserve">17.5909652709961</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
@@ -2756,25 +2756,25 @@
     <t xml:space="preserve">18.0285530090332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1335697174072</t>
+    <t xml:space="preserve">18.1335678100586</t>
   </si>
   <si>
     <t xml:space="preserve">18.1860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5711555480957</t>
+    <t xml:space="preserve">18.5711536407471</t>
   </si>
   <si>
     <t xml:space="preserve">19.2362880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714317321777</t>
+    <t xml:space="preserve">19.9714336395264</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790306091309</t>
+    <t xml:space="preserve">20.4790325164795</t>
   </si>
   <si>
     <t xml:space="preserve">21.2316799163818</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">21.704273223877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8968124389648</t>
+    <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
     <t xml:space="preserve">21.9143142700195</t>
@@ -2795,13 +2795,13 @@
     <t xml:space="preserve">21.8793087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0368404388428</t>
+    <t xml:space="preserve">22.0368385314941</t>
   </si>
   <si>
     <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1593627929688</t>
+    <t xml:space="preserve">22.1593647003174</t>
   </si>
   <si>
     <t xml:space="preserve">21.9318180084229</t>
@@ -2810,13 +2810,13 @@
     <t xml:space="preserve">22.2293758392334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4219169616699</t>
+    <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
     <t xml:space="preserve">22.9470176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4721202850342</t>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4569206237793</t>
+    <t xml:space="preserve">22.4569225311279</t>
   </si>
   <si>
     <t xml:space="preserve">22.1243553161621</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8595027923584</t>
+    <t xml:space="preserve">22.8595008850098</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7719860076904</t>
+    <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
     <t xml:space="preserve">23.1220512390137</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">23.4546184539795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7894878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144542694092</t>
+    <t xml:space="preserve">22.7894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144523620605</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493217468262</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7742862701416</t>
+    <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919300079346</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7590885162354</t>
+    <t xml:space="preserve">20.7590866088867</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">20.0414447784424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4592266082764</t>
+    <t xml:space="preserve">21.4592247009277</t>
   </si>
   <si>
     <t xml:space="preserve">22.439416885376</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2118721008301</t>
+    <t xml:space="preserve">22.2118740081787</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">20.794095993042</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4067153930664</t>
+    <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
     <t xml:space="preserve">21.529239654541</t>
@@ -2915,13 +2915,13 @@
     <t xml:space="preserve">21.7567825317383</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8443012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.26438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5969467163086</t>
+    <t xml:space="preserve">21.8442993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2643852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5969486236572</t>
   </si>
   <si>
     <t xml:space="preserve">22.3168926239014</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.334400177002</t>
+    <t xml:space="preserve">22.3343982696533</t>
   </si>
   <si>
     <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7217769622803</t>
+    <t xml:space="preserve">21.7217788696289</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092956542969</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1966743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2841911315918</t>
+    <t xml:space="preserve">21.1966724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2841930389404</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869075775146</t>
@@ -2960,13 +2960,13 @@
     <t xml:space="preserve">21.4942321777344</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5992546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1441612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5817489624023</t>
+    <t xml:space="preserve">21.5992527008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1441631317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.581750869751</t>
   </si>
   <si>
     <t xml:space="preserve">21.3016929626465</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">21.4767284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3915157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9166164398193</t>
+    <t xml:space="preserve">20.3915138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.916618347168</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5774021148682</t>
+    <t xml:space="preserve">22.5774002075195</t>
   </si>
   <si>
     <t xml:space="preserve">22.3066864013672</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3534412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3173484802246</t>
+    <t xml:space="preserve">23.353443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.317346572876</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">22.6134948730469</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7037315368652</t>
+    <t xml:space="preserve">22.7037334442139</t>
   </si>
   <si>
     <t xml:space="preserve">22.9383506774902</t>
@@ -3089,10 +3089,10 @@
     <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5700130462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9457378387451</t>
+    <t xml:space="preserve">23.570011138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9457397460938</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969249725342</t>
+    <t xml:space="preserve">22.3969268798828</t>
   </si>
   <si>
     <t xml:space="preserve">22.8120174407959</t>
@@ -3119,13 +3119,13 @@
     <t xml:space="preserve">22.3247356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0720710754395</t>
+    <t xml:space="preserve">22.0720691680908</t>
   </si>
   <si>
     <t xml:space="preserve">22.2344989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5232582092285</t>
+    <t xml:space="preserve">22.5232563018799</t>
   </si>
   <si>
     <t xml:space="preserve">23.2090606689453</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1729679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0285892486572</t>
+    <t xml:space="preserve">23.172966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0285873413086</t>
   </si>
   <si>
     <t xml:space="preserve">22.6495914459229</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8046283721924</t>
+    <t xml:space="preserve">23.2992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.804630279541</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
@@ -3176,22 +3176,22 @@
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5265293121338</t>
+    <t xml:space="preserve">24.0572948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5265274047852</t>
   </si>
   <si>
     <t xml:space="preserve">25.1581897735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8333358764648</t>
+    <t xml:space="preserve">24.8333339691162</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3206176757812</t>
+    <t xml:space="preserve">25.3206157684326</t>
   </si>
   <si>
     <t xml:space="preserve">26.6922245025635</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">28.334545135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2443103790283</t>
+    <t xml:space="preserve">28.3345470428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2443084716797</t>
   </si>
   <si>
     <t xml:space="preserve">27.4863128662109</t>
@@ -3236,7 +3236,7 @@
     <t xml:space="preserve">27.8472652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0999298095703</t>
+    <t xml:space="preserve">28.0999279022217</t>
   </si>
   <si>
     <t xml:space="preserve">27.7570285797119</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">27.0351276397705</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4937019348145</t>
+    <t xml:space="preserve">26.4937038421631</t>
   </si>
   <si>
     <t xml:space="preserve">26.2771339416504</t>
@@ -3266,10 +3266,10 @@
     <t xml:space="preserve">26.2951812744141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6019897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1688499450684</t>
+    <t xml:space="preserve">26.6019878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1688480377197</t>
   </si>
   <si>
     <t xml:space="preserve">26.2049465179443</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.591329574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7537574768066</t>
+    <t xml:space="preserve">25.5913314819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7537593841553</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">25.6093769073486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7718048095703</t>
+    <t xml:space="preserve">25.7718029022217</t>
   </si>
   <si>
     <t xml:space="preserve">25.3386650085449</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">25.789852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6635189056396</t>
+    <t xml:space="preserve">25.6635208129883</t>
   </si>
   <si>
     <t xml:space="preserve">25.699613571167</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8694305419922</t>
+    <t xml:space="preserve">24.8694286346436</t>
   </si>
   <si>
     <t xml:space="preserve">24.2738628387451</t>
@@ -3344,43 +3344,43 @@
     <t xml:space="preserve">24.1294822692871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9670581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549186706543</t>
+    <t xml:space="preserve">23.9670562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.606107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549205780029</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1188259124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4797763824463</t>
+    <t xml:space="preserve">23.118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
     <t xml:space="preserve">22.4330196380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9022541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1262149810791</t>
+    <t xml:space="preserve">22.9022560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1262130737305</t>
   </si>
   <si>
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217807769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525444030762</t>
+    <t xml:space="preserve">22.7217788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525463104248</t>
   </si>
   <si>
     <t xml:space="preserve">21.7652626037598</t>
@@ -3392,40 +3392,40 @@
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4765033721924</t>
+    <t xml:space="preserve">21.4765014648438</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9490089416504</t>
+    <t xml:space="preserve">23.949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957618713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0933895111084</t>
+    <t xml:space="preserve">24.9957637786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.093391418457</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309635162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5732822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0531768798828</t>
+    <t xml:space="preserve">23.9309616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5732803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
     <t xml:space="preserve">26.3854179382324</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3493232727051</t>
+    <t xml:space="preserve">26.3493251800537</t>
   </si>
   <si>
     <t xml:space="preserve">25.735710144043</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">27.1614627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">27.919454574585</t>
+    <t xml:space="preserve">27.9194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
   </si>
   <si>
-    <t xml:space="preserve">28.370641708374</t>
+    <t xml:space="preserve">28.3706436157227</t>
   </si>
   <si>
     <t xml:space="preserve">28.316499710083</t>
@@ -3470,16 +3470,16 @@
     <t xml:space="preserve">28.6774482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3886890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.569164276123</t>
+    <t xml:space="preserve">28.3886871337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5691661834717</t>
   </si>
   <si>
     <t xml:space="preserve">28.7315921783447</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3271579742432</t>
+    <t xml:space="preserve">29.3271598815918</t>
   </si>
   <si>
     <t xml:space="preserve">29.1105880737305</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">29.4173946380615</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4895877838135</t>
+    <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
     <t xml:space="preserve">29.6881084442139</t>
@@ -3506,10 +3506,10 @@
     <t xml:space="preserve">28.7676849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.424783706665</t>
+    <t xml:space="preserve">28.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4247856140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.208215713501</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">26.8005123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739128112793</t>
+    <t xml:space="preserve">30.3739147186279</t>
   </si>
   <si>
     <t xml:space="preserve">30.6807193756104</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115501403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2924766540527</t>
+    <t xml:space="preserve">31.8115482330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.29248046875</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3572,19 +3572,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436462402344</t>
+    <t xml:space="preserve">30.6436443328857</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548713684082</t>
+    <t xml:space="preserve">30.7548732757568</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229782104492</t>
+    <t xml:space="preserve">28.6229801177979</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375972747803</t>
+    <t xml:space="preserve">28.4375991821289</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4736099243164</t>
+    <t xml:space="preserve">27.473611831665</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7887592315674</t>
+    <t xml:space="preserve">27.788761138916</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3632,16 +3632,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.548828125</t>
+    <t xml:space="preserve">28.5488262176514</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0308208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381294250488</t>
+    <t xml:space="preserve">29.030818939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3650,13 +3650,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718162536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1791248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892932891846</t>
+    <t xml:space="preserve">29.2718181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.179126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892913818359</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522144317627</t>
+    <t xml:space="preserve">28.2522163391113</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1605854034424</t>
+    <t xml:space="preserve">29.160587310791</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037094116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149402618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851718902588</t>
+    <t xml:space="preserve">31.4037113189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851737976074</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857021331787</t>
+    <t xml:space="preserve">31.8857040405273</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3725,16 +3725,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081619262695</t>
+    <t xml:space="preserve">32.1081581115723</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274326324463</t>
+    <t xml:space="preserve">31.4778633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274307250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9206523895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094253540039</t>
+    <t xml:space="preserve">29.920654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094234466553</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3776,19 +3776,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942760467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393909454346</t>
+    <t xml:space="preserve">29.4942741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393928527832</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944770812988</t>
+    <t xml:space="preserve">26.0276317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944751739502</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3803,16 +3803,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607864379883</t>
+    <t xml:space="preserve">25.8607883453369</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787937164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.230489730835</t>
+    <t xml:space="preserve">25.3787956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2304878234863</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3827,13 +3827,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179954528809</t>
+    <t xml:space="preserve">27.4179973602295</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600570678711</t>
+    <t xml:space="preserve">28.6600551605225</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8454399108887</t>
+    <t xml:space="preserve">28.84543800354</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746742248535</t>
+    <t xml:space="preserve">28.4746723175049</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.400520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443756103516</t>
+    <t xml:space="preserve">28.4005222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443775177002</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.918529510498</t>
+    <t xml:space="preserve">27.9185276031494</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.658992767334</t>
+    <t xml:space="preserve">27.6589946746826</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3896,13 +3896,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702236175537</t>
+    <t xml:space="preserve">27.7702217102051</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3438453674316</t>
+    <t xml:space="preserve">27.343843460083</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090942382812</t>
+    <t xml:space="preserve">26.0090923309326</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.656867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495594024658</t>
+    <t xml:space="preserve">25.6568698883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495613098145</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383304595947</t>
+    <t xml:space="preserve">25.6383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237133026123</t>
+    <t xml:space="preserve">25.8237113952637</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096244812012</t>
+    <t xml:space="preserve">26.5096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012554168701</t>
+    <t xml:space="preserve">25.6012535095215</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4004,10 +4004,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007213592529</t>
+    <t xml:space="preserve">24.7114200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007232666016</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4019,19 +4019,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445747375488</t>
+    <t xml:space="preserve">24.3962688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108879089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445766448975</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.082181930542</t>
+    <t xml:space="preserve">25.0821838378906</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4052,22 +4052,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.896800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.360258102417</t>
+    <t xml:space="preserve">24.8968029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3602561950684</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6754055023193</t>
+    <t xml:space="preserve">25.675407409668</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950054168701</t>
+    <t xml:space="preserve">26.6950073242188</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4079,13 +4079,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866363525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748752593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816535949707</t>
+    <t xml:space="preserve">25.7866344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816516876221</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714851379395</t>
+    <t xml:space="preserve">25.4714870452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>
@@ -4713,6 +4713,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.7000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8999996185303</t>
   </si>
 </sst>
 </file>
@@ -61578,7 +61581,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6494097222</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>232063</v>
@@ -61599,6 +61602,32 @@
         <v>1566</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6494212963</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>346062</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>24.0200004577637</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>23.6399993896484</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>23.6399993896484</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>23.8999996185303</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1572">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55664920806885</t>
+    <t xml:space="preserve">8.79373455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55665016174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.32674884796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26927280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830093383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101917266846</t>
+    <t xml:space="preserve">8.26927185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57101821899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.53509616851807</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">8.47762107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36267185211182</t>
+    <t xml:space="preserve">8.36266899108887</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684658050537</t>
@@ -77,553 +77,553 @@
     <t xml:space="preserve">8.29082679748535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98189687728882</t>
+    <t xml:space="preserve">7.98189544677734</t>
   </si>
   <si>
     <t xml:space="preserve">8.08247852325439</t>
   </si>
   <si>
+    <t xml:space="preserve">8.24053573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422298431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28364086151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1902437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121654510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325658798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665468215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7448091506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820724487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500247955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92441987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878889083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04655647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587375640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966159820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9747109413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403060913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11839962005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2189826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33393287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59975433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596839904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31238079071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41296005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16150569915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273914337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804496765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795299530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33067893981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18043994903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1428804397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790462493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1654167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15039253234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4517879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530595779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286499023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82738065719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967937469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7672872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906105041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253164291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94005918502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65460872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681118011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948923110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54192972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977468490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704921722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211938858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207197189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475049972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6395845413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479791641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685764312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456178665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.707190990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742855072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953664779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5719780921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807836532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9175238609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757175445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8123574256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245178222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470355987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427537918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700084686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5193943977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2865252494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5081262588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441715240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595529556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736568450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97102642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332418441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975971221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956861495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074144363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112125396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01985454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0160984992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1738486289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432279586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695390701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982162475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747549057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95508432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311847686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799945831299</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.24053478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38422393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28364181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208782196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325754165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665372848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74481010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461177825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820724487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073310852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9244213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966159820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471189498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10403060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898078918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3339319229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59975719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985397338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917507171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606708526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432262420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16150569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23334884643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626588821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33067893981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18044090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1654167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048831939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15039348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723840713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178651809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530595779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991788864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69968032836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906105041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253211975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944038391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216775894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484628677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94005966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65460777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46681022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948923110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465566635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704969406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66212034225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7447509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685716629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456083297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.707190990448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714405059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986999511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742902755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953760147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807931900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310350418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056722640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9175238609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757127761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81235694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8724513053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470403671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7222146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963243484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427537918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418102264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812721252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441667556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403781890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595624923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9710259437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219972610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332370758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975971221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849157333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971181869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956956863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327724456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074096679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112173080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01985502243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1738486289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432231903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446409225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972631454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695343017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982162475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230810165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10532188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508289337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053573608398</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25555896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091506958008</t>
+    <t xml:space="preserve">8.2555570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091602325439</t>
   </si>
   <si>
     <t xml:space="preserve">8.56354522705078</t>
@@ -632,40 +632,40 @@
     <t xml:space="preserve">8.57856941223145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69875812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636791229248</t>
+    <t xml:space="preserve">8.69876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636600494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7288064956665</t>
+    <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
     <t xml:space="preserve">8.78890228271484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646179199219</t>
+    <t xml:space="preserve">8.75134181976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8264627456665</t>
   </si>
   <si>
     <t xml:space="preserve">8.86402130126953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87904453277588</t>
+    <t xml:space="preserve">8.8790454864502</t>
   </si>
   <si>
     <t xml:space="preserve">8.88655662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91660404205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172401428223</t>
+    <t xml:space="preserve">8.91660499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172210693359</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918773651123</t>
@@ -680,28 +680,28 @@
     <t xml:space="preserve">8.89406871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71378326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60110569000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51096343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42833232879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61612892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54101085662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73631954193115</t>
+    <t xml:space="preserve">8.71378421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60110473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51096248626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4283332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61612987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5410099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73632049560547</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2611026763916</t>
+    <t xml:space="preserve">9.26110363006592</t>
   </si>
   <si>
     <t xml:space="preserve">9.30811405181885</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44914531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41780567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481513977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966094970703</t>
+    <t xml:space="preserve">9.44914627075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41780662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
     <t xml:space="preserve">9.53533172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80172538757324</t>
+    <t xml:space="preserve">9.80172634124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73121166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74687957763672</t>
+    <t xml:space="preserve">9.73121070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74688053131104</t>
   </si>
   <si>
     <t xml:space="preserve">9.77822017669678</t>
@@ -773,61 +773,61 @@
     <t xml:space="preserve">9.79389095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69987106323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8487377166748</t>
+    <t xml:space="preserve">9.69986915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
   </si>
   <si>
     <t xml:space="preserve">9.80956172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71554088592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6920337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62151908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64502429962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234405517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55100250244141</t>
+    <t xml:space="preserve">9.71553993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69203567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6215181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64502334594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55100345611572</t>
   </si>
   <si>
     <t xml:space="preserve">9.558837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72337532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7703857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75471496582031</t>
+    <t xml:space="preserve">9.72337436676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77038478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75471591949463</t>
   </si>
   <si>
     <t xml:space="preserve">9.48832130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51182746887207</t>
+    <t xml:space="preserve">9.51182651519775</t>
   </si>
   <si>
     <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37079524993896</t>
+    <t xml:space="preserve">9.37079429626465</t>
   </si>
   <si>
     <t xml:space="preserve">9.63718891143799</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">9.67636489868164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7077054977417</t>
+    <t xml:space="preserve">9.70770359039307</t>
   </si>
   <si>
     <t xml:space="preserve">9.83306694030762</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">10.326678276062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031721115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326574325562</t>
+    <t xml:space="preserve">10.3031740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561635971069</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">10.1072959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248220443726</t>
+    <t xml:space="preserve">10.2248229980469</t>
   </si>
   <si>
     <t xml:space="preserve">10.2953386306763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3893604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4285364151001</t>
+    <t xml:space="preserve">10.3893594741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
     <t xml:space="preserve">10.4912157058716</t>
@@ -884,58 +884,58 @@
     <t xml:space="preserve">10.5695676803589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6244125366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5225582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.483380317688</t>
+    <t xml:space="preserve">10.6165781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6244134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.522557258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
     <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6635885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6870956420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6479177474976</t>
+    <t xml:space="preserve">10.6635875701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6870937347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6479196548462</t>
   </si>
   <si>
     <t xml:space="preserve">10.6557540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6087417602539</t>
+    <t xml:space="preserve">10.6087436676025</t>
   </si>
   <si>
     <t xml:space="preserve">10.5930738449097</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852375030518</t>
+    <t xml:space="preserve">10.5852384567261</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382270812988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5460615158081</t>
+    <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
     <t xml:space="preserve">10.514720916748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7027645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0004968643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0475091934204</t>
+    <t xml:space="preserve">10.7027635574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0004987716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0475101470947</t>
   </si>
   <si>
     <t xml:space="preserve">11.0318384170532</t>
@@ -944,37 +944,37 @@
     <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.976993560791</t>
+    <t xml:space="preserve">10.9769926071167</t>
   </si>
   <si>
     <t xml:space="preserve">11.0240039825439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0161685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9926624298096</t>
+    <t xml:space="preserve">11.0161695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9926614761353</t>
   </si>
   <si>
     <t xml:space="preserve">11.24338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139019012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2120475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3765840530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840089797974</t>
+    <t xml:space="preserve">11.3139028549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.21204662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3765850067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941091537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
     <t xml:space="preserve">11.8466901779175</t>
@@ -983,22 +983,22 @@
     <t xml:space="preserve">11.9250421524048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5411214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7291641235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7605056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9485473632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172077178955</t>
+    <t xml:space="preserve">11.5411205291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7291650772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7605047225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9485464096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388547897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
     <t xml:space="preserve">11.9877223968506</t>
@@ -1007,34 +1007,34 @@
     <t xml:space="preserve">11.9642181396484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0739097595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1600942611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.246280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227773666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283460617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5361814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0347347259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794794082642</t>
+    <t xml:space="preserve">12.0739078521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1600952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2462816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011264801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5126752853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283451080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5361804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0347328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481378555298</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831918716431</t>
+    <t xml:space="preserve">12.5831890106201</t>
   </si>
   <si>
     <t xml:space="preserve">12.4813346862793</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772127151489</t>
+    <t xml:space="preserve">12.6772136688232</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458711624146</t>
@@ -1070,31 +1070,31 @@
     <t xml:space="preserve">12.3089628219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1130847930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697858810425</t>
+    <t xml:space="preserve">12.1130838394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697868347168</t>
   </si>
   <si>
     <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9015369415283</t>
+    <t xml:space="preserve">11.901535987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.167929649353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891691207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223669052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3324670791626</t>
+    <t xml:space="preserve">12.2541170120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223678588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3324689865112</t>
   </si>
   <si>
     <t xml:space="preserve">12.5910263061523</t>
@@ -1106,16 +1106,16 @@
     <t xml:space="preserve">12.9749460220337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9671096801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159782409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256698608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805185317993</t>
+    <t xml:space="preserve">12.9671106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256708145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2805156707764</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">13.2335062026978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178373336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003074645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9592771530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0611324310303</t>
+    <t xml:space="preserve">13.2178354263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003084182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9592781066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.061131477356</t>
   </si>
   <si>
     <t xml:space="preserve">13.1786594390869</t>
@@ -1148,40 +1148,40 @@
     <t xml:space="preserve">12.2932920455933</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3951482772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048398971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.669376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7320585250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7790679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846395492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2570104598999</t>
+    <t xml:space="preserve">12.395149230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048408508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6693773269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7320594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7790670394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850490570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846385955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2570085525513</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118581771851</t>
+    <t xml:space="preserve">13.3118572235107</t>
   </si>
   <si>
     <t xml:space="preserve">13.1238145828247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3510313034058</t>
+    <t xml:space="preserve">13.351035118103</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801071166992</t>
@@ -1190,58 +1190,58 @@
     <t xml:space="preserve">13.4450540542603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982618331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277471542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.082592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176460266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.93372631073</t>
+    <t xml:space="preserve">14.2912473678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0825929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9337224960327</t>
   </si>
   <si>
     <t xml:space="preserve">14.8553743362427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452732086182</t>
+    <t xml:space="preserve">14.7221794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452741622925</t>
   </si>
   <si>
     <t xml:space="preserve">14.6751670837402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0669202804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844463348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4743490219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.435173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015657424927</t>
+    <t xml:space="preserve">15.0669231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844491958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.474347114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4351749420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015686035156</t>
   </si>
   <si>
     <t xml:space="preserve">15.7172355651855</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">14.8788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374387741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001171112061</t>
+    <t xml:space="preserve">15.0042419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.200119972229</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157878875732</t>
@@ -1268,28 +1268,28 @@
     <t xml:space="preserve">15.356822013855</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4978523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821815490723</t>
+    <t xml:space="preserve">15.4978542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821834564209</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918741226196</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6702241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858949661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896102905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683717727661</t>
+    <t xml:space="preserve">15.6702260971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310529708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.889609336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683698654175</t>
   </si>
   <si>
     <t xml:space="preserve">15.8269290924072</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926931381226</t>
+    <t xml:space="preserve">14.8867139816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926921844482</t>
   </si>
   <si>
     <t xml:space="preserve">14.8710441589355</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">14.9750938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6149225234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548463821411</t>
+    <t xml:space="preserve">14.6149234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548454284668</t>
   </si>
   <si>
     <t xml:space="preserve">14.3267869949341</t>
@@ -1328,19 +1328,19 @@
     <t xml:space="preserve">13.8945817947388</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0866737365723</t>
+    <t xml:space="preserve">14.0866746902466</t>
   </si>
   <si>
     <t xml:space="preserve">14.2467470169067</t>
   </si>
   <si>
-    <t xml:space="preserve">14.286768913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2547521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668060302734</t>
+    <t xml:space="preserve">14.2867679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668069839478</t>
   </si>
   <si>
     <t xml:space="preserve">14.5348834991455</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">14.1907224655151</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3352642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273542404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753755569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713277816772</t>
+    <t xml:space="preserve">15.3352613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273561477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152090072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713296890259</t>
   </si>
   <si>
     <t xml:space="preserve">15.5833797454834</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">15.807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6073932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954345703125</t>
+    <t xml:space="preserve">15.6073923110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954355239868</t>
   </si>
   <si>
     <t xml:space="preserve">15.0471258163452</t>
@@ -1388,25 +1388,25 @@
     <t xml:space="preserve">15.1351680755615</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0391254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870515823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911012649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991054534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.119161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793338775635</t>
+    <t xml:space="preserve">15.0391263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870534896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911022186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630418777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991044998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1191625595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793329238892</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153974533081</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">15.5353584289551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6554164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114429473877</t>
+    <t xml:space="preserve">15.6554155349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114410400391</t>
   </si>
   <si>
     <t xml:space="preserve">15.7434568405151</t>
@@ -1427,34 +1427,34 @@
     <t xml:space="preserve">15.7034387588501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6234016418457</t>
+    <t xml:space="preserve">15.6233997344971</t>
   </si>
   <si>
     <t xml:space="preserve">15.5113477706909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3992948532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4633255004883</t>
+    <t xml:space="preserve">15.3992938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.463324546814</t>
   </si>
   <si>
     <t xml:space="preserve">15.49534034729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4233055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672800064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0711393356323</t>
+    <t xml:space="preserve">15.4233064651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.367280960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711402893066</t>
   </si>
   <si>
     <t xml:space="preserve">14.8230218887329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.734977722168</t>
+    <t xml:space="preserve">14.7349786758423</t>
   </si>
   <si>
     <t xml:space="preserve">14.7269763946533</t>
@@ -1463,19 +1463,19 @@
     <t xml:space="preserve">15.1031541824341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2392206192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.807014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708547592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748073577881</t>
+    <t xml:space="preserve">15.239221572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070135116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748092651367</t>
   </si>
   <si>
     <t xml:space="preserve">14.5749044418335</t>
@@ -1484,25 +1484,25 @@
     <t xml:space="preserve">14.4228315353394</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468412399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3427925109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2787647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627563476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.294771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1266918182373</t>
+    <t xml:space="preserve">14.3107786178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3427934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2787637710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2947721481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1266927719116</t>
   </si>
   <si>
     <t xml:space="preserve">14.1747140884399</t>
@@ -1517,43 +1517,43 @@
     <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3588027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347902297974</t>
+    <t xml:space="preserve">14.3588018417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.334789276123</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587076187134</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9666166305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.04665184021</t>
+    <t xml:space="preserve">13.9666156768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0466527938843</t>
   </si>
   <si>
     <t xml:space="preserve">14.1186876296997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346950531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386514663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2387466430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1106843948364</t>
+    <t xml:space="preserve">14.1346940994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386524200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2387475967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1106853485107</t>
   </si>
   <si>
     <t xml:space="preserve">13.6864833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7825269699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.558424949646</t>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5584239959717</t>
   </si>
   <si>
     <t xml:space="preserve">13.2862939834595</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">13.4863891601562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3903436660767</t>
+    <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
     <t xml:space="preserve">14.1667108535767</t>
@@ -1571,19 +1571,19 @@
     <t xml:space="preserve">13.8865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7184991836548</t>
+    <t xml:space="preserve">13.7184982299805</t>
   </si>
   <si>
     <t xml:space="preserve">13.3023023605347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662378311157</t>
+    <t xml:space="preserve">13.1662368774414</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262168884277</t>
+    <t xml:space="preserve">13.1262178421021</t>
   </si>
   <si>
     <t xml:space="preserve">13.222264289856</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">12.8460845947266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006160736084</t>
+    <t xml:space="preserve">13.0061616897583</t>
   </si>
   <si>
     <t xml:space="preserve">12.8620929718018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3663311004639</t>
+    <t xml:space="preserve">13.3663320541382</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823385238647</t>
@@ -1610,16 +1610,16 @@
     <t xml:space="preserve">13.5744295120239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5184030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984411239624</t>
+    <t xml:space="preserve">13.518404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984420776367</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.566427230835</t>
+    <t xml:space="preserve">13.5664262771606</t>
   </si>
   <si>
     <t xml:space="preserve">13.5264072418213</t>
@@ -1628,25 +1628,25 @@
     <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.878101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422262191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8540878295898</t>
+    <t xml:space="preserve">12.8781003952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422243118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8540868759155</t>
   </si>
   <si>
     <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9661436080933</t>
+    <t xml:space="preserve">12.9661417007446</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140697479248</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2702865600586</t>
+    <t xml:space="preserve">13.2702856063843</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821500778198</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5424137115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706663131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785734176636</t>
+    <t xml:space="preserve">13.5424127578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785743713379</t>
   </si>
   <si>
     <t xml:space="preserve">13.7104959487915</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">13.3103036880493</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7745237350464</t>
+    <t xml:space="preserve">13.6064462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7745246887207</t>
   </si>
   <si>
     <t xml:space="preserve">13.5824327468872</t>
@@ -1712,31 +1712,31 @@
     <t xml:space="preserve">13.9506101608276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6704759597778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.862566947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665224075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906282424927</t>
+    <t xml:space="preserve">13.6704769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8625659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986324310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
   </si>
   <si>
     <t xml:space="preserve">13.6544666290283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7985363006592</t>
+    <t xml:space="preserve">13.7985372543335</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103998184204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7905330657959</t>
+    <t xml:space="preserve">13.7905321121216</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826221466064</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">14.0066347122192</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6784801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224517822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6464643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586114883423</t>
+    <t xml:space="preserve">13.6784791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.646463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586124420166</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">13.7265024185181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8705701828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0786695480347</t>
+    <t xml:space="preserve">13.8705711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0786685943604</t>
   </si>
   <si>
     <t xml:space="preserve">13.6384630203247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4303636550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4383659362793</t>
+    <t xml:space="preserve">13.430362701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4383668899536</t>
   </si>
   <si>
     <t xml:space="preserve">13.3743343353271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063520431519</t>
+    <t xml:space="preserve">13.4063510894775</t>
   </si>
   <si>
     <t xml:space="preserve">13.2462739944458</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">13.0301723480225</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9581384658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.742036819458</t>
+    <t xml:space="preserve">12.9581394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7420358657837</t>
   </si>
   <si>
     <t xml:space="preserve">13.3983469009399</t>
@@ -1811,16 +1811,16 @@
     <t xml:space="preserve">12.9021129608154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101152420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861055374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8700952529907</t>
+    <t xml:space="preserve">12.9101142883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861045837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9901523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8700971603394</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0221681594849</t>
+    <t xml:space="preserve">13.0221691131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144495010376</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">14.0665884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2340488433838</t>
+    <t xml:space="preserve">14.2340497970581</t>
   </si>
   <si>
     <t xml:space="preserve">14.3931350708008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4098796844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7699184417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950372695923</t>
+    <t xml:space="preserve">14.4098806381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7699193954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.795036315918</t>
   </si>
   <si>
     <t xml:space="preserve">14.6694440841675</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5522222518921</t>
+    <t xml:space="preserve">14.5522232055664</t>
   </si>
   <si>
     <t xml:space="preserve">14.535475730896</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">14.5773391723633</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6192054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4350004196167</t>
+    <t xml:space="preserve">14.6192045211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.435001373291</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
@@ -1880,28 +1880,28 @@
     <t xml:space="preserve">14.3680171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9708709716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713453292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141641616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4481296539307</t>
+    <t xml:space="preserve">14.9708700180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713443756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.448130607605</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318574905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043601989746</t>
+    <t xml:space="preserve">15.5318584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043611526489</t>
   </si>
   <si>
     <t xml:space="preserve">14.9876165390015</t>
@@ -1913,49 +1913,49 @@
     <t xml:space="preserve">14.8536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2806701660156</t>
+    <t xml:space="preserve">15.2806692123413</t>
   </si>
   <si>
     <t xml:space="preserve">15.556978225708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4648742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816198348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923725128174</t>
+    <t xml:space="preserve">15.4648733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555484771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923734664917</t>
   </si>
   <si>
     <t xml:space="preserve">15.9756269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8667783737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830486297607</t>
+    <t xml:space="preserve">15.8667793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830476760864</t>
   </si>
   <si>
     <t xml:space="preserve">15.7411813735962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328119277954</t>
+    <t xml:space="preserve">15.7328128814697</t>
   </si>
   <si>
     <t xml:space="preserve">15.4983673095703</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1215829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634483337402</t>
+    <t xml:space="preserve">15.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634492874146</t>
   </si>
   <si>
     <t xml:space="preserve">15.0462245941162</t>
@@ -1967,34 +1967,34 @@
     <t xml:space="preserve">14.8452758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8787660598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015092849731</t>
+    <t xml:space="preserve">14.8787670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015083312988</t>
   </si>
   <si>
     <t xml:space="preserve">14.6778163909912</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378522872925</t>
+    <t xml:space="preserve">15.0294828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1299571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378532409668</t>
   </si>
   <si>
     <t xml:space="preserve">14.4266271591187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3596439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684934616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094062805176</t>
+    <t xml:space="preserve">14.3596429824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094053268433</t>
   </si>
   <si>
     <t xml:space="preserve">14.1503190994263</t>
@@ -2006,37 +2006,37 @@
     <t xml:space="preserve">14.7196817398071</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6526966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512706756592</t>
+    <t xml:space="preserve">14.6526975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512697219849</t>
   </si>
   <si>
     <t xml:space="preserve">14.5940885543823</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6024589538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457521438599</t>
+    <t xml:space="preserve">14.6024599075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457511901855</t>
   </si>
   <si>
     <t xml:space="preserve">14.7447996139526</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9122591018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383295059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.330906867981</t>
+    <t xml:space="preserve">14.9122581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309078216553</t>
   </si>
   <si>
     <t xml:space="preserve">15.5151138305664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0964651107788</t>
+    <t xml:space="preserve">15.0964660644531</t>
   </si>
   <si>
     <t xml:space="preserve">15.0629739761353</t>
@@ -2045,61 +2045,61 @@
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500337600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.875150680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993169784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607213973999</t>
+    <t xml:space="preserve">15.4397573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244386672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751516342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993188858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6072158813477</t>
   </si>
   <si>
     <t xml:space="preserve">15.9002695083618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5988435745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490812301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.54860496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899950027466</t>
+    <t xml:space="preserve">15.5988416671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490802764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5486068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899940490723</t>
   </si>
   <si>
     <t xml:space="preserve">15.3895168304443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9792423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3644008636475</t>
+    <t xml:space="preserve">14.9792432785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3643999099731</t>
   </si>
   <si>
     <t xml:space="preserve">15.2722988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206323623657</t>
+    <t xml:space="preserve">15.021107673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.92063331604</t>
   </si>
   <si>
     <t xml:space="preserve">15.1048393249512</t>
   </si>
   <si>
-    <t xml:space="preserve">15.113208770752</t>
+    <t xml:space="preserve">15.1132097244263</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471780776978</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">15.2304315567017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.180193901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969394683838</t>
+    <t xml:space="preserve">15.1801919937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969404220581</t>
   </si>
   <si>
     <t xml:space="preserve">15.3057899475098</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">15.8835220336914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.824914932251</t>
+    <t xml:space="preserve">15.8249130249023</t>
   </si>
   <si>
     <t xml:space="preserve">15.3811464309692</t>
@@ -2132,25 +2132,25 @@
     <t xml:space="preserve">15.2136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2220611572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672536849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825723648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732503890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337635040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942775726318</t>
+    <t xml:space="preserve">15.2220602035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.506739616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825742721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.933762550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942756652832</t>
   </si>
   <si>
     <t xml:space="preserve">16.7961769104004</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">16.637092590332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.201696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2435607910156</t>
+    <t xml:space="preserve">16.2016983032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2435626983643</t>
   </si>
   <si>
     <t xml:space="preserve">16.5198707580566</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.042610168457</t>
+    <t xml:space="preserve">16.0426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0258636474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2854290008545</t>
+    <t xml:space="preserve">16.0258655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
     <t xml:space="preserve">16.1765785217285</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">16.670581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6287174224854</t>
+    <t xml:space="preserve">16.628719329834</t>
   </si>
   <si>
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440380096436</t>
+    <t xml:space="preserve">16.3440361022949</t>
   </si>
   <si>
     <t xml:space="preserve">16.092845916748</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">16.1263408660889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0509815216064</t>
+    <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
     <t xml:space="preserve">16.3021697998047</t>
@@ -2216,10 +2216,10 @@
     <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6957035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.164587020874</t>
+    <t xml:space="preserve">16.6957015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645889282227</t>
   </si>
   <si>
     <t xml:space="preserve">17.4827613830566</t>
@@ -2228,28 +2228,28 @@
     <t xml:space="preserve">17.2483196258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5330009460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0353775024414</t>
+    <t xml:space="preserve">17.5329990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.03537940979</t>
   </si>
   <si>
     <t xml:space="preserve">17.9181537628174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0521221160889</t>
+    <t xml:space="preserve">18.0856151580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0521240234375</t>
   </si>
   <si>
     <t xml:space="preserve">17.9516487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6669654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8846626281738</t>
+    <t xml:space="preserve">17.6669673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
     <t xml:space="preserve">18.2028350830078</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6382312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205341339111</t>
+    <t xml:space="preserve">18.6382293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205322265625</t>
   </si>
   <si>
     <t xml:space="preserve">18.4540271759033</t>
@@ -2294,10 +2294,10 @@
     <t xml:space="preserve">19.4420337677002</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3583068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745761871338</t>
+    <t xml:space="preserve">19.358304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8226346969604</t>
+    <t xml:space="preserve">11.8226337432861</t>
   </si>
   <si>
     <t xml:space="preserve">13.7819080352783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5175905227661</t>
+    <t xml:space="preserve">12.5175895690918</t>
   </si>
   <si>
     <t xml:space="preserve">12.2998924255371</t>
@@ -2336,31 +2336,31 @@
     <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235834121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6300563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1156873703003</t>
+    <t xml:space="preserve">12.0235843658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6300554275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1156883239746</t>
   </si>
   <si>
     <t xml:space="preserve">12.7269144058228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7687797546387</t>
+    <t xml:space="preserve">12.7687788009644</t>
   </si>
   <si>
     <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8860025405884</t>
+    <t xml:space="preserve">12.8860015869141</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386157989502</t>
+    <t xml:space="preserve">13.4386167526245</t>
   </si>
   <si>
     <t xml:space="preserve">13.991231918335</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">14.0917091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0079793930054</t>
+    <t xml:space="preserve">14.0079784393311</t>
   </si>
   <si>
     <t xml:space="preserve">13.89075756073</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">14.1921844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2424221038818</t>
+    <t xml:space="preserve">14.2424211502075</t>
   </si>
   <si>
     <t xml:space="preserve">13.8656368255615</t>
@@ -2390,19 +2390,19 @@
     <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247259140015</t>
+    <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1419458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173023223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926597595215</t>
+    <t xml:space="preserve">14.1419467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.217303276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926588058472</t>
   </si>
   <si>
     <t xml:space="preserve">13.7316694259644</t>
@@ -2414,16 +2414,16 @@
     <t xml:space="preserve">13.7986536026001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.949366569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9828596115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3345241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.418251991272</t>
+    <t xml:space="preserve">13.9493675231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9828605651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3345251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4182529449463</t>
   </si>
   <si>
     <t xml:space="preserve">14.5103569030762</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">15.0354614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6503839492798</t>
+    <t xml:space="preserve">14.6503849029541</t>
   </si>
   <si>
     <t xml:space="preserve">14.9829502105713</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.065860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3721694946289</t>
+    <t xml:space="preserve">17.0658588409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
     <t xml:space="preserve">17.4684371948242</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">17.1358737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4969959259033</t>
+    <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357376098633</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">16.7595500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5670146942139</t>
+    <t xml:space="preserve">16.5670127868652</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845165252686</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157897949219</t>
+    <t xml:space="preserve">16.7157917022705</t>
   </si>
   <si>
     <t xml:space="preserve">16.7858066558838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3307151794434</t>
+    <t xml:space="preserve">16.2607021331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3307132720947</t>
   </si>
   <si>
     <t xml:space="preserve">16.4707431793213</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460548400879</t>
+    <t xml:space="preserve">18.0460529327393</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3436107635498</t>
+    <t xml:space="preserve">18.3436088562012</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162059783936</t>
+    <t xml:space="preserve">18.8162040710449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">17.8010063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8885231018066</t>
+    <t xml:space="preserve">17.888521194458</t>
   </si>
   <si>
     <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7309913635254</t>
+    <t xml:space="preserve">17.730993270874</t>
   </si>
   <si>
     <t xml:space="preserve">18.0110473632812</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">18.8862190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9737377166748</t>
+    <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
     <t xml:space="preserve">19.0437488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1487693786621</t>
+    <t xml:space="preserve">19.1487712860107</t>
   </si>
   <si>
     <t xml:space="preserve">19.4988403320312</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787544250488</t>
+    <t xml:space="preserve">19.0787563323975</t>
   </si>
   <si>
     <t xml:space="preserve">19.1312675476074</t>
@@ -2627,22 +2627,22 @@
     <t xml:space="preserve">19.3938179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4113235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.253791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1137657165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562320709229</t>
+    <t xml:space="preserve">19.4113216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2537899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1137638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562301635742</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.376314163208</t>
+    <t xml:space="preserve">19.3763160705566</t>
   </si>
   <si>
     <t xml:space="preserve">18.6936817169189</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061611175537</t>
+    <t xml:space="preserve">18.6061630249023</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5186462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4136257171631</t>
+    <t xml:space="preserve">18.5186443328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4136276245117</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">19.8664131164551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4463291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7438888549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489074707031</t>
+    <t xml:space="preserve">19.4463272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7438869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489093780518</t>
   </si>
   <si>
     <t xml:space="preserve">19.4813346862793</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">17.9060230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784801483154</t>
+    <t xml:space="preserve">17.6784820556641</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285491943359</t>
+    <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335678100586</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">18.1860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5711555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714298248291</t>
+    <t xml:space="preserve">18.5711536407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362880706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714317321777</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1266593933105</t>
+    <t xml:space="preserve">21.1266613006592</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143142700195</t>
+    <t xml:space="preserve">21.9143161773682</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793067932129</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">22.0368404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9668254852295</t>
+    <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
     <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9318180084229</t>
+    <t xml:space="preserve">21.9318161010742</t>
   </si>
   <si>
     <t xml:space="preserve">22.2293758392334</t>
@@ -2816,28 +2816,28 @@
     <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721202850342</t>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795848846436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8747024536133</t>
+    <t xml:space="preserve">23.8747005462646</t>
   </si>
   <si>
     <t xml:space="preserve">22.4569225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1243572235107</t>
+    <t xml:space="preserve">22.1243553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444374084473</t>
+    <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
     <t xml:space="preserve">22.8595008850098</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745624542236</t>
+    <t xml:space="preserve">23.1745643615723</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">23.4546184539795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7894878387451</t>
+    <t xml:space="preserve">22.7894897460938</t>
   </si>
   <si>
     <t xml:space="preserve">22.6144523620605</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4919281005859</t>
+    <t xml:space="preserve">22.4919300079346</t>
   </si>
   <si>
     <t xml:space="preserve">22.0018310546875</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">20.4615287780762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592266082764</t>
+    <t xml:space="preserve">20.0414447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592247009277</t>
   </si>
   <si>
     <t xml:space="preserve">22.439416885376</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940921783447</t>
+    <t xml:space="preserve">20.7940940856934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067134857178</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7217750549316</t>
+    <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841892242432</t>
+    <t xml:space="preserve">21.2841911315918</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869094848633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267993927002</t>
+    <t xml:space="preserve">21.8267974853516</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942302703857</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5817489624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016948699951</t>
+    <t xml:space="preserve">21.581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016929626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">21.4767303466797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3915157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.916618347168</t>
+    <t xml:space="preserve">20.3915138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
@@ -4725,6 +4725,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.9400005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5200004577637</t>
   </si>
 </sst>
 </file>
@@ -61720,7 +61723,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.649375</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>251550</v>
@@ -61741,6 +61744,32 @@
         <v>1555</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6493171296</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>368185</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>24.6599998474121</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>23.8199996948242</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>23.8199996948242</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>24.5200004577637</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1573">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373455047607</t>
+    <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.55665016174316</t>
@@ -53,34 +53,34 @@
     <t xml:space="preserve">8.32674884796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26927185058594</t>
+    <t xml:space="preserve">8.26927280426025</t>
   </si>
   <si>
     <t xml:space="preserve">8.34830188751221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57101821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53509616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47762107849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36266899108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09684658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29082679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247852325439</t>
+    <t xml:space="preserve">8.57101917266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47762203216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3626708984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09684753417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247756958008</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053573608398</t>
@@ -89,40 +89,40 @@
     <t xml:space="preserve">8.38422298431396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28364086151123</t>
+    <t xml:space="preserve">8.28364181518555</t>
   </si>
   <si>
     <t xml:space="preserve">8.27645683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26208877563477</t>
+    <t xml:space="preserve">8.26208686828613</t>
   </si>
   <si>
     <t xml:space="preserve">8.1902437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11121654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325658798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665468215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7448091506958</t>
+    <t xml:space="preserve">8.11121463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480867385864</t>
   </si>
   <si>
     <t xml:space="preserve">8.01063346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20461273193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558460235596</t>
+    <t xml:space="preserve">8.20461368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558364868164</t>
   </si>
   <si>
     <t xml:space="preserve">7.83820724487305</t>
@@ -131,88 +131,88 @@
     <t xml:space="preserve">8.02500247955322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073120117188</t>
+    <t xml:space="preserve">7.78073167800903</t>
   </si>
   <si>
     <t xml:space="preserve">7.92441987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93878889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04655647277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587375640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966159820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160486221313</t>
+    <t xml:space="preserve">7.93878984451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.046555519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0896635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276767730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160438537598</t>
   </si>
   <si>
     <t xml:space="preserve">7.9747109413147</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10403060913086</t>
+    <t xml:space="preserve">8.10403156280518</t>
   </si>
   <si>
     <t xml:space="preserve">8.11839962005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2189826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33393287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59975433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596839904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31238079071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985397338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34111785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917411804199</t>
+    <t xml:space="preserve">8.21898078918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33393383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59975624084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31237888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3411169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917507171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946517944336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45606803894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043704986572</t>
+    <t xml:space="preserve">8.45606899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41296195983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043609619141</t>
   </si>
   <si>
     <t xml:space="preserve">8.22616577148438</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">8.19742774963379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15432167053223</t>
+    <t xml:space="preserve">8.15432262420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150569915771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23334980010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218746185303</t>
+    <t xml:space="preserve">8.2333517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218555450439</t>
   </si>
   <si>
     <t xml:space="preserve">7.99626445770264</t>
@@ -239,37 +239,37 @@
     <t xml:space="preserve">8.44169902801514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30519485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24804496765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795299530029</t>
+    <t xml:space="preserve">8.30519580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795204162598</t>
   </si>
   <si>
     <t xml:space="preserve">8.28560543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33067893981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790462493896</t>
+    <t xml:space="preserve">8.33067798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302364349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18043899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14287948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
     <t xml:space="preserve">8.1654167175293</t>
@@ -278,43 +278,43 @@
     <t xml:space="preserve">8.21048831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15039253234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517772674561</t>
+    <t xml:space="preserve">8.15039348602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517868041992</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4517879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530595779419</t>
+    <t xml:space="preserve">7.51188325881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530548095703</t>
   </si>
   <si>
     <t xml:space="preserve">7.34286499023438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84991693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738065719604</t>
+    <t xml:space="preserve">7.84991788864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8273811340332</t>
   </si>
   <si>
     <t xml:space="preserve">7.69967937469482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7672872543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906105041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253164291382</t>
+    <t xml:space="preserve">7.76728677749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906057357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253211975098</t>
   </si>
   <si>
     <t xml:space="preserve">7.40295886993408</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">7.54944229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69216775894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484485626221</t>
+    <t xml:space="preserve">7.69216728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484533309937</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460872650146</t>
+    <t xml:space="preserve">7.65460777282715</t>
   </si>
   <si>
     <t xml:space="preserve">7.33910942077637</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">7.46681118011475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57948923110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
+    <t xml:space="preserve">7.57948875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54193019866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6020245552063</t>
   </si>
   <si>
     <t xml:space="preserve">7.75977468490601</t>
@@ -359,64 +359,64 @@
     <t xml:space="preserve">7.61704921722412</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66211938858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207197189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6395845413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685764312744</t>
+    <t xml:space="preserve">7.66211986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207292556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7447509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958406448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5945143699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4968581199646</t>
   </si>
   <si>
     <t xml:space="preserve">7.48934698104858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62456178665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.707190990448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714405059814</t>
+    <t xml:space="preserve">7.62456083297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719194412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714357376099</t>
   </si>
   <si>
     <t xml:space="preserve">7.81986904144287</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85742855072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953664779663</t>
+    <t xml:space="preserve">7.85742998123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953760147095</t>
   </si>
   <si>
     <t xml:space="preserve">7.5719780921936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50437021255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807836532593</t>
+    <t xml:space="preserve">7.50436973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807884216309</t>
   </si>
   <si>
     <t xml:space="preserve">7.49310255050659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9175238609314</t>
+    <t xml:space="preserve">7.4705662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996482849121</t>
@@ -425,82 +425,82 @@
     <t xml:space="preserve">7.91001129150391</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94757175445557</t>
+    <t xml:space="preserve">7.94757127761841</t>
   </si>
   <si>
     <t xml:space="preserve">8.09029769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75226211547852</t>
+    <t xml:space="preserve">7.75226259231567</t>
   </si>
   <si>
     <t xml:space="preserve">7.8123574256897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87245178222656</t>
+    <t xml:space="preserve">7.87245273590088</t>
   </si>
   <si>
     <t xml:space="preserve">7.71470355987549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72221517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963195800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709615707397</t>
+    <t xml:space="preserve">7.72221422195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963243484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709568023682</t>
   </si>
   <si>
     <t xml:space="preserve">7.44427537918091</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39169311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700084686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690696716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5193943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2865252494812</t>
+    <t xml:space="preserve">7.39169216156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700180053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554399490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3841814994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652667999268</t>
   </si>
   <si>
     <t xml:space="preserve">7.5081262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53441715240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595529556274</t>
+    <t xml:space="preserve">7.5344181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403781890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
     <t xml:space="preserve">7.02736568450928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219924926758</t>
+    <t xml:space="preserve">6.98605012893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990196228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219972610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.84332418441772</t>
@@ -509,58 +509,58 @@
     <t xml:space="preserve">6.95975971221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94849109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327724456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581399917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074144363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112125396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
+    <t xml:space="preserve">6.94849252700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971181869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327629089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215135574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581304550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074239730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341997146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112173080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717506408691</t>
   </si>
   <si>
     <t xml:space="preserve">7.01985454559326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0160984992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1738486289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432279586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5644645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972726821899</t>
+    <t xml:space="preserve">7.01609897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384815216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446409225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972679138184</t>
   </si>
   <si>
     <t xml:space="preserve">7.55695390701294</t>
@@ -569,16 +569,16 @@
     <t xml:space="preserve">7.78982162475586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78230905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747549057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733324050903</t>
+    <t xml:space="preserve">7.78230953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747644424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513078689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733514785767</t>
   </si>
   <si>
     <t xml:space="preserve">7.97761964797974</t>
@@ -587,25 +587,25 @@
     <t xml:space="preserve">8.04522609710693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06776237487793</t>
+    <t xml:space="preserve">8.06776142120361</t>
   </si>
   <si>
     <t xml:space="preserve">8.10532188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00766563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799945831299</t>
+    <t xml:space="preserve">8.00766658782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9550838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297622680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2180004119873</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053478240967</t>
@@ -614,28 +614,28 @@
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26307010650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2555570602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091602325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56354522705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57856941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636600494385</t>
+    <t xml:space="preserve">8.26307106018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814266204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56354427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57857036590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69876098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636695861816</t>
   </si>
   <si>
     <t xml:space="preserve">8.7738790512085</t>
@@ -644,34 +644,34 @@
     <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890228271484</t>
+    <t xml:space="preserve">8.78890132904053</t>
   </si>
   <si>
     <t xml:space="preserve">8.75134181976318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8264627456665</t>
+    <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
     <t xml:space="preserve">8.86402130126953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172210693359</t>
+    <t xml:space="preserve">8.87904453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660404205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172401428223</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9391393661499</t>
+    <t xml:space="preserve">8.93914031982422</t>
   </si>
   <si>
     <t xml:space="preserve">8.98421096801758</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">8.60110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096248626709</t>
+    <t xml:space="preserve">8.51096153259277</t>
   </si>
   <si>
     <t xml:space="preserve">8.4283332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61612987518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5410099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73632049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909194946289</t>
+    <t xml:space="preserve">8.61613082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54101085662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73631954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392742156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909290313721</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26110363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30811405181885</t>
+    <t xml:space="preserve">9.2611026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30811500549316</t>
   </si>
   <si>
     <t xml:space="preserve">9.28460884094238</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42564105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3472900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36295986175537</t>
+    <t xml:space="preserve">9.4256420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34729099273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36295890808105</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914627075195</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">9.41780662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481609344482</t>
+    <t xml:space="preserve">9.46481704711914</t>
   </si>
   <si>
     <t xml:space="preserve">9.51966190338135</t>
@@ -761,31 +761,31 @@
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73121070861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74688053131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77822017669678</t>
+    <t xml:space="preserve">9.73120975494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74687957763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">9.79389095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69986915588379</t>
+    <t xml:space="preserve">9.69987010955811</t>
   </si>
   <si>
     <t xml:space="preserve">9.84873676300049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80956172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801197052002</t>
+    <t xml:space="preserve">9.80956268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801292419434</t>
   </si>
   <si>
     <t xml:space="preserve">9.69203567504883</t>
@@ -794,40 +794,40 @@
     <t xml:space="preserve">9.6215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64502334594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584831237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55100345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.558837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77038478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75471591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832130432129</t>
+    <t xml:space="preserve">9.64502429962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55100250244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55883693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72337532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75471496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832225799561</t>
   </si>
   <si>
     <t xml:space="preserve">9.51182651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50399208068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37079429626465</t>
+    <t xml:space="preserve">9.50399303436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37079524993896</t>
   </si>
   <si>
     <t xml:space="preserve">9.63718891143799</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">9.67636489868164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70770359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83306694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0211095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543064117432</t>
+    <t xml:space="preserve">9.7077054977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8330659866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.021110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543054580688</t>
   </si>
   <si>
     <t xml:space="preserve">10.326678276062</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">10.3031740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2326583862305</t>
+    <t xml:space="preserve">10.2326564788818</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561635971069</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">10.1072959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953386306763</t>
+    <t xml:space="preserve">10.2248239517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953395843506</t>
   </si>
   <si>
     <t xml:space="preserve">10.3893594741821</t>
@@ -878,58 +878,58 @@
     <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912157058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6165781021118</t>
+    <t xml:space="preserve">10.4912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695667266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6165790557861</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.522557258606</t>
+    <t xml:space="preserve">10.5225563049316</t>
   </si>
   <si>
     <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5068864822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6635875701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6870937347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6479196548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6557540893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6087436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5930738449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852384567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382270812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5460624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.514720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027635574341</t>
+    <t xml:space="preserve">10.5068855285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6635894775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6870946884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6479187011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6557550430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6087427139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5930728912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852365493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382280349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5460615158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5147228240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027645111084</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004987716675</t>
@@ -938,52 +938,52 @@
     <t xml:space="preserve">11.0475101470947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0318384170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9769926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
+    <t xml:space="preserve">11.0318393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0631790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9769945144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
     <t xml:space="preserve">11.0161695480347</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9926614761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.24338722229</t>
+    <t xml:space="preserve">10.9926633834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2433881759644</t>
   </si>
   <si>
     <t xml:space="preserve">11.3139028549194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.21204662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3765850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941091537476</t>
+    <t xml:space="preserve">11.2120475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3765840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941110610962</t>
   </si>
   <si>
     <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8466901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9250421524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411205291748</t>
+    <t xml:space="preserve">11.8466920852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9250431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411195755005</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291650772095</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485464096069</t>
+    <t xml:space="preserve">11.9485483169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.8388547897339</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9642181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1600952148438</t>
+    <t xml:space="preserve">11.9642190933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739088058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1600961685181</t>
   </si>
   <si>
     <t xml:space="preserve">12.2462816238403</t>
@@ -1019,22 +1019,22 @@
     <t xml:space="preserve">12.2227764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3011264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5126752853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5283451080322</t>
+    <t xml:space="preserve">12.3011274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0347328186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794784545898</t>
+    <t xml:space="preserve">12.0347337722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794794082642</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481378555298</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">12.4970045089722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8025741577148</t>
+    <t xml:space="preserve">12.8025751113892</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831890106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537065505981</t>
+    <t xml:space="preserve">12.5831909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813365936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
@@ -1064,25 +1064,25 @@
     <t xml:space="preserve">12.6772136688232</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6458711624146</t>
+    <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089628219604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1130838394165</t>
+    <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
     <t xml:space="preserve">12.2697868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0660743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.901535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.167929649353</t>
+    <t xml:space="preserve">12.0660734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9015369415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1679315567017</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541170120239</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">12.6223678588867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3324689865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201011657715</t>
+    <t xml:space="preserve">12.3324670791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.591025352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201021194458</t>
   </si>
   <si>
     <t xml:space="preserve">12.9749460220337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9671106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256708145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805156707764</t>
+    <t xml:space="preserve">12.9671115875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.280517578125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
@@ -1124,31 +1124,31 @@
     <t xml:space="preserve">13.2335062026978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178354263306</t>
+    <t xml:space="preserve">13.2178363800049</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003084182739</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9592781066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.061131477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786594390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417491912842</t>
+    <t xml:space="preserve">12.9592790603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0611333847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417501449585</t>
   </si>
   <si>
     <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2932920455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.395149230957</t>
+    <t xml:space="preserve">12.2932910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3951482772827</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048408508301</t>
@@ -1157,19 +1157,19 @@
     <t xml:space="preserve">12.6693773269653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7320594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7790670394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846385955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2570085525513</t>
+    <t xml:space="preserve">12.7320575714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7790679931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850481033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846405029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2570123672485</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081438064575</t>
@@ -1178,22 +1178,22 @@
     <t xml:space="preserve">13.3118572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1238145828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.351035118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6801071166992</t>
+    <t xml:space="preserve">13.123815536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510332107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6801052093506</t>
   </si>
   <si>
     <t xml:space="preserve">13.4450540542603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397035598755</t>
+    <t xml:space="preserve">14.2912464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397045135498</t>
   </si>
   <si>
     <t xml:space="preserve">15.0982627868652</t>
@@ -1205,106 +1205,106 @@
     <t xml:space="preserve">15.0825929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3176441192627</t>
+    <t xml:space="preserve">15.3176460266113</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549629211426</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9337224960327</t>
+    <t xml:space="preserve">14.93372631073</t>
   </si>
   <si>
     <t xml:space="preserve">14.8553743362427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669231414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474347114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4351749420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172355651855</t>
+    <t xml:space="preserve">14.7221765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452722549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669212341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4743509292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4351739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.701566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172365188599</t>
   </si>
   <si>
     <t xml:space="preserve">14.8788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904273986816</t>
+    <t xml:space="preserve">15.0042428970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904264450073</t>
   </si>
   <si>
     <t xml:space="preserve">15.1374378204346</t>
   </si>
   <si>
-    <t xml:space="preserve">15.200119972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157878875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.356822013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821834564209</t>
+    <t xml:space="preserve">15.2001209259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3568239212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978561401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821825027466</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918741226196</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6702260971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310529708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858959197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.889609336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683698654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269290924072</t>
+    <t xml:space="preserve">15.6702280044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858968734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896102905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269300460815</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867139816284</t>
+    <t xml:space="preserve">14.8867149353027</t>
   </si>
   <si>
     <t xml:space="preserve">14.7926921844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8710441589355</t>
+    <t xml:space="preserve">14.8710451126099</t>
   </si>
   <si>
     <t xml:space="preserve">14.8390312194824</t>
@@ -1316,19 +1316,19 @@
     <t xml:space="preserve">14.6149234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4548454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267869949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0306463241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8945817947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866746902466</t>
+    <t xml:space="preserve">14.4548473358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267850875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0306482315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8945827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866737365723</t>
   </si>
   <si>
     <t xml:space="preserve">14.2467470169067</t>
@@ -1337,73 +1337,73 @@
     <t xml:space="preserve">14.2867679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547512054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508947372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907224655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192577362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273561477661</t>
+    <t xml:space="preserve">14.254753112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.550892829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907234191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192567825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273571014404</t>
   </si>
   <si>
     <t xml:space="preserve">15.5753765106201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2152090072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713296890259</t>
+    <t xml:space="preserve">15.2152070999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713277816772</t>
   </si>
   <si>
     <t xml:space="preserve">15.5833797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.807487487793</t>
+    <t xml:space="preserve">15.8074903488159</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073923110962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6954355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471258163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351680755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870534896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911022186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630418777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991044998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191625595093</t>
+    <t xml:space="preserve">15.6954364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471277236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391235351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870515823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911012649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.119161605835</t>
   </si>
   <si>
     <t xml:space="preserve">15.4793329238892</t>
@@ -1418,28 +1418,28 @@
     <t xml:space="preserve">15.6554155349731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434568405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034387588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233997344971</t>
+    <t xml:space="preserve">15.7114429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234006881714</t>
   </si>
   <si>
     <t xml:space="preserve">15.5113477706909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3992938995361</t>
+    <t xml:space="preserve">15.3992948532104</t>
   </si>
   <si>
     <t xml:space="preserve">15.463324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.49534034729</t>
+    <t xml:space="preserve">15.4953413009644</t>
   </si>
   <si>
     <t xml:space="preserve">15.4233064651489</t>
@@ -1448,43 +1448,43 @@
     <t xml:space="preserve">15.367280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0711402893066</t>
+    <t xml:space="preserve">15.0711393356323</t>
   </si>
   <si>
     <t xml:space="preserve">14.8230218887329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7349786758423</t>
+    <t xml:space="preserve">14.7349805831909</t>
   </si>
   <si>
     <t xml:space="preserve">14.7269763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1031541824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.239221572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748092651367</t>
+    <t xml:space="preserve">15.1031551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.239218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.462851524353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708566665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748073577881</t>
   </si>
   <si>
     <t xml:space="preserve">14.5749044418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4228315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107786178589</t>
+    <t xml:space="preserve">14.4228324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107795715332</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468421936035</t>
@@ -1493,16 +1493,16 @@
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787637710571</t>
+    <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627573013306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2947721481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1266927719116</t>
+    <t xml:space="preserve">14.2947731018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126690864563</t>
   </si>
   <si>
     <t xml:space="preserve">14.1747140884399</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">14.2707605361938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.63893699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4308366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588018417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.334789276123</t>
+    <t xml:space="preserve">14.6389360427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4308385848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347911834717</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587076187134</t>
@@ -1532,16 +1532,16 @@
     <t xml:space="preserve">14.0466527938843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1186876296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346940994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386524200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2387475967407</t>
+    <t xml:space="preserve">14.118688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386514663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2387456893921</t>
   </si>
   <si>
     <t xml:space="preserve">14.1106853485107</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">13.6864833831787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.782527923584</t>
+    <t xml:space="preserve">13.7825298309326</t>
   </si>
   <si>
     <t xml:space="preserve">13.5584239959717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2862939834595</t>
+    <t xml:space="preserve">13.2862949371338</t>
   </si>
   <si>
     <t xml:space="preserve">13.4863891601562</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">14.1667108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8865785598755</t>
+    <t xml:space="preserve">13.8865776062012</t>
   </si>
   <si>
     <t xml:space="preserve">13.7184982299805</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">13.3023023605347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662368774414</t>
+    <t xml:space="preserve">13.1662378311157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583288192749</t>
@@ -1589,25 +1589,25 @@
     <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1982517242432</t>
+    <t xml:space="preserve">13.1982536315918</t>
   </si>
   <si>
     <t xml:space="preserve">12.8460845947266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823385238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744295120239</t>
+    <t xml:space="preserve">13.006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620920181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663339614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823394775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744304656982</t>
   </si>
   <si>
     <t xml:space="preserve">13.518404006958</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">13.5023965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5664262771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264072418213</t>
+    <t xml:space="preserve">13.566427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264081954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.1742401123047</t>
@@ -1631,52 +1631,52 @@
     <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9741449356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8781003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1422243118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8540868759155</t>
+    <t xml:space="preserve">12.9741458892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.878101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1422252655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
     <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9661417007446</t>
+    <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140697479248</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9421300888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7500400543213</t>
+    <t xml:space="preserve">12.9421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7500410079956</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.485915184021</t>
+    <t xml:space="preserve">12.4859142303467</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2702856063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821500778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424127578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706653594971</t>
+    <t xml:space="preserve">13.2702865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821481704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706663131714</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785743713379</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">13.6064462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7745246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824327468872</t>
+    <t xml:space="preserve">13.774525642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824337005615</t>
   </si>
   <si>
     <t xml:space="preserve">13.6624717712402</t>
@@ -1709,85 +1709,85 @@
     <t xml:space="preserve">13.8145446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9506101608276</t>
+    <t xml:space="preserve">13.950611114502</t>
   </si>
   <si>
     <t xml:space="preserve">13.6704769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8625659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986324310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544666290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985372543335</t>
+    <t xml:space="preserve">13.862566947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665224075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544675827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985353469849</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103998184204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7905321121216</t>
+    <t xml:space="preserve">13.7905330657959</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066347122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224527359009</t>
+    <t xml:space="preserve">14.0066337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224536895752</t>
   </si>
   <si>
     <t xml:space="preserve">13.646463394165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9586124420166</t>
+    <t xml:space="preserve">13.9586133956909</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265024185181</t>
+    <t xml:space="preserve">13.7265014648438</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705711364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0786685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384630203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.430362701416</t>
+    <t xml:space="preserve">14.0786695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384611129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4303617477417</t>
   </si>
   <si>
     <t xml:space="preserve">13.4383668899536</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3743343353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063510894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0301723480225</t>
+    <t xml:space="preserve">13.3743352890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063520431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462749481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0301733016968</t>
   </si>
   <si>
     <t xml:space="preserve">12.9581394195557</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">12.7420358657837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3983469009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4703817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4943933486938</t>
+    <t xml:space="preserve">13.3983478546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4703807830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4943923950195</t>
   </si>
   <si>
     <t xml:space="preserve">13.0381774902344</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">12.9021129608154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101142883301</t>
+    <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901523590088</t>
+    <t xml:space="preserve">12.9901533126831</t>
   </si>
   <si>
     <t xml:space="preserve">12.8700971603394</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0221691131592</t>
+    <t xml:space="preserve">13.0221700668335</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144495010376</t>
@@ -1841,28 +1841,28 @@
     <t xml:space="preserve">14.2340497970581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3931350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098806381226</t>
+    <t xml:space="preserve">14.3931369781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4098815917969</t>
   </si>
   <si>
     <t xml:space="preserve">14.7699193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.795036315918</t>
+    <t xml:space="preserve">14.7950372695923</t>
   </si>
   <si>
     <t xml:space="preserve">14.6694440841675</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5522232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.535475730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773391723633</t>
+    <t xml:space="preserve">14.5522222518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5354776382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773420333862</t>
   </si>
   <si>
     <t xml:space="preserve">14.6192045211792</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">14.5187301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">14.435001373291</t>
+    <t xml:space="preserve">14.4349994659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
@@ -1880,31 +1880,31 @@
     <t xml:space="preserve">14.3680171966553</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713443756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.448130607605</t>
+    <t xml:space="preserve">14.9708709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.071346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4481296539307</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876165390015</t>
+    <t xml:space="preserve">15.5318613052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043601989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876146316528</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038848876953</t>
@@ -1913,52 +1913,52 @@
     <t xml:space="preserve">14.8536491394043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2806692123413</t>
+    <t xml:space="preserve">15.2806701660156</t>
   </si>
   <si>
     <t xml:space="preserve">15.556978225708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4648733139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555484771729</t>
+    <t xml:space="preserve">15.4648752212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555494308472</t>
   </si>
   <si>
     <t xml:space="preserve">15.4816217422485</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9923734664917</t>
+    <t xml:space="preserve">15.992374420166</t>
   </si>
   <si>
     <t xml:space="preserve">15.9756269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8667793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165407180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411813735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328128814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.12158203125</t>
+    <t xml:space="preserve">15.8667802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215839385986</t>
   </si>
   <si>
     <t xml:space="preserve">15.1634492874146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0462245941162</t>
+    <t xml:space="preserve">15.0462255477905</t>
   </si>
   <si>
     <t xml:space="preserve">15.079719543457</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">14.8452758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8787670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6778163909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0294828414917</t>
+    <t xml:space="preserve">14.8787679672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015092849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6778173446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0294818878174</t>
   </si>
   <si>
     <t xml:space="preserve">15.1299571990967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0378532409668</t>
+    <t xml:space="preserve">15.0378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.4266271591187</t>
@@ -1991,73 +1991,73 @@
     <t xml:space="preserve">14.3596429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4684925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1503190994263</t>
+    <t xml:space="preserve">14.4684934616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094062805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1503200531006</t>
   </si>
   <si>
     <t xml:space="preserve">14.6275768280029</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512697219849</t>
+    <t xml:space="preserve">14.7196826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526956558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512706756592</t>
   </si>
   <si>
     <t xml:space="preserve">14.5940885543823</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6024599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7447996139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9122581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383304595947</t>
+    <t xml:space="preserve">14.6024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457521438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7448015213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.912260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.138331413269</t>
   </si>
   <si>
     <t xml:space="preserve">15.3309078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5151138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629739761353</t>
+    <t xml:space="preserve">15.515115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964670181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629730224609</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397573471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500328063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244386672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8751516342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993188858032</t>
+    <t xml:space="preserve">15.4397563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500337600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.724437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.875150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993207931519</t>
   </si>
   <si>
     <t xml:space="preserve">15.6072158813477</t>
@@ -2066,58 +2066,58 @@
     <t xml:space="preserve">15.9002695083618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490802764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486068725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899940490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3895168304443</t>
+    <t xml:space="preserve">15.5988435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490812301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5486030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899959564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.389518737793</t>
   </si>
   <si>
     <t xml:space="preserve">14.9792432785034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3643999099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021107673645</t>
+    <t xml:space="preserve">15.3643980026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722978591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0211086273193</t>
   </si>
   <si>
     <t xml:space="preserve">14.92063331604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1048393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
+    <t xml:space="preserve">15.1048402786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.113208770752</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471780776978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2304315567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1801919937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057899475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835220336914</t>
+    <t xml:space="preserve">15.230432510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1801929473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969385147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057909011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.88352394104</t>
   </si>
   <si>
     <t xml:space="preserve">15.8249130249023</t>
@@ -2129,28 +2129,28 @@
     <t xml:space="preserve">15.1718215942383</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2136859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220602035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.506739616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825742721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.933762550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942756652832</t>
+    <t xml:space="preserve">15.2136869430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672517776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825723648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732484817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337615966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942775726318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7961769104004</t>
@@ -2165,28 +2165,28 @@
     <t xml:space="preserve">16.2435626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5198707580566</t>
+    <t xml:space="preserve">16.519868850708</t>
   </si>
   <si>
     <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0426082611084</t>
+    <t xml:space="preserve">16.042610168457</t>
   </si>
   <si>
     <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0258655548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2854270935059</t>
+    <t xml:space="preserve">16.0258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2854290008545</t>
   </si>
   <si>
     <t xml:space="preserve">16.1765785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2100696563721</t>
+    <t xml:space="preserve">16.2100715637207</t>
   </si>
   <si>
     <t xml:space="preserve">16.670581817627</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">16.5282421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3440361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.092845916748</t>
+    <t xml:space="preserve">16.3440380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928478240967</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">16.3021697998047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5366153717041</t>
+    <t xml:space="preserve">16.5366172790527</t>
   </si>
   <si>
     <t xml:space="preserve">16.6957015991211</t>
@@ -2228,19 +2228,19 @@
     <t xml:space="preserve">17.2483196258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5329990386963</t>
+    <t xml:space="preserve">17.5330009460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.03537940979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9181537628174</t>
+    <t xml:space="preserve">17.918155670166</t>
   </si>
   <si>
     <t xml:space="preserve">18.0856151580811</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0521240234375</t>
+    <t xml:space="preserve">18.0521221160889</t>
   </si>
   <si>
     <t xml:space="preserve">17.9516487121582</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2028350830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8679180145264</t>
+    <t xml:space="preserve">18.2028369903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679161071777</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707717895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4540271759033</t>
+    <t xml:space="preserve">18.4707698822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.454029083252</t>
   </si>
   <si>
     <t xml:space="preserve">18.554500579834</t>
@@ -2291,13 +2291,13 @@
     <t xml:space="preserve">19.3248157501221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4420337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.358304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745780944824</t>
+    <t xml:space="preserve">19.4420356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3583087921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745761871338</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387065887451</t>
+    <t xml:space="preserve">18.7387046813965</t>
   </si>
   <si>
     <t xml:space="preserve">18.3368034362793</t>
@@ -2315,10 +2315,10 @@
     <t xml:space="preserve">17.4660167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5210075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525993347168</t>
+    <t xml:space="preserve">18.5210094451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525974273682</t>
   </si>
   <si>
     <t xml:space="preserve">11.8226337432861</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">12.2998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3082656860352</t>
+    <t xml:space="preserve">12.3082666397095</t>
   </si>
   <si>
     <t xml:space="preserve">12.0235843658447</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">12.1156883239746</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7269144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687788009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.145562171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8860015869141</t>
+    <t xml:space="preserve">12.7269134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687797546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1455631256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8860006332397</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386167526245</t>
+    <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
     <t xml:space="preserve">13.991231918335</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0917091369629</t>
+    <t xml:space="preserve">14.0917081832886</t>
   </si>
   <si>
     <t xml:space="preserve">14.0079784393311</t>
@@ -2381,28 +2381,28 @@
     <t xml:space="preserve">14.1921844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2424211502075</t>
+    <t xml:space="preserve">14.2424221038818</t>
   </si>
   <si>
     <t xml:space="preserve">13.8656368255615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8572645187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0247249603271</t>
+    <t xml:space="preserve">13.8572654724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0247268676758</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1419467926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.217303276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926588058472</t>
+    <t xml:space="preserve">14.1419458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173042297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926597595215</t>
   </si>
   <si>
     <t xml:space="preserve">13.7316694259644</t>
@@ -2411,22 +2411,22 @@
     <t xml:space="preserve">13.6898059844971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7986536026001</t>
+    <t xml:space="preserve">13.7986545562744</t>
   </si>
   <si>
     <t xml:space="preserve">13.9493675231934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828605651855</t>
+    <t xml:space="preserve">13.9828615188599</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103569030762</t>
+    <t xml:space="preserve">14.4182548522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103578567505</t>
   </si>
   <si>
     <t xml:space="preserve">15.0354614257812</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">14.6503849029541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9829502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1317310333252</t>
+    <t xml:space="preserve">14.9829511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1317300796509</t>
   </si>
   <si>
     <t xml:space="preserve">15.1229782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9281377792358</t>
+    <t xml:space="preserve">15.9281358718872</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0658588409424</t>
+    <t xml:space="preserve">16.1906890869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.065860748291</t>
   </si>
   <si>
     <t xml:space="preserve">17.3721714019775</t>
@@ -2504,25 +2504,25 @@
     <t xml:space="preserve">16.7858066558838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2607021331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3307132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4707431793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7945556640625</t>
+    <t xml:space="preserve">16.2607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3307151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4707412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7945575714111</t>
   </si>
   <si>
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460529327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2735977172852</t>
+    <t xml:space="preserve">18.0460548400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2735958099365</t>
   </si>
   <si>
     <t xml:space="preserve">17.853515625</t>
@@ -2534,28 +2534,28 @@
     <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3436088562012</t>
+    <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162040710449</t>
+    <t xml:space="preserve">18.8162059783936</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2910995483398</t>
+    <t xml:space="preserve">18.2911014556885</t>
   </si>
   <si>
     <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4486331939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3786182403564</t>
+    <t xml:space="preserve">18.4486312866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3786201477051</t>
   </si>
   <si>
     <t xml:space="preserve">18.3961219787598</t>
@@ -2564,25 +2564,25 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8010063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.888521194458</t>
+    <t xml:space="preserve">17.8010025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8885231018066</t>
   </si>
   <si>
     <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.730993270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0110473632812</t>
+    <t xml:space="preserve">17.7309913635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0110454559326</t>
   </si>
   <si>
     <t xml:space="preserve">18.4836406707764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6236686706543</t>
+    <t xml:space="preserve">18.6236667633057</t>
   </si>
   <si>
     <t xml:space="preserve">18.5011425018311</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">19.0437488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1487712860107</t>
+    <t xml:space="preserve">19.1487693786621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4988403320312</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787563323975</t>
+    <t xml:space="preserve">19.0787544250488</t>
   </si>
   <si>
     <t xml:space="preserve">19.1312675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5863571166992</t>
+    <t xml:space="preserve">19.5863552093506</t>
   </si>
   <si>
     <t xml:space="preserve">19.4638328552246</t>
@@ -2624,46 +2624,46 @@
     <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3938179016113</t>
+    <t xml:space="preserve">19.3938159942627</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113216400146</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2537899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1137638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562301635742</t>
+    <t xml:space="preserve">19.253791809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1137657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562339782715</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3763160705566</t>
+    <t xml:space="preserve">19.376314163208</t>
   </si>
   <si>
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337078094482</t>
+    <t xml:space="preserve">18.8337097167969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061630249023</t>
+    <t xml:space="preserve">18.6061611175537</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5186443328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4136276245117</t>
+    <t xml:space="preserve">18.5186462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4136238098145</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664131164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4463272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7438869476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489093780518</t>
+    <t xml:space="preserve">19.8664112091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4463291168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7438850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489074707031</t>
   </si>
   <si>
     <t xml:space="preserve">19.4813346862793</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912414550781</t>
+    <t xml:space="preserve">18.9912395477295</t>
   </si>
   <si>
     <t xml:space="preserve">19.1662731170654</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">17.2408962249756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820762634277</t>
+    <t xml:space="preserve">16.8820743560791</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0635566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2210865020752</t>
+    <t xml:space="preserve">18.0635547637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2210884094238</t>
   </si>
   <si>
     <t xml:space="preserve">18.1685791015625</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">17.9935417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6784820556641</t>
+    <t xml:space="preserve">17.9060249328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7659969329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5909633636475</t>
+    <t xml:space="preserve">17.765998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5909652709961</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1335678100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1860828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5711536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362880706787</t>
+    <t xml:space="preserve">18.1335697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1860809326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5711574554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362861633301</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714317321777</t>
@@ -2780,19 +2780,19 @@
     <t xml:space="preserve">20.4790306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2316799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.704273223877</t>
+    <t xml:space="preserve">21.2316818237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7042713165283</t>
   </si>
   <si>
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143161773682</t>
+    <t xml:space="preserve">21.9143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793067932129</t>
@@ -2801,28 +2801,28 @@
     <t xml:space="preserve">22.0368404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9668273925781</t>
+    <t xml:space="preserve">21.9668254852295</t>
   </si>
   <si>
     <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9318161010742</t>
+    <t xml:space="preserve">21.9318180084229</t>
   </si>
   <si>
     <t xml:space="preserve">22.2293758392334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4219150543213</t>
+    <t xml:space="preserve">22.4219169616699</t>
   </si>
   <si>
     <t xml:space="preserve">22.9470176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4721221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2795848846436</t>
+    <t xml:space="preserve">23.4721183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2795829772949</t>
   </si>
   <si>
     <t xml:space="preserve">23.8747005462646</t>
@@ -2831,22 +2831,22 @@
     <t xml:space="preserve">22.4569225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1243553161621</t>
+    <t xml:space="preserve">22.1243572235107</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8595008850098</t>
+    <t xml:space="preserve">22.5444374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8594989776611</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745643615723</t>
+    <t xml:space="preserve">23.1745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">23.1220512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4546184539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144523620605</t>
+    <t xml:space="preserve">23.4546165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493236541748</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4919300079346</t>
+    <t xml:space="preserve">22.4919281005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.0018310546875</t>
@@ -2882,22 +2882,22 @@
     <t xml:space="preserve">20.7590866088867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3717060089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4615287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0414447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592247009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.439416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2118740081787</t>
+    <t xml:space="preserve">21.3717079162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4615268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.041446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592266082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4394187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.529239654541</t>
+    <t xml:space="preserve">21.5292377471924</t>
   </si>
   <si>
     <t xml:space="preserve">21.7567844390869</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8442993164062</t>
+    <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
     <t xml:space="preserve">22.2643852233887</t>
@@ -2930,19 +2930,19 @@
     <t xml:space="preserve">22.3168926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2468795776367</t>
+    <t xml:space="preserve">22.2468814849854</t>
   </si>
   <si>
     <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3343982696533</t>
+    <t xml:space="preserve">22.3343963623047</t>
   </si>
   <si>
     <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7217769622803</t>
+    <t xml:space="preserve">21.7217750549316</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">21.2841911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3869094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8267974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4942302703857</t>
+    <t xml:space="preserve">22.3869075775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8267993927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4942321777344</t>
   </si>
   <si>
     <t xml:space="preserve">21.5992527008057</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016929626465</t>
+    <t xml:space="preserve">21.5817489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016948699951</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">21.0391445159912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5954494476318</t>
+    <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
     <t xml:space="preserve">22.5774002075195</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">22.3066864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4871616363525</t>
+    <t xml:space="preserve">22.4871635437012</t>
   </si>
   <si>
     <t xml:space="preserve">22.4691143035889</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">22.4149723052979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6856842041016</t>
+    <t xml:space="preserve">22.6856861114502</t>
   </si>
   <si>
     <t xml:space="preserve">22.7398281097412</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">22.8842067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5593509674072</t>
+    <t xml:space="preserve">22.5593528747559</t>
   </si>
   <si>
     <t xml:space="preserve">22.8300647735596</t>
@@ -3047,28 +3047,28 @@
     <t xml:space="preserve">23.0105381011963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6134929656982</t>
+    <t xml:space="preserve">22.6134948730469</t>
   </si>
   <si>
     <t xml:space="preserve">22.7037334442139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3895359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0646800994873</t>
+    <t xml:space="preserve">22.9383506774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3895378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0646820068359</t>
   </si>
   <si>
     <t xml:space="preserve">23.2812519073486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6315441131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0540237426758</t>
+    <t xml:space="preserve">22.6315422058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0540218353271</t>
   </si>
   <si>
     <t xml:space="preserve">22.0901184082031</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">22.1081657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9744434356689</t>
+    <t xml:space="preserve">22.9744453430176</t>
   </si>
   <si>
     <t xml:space="preserve">23.2451572418213</t>
@@ -3095,25 +3095,25 @@
     <t xml:space="preserve">23.570011138916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9457378387451</t>
+    <t xml:space="preserve">21.9457397460938</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5052108764648</t>
+    <t xml:space="preserve">22.5052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969249725342</t>
+    <t xml:space="preserve">22.3969268798828</t>
   </si>
   <si>
     <t xml:space="preserve">22.8120174407959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0466365814209</t>
+    <t xml:space="preserve">23.0466346740723</t>
   </si>
   <si>
     <t xml:space="preserve">22.5413055419922</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">22.0720691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2344970703125</t>
+    <t xml:space="preserve">22.2344989776611</t>
   </si>
   <si>
     <t xml:space="preserve">22.5232563018799</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">23.1368713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0827312469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1729679107666</t>
+    <t xml:space="preserve">23.0827293395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.172966003418</t>
   </si>
   <si>
     <t xml:space="preserve">23.0285873413086</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">23.7324390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.551965713501</t>
+    <t xml:space="preserve">23.5519638061523</t>
   </si>
   <si>
     <t xml:space="preserve">23.8948669433594</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">24.0572948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5265293121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1581916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8333358764648</t>
+    <t xml:space="preserve">24.5265274047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1581897735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8333339691162</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">25.3206157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6922264099121</t>
+    <t xml:space="preserve">26.6922245025635</t>
   </si>
   <si>
     <t xml:space="preserve">26.9629383087158</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">28.334545135498</t>
+    <t xml:space="preserve">28.3345470428467</t>
   </si>
   <si>
     <t xml:space="preserve">28.2443084716797</t>
@@ -3239,13 +3239,13 @@
     <t xml:space="preserve">27.8472652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0999298095703</t>
+    <t xml:space="preserve">28.0999279022217</t>
   </si>
   <si>
     <t xml:space="preserve">27.7570285797119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0351257324219</t>
+    <t xml:space="preserve">27.0351276397705</t>
   </si>
   <si>
     <t xml:space="preserve">26.4937038421631</t>
@@ -3257,19 +3257,19 @@
     <t xml:space="preserve">26.4756565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6380825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5839385986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2590866088867</t>
+    <t xml:space="preserve">26.6380844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5839405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2590885162354</t>
   </si>
   <si>
     <t xml:space="preserve">26.2951812744141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6019897460938</t>
+    <t xml:space="preserve">26.6019878387451</t>
   </si>
   <si>
     <t xml:space="preserve">26.1688480377197</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.591329574585</t>
+    <t xml:space="preserve">25.5913314819336</t>
   </si>
   <si>
     <t xml:space="preserve">25.7537593841553</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">25.6635208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6996154785156</t>
+    <t xml:space="preserve">25.699613571167</t>
   </si>
   <si>
     <t xml:space="preserve">26.5117511749268</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">25.8620414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9235725402832</t>
+    <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
     <t xml:space="preserve">24.8694286346436</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">24.2738628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1294841766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9670543670654</t>
+    <t xml:space="preserve">24.1294822692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9670562744141</t>
   </si>
   <si>
     <t xml:space="preserve">23.606107711792</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4330215454102</t>
+    <t xml:space="preserve">22.4330196380615</t>
   </si>
   <si>
     <t xml:space="preserve">22.9022560119629</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217807769775</t>
+    <t xml:space="preserve">22.7217788696289</t>
   </si>
   <si>
     <t xml:space="preserve">22.2525463104248</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">21.7652626037598</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1442623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7111186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4765033721924</t>
+    <t xml:space="preserve">22.1442604064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7111206054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4765014648438</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">24.9957637786865</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0933895111084</t>
+    <t xml:space="preserve">24.093391418457</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
@@ -3419,10 +3419,10 @@
     <t xml:space="preserve">23.9309616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5732822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0531768798828</t>
+    <t xml:space="preserve">25.5732803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
     <t xml:space="preserve">26.3854179382324</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">26.3493251800537</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7357082366943</t>
+    <t xml:space="preserve">25.735710144043</t>
   </si>
   <si>
     <t xml:space="preserve">26.7644157409668</t>
@@ -3443,13 +3443,13 @@
     <t xml:space="preserve">26.096658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6561336517334</t>
+    <t xml:space="preserve">26.6561317443848</t>
   </si>
   <si>
     <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1614608764648</t>
+    <t xml:space="preserve">27.1614627838135</t>
   </si>
   <si>
     <t xml:space="preserve">27.9194564819336</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">28.6233062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6774501800537</t>
+    <t xml:space="preserve">28.6774482727051</t>
   </si>
   <si>
     <t xml:space="preserve">28.3886871337891</t>
   </si>
   <si>
-    <t xml:space="preserve">28.569164276123</t>
+    <t xml:space="preserve">28.5691661834717</t>
   </si>
   <si>
     <t xml:space="preserve">28.7315921783447</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">29.3271598815918</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1105861663818</t>
+    <t xml:space="preserve">29.1105880737305</t>
   </si>
   <si>
     <t xml:space="preserve">29.0744953155518</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">29.2008266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7676868438721</t>
+    <t xml:space="preserve">28.7676849365234</t>
   </si>
   <si>
     <t xml:space="preserve">28.8759727478027</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">28.4247856140137</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2082138061523</t>
+    <t xml:space="preserve">28.208215713501</t>
   </si>
   <si>
     <t xml:space="preserve">26.8366050720215</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">26.8005123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">29.3813018798828</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1392955780029</t>
+    <t xml:space="preserve">30.1392974853516</t>
   </si>
   <si>
     <t xml:space="preserve">30.1753883361816</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">30.3739147186279</t>
   </si>
   <si>
-    <t xml:space="preserve">30.680721282959</t>
+    <t xml:space="preserve">30.6807193756104</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812496185303</t>
@@ -4728,6 +4728,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.5200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4799995422363</t>
   </si>
 </sst>
 </file>
@@ -61749,7 +61752,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6493171296</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>368185</v>
@@ -61770,6 +61773,32 @@
         <v>1571</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6494097222</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>161014</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>24.6399993896484</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>24.2999992370605</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>24.3600006103516</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>24.4799995422363</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1574">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85120964050293</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55665016174316</t>
+    <t xml:space="preserve">8.55664920806885</t>
   </si>
   <si>
     <t xml:space="preserve">8.32674884796143</t>
@@ -59,25 +59,25 @@
     <t xml:space="preserve">8.34830188751221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57101917266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53509712219238</t>
+    <t xml:space="preserve">8.57101821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53509616851807</t>
   </si>
   <si>
     <t xml:space="preserve">8.47762203216553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3626708984375</t>
+    <t xml:space="preserve">8.36266994476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684753417969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189640045166</t>
+    <t xml:space="preserve">8.29082489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189544677734</t>
   </si>
   <si>
     <t xml:space="preserve">8.08247756958008</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">8.28364181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1902437210083</t>
+    <t xml:space="preserve">8.27645587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19024467468262</t>
   </si>
   <si>
     <t xml:space="preserve">8.11121463775635</t>
@@ -110,34 +110,34 @@
     <t xml:space="preserve">7.65859699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81665420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820724487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500247955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073167800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92441987991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878984451294</t>
+    <t xml:space="preserve">7.81665325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480962753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461177825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820772171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92442083358765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878936767578</t>
   </si>
   <si>
     <t xml:space="preserve">8.046555519104</t>
@@ -146,67 +146,67 @@
     <t xml:space="preserve">8.17587566375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0896635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9747109413147</t>
+    <t xml:space="preserve">8.08966159820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471141815186</t>
   </si>
   <si>
     <t xml:space="preserve">8.10403156280518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11839962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898078918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33393383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59975624084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033740997314</t>
+    <t xml:space="preserve">8.11839771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21898174285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3339319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59975528717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033836364746</t>
   </si>
   <si>
     <t xml:space="preserve">8.68596935272217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59257221221924</t>
+    <t xml:space="preserve">8.59257125854492</t>
   </si>
   <si>
     <t xml:space="preserve">8.54228115081787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40577697753906</t>
+    <t xml:space="preserve">8.40577793121338</t>
   </si>
   <si>
     <t xml:space="preserve">8.31237888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36985301971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917507171631</t>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946517944336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45606899261475</t>
+    <t xml:space="preserve">8.45606803894043</t>
   </si>
   <si>
     <t xml:space="preserve">8.41296195983887</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">8.22616577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19742774963379</t>
+    <t xml:space="preserve">8.19742870330811</t>
   </si>
   <si>
     <t xml:space="preserve">8.15432262420654</t>
@@ -227,118 +227,118 @@
     <t xml:space="preserve">8.16150569915771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2333517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218555450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169902801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519580841064</t>
+    <t xml:space="preserve">8.23335075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626398086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519485473633</t>
   </si>
   <si>
     <t xml:space="preserve">8.07527446746826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05273818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795204162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33067798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302364349365</t>
+    <t xml:space="preserve">8.05273723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795299530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3306770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302268981934</t>
   </si>
   <si>
     <t xml:space="preserve">8.18043899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14287948608398</t>
+    <t xml:space="preserve">8.1428804397583</t>
   </si>
   <si>
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1654167175293</t>
+    <t xml:space="preserve">8.16541576385498</t>
   </si>
   <si>
     <t xml:space="preserve">8.21048831939697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15039348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188325881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991788864136</t>
+    <t xml:space="preserve">8.15039253234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178651809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286546707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8499174118042</t>
   </si>
   <si>
     <t xml:space="preserve">7.8273811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69967937469482</t>
+    <t xml:space="preserve">7.69967985153198</t>
   </si>
   <si>
     <t xml:space="preserve">7.76728677749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30906057357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253211975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484533309937</t>
+    <t xml:space="preserve">7.30906200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253164291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4029598236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216680526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484676361084</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460777282715</t>
+    <t xml:space="preserve">7.65460872650146</t>
   </si>
   <si>
     <t xml:space="preserve">7.33910942077637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46681118011475</t>
+    <t xml:space="preserve">7.4668116569519</t>
   </si>
   <si>
     <t xml:space="preserve">7.57948875427246</t>
@@ -347,64 +347,64 @@
     <t xml:space="preserve">7.54193019866943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6020245552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
+    <t xml:space="preserve">7.60202598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977420806885</t>
   </si>
   <si>
     <t xml:space="preserve">7.68465518951416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61704921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207292556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7447509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958406448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5945143699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4968581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934698104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456083297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719194412231</t>
+    <t xml:space="preserve">7.6170482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475240707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479887008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451246261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685907363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4893479347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456130981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719051361084</t>
   </si>
   <si>
     <t xml:space="preserve">7.67714357376099</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81986904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742998123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953760147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5719780921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436973571777</t>
+    <t xml:space="preserve">7.81986856460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742855072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953712463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437068939209</t>
   </si>
   <si>
     <t xml:space="preserve">7.47807884216309</t>
@@ -413,94 +413,94 @@
     <t xml:space="preserve">7.49310255050659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4705662727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752433776855</t>
+    <t xml:space="preserve">7.47056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9175238609314</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996482849121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91001129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757127761841</t>
+    <t xml:space="preserve">7.91001176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757175445557</t>
   </si>
   <si>
     <t xml:space="preserve">8.09029769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75226259231567</t>
+    <t xml:space="preserve">7.75226211547852</t>
   </si>
   <si>
     <t xml:space="preserve">7.8123574256897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87245273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221422195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963243484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427537918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169216156006</t>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221612930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963148117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427585601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3916916847229</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3841814994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5081262588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5344181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403781890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9259557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736568450928</t>
+    <t xml:space="preserve">7.52690696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812530517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441762924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403829574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595624923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736616134644</t>
   </si>
   <si>
     <t xml:space="preserve">6.98605012893677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9710259437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990196228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219972610474</t>
+    <t xml:space="preserve">6.97102642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219924926758</t>
   </si>
   <si>
     <t xml:space="preserve">6.84332418441772</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">6.95975971221924</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94849252700806</t>
+    <t xml:space="preserve">6.94849014282227</t>
   </si>
   <si>
     <t xml:space="preserve">6.92971181869507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215135574341</t>
+    <t xml:space="preserve">6.83956861495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215230941772</t>
   </si>
   <si>
     <t xml:space="preserve">6.83581304550171</t>
@@ -530,79 +530,79 @@
     <t xml:space="preserve">6.79449796676636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79074239730835</t>
+    <t xml:space="preserve">6.79074144363403</t>
   </si>
   <si>
     <t xml:space="preserve">6.90341997146606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03112173080444</t>
+    <t xml:space="preserve">7.03112077713013</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717506408691</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384815216064</t>
+    <t xml:space="preserve">7.0198540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0160984992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384767532349</t>
   </si>
   <si>
     <t xml:space="preserve">7.19638299942017</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47432231903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446409225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695390701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982162475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230953216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747644424438</t>
+    <t xml:space="preserve">7.47432374954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695486068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982210159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78231048583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747549057007</t>
   </si>
   <si>
     <t xml:space="preserve">7.98513078689575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79733514785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761964797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776142120361</t>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0677604675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.10532188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00766658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9550838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
+    <t xml:space="preserve">8.00766754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95508289337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297527313232</t>
   </si>
   <si>
     <t xml:space="preserve">8.2180004119873</t>
@@ -611,31 +611,31 @@
     <t xml:space="preserve">8.24053478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49593925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307106018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25555801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814266204834</t>
+    <t xml:space="preserve">8.49594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26307010650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814170837402</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091506958008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56354427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57857036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69876098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636695861816</t>
+    <t xml:space="preserve">8.56354713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57856845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69875907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636600494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.7738790512085</t>
@@ -644,16 +644,16 @@
     <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75134181976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86402130126953</t>
+    <t xml:space="preserve">8.78890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82646083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86402225494385</t>
   </si>
   <si>
     <t xml:space="preserve">8.87904453277588</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">8.91660404205322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99172401428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96918773651123</t>
+    <t xml:space="preserve">8.99172306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96918678283691</t>
   </si>
   <si>
     <t xml:space="preserve">8.93914031982422</t>
@@ -677,34 +677,34 @@
     <t xml:space="preserve">8.98421096801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89406871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378421783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60110473632812</t>
+    <t xml:space="preserve">8.89406776428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378326416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60110378265381</t>
   </si>
   <si>
     <t xml:space="preserve">8.51096153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4283332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61613082885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349876403809</t>
+    <t xml:space="preserve">8.42833232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61612987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349685668945</t>
   </si>
   <si>
     <t xml:space="preserve">8.54101085662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392742156982</t>
+    <t xml:space="preserve">8.73631763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
     <t xml:space="preserve">8.90909290313721</t>
@@ -716,16 +716,16 @@
     <t xml:space="preserve">8.8565092086792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10440063476562</t>
+    <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
     <t xml:space="preserve">9.2611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30811500549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28460884094238</t>
+    <t xml:space="preserve">9.30811405181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2846097946167</t>
   </si>
   <si>
     <t xml:space="preserve">9.38646507263184</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">9.4256420135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34729099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36295890808105</t>
+    <t xml:space="preserve">9.34728908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
     <t xml:space="preserve">9.44914627075195</t>
@@ -746,28 +746,28 @@
     <t xml:space="preserve">9.41780662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481704711914</t>
+    <t xml:space="preserve">9.46481513977051</t>
   </si>
   <si>
     <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53533172607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85657215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73120975494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74687957763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77822113037109</t>
+    <t xml:space="preserve">9.53533267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85657119750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73121070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7468786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822017669678</t>
   </si>
   <si>
     <t xml:space="preserve">9.79389095306396</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">9.69987010955811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84873676300049</t>
+    <t xml:space="preserve">9.84873580932617</t>
   </si>
   <si>
     <t xml:space="preserve">9.80956268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71553897857666</t>
+    <t xml:space="preserve">9.71553993225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.59801292419434</t>
@@ -791,43 +791,43 @@
     <t xml:space="preserve">9.69203567504883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6215181350708</t>
+    <t xml:space="preserve">9.62152004241943</t>
   </si>
   <si>
     <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58234310150146</t>
+    <t xml:space="preserve">9.58234214782715</t>
   </si>
   <si>
     <t xml:space="preserve">9.60584926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55100250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55883693695068</t>
+    <t xml:space="preserve">9.55100154876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.558837890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7703857421875</t>
+    <t xml:space="preserve">9.77038478851318</t>
   </si>
   <si>
     <t xml:space="preserve">9.75471496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48832225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399303436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37079524993896</t>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399208068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37079429626465</t>
   </si>
   <si>
     <t xml:space="preserve">9.63718891143799</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">9.7077054977417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8330659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.021110534668</t>
+    <t xml:space="preserve">9.83306694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0211095809937</t>
   </si>
   <si>
     <t xml:space="preserve">10.1543054580688</t>
@@ -851,28 +851,28 @@
     <t xml:space="preserve">10.326678276062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326564788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2561635971069</t>
+    <t xml:space="preserve">10.3031730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2561626434326</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248239517212</t>
+    <t xml:space="preserve">10.1072950363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2248220443726</t>
   </si>
   <si>
     <t xml:space="preserve">10.2953395843506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3893594741821</t>
+    <t xml:space="preserve">10.3893604278564</t>
   </si>
   <si>
     <t xml:space="preserve">10.4285354614258</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">10.5695667266846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165790557861</t>
+    <t xml:space="preserve">10.6165781021118</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">10.5068855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6635894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6870946884155</t>
+    <t xml:space="preserve">10.6635885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6870956420898</t>
   </si>
   <si>
     <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6557550430298</t>
+    <t xml:space="preserve">10.6557540893555</t>
   </si>
   <si>
     <t xml:space="preserve">10.6087427139282</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">10.5930728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852365493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5382280349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5460615158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5147228240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027645111084</t>
+    <t xml:space="preserve">10.5852384567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5382261276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5460624694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5147218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027626037598</t>
   </si>
   <si>
     <t xml:space="preserve">11.0004987716675</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">11.0475101470947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0318393707275</t>
+    <t xml:space="preserve">11.0318374633789</t>
   </si>
   <si>
     <t xml:space="preserve">11.0631790161133</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">10.9769945144653</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161695480347</t>
+    <t xml:space="preserve">11.0240020751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0161685943604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926633834839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2433881759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3139028549194</t>
+    <t xml:space="preserve">11.2433862686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3139019012451</t>
   </si>
   <si>
     <t xml:space="preserve">11.2120475769043</t>
@@ -968,43 +968,43 @@
     <t xml:space="preserve">11.3765840530396</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4157609939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941110610962</t>
+    <t xml:space="preserve">11.4157590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941120147705</t>
   </si>
   <si>
     <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8466920852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9250431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411195755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7291650772095</t>
+    <t xml:space="preserve">11.8466901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9250421524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7291641235352</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605047225952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485483169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388547897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172067642212</t>
+    <t xml:space="preserve">11.9485473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172058105469</t>
   </si>
   <si>
     <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9642190933228</t>
+    <t xml:space="preserve">11.9642171859741</t>
   </si>
   <si>
     <t xml:space="preserve">12.0739088058472</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">12.1600961685181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2462816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227764129639</t>
+    <t xml:space="preserve">12.246280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227754592896</t>
   </si>
   <si>
     <t xml:space="preserve">12.3011274337769</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">12.512674331665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5283460617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5361804962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0347337722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794794082642</t>
+    <t xml:space="preserve">12.5283451080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5361814498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0347328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970045089722</t>
+    <t xml:space="preserve">12.4970054626465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8025751113892</t>
@@ -1049,94 +1049,94 @@
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813365936279</t>
+    <t xml:space="preserve">12.5831918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813356399536</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7634000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772136688232</t>
+    <t xml:space="preserve">12.7633991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772127151489</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089628219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1130847930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697868347168</t>
+    <t xml:space="preserve">12.3089618682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1130838394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697858810425</t>
   </si>
   <si>
     <t xml:space="preserve">12.0660734176636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9015369415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1679315567017</t>
+    <t xml:space="preserve">11.901535987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541170120239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4891700744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6223678588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3324670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.591025352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9749460220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256698608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.280517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2335062026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9592790603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0611333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786584854126</t>
+    <t xml:space="preserve">12.4891691207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6223669052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3324680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.974946975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256689071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2805185317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2335042953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178354263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9592781066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0611343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786603927612</t>
   </si>
   <si>
     <t xml:space="preserve">12.8417501449585</t>
@@ -1148,154 +1148,154 @@
     <t xml:space="preserve">12.2932910919189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3951482772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048408508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6693773269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7320575714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7790679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850481033325</t>
+    <t xml:space="preserve">12.3951473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048389434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6693782806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7320585250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7790699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850490570068</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846405029297</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2570123672485</t>
+    <t xml:space="preserve">13.2570114135742</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123815536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3510332107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6801052093506</t>
+    <t xml:space="preserve">13.3118562698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238136291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510341644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6801071166992</t>
   </si>
   <si>
     <t xml:space="preserve">13.4450540542603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397045135498</t>
+    <t xml:space="preserve">14.2912425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397054672241</t>
   </si>
   <si>
     <t xml:space="preserve">15.0982627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0277481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176460266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.93372631073</t>
+    <t xml:space="preserve">15.0277452468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176469802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549657821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9337253570557</t>
   </si>
   <si>
     <t xml:space="preserve">14.8553743362427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221765518188</t>
+    <t xml:space="preserve">14.7221784591675</t>
   </si>
   <si>
     <t xml:space="preserve">15.1452722549438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669212341309</t>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669221878052</t>
   </si>
   <si>
     <t xml:space="preserve">15.1844482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4743509292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4351739883423</t>
+    <t xml:space="preserve">15.4743480682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.435173034668</t>
   </si>
   <si>
     <t xml:space="preserve">15.701566696167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7172365188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042428970337</t>
+    <t xml:space="preserve">15.7172346115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788776397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042409896851</t>
   </si>
   <si>
     <t xml:space="preserve">15.0904264450073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1374378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001209259033</t>
+    <t xml:space="preserve">15.1374368667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001180648804</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157897949219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3568239212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978561401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821825027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702280044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858968734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896102905273</t>
+    <t xml:space="preserve">15.3568210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978551864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918760299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702260971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.631049156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.889609336853</t>
   </si>
   <si>
     <t xml:space="preserve">15.5683708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8269300460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1403331756592</t>
+    <t xml:space="preserve">15.8269290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1403312683105</t>
   </si>
   <si>
     <t xml:space="preserve">14.8867149353027</t>
@@ -1304,61 +1304,61 @@
     <t xml:space="preserve">14.7926921844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8710451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390312194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548473358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267850875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0306482315063</t>
+    <t xml:space="preserve">14.8710441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390283584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750947952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149225234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548482894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0306463241577</t>
   </si>
   <si>
     <t xml:space="preserve">13.8945827484131</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0866737365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.254753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668060302734</t>
+    <t xml:space="preserve">14.0866727828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.286768913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547512054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668050765991</t>
   </si>
   <si>
     <t xml:space="preserve">14.5348854064941</t>
   </si>
   <si>
-    <t xml:space="preserve">14.550892829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907234191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192567825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273571014404</t>
+    <t xml:space="preserve">14.5508918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352632522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273551940918</t>
   </si>
   <si>
     <t xml:space="preserve">15.5753765106201</t>
@@ -1373,31 +1373,31 @@
     <t xml:space="preserve">15.5833797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8074903488159</t>
+    <t xml:space="preserve">15.807487487793</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073923110962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6954364776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351690292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391235351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870515823364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911012649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630399703979</t>
+    <t xml:space="preserve">15.6954355239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471267700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391254425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870496749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630409240723</t>
   </si>
   <si>
     <t xml:space="preserve">14.9991054534912</t>
@@ -1412,49 +1412,49 @@
     <t xml:space="preserve">15.6153974533081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5353584289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6554155349731</t>
+    <t xml:space="preserve">15.5353603363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6554174423218</t>
   </si>
   <si>
     <t xml:space="preserve">15.7114429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7434558868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034397125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6234006881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113477706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992948532104</t>
+    <t xml:space="preserve">15.7434568405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034387588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234016418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992938995361</t>
   </si>
   <si>
     <t xml:space="preserve">15.463324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4953413009644</t>
+    <t xml:space="preserve">15.4953422546387</t>
   </si>
   <si>
     <t xml:space="preserve">15.4233064651489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.367280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0711393356323</t>
+    <t xml:space="preserve">15.3672790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711402893066</t>
   </si>
   <si>
     <t xml:space="preserve">14.8230218887329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7349805831909</t>
+    <t xml:space="preserve">14.7349815368652</t>
   </si>
   <si>
     <t xml:space="preserve">14.7269763946533</t>
@@ -1463,49 +1463,49 @@
     <t xml:space="preserve">15.1031551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.239218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.462851524353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708566665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5749044418335</t>
+    <t xml:space="preserve">15.2392196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070135116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5749034881592</t>
   </si>
   <si>
     <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3107795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468421936035</t>
+    <t xml:space="preserve">14.3107786178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468441009521</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787647247314</t>
+    <t xml:space="preserve">14.2787628173828</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627573013306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2947731018066</t>
+    <t xml:space="preserve">14.2947721481323</t>
   </si>
   <si>
     <t xml:space="preserve">14.126690864563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747140884399</t>
+    <t xml:space="preserve">14.1747131347656</t>
   </si>
   <si>
     <t xml:space="preserve">14.2707605361938</t>
@@ -1514,49 +1514,49 @@
     <t xml:space="preserve">14.6389360427856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4308385848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347911834717</t>
+    <t xml:space="preserve">14.4308347702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588008880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347902297974</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587076187134</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9666156768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0466527938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.118688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346969604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386514663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2387456893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1106853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825298309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2862949371338</t>
+    <t xml:space="preserve">13.9666166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0466547012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1186866760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346960067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386505126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2387447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1106843948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.686484336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5584230422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
     <t xml:space="preserve">13.4863891601562</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667108535767</t>
+    <t xml:space="preserve">14.1667137145996</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865776062012</t>
@@ -1574,184 +1574,184 @@
     <t xml:space="preserve">13.7184982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3023023605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662378311157</t>
+    <t xml:space="preserve">13.3023014068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662368774414</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262178421021</t>
+    <t xml:space="preserve">13.1262187957764</t>
   </si>
   <si>
     <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1982536315918</t>
+    <t xml:space="preserve">13.1982526779175</t>
   </si>
   <si>
     <t xml:space="preserve">12.8460845947266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.006160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823394775391</t>
+    <t xml:space="preserve">13.0061616897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823385238647</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744304656982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984420776367</t>
+    <t xml:space="preserve">13.5184020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.566427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264081954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1742401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1502304077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741458892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.878101348877</t>
+    <t xml:space="preserve">13.5664262771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264072418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.174241065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1502294540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
     <t xml:space="preserve">13.1422252655029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8540887832642</t>
+    <t xml:space="preserve">12.8540878295898</t>
   </si>
   <si>
     <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9661426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8140697479248</t>
+    <t xml:space="preserve">12.9661417007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8140707015991</t>
   </si>
   <si>
     <t xml:space="preserve">12.9421310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7500410079956</t>
+    <t xml:space="preserve">12.750039100647</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4859142303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.573956489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2702865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706663131714</t>
+    <t xml:space="preserve">12.485915184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5739574432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2702856063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706653594971</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785743713379</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7104959487915</t>
+    <t xml:space="preserve">13.7104949951172</t>
   </si>
   <si>
     <t xml:space="preserve">13.3183088302612</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3103036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6064462661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.774525642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824337005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624717712402</t>
+    <t xml:space="preserve">13.2062549591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6064443588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7745246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624708175659</t>
   </si>
   <si>
     <t xml:space="preserve">13.8145446777344</t>
   </si>
   <si>
-    <t xml:space="preserve">13.950611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704769134521</t>
+    <t xml:space="preserve">13.9506092071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704750061035</t>
   </si>
   <si>
     <t xml:space="preserve">13.862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7665224075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985353469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103998184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7905330657959</t>
+    <t xml:space="preserve">13.7665214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986295700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7905311584473</t>
   </si>
   <si>
     <t xml:space="preserve">13.9826221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784801483154</t>
+    <t xml:space="preserve">14.0066347122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784791946411</t>
   </si>
   <si>
     <t xml:space="preserve">13.6224536895752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.646463394165</t>
+    <t xml:space="preserve">13.6464624404907</t>
   </si>
   <si>
     <t xml:space="preserve">13.9586133956909</t>
@@ -1760,34 +1760,34 @@
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265014648438</t>
+    <t xml:space="preserve">13.7265024185181</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705711364746</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0786695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384611129761</t>
+    <t xml:space="preserve">14.0786685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384620666504</t>
   </si>
   <si>
     <t xml:space="preserve">13.4303617477417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383668899536</t>
+    <t xml:space="preserve">13.4383678436279</t>
   </si>
   <si>
     <t xml:space="preserve">13.3743352890015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063520431519</t>
+    <t xml:space="preserve">13.4063491821289</t>
   </si>
   <si>
     <t xml:space="preserve">13.2462749481201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0301733016968</t>
+    <t xml:space="preserve">13.0301723480225</t>
   </si>
   <si>
     <t xml:space="preserve">12.9581394195557</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">13.4703807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
+    <t xml:space="preserve">13.4943943023682</t>
   </si>
   <si>
     <t xml:space="preserve">13.0381774902344</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8861045837402</t>
+    <t xml:space="preserve">12.8861055374146</t>
   </si>
   <si>
     <t xml:space="preserve">12.9901533126831</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8700971603394</t>
+    <t xml:space="preserve">12.8700952529907</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
@@ -1829,28 +1829,28 @@
     <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0221700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144495010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0665884017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2340497970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931369781494</t>
+    <t xml:space="preserve">13.0221691131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665893554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2340488433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931350708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.4098815917969</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950372695923</t>
+    <t xml:space="preserve">14.7699184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950391769409</t>
   </si>
   <si>
     <t xml:space="preserve">14.6694440841675</t>
@@ -1859,88 +1859,88 @@
     <t xml:space="preserve">14.5522222518921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5354776382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773420333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4349994659424</t>
+    <t xml:space="preserve">14.535475730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773410797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.435001373291</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3680171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708709716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141641616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4481296539307</t>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708681106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713443756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.448130607605</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318613052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876146316528</t>
+    <t xml:space="preserve">15.5318584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043621063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876184463501</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038848876953</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8536491394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806701660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.556978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4648752212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555494308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.992374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756269454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667802810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830505371094</t>
+    <t xml:space="preserve">14.85364818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806692123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569763183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4648733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816198348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923715591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.975625038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830457687378</t>
   </si>
   <si>
     <t xml:space="preserve">15.7411832809448</t>
@@ -1949,19 +1949,19 @@
     <t xml:space="preserve">15.7328109741211</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4983692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215839385986</t>
+    <t xml:space="preserve">15.4983673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215829849243</t>
   </si>
   <si>
     <t xml:space="preserve">15.1634492874146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0462255477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.079719543457</t>
+    <t xml:space="preserve">15.0462274551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797176361084</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
@@ -1970,124 +1970,124 @@
     <t xml:space="preserve">14.8787679672241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4015092849731</t>
+    <t xml:space="preserve">14.4015073776245</t>
   </si>
   <si>
     <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1299571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378522872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4266271591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684934616089</t>
+    <t xml:space="preserve">15.0294799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129958152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.426628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684906005859</t>
   </si>
   <si>
     <t xml:space="preserve">14.3094062805176</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1503200531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275768280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196826934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526956558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512706756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940885543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024608612061</t>
+    <t xml:space="preserve">14.1503190994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512697219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024618148804</t>
   </si>
   <si>
     <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7448015213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.138331413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.515115737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964670181274</t>
+    <t xml:space="preserve">14.7448024749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9122581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151138305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964641571045</t>
   </si>
   <si>
     <t xml:space="preserve">15.0629730224609</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9373788833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4397563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500337600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.724437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.875150680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993207931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6072158813477</t>
+    <t xml:space="preserve">14.9373798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4397573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500308990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751516342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993188858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.607213973999</t>
   </si>
   <si>
     <t xml:space="preserve">15.9002695083618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5988435745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490812301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486030578613</t>
+    <t xml:space="preserve">15.5988416671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54860496521</t>
   </si>
   <si>
     <t xml:space="preserve">15.4899959564209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.389518737793</t>
+    <t xml:space="preserve">15.3895177841187</t>
   </si>
   <si>
     <t xml:space="preserve">14.9792432785034</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3643980026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722978591919</t>
+    <t xml:space="preserve">15.3643999099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722969055176</t>
   </si>
   <si>
     <t xml:space="preserve">15.0211086273193</t>
@@ -2096,22 +2096,22 @@
     <t xml:space="preserve">14.92063331604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1048402786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.113208770752</t>
+    <t xml:space="preserve">15.1048374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132097244263</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471780776978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.230432510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1801929473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969385147095</t>
+    <t xml:space="preserve">15.2304334640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1801948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969394683838</t>
   </si>
   <si>
     <t xml:space="preserve">15.3057909011841</t>
@@ -2129,31 +2129,31 @@
     <t xml:space="preserve">15.1718215942383</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2136869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
+    <t xml:space="preserve">15.2136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220582962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067415237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672527313232</t>
   </si>
   <si>
     <t xml:space="preserve">15.6825723648071</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4732484817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337615966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7961769104004</t>
+    <t xml:space="preserve">15.4732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337635040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7961750030518</t>
   </si>
   <si>
     <t xml:space="preserve">16.637092590332</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">16.2435626983643</t>
   </si>
   <si>
-    <t xml:space="preserve">16.519868850708</t>
+    <t xml:space="preserve">16.5198707580566</t>
   </si>
   <si>
     <t xml:space="preserve">16.1179676055908</t>
@@ -2180,16 +2180,16 @@
     <t xml:space="preserve">16.0258636474609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2854290008545</t>
+    <t xml:space="preserve">16.2854270935059</t>
   </si>
   <si>
     <t xml:space="preserve">16.1765785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2100715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.670581817627</t>
+    <t xml:space="preserve">16.2100696563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6705837249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0928478240967</t>
+    <t xml:space="preserve">16.092845916748</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3021697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6957015991211</t>
+    <t xml:space="preserve">16.3021717071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6957035064697</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645889282227</t>
@@ -2225,37 +2225,37 @@
     <t xml:space="preserve">17.4827613830566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2483196258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5330009460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.03537940979</t>
+    <t xml:space="preserve">17.2483177185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0353775024414</t>
   </si>
   <si>
     <t xml:space="preserve">17.918155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856151580811</t>
+    <t xml:space="preserve">18.0856170654297</t>
   </si>
   <si>
     <t xml:space="preserve">18.0521221160889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669673919678</t>
+    <t xml:space="preserve">17.9516468048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669654846191</t>
   </si>
   <si>
     <t xml:space="preserve">17.8846645355225</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2028369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8679161071777</t>
+    <t xml:space="preserve">18.2028350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679180145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2264,19 +2264,19 @@
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.554500579834</t>
+    <t xml:space="preserve">18.4707717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4540271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5545024871826</t>
   </si>
   <si>
     <t xml:space="preserve">18.9229125976562</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">19.2410850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1908473968506</t>
+    <t xml:space="preserve">19.190845489502</t>
   </si>
   <si>
     <t xml:space="preserve">19.3248157501221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4420356750488</t>
+    <t xml:space="preserve">19.4420375823975</t>
   </si>
   <si>
     <t xml:space="preserve">19.3583087921143</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2745761871338</t>
+    <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2318,43 +2318,43 @@
     <t xml:space="preserve">18.5210094451904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1525974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8226337432861</t>
+    <t xml:space="preserve">18.1525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8226327896118</t>
   </si>
   <si>
     <t xml:space="preserve">13.7819080352783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998924255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3082666397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0235843658447</t>
+    <t xml:space="preserve">12.5175886154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998914718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3082647323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.023585319519</t>
   </si>
   <si>
     <t xml:space="preserve">11.6300554275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1156883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7269134521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1455631256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8860006332397</t>
+    <t xml:space="preserve">12.1156873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7269144058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687788009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.145562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8860015869141</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563129425049</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.991231918335</t>
+    <t xml:space="preserve">13.9912328720093</t>
   </si>
   <si>
     <t xml:space="preserve">14.2591686248779</t>
@@ -2372,79 +2372,79 @@
     <t xml:space="preserve">14.0917081832886</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0079784393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.89075756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1921844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656368255615</t>
+    <t xml:space="preserve">14.0079774856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8907566070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1921854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424230575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656387329102</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572654724121</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247268676758</t>
+    <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1419458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173042297363</t>
+    <t xml:space="preserve">14.1419467926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.217303276062</t>
   </si>
   <si>
     <t xml:space="preserve">14.2926597595215</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7316694259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6898059844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7986545562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9493675231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9828615188599</t>
+    <t xml:space="preserve">13.7316703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6898050308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7986536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9493684768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103578567505</t>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103559494019</t>
   </si>
   <si>
     <t xml:space="preserve">15.0354614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6503849029541</t>
+    <t xml:space="preserve">14.6503858566284</t>
   </si>
   <si>
     <t xml:space="preserve">14.9829511642456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1317300796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1229782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281358718872</t>
+    <t xml:space="preserve">15.1317310333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1229763031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281368255615</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
@@ -2456,25 +2456,25 @@
     <t xml:space="preserve">17.065860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3721714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0308513641357</t>
+    <t xml:space="preserve">17.3721694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0308532714844</t>
   </si>
   <si>
     <t xml:space="preserve">17.1358737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.496997833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4357376098633</t>
+    <t xml:space="preserve">16.4969959259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4357357025146</t>
   </si>
   <si>
     <t xml:space="preserve">16.2431964874268</t>
@@ -2489,16 +2489,16 @@
     <t xml:space="preserve">16.7595500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5670127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5845165252686</t>
+    <t xml:space="preserve">16.5670108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5845146179199</t>
   </si>
   <si>
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157917022705</t>
+    <t xml:space="preserve">16.7157897949219</t>
   </si>
   <si>
     <t xml:space="preserve">16.7858066558838</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">16.3307151794434</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4707412719727</t>
+    <t xml:space="preserve">16.4707431793213</t>
   </si>
   <si>
     <t xml:space="preserve">16.7945575714111</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2735958099365</t>
+    <t xml:space="preserve">18.2735977172852</t>
   </si>
   <si>
     <t xml:space="preserve">17.853515625</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3436107635498</t>
+    <t xml:space="preserve">18.3436088562012</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162059783936</t>
+    <t xml:space="preserve">18.8162040710449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4486312866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3786201477051</t>
+    <t xml:space="preserve">18.4486331939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3786182403564</t>
   </si>
   <si>
     <t xml:space="preserve">18.3961219787598</t>
@@ -2564,13 +2564,13 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8010025024414</t>
+    <t xml:space="preserve">17.8010063171387</t>
   </si>
   <si>
     <t xml:space="preserve">17.8885231018066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8360118865967</t>
+    <t xml:space="preserve">17.836009979248</t>
   </si>
   <si>
     <t xml:space="preserve">17.7309913635254</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437488555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1487693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4988403320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5513496398926</t>
+    <t xml:space="preserve">19.0437507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1487674713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4988422393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5513477325439</t>
   </si>
   <si>
     <t xml:space="preserve">19.2187824249268</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3938159942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4113216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.253791809082</t>
+    <t xml:space="preserve">19.39381980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4113235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2537899017334</t>
   </si>
   <si>
     <t xml:space="preserve">19.1137657165527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9562339782715</t>
+    <t xml:space="preserve">18.9562320709229</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
@@ -2648,22 +2648,22 @@
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337097167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061611175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611164093018</t>
+    <t xml:space="preserve">18.8337078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7461891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.606164932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611125946045</t>
   </si>
   <si>
     <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4136238098145</t>
+    <t xml:space="preserve">18.4136257171631</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664112091064</t>
+    <t xml:space="preserve">19.8664131164551</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463291168213</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7438850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489074707031</t>
+    <t xml:space="preserve">19.7438869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489093780518</t>
   </si>
   <si>
     <t xml:space="preserve">19.4813346862793</t>
@@ -2690,25 +2690,25 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912395477295</t>
+    <t xml:space="preserve">18.9912414550781</t>
   </si>
   <si>
     <t xml:space="preserve">19.1662731170654</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7636947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0087413787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2035827636719</t>
+    <t xml:space="preserve">18.763692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0087432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2035846710205</t>
   </si>
   <si>
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2408962249756</t>
+    <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
     <t xml:space="preserve">16.8820743560791</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034465789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0810585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.588659286499</t>
+    <t xml:space="preserve">17.5034446716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0810604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5886611938477</t>
   </si>
   <si>
     <t xml:space="preserve">18.0635547637939</t>
@@ -2732,22 +2732,22 @@
     <t xml:space="preserve">18.2210884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935417175293</t>
+    <t xml:space="preserve">18.1685771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935436248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060249328613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784801483154</t>
+    <t xml:space="preserve">17.6784820556641</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.765998840332</t>
+    <t xml:space="preserve">17.7659969329834</t>
   </si>
   <si>
     <t xml:space="preserve">17.5909652709961</t>
@@ -2756,52 +2756,52 @@
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285511016846</t>
+    <t xml:space="preserve">18.0285491943359</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1860809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5711574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362861633301</t>
+    <t xml:space="preserve">18.1860828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5711555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362880706787</t>
   </si>
   <si>
     <t xml:space="preserve">19.9714317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2864952087402</t>
+    <t xml:space="preserve">20.2864933013916</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2316818237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7042713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8968105316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9143142700195</t>
+    <t xml:space="preserve">21.2316799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.704273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8968124389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9143161773682</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793067932129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0368404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668254852295</t>
+    <t xml:space="preserve">22.0368385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
     <t xml:space="preserve">22.1593627929688</t>
@@ -2810,25 +2810,25 @@
     <t xml:space="preserve">21.9318180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2293758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4219169616699</t>
+    <t xml:space="preserve">22.229377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
     <t xml:space="preserve">22.9470176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4721183776855</t>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4569225311279</t>
+    <t xml:space="preserve">23.8747024536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4569206237793</t>
   </si>
   <si>
     <t xml:space="preserve">22.1243572235107</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8594989776611</t>
+    <t xml:space="preserve">22.5444393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8595008850098</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">22.7719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1220512390137</t>
+    <t xml:space="preserve">23.1220531463623</t>
   </si>
   <si>
     <t xml:space="preserve">23.4546165466309</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">21.9493236541748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7742881774902</t>
+    <t xml:space="preserve">21.7742862701416</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919281005859</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">22.0018310546875</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4417209625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7590866088867</t>
+    <t xml:space="preserve">21.441722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7590885162354</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
@@ -2888,16 +2888,16 @@
     <t xml:space="preserve">20.4615268707275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4394187927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2118721008301</t>
+    <t xml:space="preserve">20.0414447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.439416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2118740081787</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940940856934</t>
+    <t xml:space="preserve">20.7940921783447</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5292377471924</t>
+    <t xml:space="preserve">21.529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">21.7567844390869</t>
@@ -2921,28 +2921,28 @@
     <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2643852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5969486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3168926239014</t>
+    <t xml:space="preserve">22.26438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5969467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.31689453125</t>
   </si>
   <si>
     <t xml:space="preserve">22.2468814849854</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0893497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3343963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1068534851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7217750549316</t>
+    <t xml:space="preserve">22.0893478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3343982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1068515777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841911315918</t>
+    <t xml:space="preserve">21.2841892242432</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869075775146</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4767303466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3915138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9166164398193</t>
+    <t xml:space="preserve">21.4767284393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3915119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.916618347168</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
@@ -2993,22 +2993,22 @@
     <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5774002075195</t>
+    <t xml:space="preserve">22.5774021148682</t>
   </si>
   <si>
     <t xml:space="preserve">22.3066864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4871635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4691143035889</t>
+    <t xml:space="preserve">22.4871616363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4691162109375</t>
   </si>
   <si>
     <t xml:space="preserve">22.4149723052979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6856861114502</t>
+    <t xml:space="preserve">22.6856842041016</t>
   </si>
   <si>
     <t xml:space="preserve">22.7398281097412</t>
@@ -3020,10 +3020,10 @@
     <t xml:space="preserve">22.8842067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5593528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8300647735596</t>
+    <t xml:space="preserve">22.5593509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8300628662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
@@ -3032,22 +3032,22 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.353443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.317346572876</t>
+    <t xml:space="preserve">23.3534393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3173484802246</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9203014373779</t>
+    <t xml:space="preserve">22.9203033447266</t>
   </si>
   <si>
     <t xml:space="preserve">23.0105381011963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6134948730469</t>
+    <t xml:space="preserve">22.6134929656982</t>
   </si>
   <si>
     <t xml:space="preserve">22.7037334442139</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">23.2812519073486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6315422058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0540218353271</t>
+    <t xml:space="preserve">22.6315441131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0540237426758</t>
   </si>
   <si>
     <t xml:space="preserve">22.0901184082031</t>
@@ -3092,31 +3092,31 @@
     <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
-    <t xml:space="preserve">23.570011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9457397460938</t>
+    <t xml:space="preserve">23.5700130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9457378387451</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5052089691162</t>
+    <t xml:space="preserve">22.5052108764648</t>
   </si>
   <si>
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969268798828</t>
+    <t xml:space="preserve">22.3969249725342</t>
   </si>
   <si>
     <t xml:space="preserve">22.8120174407959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0466346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5413055419922</t>
+    <t xml:space="preserve">23.0466365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5413036346436</t>
   </si>
   <si>
     <t xml:space="preserve">22.3247356414795</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">22.2344989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5232563018799</t>
+    <t xml:space="preserve">22.5232582092285</t>
   </si>
   <si>
     <t xml:space="preserve">23.2090606689453</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.172966003418</t>
+    <t xml:space="preserve">23.1729679107666</t>
   </si>
   <si>
     <t xml:space="preserve">23.0285873413086</t>
@@ -3155,16 +3155,16 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4617252349854</t>
+    <t xml:space="preserve">23.461727142334</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.804630279541</t>
+    <t xml:space="preserve">23.2992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8046283721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
@@ -3173,28 +3173,28 @@
     <t xml:space="preserve">23.5519638061523</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8948669433594</t>
+    <t xml:space="preserve">23.8948650360107</t>
   </si>
   <si>
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572948455811</t>
+    <t xml:space="preserve">24.0572910308838</t>
   </si>
   <si>
     <t xml:space="preserve">24.5265274047852</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1581897735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8333339691162</t>
+    <t xml:space="preserve">25.1581916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8333358764648</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3206157684326</t>
+    <t xml:space="preserve">25.3206176757812</t>
   </si>
   <si>
     <t xml:space="preserve">26.6922245025635</t>
@@ -3212,34 +3212,34 @@
     <t xml:space="preserve">27.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.15407371521</t>
+    <t xml:space="preserve">27.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1540718078613</t>
   </si>
   <si>
     <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3345470428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2443084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4863128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2804050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9014072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8472652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0999279022217</t>
+    <t xml:space="preserve">28.334545135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2443103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4863147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.280403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9014091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8472671508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0999298095703</t>
   </si>
   <si>
     <t xml:space="preserve">27.7570285797119</t>
@@ -3257,19 +3257,19 @@
     <t xml:space="preserve">26.4756565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5839405059814</t>
+    <t xml:space="preserve">26.6380825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5839385986328</t>
   </si>
   <si>
     <t xml:space="preserve">26.2590885162354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2951812744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6019878387451</t>
+    <t xml:space="preserve">26.2951793670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6019897460938</t>
   </si>
   <si>
     <t xml:space="preserve">26.1688480377197</t>
@@ -3281,13 +3281,13 @@
     <t xml:space="preserve">26.8727016448975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8079013824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5913314819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7537593841553</t>
+    <t xml:space="preserve">25.8078994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.591329574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7537574768066</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">25.6093769073486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7718029022217</t>
+    <t xml:space="preserve">25.7718048095703</t>
   </si>
   <si>
     <t xml:space="preserve">25.3386650085449</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">25.843994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.880090713501</t>
+    <t xml:space="preserve">25.8800888061523</t>
   </si>
   <si>
     <t xml:space="preserve">25.6274242401123</t>
@@ -3329,19 +3329,19 @@
     <t xml:space="preserve">25.699613571167</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5117511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8620414733887</t>
+    <t xml:space="preserve">26.5117492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8620433807373</t>
   </si>
   <si>
     <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8694286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2738628387451</t>
+    <t xml:space="preserve">24.8694305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2738647460938</t>
   </si>
   <si>
     <t xml:space="preserve">24.1294822692871</t>
@@ -3350,28 +3350,28 @@
     <t xml:space="preserve">23.9670562744141</t>
   </si>
   <si>
-    <t xml:space="preserve">23.606107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549205780029</t>
+    <t xml:space="preserve">23.6061058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549186706543</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">23.118824005127</t>
+    <t xml:space="preserve">23.1188259124756</t>
   </si>
   <si>
     <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4330196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9022560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510688781738</t>
+    <t xml:space="preserve">22.4330215454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9022541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510669708252</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217788696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652626037598</t>
+    <t xml:space="preserve">22.7217807769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652645111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.1442604064941</t>
@@ -3395,40 +3395,40 @@
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4765014648438</t>
+    <t xml:space="preserve">21.476505279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949010848999</t>
+    <t xml:space="preserve">23.9490089416504</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957637786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.093391418457</t>
+    <t xml:space="preserve">24.9957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0933895111084</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309616088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5732803344727</t>
+    <t xml:space="preserve">23.9309635162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5732822418213</t>
   </si>
   <si>
     <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493251800537</t>
+    <t xml:space="preserve">26.3854198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493232727051</t>
   </si>
   <si>
     <t xml:space="preserve">25.735710144043</t>
@@ -3449,10 +3449,10 @@
     <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1614627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9194564819336</t>
+    <t xml:space="preserve">27.1614608764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.919454574585</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
@@ -3467,25 +3467,25 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233062744141</t>
+    <t xml:space="preserve">28.6233043670654</t>
   </si>
   <si>
     <t xml:space="preserve">28.6774482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3886871337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5691661834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7315921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271598815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1105880737305</t>
+    <t xml:space="preserve">28.3886890411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.569164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7315902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1105861663818</t>
   </si>
   <si>
     <t xml:space="preserve">29.0744953155518</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6881084442139</t>
+    <t xml:space="preserve">29.6881103515625</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
@@ -3509,13 +3509,13 @@
     <t xml:space="preserve">28.7676849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8759727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4247856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.208215713501</t>
+    <t xml:space="preserve">28.8759708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.424783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2082138061523</t>
   </si>
   <si>
     <t xml:space="preserve">26.8366050720215</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">28.460880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3813018798828</t>
+    <t xml:space="preserve">29.3812999725342</t>
   </si>
   <si>
     <t xml:space="preserve">30.1392974853516</t>
@@ -3542,10 +3542,10 @@
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739147186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6807193756104</t>
+    <t xml:space="preserve">30.3739128112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.680721282959</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812496185303</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115482330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.29248046875</t>
+    <t xml:space="preserve">31.8115501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2924766540527</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436443328857</t>
+    <t xml:space="preserve">30.6436462402344</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548732757568</t>
+    <t xml:space="preserve">30.7548713684082</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229801177979</t>
+    <t xml:space="preserve">28.6229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375991821289</t>
+    <t xml:space="preserve">28.4375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.473611831665</t>
+    <t xml:space="preserve">27.4736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.788761138916</t>
+    <t xml:space="preserve">27.7887592315674</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5488262176514</t>
+    <t xml:space="preserve">28.548828125</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.030818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381275177002</t>
+    <t xml:space="preserve">29.0308208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381294250488</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3653,13 +3653,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718181610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.179126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892913818359</t>
+    <t xml:space="preserve">29.2718162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892932891846</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522163391113</t>
+    <t xml:space="preserve">28.2522144317627</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.160587310791</t>
+    <t xml:space="preserve">29.1605854034424</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3695,13 +3695,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037113189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851737976074</t>
+    <t xml:space="preserve">31.4037094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149402618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851718902588</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857040405273</t>
+    <t xml:space="preserve">31.8857021331787</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3728,16 +3728,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081581115723</t>
+    <t xml:space="preserve">32.1081619262695</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274307250977</t>
+    <t xml:space="preserve">31.4778614044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274326324463</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.920654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094234466553</t>
+    <t xml:space="preserve">29.9206523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094253540039</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3779,19 +3779,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393928527832</t>
+    <t xml:space="preserve">29.4942760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393909454346</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944751739502</t>
+    <t xml:space="preserve">26.0276336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607883453369</t>
+    <t xml:space="preserve">25.8607864379883</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2304878234863</t>
+    <t xml:space="preserve">25.3787937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.230489730835</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3830,13 +3830,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179973602295</t>
+    <t xml:space="preserve">27.4179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600551605225</t>
+    <t xml:space="preserve">28.6600570678711</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.84543800354</t>
+    <t xml:space="preserve">28.8454399108887</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746723175049</t>
+    <t xml:space="preserve">28.4746742248535</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3872,22 +3872,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4005222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443775177002</t>
+    <t xml:space="preserve">28.400520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443756103516</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9185276031494</t>
+    <t xml:space="preserve">27.918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6589946746826</t>
+    <t xml:space="preserve">27.658992767334</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702217102051</t>
+    <t xml:space="preserve">27.7702236175537</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.343843460083</t>
+    <t xml:space="preserve">27.3438453674316</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3932,16 +3932,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090923309326</t>
+    <t xml:space="preserve">26.0090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6568698883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495613098145</t>
+    <t xml:space="preserve">25.656867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495594024658</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3953,7 +3953,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383285522461</t>
+    <t xml:space="preserve">25.6383304595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3962,7 +3962,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237113952637</t>
+    <t xml:space="preserve">25.8237133026123</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096263885498</t>
+    <t xml:space="preserve">26.5096244812012</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012535095215</t>
+    <t xml:space="preserve">25.6012554168701</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4007,10 +4007,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007232666016</t>
+    <t xml:space="preserve">24.7114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007213592529</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962688446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108879089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445766448975</t>
+    <t xml:space="preserve">24.3962707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445747375488</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0821838378906</t>
+    <t xml:space="preserve">25.082181930542</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4055,22 +4055,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8968029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3602561950684</t>
+    <t xml:space="preserve">24.896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.360258102417</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.675407409668</t>
+    <t xml:space="preserve">25.6754055023193</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950073242188</t>
+    <t xml:space="preserve">26.6950054168701</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4082,13 +4082,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816516876221</t>
+    <t xml:space="preserve">25.7866363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816535949707</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714870452881</t>
+    <t xml:space="preserve">25.4714851379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>
@@ -4731,6 +4731,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.4799995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5799999237061</t>
   </si>
 </sst>
 </file>
@@ -61778,7 +61781,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6494097222</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>161014</v>
@@ -61799,6 +61802,32 @@
         <v>1572</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.649537037</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>175014</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>24.7800006866455</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>24.4799995422363</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>24.4799995422363</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>24.5799999237061</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1575">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55665111541748</t>
+    <t xml:space="preserve">8.79373550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55665016174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.32674789428711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26927185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830093383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101917266846</t>
+    <t xml:space="preserve">8.26927280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57101726531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.53509616851807</t>
@@ -68,22 +68,22 @@
     <t xml:space="preserve">8.47762107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36266994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09684658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053573608398</t>
+    <t xml:space="preserve">8.36267185211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09684562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29082679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189449310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247661590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053478240967</t>
   </si>
   <si>
     <t xml:space="preserve">8.38422393798828</t>
@@ -95,79 +95,79 @@
     <t xml:space="preserve">8.27645683288574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26208782196045</t>
+    <t xml:space="preserve">8.26208877563477</t>
   </si>
   <si>
     <t xml:space="preserve">8.1902437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11121654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859651565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480962753296</t>
+    <t xml:space="preserve">8.11121463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325706481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859603881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480867385864</t>
   </si>
   <si>
     <t xml:space="preserve">8.01063346862793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20461368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92441987991333</t>
+    <t xml:space="preserve">8.20461273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558364868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820581436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500438690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073167800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92442083358765</t>
   </si>
   <si>
     <t xml:space="preserve">7.93878889083862</t>
   </si>
   <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587471008301</t>
+    <t xml:space="preserve">8.04655456542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587566375732</t>
   </si>
   <si>
     <t xml:space="preserve">8.08966255187988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07529354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160390853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471189498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10403060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839962005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898078918457</t>
+    <t xml:space="preserve">8.07529258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276767730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9747109413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403156280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21898174285889</t>
   </si>
   <si>
     <t xml:space="preserve">8.33393287658691</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">8.59975624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70033645629883</t>
+    <t xml:space="preserve">8.70033740997314</t>
   </si>
   <si>
     <t xml:space="preserve">8.68596935272217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59257030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228019714355</t>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228210449219</t>
   </si>
   <si>
     <t xml:space="preserve">8.40577602386475</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">8.31237888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36985301971436</t>
+    <t xml:space="preserve">8.36985397338867</t>
   </si>
   <si>
     <t xml:space="preserve">8.34111499786377</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">8.49917411804199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54946517944336</t>
+    <t xml:space="preserve">8.54946422576904</t>
   </si>
   <si>
     <t xml:space="preserve">8.45606803894043</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">8.22616577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19742774963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432262420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16150760650635</t>
+    <t xml:space="preserve">8.19742679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432357788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16150569915771</t>
   </si>
   <si>
     <t xml:space="preserve">8.23335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03218555450439</t>
+    <t xml:space="preserve">8.03218650817871</t>
   </si>
   <si>
     <t xml:space="preserve">7.99626445770264</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">8.30519390106201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07527256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273723602295</t>
+    <t xml:space="preserve">8.07527446746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
     <t xml:space="preserve">8.248046875</t>
@@ -257,61 +257,61 @@
     <t xml:space="preserve">8.28560638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3306770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302364349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790271759033</t>
+    <t xml:space="preserve">8.33067798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14288139343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
     <t xml:space="preserve">8.16541576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21048831939697</t>
+    <t xml:space="preserve">8.21048736572266</t>
   </si>
   <si>
     <t xml:space="preserve">8.15039253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01517772674561</t>
+    <t xml:space="preserve">8.01517868041992</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178651809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530595779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
+    <t xml:space="preserve">7.51188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530643463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286403656006</t>
   </si>
   <si>
     <t xml:space="preserve">7.84991693496704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82738018035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69967937469482</t>
+    <t xml:space="preserve">7.82738208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967889785767</t>
   </si>
   <si>
     <t xml:space="preserve">7.76728677749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30906105041504</t>
+    <t xml:space="preserve">7.30906009674072</t>
   </si>
   <si>
     <t xml:space="preserve">7.13253259658813</t>
@@ -320,97 +320,97 @@
     <t xml:space="preserve">7.40295934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54944133758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484580993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94005870819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65460681915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4668116569519</t>
+    <t xml:space="preserve">7.54944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.804847240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94005918502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65460729598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.339111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681118011475</t>
   </si>
   <si>
     <t xml:space="preserve">7.57948970794678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54193067550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60202503204346</t>
+    <t xml:space="preserve">7.54192876815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202550888062</t>
   </si>
   <si>
     <t xml:space="preserve">7.75977468490601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68465518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211938858032</t>
+    <t xml:space="preserve">7.68465423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66212034225464</t>
   </si>
   <si>
     <t xml:space="preserve">7.63207149505615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74475145339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958406448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479982376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685764312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456035614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719242095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714357376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986999511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742998123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953664779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197713851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50437116622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807788848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310207366943</t>
+    <t xml:space="preserve">7.7447509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6395845413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4968581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456130981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719003677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986808776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742902755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953712463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197618484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310255050659</t>
   </si>
   <si>
     <t xml:space="preserve">7.47056579589844</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">7.91752433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87996530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757080078125</t>
+    <t xml:space="preserve">7.87996578216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757127761841</t>
   </si>
   <si>
     <t xml:space="preserve">8.09029769897461</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">7.75226259231567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81235790252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245321273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7147045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7222146987915</t>
+    <t xml:space="preserve">7.81235647201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470355987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221565246582</t>
   </si>
   <si>
     <t xml:space="preserve">7.6696310043335</t>
@@ -452,40 +452,40 @@
     <t xml:space="preserve">7.64709615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44427585601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169263839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700132369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554304122925</t>
+    <t xml:space="preserve">7.44427442550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700227737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554208755493</t>
   </si>
   <si>
     <t xml:space="preserve">7.38417911529541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652715682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812578201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441762924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403781890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9259557723999</t>
+    <t xml:space="preserve">7.2865252494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5081262588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5344181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595624923706</t>
   </si>
   <si>
     <t xml:space="preserve">7.02736616134644</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">6.98605108261108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9710259437561</t>
+    <t xml:space="preserve">6.97102689743042</t>
   </si>
   <si>
     <t xml:space="preserve">7.04990100860596</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">6.92220067977905</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84332466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975971221924</t>
+    <t xml:space="preserve">6.84332418441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975923538208</t>
   </si>
   <si>
     <t xml:space="preserve">6.94849109649658</t>
@@ -515,61 +515,61 @@
     <t xml:space="preserve">6.92971134185791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215183258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581304550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7944974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074096679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0311222076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0198540687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01609897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384815216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432231903076</t>
+    <t xml:space="preserve">6.83956909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449796676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074192047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112077713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01985454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17384672164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638395309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432327270508</t>
   </si>
   <si>
     <t xml:space="preserve">7.5644645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695295333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7898211479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78231000900269</t>
+    <t xml:space="preserve">7.72972774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695390701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982257843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230953216553</t>
   </si>
   <si>
     <t xml:space="preserve">7.88747549057007</t>
@@ -578,49 +578,49 @@
     <t xml:space="preserve">7.98513078689575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79733467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9776177406311</t>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761869430542</t>
   </si>
   <si>
     <t xml:space="preserve">8.04522609710693</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06776237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10532283782959</t>
+    <t xml:space="preserve">8.06776142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532188415527</t>
   </si>
   <si>
     <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9550838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799850463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49593925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307010650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25555801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091602325439</t>
+    <t xml:space="preserve">7.95508241653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311847686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297622680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799945831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49593830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26307106018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091411590576</t>
   </si>
   <si>
     <t xml:space="preserve">8.56354522705078</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">8.69876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76636695861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7738790512085</t>
+    <t xml:space="preserve">8.76636600494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77388000488281</t>
   </si>
   <si>
     <t xml:space="preserve">8.72880744934082</t>
@@ -644,28 +644,28 @@
     <t xml:space="preserve">8.78890228271484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75134181976318</t>
+    <t xml:space="preserve">8.7513427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86402034759521</t>
+    <t xml:space="preserve">8.86402130126953</t>
   </si>
   <si>
     <t xml:space="preserve">8.8790454864502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88655757904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660404205322</t>
+    <t xml:space="preserve">8.88655662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660499572754</t>
   </si>
   <si>
     <t xml:space="preserve">8.99172401428223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9691858291626</t>
+    <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.9391393661499</t>
@@ -707,25 +707,25 @@
     <t xml:space="preserve">8.90909290313721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9616756439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8565092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10440158843994</t>
+    <t xml:space="preserve">8.96167469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85651016235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
     <t xml:space="preserve">9.26110363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30811500549316</t>
+    <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
     <t xml:space="preserve">9.28460884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38646411895752</t>
+    <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
     <t xml:space="preserve">9.42564010620117</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">9.36295890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44914627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41780662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481513977051</t>
+    <t xml:space="preserve">9.44914722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41780567169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481704711914</t>
   </si>
   <si>
     <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53533363342285</t>
+    <t xml:space="preserve">9.53533172607422</t>
   </si>
   <si>
     <t xml:space="preserve">9.80172634124756</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73121070861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74687957763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77822113037109</t>
+    <t xml:space="preserve">9.73121166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74688053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77821922302246</t>
   </si>
   <si>
     <t xml:space="preserve">9.79388999938965</t>
@@ -773,25 +773,25 @@
     <t xml:space="preserve">9.69987010955811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84873676300049</t>
+    <t xml:space="preserve">9.8487377166748</t>
   </si>
   <si>
     <t xml:space="preserve">9.80956172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71553897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69203472137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62151908874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64502429962158</t>
+    <t xml:space="preserve">9.71553993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6920337677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6215181350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64502334594727</t>
   </si>
   <si>
     <t xml:space="preserve">9.58234310150146</t>
@@ -800,28 +800,28 @@
     <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55100345611572</t>
+    <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
     <t xml:space="preserve">9.558837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72337436676025</t>
+    <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
     <t xml:space="preserve">9.77038669586182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75471591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399112701416</t>
+    <t xml:space="preserve">9.75471496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079429626465</t>
@@ -830,67 +830,67 @@
     <t xml:space="preserve">9.63718891143799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67636489868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70770454406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8330659866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0211095809937</t>
+    <t xml:space="preserve">9.67636394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7077054977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83306694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.021110534668</t>
   </si>
   <si>
     <t xml:space="preserve">10.1543054580688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3266792297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2561626434326</t>
+    <t xml:space="preserve">10.326678276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2561635971069</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072950363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953395843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893613815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4285364151001</t>
+    <t xml:space="preserve">10.1072959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893604278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
     <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5695657730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6165781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6244134902954</t>
+    <t xml:space="preserve">10.5695676803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6165790557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6244125366211</t>
   </si>
   <si>
     <t xml:space="preserve">10.5225563049316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.483380317688</t>
+    <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
     <t xml:space="preserve">10.5068855285645</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">10.5852375030518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5382280349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5460615158081</t>
+    <t xml:space="preserve">10.5382270812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
     <t xml:space="preserve">10.5147218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7027645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0004987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0475101470947</t>
+    <t xml:space="preserve">10.7027635574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0004978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0475091934204</t>
   </si>
   <si>
     <t xml:space="preserve">11.0318384170532</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">10.976993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240039825439</t>
+    <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
     <t xml:space="preserve">11.0161695480347</t>
@@ -953,37 +953,37 @@
     <t xml:space="preserve">10.9926624298096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2433891296387</t>
+    <t xml:space="preserve">11.24338722229</t>
   </si>
   <si>
     <t xml:space="preserve">11.3139028549194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.21204662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3765840530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840099334717</t>
+    <t xml:space="preserve">11.2120475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3765850067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941120147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.784010887146</t>
   </si>
   <si>
     <t xml:space="preserve">11.8466901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9250411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7291631698608</t>
+    <t xml:space="preserve">11.9250431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411195755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7291641235352</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605047225952</t>
@@ -992,88 +992,88 @@
     <t xml:space="preserve">11.9485473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172067642212</t>
+    <t xml:space="preserve">11.8388538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172058105469</t>
   </si>
   <si>
     <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9642171859741</t>
+    <t xml:space="preserve">11.9642181396484</t>
   </si>
   <si>
     <t xml:space="preserve">12.0739088058472</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1600961685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2462825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227764129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011274337769</t>
+    <t xml:space="preserve">12.1600952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.246280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011264801025</t>
   </si>
   <si>
     <t xml:space="preserve">12.5126752853394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5283460617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5361814498901</t>
+    <t xml:space="preserve">12.5283451080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347328186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794794082642</t>
+    <t xml:space="preserve">12.3794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8025741577148</t>
+    <t xml:space="preserve">12.4970045089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8025751113892</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831899642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813346862793</t>
+    <t xml:space="preserve">12.5831909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813356399536</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7633991241455</t>
+    <t xml:space="preserve">12.7634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">12.6772127151489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6458730697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3089618682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1130838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660724639893</t>
+    <t xml:space="preserve">12.6458721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3089628219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1130847930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660743713379</t>
   </si>
   <si>
     <t xml:space="preserve">11.9015369415283</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">12.1679306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541160583496</t>
+    <t xml:space="preserve">12.2541170120239</t>
   </si>
   <si>
     <t xml:space="preserve">12.4891691207886</t>
@@ -1091,25 +1091,25 @@
     <t xml:space="preserve">12.6223669052124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3324670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.591025352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9201002120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.974946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671115875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256689071655</t>
+    <t xml:space="preserve">12.3324680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910272598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9201011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9749460220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256698608398</t>
   </si>
   <si>
     <t xml:space="preserve">13.280517578125</t>
@@ -1118,25 +1118,25 @@
     <t xml:space="preserve">13.2021646499634</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2335042953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1003084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9592771530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0611343383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417491912842</t>
+    <t xml:space="preserve">13.2335052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178354263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9592781066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0611324310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417501449585</t>
   </si>
   <si>
     <t xml:space="preserve">12.2619514465332</t>
@@ -1151,145 +1151,145 @@
     <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6693773269653</t>
+    <t xml:space="preserve">12.669376373291</t>
   </si>
   <si>
     <t xml:space="preserve">12.7320585250854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7790689468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846395492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2570114135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1081428527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3118553161621</t>
+    <t xml:space="preserve">12.7790679931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850481033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846376419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2570095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1081438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3118572235107</t>
   </si>
   <si>
     <t xml:space="preserve">13.1238136291504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3510322570801</t>
+    <t xml:space="preserve">13.3510341644287</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4450531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397045135498</t>
+    <t xml:space="preserve">13.4450540542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397035598755</t>
   </si>
   <si>
     <t xml:space="preserve">15.0982618331909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0277462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0825910568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176460266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.933723449707</t>
+    <t xml:space="preserve">15.0277490615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9337244033813</t>
   </si>
   <si>
     <t xml:space="preserve">14.8553733825684</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452722549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669193267822</t>
+    <t xml:space="preserve">14.7221794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669221878052</t>
   </si>
   <si>
     <t xml:space="preserve">15.1844482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4743461608887</t>
+    <t xml:space="preserve">15.4743490219116</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4351711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015657424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788805007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042428970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904264450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001218795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157897949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3568229675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702251434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.631049156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858978271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896102905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269281387329</t>
+    <t xml:space="preserve">15.4351720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.701566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172346115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042400360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.090428352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374368667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001180648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157878875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3568210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918760299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702260971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.889612197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269300460815</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
@@ -1298,112 +1298,112 @@
     <t xml:space="preserve">14.8867139816284</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7926940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390293121338</t>
+    <t xml:space="preserve">14.7926931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390312194824</t>
   </si>
   <si>
     <t xml:space="preserve">14.9750938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6149206161499</t>
+    <t xml:space="preserve">14.6149234771729</t>
   </si>
   <si>
     <t xml:space="preserve">14.4548463821411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3267860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0306482315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8945827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866737365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867670059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2547540664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668069839478</t>
+    <t xml:space="preserve">14.3267869949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.030647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8945817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866746902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467470169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547521591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668060302734</t>
   </si>
   <si>
     <t xml:space="preserve">14.5348844528198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.550892829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1907215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.335262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192548751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273561477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152080535889</t>
+    <t xml:space="preserve">14.5508947372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1907234191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192567825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753765106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152090072632</t>
   </si>
   <si>
     <t xml:space="preserve">15.4713277816772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5833806991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8074865341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954374313354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351699829102</t>
+    <t xml:space="preserve">15.5833797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8074884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073923110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471258163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351680755615</t>
   </si>
   <si>
     <t xml:space="preserve">15.0391254425049</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8870525360107</t>
+    <t xml:space="preserve">14.8870515823364</t>
   </si>
   <si>
     <t xml:space="preserve">14.9911012649536</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8630390167236</t>
+    <t xml:space="preserve">14.8630399703979</t>
   </si>
   <si>
     <t xml:space="preserve">14.9991054534912</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1191606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793329238892</t>
+    <t xml:space="preserve">15.119161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793348312378</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153974533081</t>
@@ -1415,76 +1415,76 @@
     <t xml:space="preserve">15.6554155349731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114419937134</t>
+    <t xml:space="preserve">15.7114429473877</t>
   </si>
   <si>
     <t xml:space="preserve">15.7434577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7034397125244</t>
+    <t xml:space="preserve">15.7034378051758</t>
   </si>
   <si>
     <t xml:space="preserve">15.6234006881714</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5113487243652</t>
+    <t xml:space="preserve">15.5113477706909</t>
   </si>
   <si>
     <t xml:space="preserve">15.3992948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4633255004883</t>
+    <t xml:space="preserve">15.463324546814</t>
   </si>
   <si>
     <t xml:space="preserve">15.4953393936157</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4233055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071138381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230228424072</t>
+    <t xml:space="preserve">15.4233064651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.367280960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711393356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230218887329</t>
   </si>
   <si>
     <t xml:space="preserve">14.7349786758423</t>
   </si>
   <si>
-    <t xml:space="preserve">14.726975440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1031522750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.239218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070154190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628505706787</t>
+    <t xml:space="preserve">14.7269763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1031551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2392206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628496170044</t>
   </si>
   <si>
     <t xml:space="preserve">14.470853805542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3748092651367</t>
+    <t xml:space="preserve">14.3748073577881</t>
   </si>
   <si>
     <t xml:space="preserve">14.5749044418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.422833442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107767105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468431472778</t>
+    <t xml:space="preserve">14.4228315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468421936035</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427934646606</t>
@@ -1493,73 +1493,73 @@
     <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2627573013306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.294771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1266918182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1747131347656</t>
+    <t xml:space="preserve">14.2627563476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2947702407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126690864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1747140884399</t>
   </si>
   <si>
     <t xml:space="preserve">14.2707605361938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.63893699646</t>
+    <t xml:space="preserve">14.6389360427856</t>
   </si>
   <si>
     <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3588018417358</t>
+    <t xml:space="preserve">14.3588027954102</t>
   </si>
   <si>
     <t xml:space="preserve">14.3347902297974</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666156768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0466527938843</t>
+    <t xml:space="preserve">14.1587076187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.04665184021</t>
   </si>
   <si>
     <t xml:space="preserve">14.118688583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346960067749</t>
+    <t xml:space="preserve">14.1346940994263</t>
   </si>
   <si>
     <t xml:space="preserve">14.0386514663696</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2387456893921</t>
+    <t xml:space="preserve">14.2387475967407</t>
   </si>
   <si>
     <t xml:space="preserve">14.1106853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">13.686484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584230422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2862930297852</t>
+    <t xml:space="preserve">13.6864833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825269699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5584239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
     <t xml:space="preserve">13.4863882064819</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3903427124023</t>
+    <t xml:space="preserve">13.3903436660767</t>
   </si>
   <si>
     <t xml:space="preserve">14.166711807251</t>
@@ -1571,43 +1571,43 @@
     <t xml:space="preserve">13.7184982299805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3023014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662368774414</t>
+    <t xml:space="preserve">13.3023023605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662378311157</t>
   </si>
   <si>
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982526779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460836410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0061616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823394775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5744304656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184030532837</t>
+    <t xml:space="preserve">13.1262178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.222264289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460845947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823385238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5744285583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.518404006958</t>
   </si>
   <si>
     <t xml:space="preserve">13.5984411239624</t>
@@ -1619,16 +1619,16 @@
     <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5264081954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1742391586304</t>
+    <t xml:space="preserve">13.5264072418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
     <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9741449356079</t>
+    <t xml:space="preserve">12.9741458892822</t>
   </si>
   <si>
     <t xml:space="preserve">12.878101348877</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">13.1422252655029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8540887832642</t>
+    <t xml:space="preserve">12.8540878295898</t>
   </si>
   <si>
     <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9661426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8140707015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9421310424805</t>
+    <t xml:space="preserve">12.9661436080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8140697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9421300888062</t>
   </si>
   <si>
     <t xml:space="preserve">12.7500400543213</t>
@@ -1658,31 +1658,31 @@
     <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
-    <t xml:space="preserve">12.485915184021</t>
+    <t xml:space="preserve">12.4859142303467</t>
   </si>
   <si>
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2702875137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821481704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424156188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104949951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183078765869</t>
+    <t xml:space="preserve">13.2702865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706653594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785743713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104959487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183088302612</t>
   </si>
   <si>
     <t xml:space="preserve">13.2062559127808</t>
@@ -1691,37 +1691,37 @@
     <t xml:space="preserve">13.3103036880493</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064462661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7745246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824337005615</t>
+    <t xml:space="preserve">13.6064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7745237350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824327468872</t>
   </si>
   <si>
     <t xml:space="preserve">13.6624717712402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145437240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.950608253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704750061035</t>
+    <t xml:space="preserve">13.8145446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9506101608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704769134521</t>
   </si>
   <si>
     <t xml:space="preserve">13.862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7665233612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.998631477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.990626335144</t>
+    <t xml:space="preserve">13.7665224075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986324310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9906282424927</t>
   </si>
   <si>
     <t xml:space="preserve">13.6544666290283</t>
@@ -1730,67 +1730,67 @@
     <t xml:space="preserve">13.7985363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103979110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7905321121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826231002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784782409668</t>
+    <t xml:space="preserve">13.5103998184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7905330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826221466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066347122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">13.6224527359009</t>
   </si>
   <si>
-    <t xml:space="preserve">13.646463394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586114883423</t>
+    <t xml:space="preserve">13.6464643478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586124420166</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265014648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8705701828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.078670501709</t>
+    <t xml:space="preserve">13.7265024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8705711364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0786695480347</t>
   </si>
   <si>
     <t xml:space="preserve">13.6384620666504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4303617477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.438364982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743343353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063501358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462749481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0301742553711</t>
+    <t xml:space="preserve">13.430362701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4383668899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743352890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063510894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0301723480225</t>
   </si>
   <si>
     <t xml:space="preserve">12.9581384658813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7420349121094</t>
+    <t xml:space="preserve">12.742036819458</t>
   </si>
   <si>
     <t xml:space="preserve">13.3983469009399</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">13.4703817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
+    <t xml:space="preserve">13.4943933486938</t>
   </si>
   <si>
     <t xml:space="preserve">13.0381774902344</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">12.9021129608154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101152420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8861045837402</t>
+    <t xml:space="preserve">12.9101142883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8861055374146</t>
   </si>
   <si>
     <t xml:space="preserve">12.9901523590088</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">12.870096206665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9981565475464</t>
+    <t xml:space="preserve">12.9341259002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
     <t xml:space="preserve">13.0221691131592</t>
@@ -1835,34 +1835,34 @@
     <t xml:space="preserve">14.0665884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2340497970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931341171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098815917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694431304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522203445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5354766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773401260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
+    <t xml:space="preserve">14.2340488433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4098796844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7699184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950372695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694440841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522222518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.535475730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192054748535</t>
   </si>
   <si>
     <t xml:space="preserve">14.5187292098999</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560276031494</t>
+    <t xml:space="preserve">14.3680171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560266494751</t>
   </si>
   <si>
     <t xml:space="preserve">15.3141641616821</t>
@@ -1892,40 +1892,40 @@
     <t xml:space="preserve">15.4481296539307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5820989608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318584442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043621063232</t>
+    <t xml:space="preserve">15.5820970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318574905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043601989746</t>
   </si>
   <si>
     <t xml:space="preserve">14.9876165390015</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9038867950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806692123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569772720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4648733139038</t>
+    <t xml:space="preserve">14.9038848876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.556978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4648742675781</t>
   </si>
   <si>
     <t xml:space="preserve">15.2555503845215</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4816217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923734664917</t>
+    <t xml:space="preserve">15.4816198348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923725128174</t>
   </si>
   <si>
     <t xml:space="preserve">15.9756269454956</t>
@@ -1937,28 +1937,28 @@
     <t xml:space="preserve">15.8165397644043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411842346191</t>
+    <t xml:space="preserve">15.7830486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411813735962</t>
   </si>
   <si>
     <t xml:space="preserve">15.7328119277954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4983682632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.12158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634492874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462274551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797185897827</t>
+    <t xml:space="preserve">15.4983673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215829849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.079719543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
@@ -1967,16 +1967,16 @@
     <t xml:space="preserve">14.8787660598755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4015102386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6778173446655</t>
+    <t xml:space="preserve">14.4015092849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6778163909912</t>
   </si>
   <si>
     <t xml:space="preserve">15.0294818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1299562454224</t>
+    <t xml:space="preserve">15.129955291748</t>
   </si>
   <si>
     <t xml:space="preserve">15.0378522872925</t>
@@ -1985,49 +1985,49 @@
     <t xml:space="preserve">14.4266271591187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1503200531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275777816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512697219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024599075317</t>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684934616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094062805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1503190994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275768280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526966094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512706756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940885543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024589538574</t>
   </si>
   <si>
     <t xml:space="preserve">14.9457521438599</t>
   </si>
   <si>
-    <t xml:space="preserve">14.744800567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912260055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383275985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309087753296</t>
+    <t xml:space="preserve">14.7447996139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9122591018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383295059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
   </si>
   <si>
     <t xml:space="preserve">15.5151138305664</t>
@@ -2036,64 +2036,64 @@
     <t xml:space="preserve">15.0964651107788</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0629749298096</t>
+    <t xml:space="preserve">15.0629739761353</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397573471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500328063965</t>
+    <t xml:space="preserve">15.4397563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500337600708</t>
   </si>
   <si>
     <t xml:space="preserve">15.7244396209717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8751487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993198394775</t>
+    <t xml:space="preserve">15.875150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993169784546</t>
   </si>
   <si>
     <t xml:space="preserve">15.607213973999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9002714157104</t>
+    <t xml:space="preserve">15.9002695083618</t>
   </si>
   <si>
     <t xml:space="preserve">15.5988435745239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899940490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.389518737793</t>
+    <t xml:space="preserve">15.6490812301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54860496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3895168304443</t>
   </si>
   <si>
     <t xml:space="preserve">14.9792423248291</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3643989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0211067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.92063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048383712769</t>
+    <t xml:space="preserve">15.3644008636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206323623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048393249512</t>
   </si>
   <si>
     <t xml:space="preserve">15.113208770752</t>
@@ -2102,52 +2102,52 @@
     <t xml:space="preserve">15.2471780776978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2304344177246</t>
+    <t xml:space="preserve">15.2304315567017</t>
   </si>
   <si>
     <t xml:space="preserve">15.180193901062</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8249139785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3811454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718235015869</t>
+    <t xml:space="preserve">15.1969394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057899475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.824914932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3811464309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718215942383</t>
   </si>
   <si>
     <t xml:space="preserve">15.2136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2220582962036</t>
+    <t xml:space="preserve">15.2220611572266</t>
   </si>
   <si>
     <t xml:space="preserve">15.5067405700684</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9672527313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825714111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337606430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942756652832</t>
+    <t xml:space="preserve">15.9672536849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825723648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732503890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337635040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942775726318</t>
   </si>
   <si>
     <t xml:space="preserve">16.7961769104004</t>
@@ -2165,76 +2165,76 @@
     <t xml:space="preserve">16.5198707580566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1179656982422</t>
+    <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
     <t xml:space="preserve">16.042610168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0761013031006</t>
+    <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0258636474609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2854251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765766143799</t>
+    <t xml:space="preserve">16.2854290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765785217285</t>
   </si>
   <si>
     <t xml:space="preserve">16.2100696563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6705837249756</t>
+    <t xml:space="preserve">16.670581817627</t>
   </si>
   <si>
     <t xml:space="preserve">16.6287174224854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5282402038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3440361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928478240967</t>
+    <t xml:space="preserve">16.5282421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3440380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.092845916748</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0509834289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3021717071533</t>
+    <t xml:space="preserve">16.0509815216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3021697998047</t>
   </si>
   <si>
     <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6957015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645889282227</t>
+    <t xml:space="preserve">16.6957035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.164587020874</t>
   </si>
   <si>
     <t xml:space="preserve">17.4827613830566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2483177185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5329990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0353755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.918155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0856170654297</t>
+    <t xml:space="preserve">17.2483196258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5330009460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0353775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9181537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0856132507324</t>
   </si>
   <si>
     <t xml:space="preserve">18.0521221160889</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">17.6669654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8846645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2028369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8679161071777</t>
+    <t xml:space="preserve">17.8846626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2028350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679180145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707736968994</t>
+    <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382312774658</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5545024871826</t>
+    <t xml:space="preserve">18.4540271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.554500579834</t>
   </si>
   <si>
     <t xml:space="preserve">18.9229125976562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2410831451416</t>
+    <t xml:space="preserve">19.2410850524902</t>
   </si>
   <si>
     <t xml:space="preserve">19.1908473968506</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">19.3248157501221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4420356750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.358304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3870429992676</t>
+    <t xml:space="preserve">19.4420337677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745761871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3870410919189</t>
   </si>
   <si>
     <t xml:space="preserve">18.504264831543</t>
@@ -2312,58 +2312,58 @@
     <t xml:space="preserve">17.4660167694092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5210113525391</t>
+    <t xml:space="preserve">18.5210075378418</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8226337432861</t>
+    <t xml:space="preserve">11.8226346969604</t>
   </si>
   <si>
     <t xml:space="preserve">13.7819080352783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998933792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3082666397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.023585319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6300554275513</t>
+    <t xml:space="preserve">12.5175905227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3082656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0235834121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6300563812256</t>
   </si>
   <si>
     <t xml:space="preserve">12.1156873703003</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7269134521484</t>
+    <t xml:space="preserve">12.7269144058228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7687797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1455631256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8860015869141</t>
+    <t xml:space="preserve">13.145562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8860025405884</t>
   </si>
   <si>
     <t xml:space="preserve">13.6563129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9912309646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591676712036</t>
+    <t xml:space="preserve">13.4386157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.991231918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917091369629</t>
@@ -2378,31 +2378,31 @@
     <t xml:space="preserve">14.1921844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2424230575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656387329102</t>
+    <t xml:space="preserve">14.2424221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656368255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0247249603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.832145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173013687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926588058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7316703796387</t>
+    <t xml:space="preserve">14.0247259140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8321475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7316694259644</t>
   </si>
   <si>
     <t xml:space="preserve">13.6898059844971</t>
@@ -2411,16 +2411,16 @@
     <t xml:space="preserve">13.7986536026001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9493684768677</t>
+    <t xml:space="preserve">13.949366569519</t>
   </si>
   <si>
     <t xml:space="preserve">13.9828596115112</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3345251083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4182538986206</t>
+    <t xml:space="preserve">14.3345241546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.418251991272</t>
   </si>
   <si>
     <t xml:space="preserve">14.5103569030762</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">15.0354614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6503849029541</t>
+    <t xml:space="preserve">14.6503839492798</t>
   </si>
   <si>
     <t xml:space="preserve">14.9829502105713</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0658588409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3721714019775</t>
+    <t xml:space="preserve">17.065860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3721694946289</t>
   </si>
   <si>
     <t xml:space="preserve">17.4684371948242</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">17.1358737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.496997833252</t>
+    <t xml:space="preserve">16.4969959259033</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357376098633</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">16.7595500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5670127868652</t>
+    <t xml:space="preserve">16.5670146942139</t>
   </si>
   <si>
     <t xml:space="preserve">16.5845165252686</t>
@@ -2495,16 +2495,16 @@
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157917022705</t>
+    <t xml:space="preserve">16.7157897949219</t>
   </si>
   <si>
     <t xml:space="preserve">16.7858066558838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2607021331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3307132720947</t>
+    <t xml:space="preserve">16.2607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3307151794434</t>
   </si>
   <si>
     <t xml:space="preserve">16.4707431793213</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">17.2846527099609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0460529327393</t>
+    <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
@@ -2531,13 +2531,13 @@
     <t xml:space="preserve">18.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3436088562012</t>
+    <t xml:space="preserve">18.3436107635498</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162040710449</t>
+    <t xml:space="preserve">18.8162059783936</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
@@ -2564,13 +2564,13 @@
     <t xml:space="preserve">17.8010063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">17.888521194458</t>
+    <t xml:space="preserve">17.8885231018066</t>
   </si>
   <si>
     <t xml:space="preserve">17.8360118865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.730993270874</t>
+    <t xml:space="preserve">17.7309913635254</t>
   </si>
   <si>
     <t xml:space="preserve">18.0110473632812</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">18.8862190246582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9737358093262</t>
+    <t xml:space="preserve">18.9737377166748</t>
   </si>
   <si>
     <t xml:space="preserve">19.0437488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1487712860107</t>
+    <t xml:space="preserve">19.1487693786621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4988403320312</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787563323975</t>
+    <t xml:space="preserve">19.0787544250488</t>
   </si>
   <si>
     <t xml:space="preserve">19.1312675476074</t>
@@ -2624,22 +2624,22 @@
     <t xml:space="preserve">19.3938179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4113216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2537899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1137638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562301635742</t>
+    <t xml:space="preserve">19.4113235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.253791809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1137657165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562320709229</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3763160705566</t>
+    <t xml:space="preserve">19.376314163208</t>
   </si>
   <si>
     <t xml:space="preserve">18.6936817169189</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061630249023</t>
+    <t xml:space="preserve">18.6061611175537</t>
   </si>
   <si>
     <t xml:space="preserve">18.3611164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5186443328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4136276245117</t>
+    <t xml:space="preserve">18.5186462402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4136257171631</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">19.8664131164551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4463272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7438869476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489093780518</t>
+    <t xml:space="preserve">19.4463291168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7438888549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489074707031</t>
   </si>
   <si>
     <t xml:space="preserve">19.4813346862793</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">17.9060230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784820556641</t>
+    <t xml:space="preserve">17.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285511016846</t>
+    <t xml:space="preserve">18.0285491943359</t>
   </si>
   <si>
     <t xml:space="preserve">18.1335678100586</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">18.1860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5711536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714317321777</t>
+    <t xml:space="preserve">18.5711555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362861633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714298248291</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864952087402</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1266613006592</t>
+    <t xml:space="preserve">21.1266593933105</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143161773682</t>
+    <t xml:space="preserve">21.9143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793067932129</t>
@@ -2798,13 +2798,13 @@
     <t xml:space="preserve">22.0368404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9668273925781</t>
+    <t xml:space="preserve">21.9668254852295</t>
   </si>
   <si>
     <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9318161010742</t>
+    <t xml:space="preserve">21.9318180084229</t>
   </si>
   <si>
     <t xml:space="preserve">22.2293758392334</t>
@@ -2813,28 +2813,28 @@
     <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9470176696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721221923828</t>
+    <t xml:space="preserve">22.9470157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721202850342</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795848846436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8747005462646</t>
+    <t xml:space="preserve">23.8747024536133</t>
   </si>
   <si>
     <t xml:space="preserve">22.4569225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1243553161621</t>
+    <t xml:space="preserve">22.1243572235107</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444393157959</t>
+    <t xml:space="preserve">22.5444374084473</t>
   </si>
   <si>
     <t xml:space="preserve">22.8595008850098</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745643615723</t>
+    <t xml:space="preserve">23.1745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">23.4546184539795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7894897460938</t>
+    <t xml:space="preserve">22.7894878387451</t>
   </si>
   <si>
     <t xml:space="preserve">22.6144523620605</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4919300079346</t>
+    <t xml:space="preserve">22.4919281005859</t>
   </si>
   <si>
     <t xml:space="preserve">22.0018310546875</t>
@@ -2885,10 +2885,10 @@
     <t xml:space="preserve">20.4615287780762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0414447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592247009277</t>
+    <t xml:space="preserve">20.041446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592266082764</t>
   </si>
   <si>
     <t xml:space="preserve">22.439416885376</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940940856934</t>
+    <t xml:space="preserve">20.7940921783447</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067134857178</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7217769622803</t>
+    <t xml:space="preserve">21.7217750549316</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841911315918</t>
+    <t xml:space="preserve">21.2841892242432</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869094848633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267974853516</t>
+    <t xml:space="preserve">21.8267993927002</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942302703857</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.581750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3016929626465</t>
+    <t xml:space="preserve">21.5817489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3016948699951</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">21.4767303466797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3915138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9166164398193</t>
+    <t xml:space="preserve">20.3915157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.916618347168</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
@@ -4734,6 +4734,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.5599994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5</t>
   </si>
 </sst>
 </file>
@@ -61833,7 +61836,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6494791667</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>162748</v>
@@ -61854,6 +61857,32 @@
         <v>1573</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6495138889</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>272444</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>24.8799991607666</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>24.3999996185303</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>24.8600006103516</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1577">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85121059417725</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">8.32674884796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26927375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830093383789</t>
+    <t xml:space="preserve">8.26927280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830188751221</t>
   </si>
   <si>
     <t xml:space="preserve">8.57101821899414</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">8.47762107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3626708984375</t>
+    <t xml:space="preserve">8.36266994476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684753417969</t>
@@ -80,40 +80,40 @@
     <t xml:space="preserve">7.98189496994019</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2405366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38422203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28364086151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208877563477</t>
+    <t xml:space="preserve">8.08247661590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053478240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38422393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28364181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
   </si>
   <si>
     <t xml:space="preserve">8.19024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11121463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665325164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480962753296</t>
+    <t xml:space="preserve">8.11121559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325658798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665515899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74481010437012</t>
   </si>
   <si>
     <t xml:space="preserve">8.01063346862793</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">8.12558364868164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820676803589</t>
+    <t xml:space="preserve">7.83820772171021</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500152587891</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">7.78073167800903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92442083358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878889083862</t>
+    <t xml:space="preserve">7.92441987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878984451294</t>
   </si>
   <si>
     <t xml:space="preserve">8.04655647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17587471008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08965969085693</t>
+    <t xml:space="preserve">8.17587566375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966159820557</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529258728027</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">8.13276767730713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93160581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471189498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402965545654</t>
+    <t xml:space="preserve">7.93160390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97470998764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403060913086</t>
   </si>
   <si>
     <t xml:space="preserve">8.11839962005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21898174285889</t>
+    <t xml:space="preserve">8.21898078918457</t>
   </si>
   <si>
     <t xml:space="preserve">8.33393287658691</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">8.70033740997314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68597030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257221221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228115081787</t>
+    <t xml:space="preserve">8.68596935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228210449219</t>
   </si>
   <si>
     <t xml:space="preserve">8.40577602386475</t>
@@ -200,19 +200,19 @@
     <t xml:space="preserve">8.3411169052124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49917411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606803894043</t>
+    <t xml:space="preserve">8.49917507171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606708526611</t>
   </si>
   <si>
     <t xml:space="preserve">8.41296005249023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47043609619141</t>
+    <t xml:space="preserve">8.47043704986572</t>
   </si>
   <si>
     <t xml:space="preserve">8.22616577148438</t>
@@ -221,28 +221,28 @@
     <t xml:space="preserve">8.19742774963379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15432167053223</t>
+    <t xml:space="preserve">8.15432262420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150665283203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519580841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527351379395</t>
+    <t xml:space="preserve">8.23334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626541137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527256011963</t>
   </si>
   <si>
     <t xml:space="preserve">8.05273818969727</t>
@@ -257,46 +257,46 @@
     <t xml:space="preserve">8.28560638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3306770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14288234710693</t>
+    <t xml:space="preserve">8.33067798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302364349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14288139343262</t>
   </si>
   <si>
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16541481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048641204834</t>
+    <t xml:space="preserve">8.16541576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048736572266</t>
   </si>
   <si>
     <t xml:space="preserve">8.15039253234863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01517963409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73723936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51188182830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178747177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
+    <t xml:space="preserve">8.01517868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73723888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30530595779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286451339722</t>
   </si>
   <si>
     <t xml:space="preserve">7.84991693496704</t>
@@ -305,34 +305,34 @@
     <t xml:space="preserve">7.8273811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69967889785767</t>
+    <t xml:space="preserve">7.69968032836914</t>
   </si>
   <si>
     <t xml:space="preserve">7.7672872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30906105041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253164291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40295839309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216871261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.804847240448</t>
+    <t xml:space="preserve">7.30906009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253259658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484628677368</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460824966431</t>
+    <t xml:space="preserve">7.65460777282715</t>
   </si>
   <si>
     <t xml:space="preserve">7.33910942077637</t>
@@ -341,34 +341,34 @@
     <t xml:space="preserve">7.46681070327759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57948970794678</t>
+    <t xml:space="preserve">7.57949018478394</t>
   </si>
   <si>
     <t xml:space="preserve">7.54193067550659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60202550888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977373123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465566635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704921722412</t>
+    <t xml:space="preserve">7.60202407836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977468490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704874038696</t>
   </si>
   <si>
     <t xml:space="preserve">7.66212034225464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63207197189331</t>
+    <t xml:space="preserve">7.63207149505615</t>
   </si>
   <si>
     <t xml:space="preserve">7.7447509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63958501815796</t>
+    <t xml:space="preserve">7.63958358764648</t>
   </si>
   <si>
     <t xml:space="preserve">7.77479839324951</t>
@@ -377,46 +377,46 @@
     <t xml:space="preserve">7.59451246261597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49685859680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4893479347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62455892562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719146728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6771445274353</t>
+    <t xml:space="preserve">7.49685764312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934650421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62455987930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714357376099</t>
   </si>
   <si>
     <t xml:space="preserve">7.81986808776855</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85742855072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953617095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50437068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310350418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056722640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752290725708</t>
+    <t xml:space="preserve">7.8574275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953569412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197713851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807836532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752481460571</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996435165405</t>
@@ -428,82 +428,82 @@
     <t xml:space="preserve">7.94757175445557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09029865264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226306915283</t>
+    <t xml:space="preserve">8.09029579162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226354598999</t>
   </si>
   <si>
     <t xml:space="preserve">7.81235790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87245225906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221374511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963052749634</t>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963195800781</t>
   </si>
   <si>
     <t xml:space="preserve">7.64709615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44427537918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700227737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554208755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418102264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812673568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403734207153</t>
+    <t xml:space="preserve">7.44427490234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3916916847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700084686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939535140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38417959213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652620315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812578201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5344181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403781890869</t>
   </si>
   <si>
     <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02736568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102689743042</t>
+    <t xml:space="preserve">7.02736520767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605155944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
   </si>
   <si>
     <t xml:space="preserve">7.04990196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92220067977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332418441772</t>
+    <t xml:space="preserve">6.92220020294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332370758057</t>
   </si>
   <si>
     <t xml:space="preserve">6.95975971221924</t>
@@ -515,34 +515,34 @@
     <t xml:space="preserve">6.92971229553223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956813812256</t>
+    <t xml:space="preserve">6.83956861495972</t>
   </si>
   <si>
     <t xml:space="preserve">6.81327772140503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89215135574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581304550171</t>
+    <t xml:space="preserve">6.89215230941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581352233887</t>
   </si>
   <si>
     <t xml:space="preserve">6.79449796676636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79074192047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341997146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112125396729</t>
+    <t xml:space="preserve">6.79074096679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90342044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112077713013</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717554092407</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0198540687561</t>
+    <t xml:space="preserve">7.01985359191895</t>
   </si>
   <si>
     <t xml:space="preserve">7.0160984992981</t>
@@ -551,16 +551,16 @@
     <t xml:space="preserve">7.1738486289978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19638347625732</t>
+    <t xml:space="preserve">7.19638299942017</t>
   </si>
   <si>
     <t xml:space="preserve">7.47432279586792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56446504592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
+    <t xml:space="preserve">7.5644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972726821899</t>
   </si>
   <si>
     <t xml:space="preserve">7.55695390701294</t>
@@ -569,43 +569,43 @@
     <t xml:space="preserve">7.78982210159302</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78230953216553</t>
+    <t xml:space="preserve">7.78230857849121</t>
   </si>
   <si>
     <t xml:space="preserve">7.88747644424438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98513126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
+    <t xml:space="preserve">7.98513031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522514343262</t>
   </si>
   <si>
     <t xml:space="preserve">8.06776142120361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10532283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766563415527</t>
+    <t xml:space="preserve">8.10531997680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
     <t xml:space="preserve">7.9550838470459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29311943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799945831299</t>
+    <t xml:space="preserve">8.29311752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799850463867</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053573608398</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">8.25555801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30814266204834</t>
+    <t xml:space="preserve">8.30814170837402</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091506958008</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">8.57856941223145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636505126953</t>
+    <t xml:space="preserve">8.69876098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636695861816</t>
   </si>
   <si>
     <t xml:space="preserve">8.77387809753418</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">8.7288064956665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890323638916</t>
+    <t xml:space="preserve">8.78890132904053</t>
   </si>
   <si>
     <t xml:space="preserve">8.75134181976318</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">8.86402130126953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88655662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91660404205322</t>
+    <t xml:space="preserve">8.87904644012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88655757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91660499572754</t>
   </si>
   <si>
     <t xml:space="preserve">8.99172401428223</t>
@@ -671,34 +671,34 @@
     <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93914031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98421096801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378326416016</t>
+    <t xml:space="preserve">8.9391393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98421001434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378421783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51096248626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42833137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61612987518311</t>
+    <t xml:space="preserve">8.51096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42833232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61612892150879</t>
   </si>
   <si>
     <t xml:space="preserve">8.53349876403809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54101181030273</t>
+    <t xml:space="preserve">8.5410099029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.73632049560547</t>
@@ -719,19 +719,19 @@
     <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2611026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30811405181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28460884094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38646507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42564010620117</t>
+    <t xml:space="preserve">9.26110458374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30811500549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2846097946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38646411895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42564105987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.3472900390625</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">9.44914627075195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41780567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46481609344482</t>
+    <t xml:space="preserve">9.41780662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46481704711914</t>
   </si>
   <si>
     <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53533363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172443389893</t>
+    <t xml:space="preserve">9.53533267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172634124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73121070861816</t>
+    <t xml:space="preserve">9.73120975494385</t>
   </si>
   <si>
     <t xml:space="preserve">9.74687957763672</t>
@@ -770,16 +770,16 @@
     <t xml:space="preserve">9.77822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79389190673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69986915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84873580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956172943115</t>
+    <t xml:space="preserve">9.79389095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69987010955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956268310547</t>
   </si>
   <si>
     <t xml:space="preserve">9.71553897857666</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">9.59801292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69203472137451</t>
+    <t xml:space="preserve">9.6920337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.6215181350708</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58234119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584735870361</t>
+    <t xml:space="preserve">9.58234310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55883884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337436676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7703857421875</t>
+    <t xml:space="preserve">9.55883693695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72337532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77038669586182</t>
   </si>
   <si>
     <t xml:space="preserve">9.75471591949463</t>
@@ -821,31 +821,31 @@
     <t xml:space="preserve">9.48832130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51182842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399112701416</t>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079429626465</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63718891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636489868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70770645141602</t>
+    <t xml:space="preserve">9.6371898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70770454406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.83306694030762</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543054580688</t>
+    <t xml:space="preserve">10.0211095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543064117432</t>
   </si>
   <si>
     <t xml:space="preserve">10.3266792297363</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">10.3031740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2326564788818</t>
+    <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561626434326</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248220443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953395843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893594741821</t>
+    <t xml:space="preserve">10.2248210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953386306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893604278564</t>
   </si>
   <si>
     <t xml:space="preserve">10.4285354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912176132202</t>
+    <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695667266846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165781021118</t>
+    <t xml:space="preserve">10.6165771484375</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">10.483380317688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5068855285645</t>
+    <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">10.6635885238647</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">10.6087427139282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5930728912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852365493774</t>
+    <t xml:space="preserve">10.593071937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852384567261</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382280349731</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5147228240967</t>
+    <t xml:space="preserve">10.5147218704224</t>
   </si>
   <si>
     <t xml:space="preserve">10.7027635574341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0004997253418</t>
+    <t xml:space="preserve">11.0004987716675</t>
   </si>
   <si>
     <t xml:space="preserve">11.0475101470947</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">11.0318384170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0631799697876</t>
+    <t xml:space="preserve">11.0631809234619</t>
   </si>
   <si>
     <t xml:space="preserve">10.976993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0161685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9926633834839</t>
+    <t xml:space="preserve">11.0240039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0161695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9926624298096</t>
   </si>
   <si>
     <t xml:space="preserve">11.24338722229</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">11.3139028549194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2120456695557</t>
+    <t xml:space="preserve">11.2120475769043</t>
   </si>
   <si>
     <t xml:space="preserve">11.3765850067139</t>
@@ -971,22 +971,22 @@
     <t xml:space="preserve">11.4157590866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4941120147705</t>
+    <t xml:space="preserve">11.4941101074219</t>
   </si>
   <si>
     <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8466911315918</t>
+    <t xml:space="preserve">11.8466892242432</t>
   </si>
   <si>
     <t xml:space="preserve">11.9250421524048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5411205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7291641235352</t>
+    <t xml:space="preserve">11.5411214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7291631698608</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605037689209</t>
@@ -1001,19 +1001,19 @@
     <t xml:space="preserve">11.9172067642212</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9877223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9642181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739088058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1600961685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2462816238403</t>
+    <t xml:space="preserve">11.9877233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9642171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739097595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1600952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2462825775146</t>
   </si>
   <si>
     <t xml:space="preserve">12.2227764129639</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">12.3011274337769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5126752853394</t>
+    <t xml:space="preserve">12.512674331665</t>
   </si>
   <si>
     <t xml:space="preserve">12.5283451080322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5361795425415</t>
+    <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347328186035</t>
@@ -1046,55 +1046,55 @@
     <t xml:space="preserve">12.8025751113892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8574190139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5831899642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813356399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537075042725</t>
+    <t xml:space="preserve">12.8574209213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5831909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537065505981</t>
   </si>
   <si>
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772127151489</t>
+    <t xml:space="preserve">12.6772136688232</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3089609146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1130838394165</t>
+    <t xml:space="preserve">12.3089628219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
     <t xml:space="preserve">12.2697868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0660734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.901535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1679306030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541170120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4891710281372</t>
+    <t xml:space="preserve">12.0660743713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9015369415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1679286956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4891700744629</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223678588867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3324689865112</t>
+    <t xml:space="preserve">12.3324680328369</t>
   </si>
   <si>
     <t xml:space="preserve">12.5910263061523</t>
@@ -1109,25 +1109,25 @@
     <t xml:space="preserve">12.9671106338501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1159791946411</t>
+    <t xml:space="preserve">13.1159801483154</t>
   </si>
   <si>
     <t xml:space="preserve">13.2256698608398</t>
   </si>
   <si>
-    <t xml:space="preserve">13.280517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2335052490234</t>
+    <t xml:space="preserve">13.2805166244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021656036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2335042953491</t>
   </si>
   <si>
     <t xml:space="preserve">13.2178344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1003074645996</t>
+    <t xml:space="preserve">13.1003093719482</t>
   </si>
   <si>
     <t xml:space="preserve">12.9592771530151</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">13.0611343383789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2619504928589</t>
+    <t xml:space="preserve">13.1786603927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
     <t xml:space="preserve">12.2932929992676</t>
@@ -1151,28 +1151,28 @@
     <t xml:space="preserve">12.3951482772827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5048408508301</t>
+    <t xml:space="preserve">12.5048398971558</t>
   </si>
   <si>
     <t xml:space="preserve">12.6693773269653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7320594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7790689468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850471496582</t>
+    <t xml:space="preserve">12.7320585250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7790679931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850481033325</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846395492554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2570104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1081438064575</t>
+    <t xml:space="preserve">13.2570114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1081447601318</t>
   </si>
   <si>
     <t xml:space="preserve">13.3118572235107</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">13.1238145828247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3510332107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6801042556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4450531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2912464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397054672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982618331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277471542358</t>
+    <t xml:space="preserve">13.3510341644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6801052093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4450521469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2912435531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277481079102</t>
   </si>
   <si>
     <t xml:space="preserve">15.0825910568237</t>
@@ -1208,91 +1208,91 @@
     <t xml:space="preserve">15.317645072937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2549629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.933723449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8553743362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7221775054932</t>
+    <t xml:space="preserve">15.2549638748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9337224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8553714752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7221803665161</t>
   </si>
   <si>
     <t xml:space="preserve">15.1452732086182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669202804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844501495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4743461608887</t>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844491958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4743480682373</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4351720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7015657424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7172336578369</t>
+    <t xml:space="preserve">15.4351739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015676498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7172355651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.8788795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0042419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0904273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374387741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001218795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157869338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3568229675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5918731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702241897583</t>
+    <t xml:space="preserve">15.0042400360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.090428352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374368667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001190185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.356822013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5918750762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702251434326</t>
   </si>
   <si>
     <t xml:space="preserve">15.6310510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6858959197998</t>
+    <t xml:space="preserve">15.6858978271484</t>
   </si>
   <si>
     <t xml:space="preserve">15.8896083831787</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5683689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269300460815</t>
+    <t xml:space="preserve">15.5683727264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269281387329</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">14.8867130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7926931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390312194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750928878784</t>
+    <t xml:space="preserve">14.7926912307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390302658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750919342041</t>
   </si>
   <si>
     <t xml:space="preserve">14.6149225234985</t>
@@ -1325,40 +1325,40 @@
     <t xml:space="preserve">14.0306482315063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8945827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866746902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467479705811</t>
+    <t xml:space="preserve">13.8945817947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467498779297</t>
   </si>
   <si>
     <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2547521591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5348844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5508937835693</t>
+    <t xml:space="preserve">14.2547540664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3668079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5348863601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5508918762207</t>
   </si>
   <si>
     <t xml:space="preserve">14.1907224655151</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3352632522583</t>
+    <t xml:space="preserve">15.335262298584</t>
   </si>
   <si>
     <t xml:space="preserve">15.3192558288574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5273580551147</t>
+    <t xml:space="preserve">15.5273561477661</t>
   </si>
   <si>
     <t xml:space="preserve">15.5753765106201</t>
@@ -1367,37 +1367,37 @@
     <t xml:space="preserve">15.2152080535889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4713296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5833806991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8074865341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351680755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391244888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870506286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911022186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630399703979</t>
+    <t xml:space="preserve">15.4713287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5833826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8074884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471286773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870525360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630390167236</t>
   </si>
   <si>
     <t xml:space="preserve">14.9991054534912</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">15.1191606521606</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4793348312378</t>
+    <t xml:space="preserve">15.4793319702148</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153974533081</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">15.6554136276245</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114419937134</t>
+    <t xml:space="preserve">15.7114400863647</t>
   </si>
   <si>
     <t xml:space="preserve">15.7434577941895</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">15.7034397125244</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6234006881714</t>
+    <t xml:space="preserve">15.62340259552</t>
   </si>
   <si>
     <t xml:space="preserve">15.5113487243652</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">15.3992948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4633255004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4953413009644</t>
+    <t xml:space="preserve">15.4633235931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.49534034729</t>
   </si>
   <si>
     <t xml:space="preserve">15.4233055114746</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3672800064087</t>
+    <t xml:space="preserve">15.367280960083</t>
   </si>
   <si>
     <t xml:space="preserve">15.0711402893066</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8230228424072</t>
+    <t xml:space="preserve">14.8230218887329</t>
   </si>
   <si>
     <t xml:space="preserve">14.7349786758423</t>
@@ -1472,34 +1472,34 @@
     <t xml:space="preserve">14.4628505706787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4708557128906</t>
+    <t xml:space="preserve">14.470853805542</t>
   </si>
   <si>
     <t xml:space="preserve">14.3748083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5749044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4228315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3107786178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468431472778</t>
+    <t xml:space="preserve">14.5749034881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.422833442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3107776641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468421936035</t>
   </si>
   <si>
     <t xml:space="preserve">14.3427934646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627553939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.294771194458</t>
+    <t xml:space="preserve">14.2787637710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627563476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2947721481323</t>
   </si>
   <si>
     <t xml:space="preserve">14.1266918182373</t>
@@ -1511,13 +1511,13 @@
     <t xml:space="preserve">14.2707605361938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6389360427856</t>
+    <t xml:space="preserve">14.6389379501343</t>
   </si>
   <si>
     <t xml:space="preserve">14.4308366775513</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3588037490845</t>
+    <t xml:space="preserve">14.3588018417358</t>
   </si>
   <si>
     <t xml:space="preserve">14.3347902297974</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">14.1587085723877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9666156768799</t>
+    <t xml:space="preserve">13.9666166305542</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466527938843</t>
@@ -1544,31 +1544,31 @@
     <t xml:space="preserve">14.2387456893921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1106853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864833831787</t>
+    <t xml:space="preserve">14.1106843948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.686484336853</t>
   </si>
   <si>
     <t xml:space="preserve">13.782527923584</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5584239959717</t>
+    <t xml:space="preserve">13.558422088623</t>
   </si>
   <si>
     <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4863882064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3903436660767</t>
+    <t xml:space="preserve">13.4863891601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
     <t xml:space="preserve">14.166711807251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8865785598755</t>
+    <t xml:space="preserve">13.8865776062012</t>
   </si>
   <si>
     <t xml:space="preserve">13.7184982299805</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">13.1262168884277</t>
   </si>
   <si>
-    <t xml:space="preserve">13.222264289856</t>
+    <t xml:space="preserve">13.2222633361816</t>
   </si>
   <si>
     <t xml:space="preserve">13.1982526779175</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">12.8460845947266</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0061616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8620929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823375701904</t>
+    <t xml:space="preserve">13.006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8620920181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823394775391</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744304656982</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">13.5184030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5984420776367</t>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">13.566427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264072418213</t>
+    <t xml:space="preserve">13.5664262771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264091491699</t>
   </si>
   <si>
     <t xml:space="preserve">13.1742391586304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741449356079</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8140697479248</t>
+    <t xml:space="preserve">12.8140707015991</t>
   </si>
   <si>
     <t xml:space="preserve">12.9421310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7500410079956</t>
+    <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060655593872</t>
@@ -1664,28 +1664,28 @@
     <t xml:space="preserve">12.485915184021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5739545822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2702856063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821500778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5424146652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0706653594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785753250122</t>
+    <t xml:space="preserve">12.573956489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2702865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821481704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5424156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785743713379</t>
   </si>
   <si>
     <t xml:space="preserve">13.7104940414429</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3183088302612</t>
+    <t xml:space="preserve">13.3183078765869</t>
   </si>
   <si>
     <t xml:space="preserve">13.2062559127808</t>
@@ -1694,40 +1694,40 @@
     <t xml:space="preserve">13.3103046417236</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6064453125</t>
+    <t xml:space="preserve">13.6064462661743</t>
   </si>
   <si>
     <t xml:space="preserve">13.7745246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5824327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145427703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9506092071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8625659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665224075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544666290283</t>
+    <t xml:space="preserve">13.5824337005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145437240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.950608253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704740524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8625679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665233612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986324310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9906272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544675827026</t>
   </si>
   <si>
     <t xml:space="preserve">13.7985363006592</t>
@@ -1739,46 +1739,46 @@
     <t xml:space="preserve">13.7905321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826211929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0066347122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224517822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6464643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586133956909</t>
+    <t xml:space="preserve">13.9826231002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0066356658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.646463394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586114883423</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265024185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8705711364746</t>
+    <t xml:space="preserve">13.7265014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8705701828003</t>
   </si>
   <si>
     <t xml:space="preserve">14.078670501709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6384620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4303636550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4383678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743333816528</t>
+    <t xml:space="preserve">13.6384630203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4303617477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4383659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743343353271</t>
   </si>
   <si>
     <t xml:space="preserve">13.4063501358032</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">13.0301733016968</t>
   </si>
   <si>
-    <t xml:space="preserve">12.958137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7420358657837</t>
+    <t xml:space="preserve">12.9581384658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7420349121094</t>
   </si>
   <si>
     <t xml:space="preserve">13.3983469009399</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">12.9021120071411</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9101142883301</t>
+    <t xml:space="preserve">12.9101152420044</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901523590088</t>
+    <t xml:space="preserve">12.9901533126831</t>
   </si>
   <si>
     <t xml:space="preserve">12.8700971603394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9341259002686</t>
+    <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
     <t xml:space="preserve">12.9981575012207</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">14.0665884017944</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2340488433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931360244751</t>
+    <t xml:space="preserve">14.2340497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931341171265</t>
   </si>
   <si>
     <t xml:space="preserve">14.4098806381226</t>
@@ -1853,10 +1853,10 @@
     <t xml:space="preserve">14.7950382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6694421768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522222518921</t>
+    <t xml:space="preserve">14.6694440841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522203445435</t>
   </si>
   <si>
     <t xml:space="preserve">14.5354766845703</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">14.6192045211792</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5187301635742</t>
+    <t xml:space="preserve">14.5187292098999</t>
   </si>
   <si>
     <t xml:space="preserve">14.4349994659424</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">14.3680152893066</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9708700180054</t>
+    <t xml:space="preserve">14.9708690643311</t>
   </si>
   <si>
     <t xml:space="preserve">15.0713472366333</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">15.3560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3141632080078</t>
+    <t xml:space="preserve">15.3141651153564</t>
   </si>
   <si>
     <t xml:space="preserve">15.448130607605</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5820970535278</t>
+    <t xml:space="preserve">15.5820989608765</t>
   </si>
   <si>
     <t xml:space="preserve">15.5318584442139</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">14.9876155853271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9038858413696</t>
+    <t xml:space="preserve">14.9038877487183</t>
   </si>
   <si>
     <t xml:space="preserve">14.85364818573</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2806701660156</t>
+    <t xml:space="preserve">15.280668258667</t>
   </si>
   <si>
     <t xml:space="preserve">15.5569772720337</t>
@@ -1955,13 +1955,13 @@
     <t xml:space="preserve">15.12158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1634483337402</t>
+    <t xml:space="preserve">15.1634502410889</t>
   </si>
   <si>
     <t xml:space="preserve">15.0462265014648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0797185897827</t>
+    <t xml:space="preserve">15.079719543457</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">14.8787660598755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4015092849731</t>
+    <t xml:space="preserve">14.4015102386475</t>
   </si>
   <si>
     <t xml:space="preserve">14.6778173446655</t>
@@ -1985,37 +1985,37 @@
     <t xml:space="preserve">15.0378522872925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.426628112793</t>
+    <t xml:space="preserve">14.4266271591187</t>
   </si>
   <si>
     <t xml:space="preserve">14.3596429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4684934616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094072341919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1503190994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275758743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526966094971</t>
+    <t xml:space="preserve">14.4684925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1503200531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275777816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526985168457</t>
   </si>
   <si>
     <t xml:space="preserve">14.3512697219849</t>
   </si>
   <si>
-    <t xml:space="preserve">14.594087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024608612061</t>
+    <t xml:space="preserve">14.5940866470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024599075317</t>
   </si>
   <si>
     <t xml:space="preserve">14.9457511901855</t>
@@ -2024,16 +2024,16 @@
     <t xml:space="preserve">14.7447996139526</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9122591018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309049606323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5151147842407</t>
+    <t xml:space="preserve">14.9122610092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151128768921</t>
   </si>
   <si>
     <t xml:space="preserve">15.0964651107788</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">15.6490802764893</t>
   </si>
   <si>
-    <t xml:space="preserve">15.54860496521</t>
+    <t xml:space="preserve">15.5486030578613</t>
   </si>
   <si>
     <t xml:space="preserve">15.4899940490723</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">15.3644008636475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2722978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0211095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206304550171</t>
+    <t xml:space="preserve">15.2722959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021107673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206323623657</t>
   </si>
   <si>
     <t xml:space="preserve">15.1048374176025</t>
@@ -2120,19 +2120,19 @@
     <t xml:space="preserve">15.8835229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">15.824912071228</t>
+    <t xml:space="preserve">15.8249139785767</t>
   </si>
   <si>
     <t xml:space="preserve">15.3811454772949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.171820640564</t>
+    <t xml:space="preserve">15.1718225479126</t>
   </si>
   <si>
     <t xml:space="preserve">15.2136859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2220602035522</t>
+    <t xml:space="preserve">15.2220582962036</t>
   </si>
   <si>
     <t xml:space="preserve">15.5067405700684</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">15.9672546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6825733184814</t>
+    <t xml:space="preserve">15.6825714111328</t>
   </si>
   <si>
     <t xml:space="preserve">15.4732494354248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.933762550354</t>
+    <t xml:space="preserve">15.9337606430054</t>
   </si>
   <si>
     <t xml:space="preserve">16.3942756652832</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">16.7961769104004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6370906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2016983032227</t>
+    <t xml:space="preserve">16.637092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.201696395874</t>
   </si>
   <si>
     <t xml:space="preserve">16.2435607910156</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">16.1765766143799</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2100715637207</t>
+    <t xml:space="preserve">16.2100696563721</t>
   </si>
   <si>
     <t xml:space="preserve">16.6705837249756</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.092845916748</t>
+    <t xml:space="preserve">16.0928478240967</t>
   </si>
   <si>
     <t xml:space="preserve">16.1263408660889</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3021697998047</t>
+    <t xml:space="preserve">16.3021717071533</t>
   </si>
   <si>
     <t xml:space="preserve">16.5366153717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6957035064697</t>
+    <t xml:space="preserve">16.6957015991211</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645889282227</t>
@@ -2228,10 +2228,10 @@
     <t xml:space="preserve">17.2483177185059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5329990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0353775024414</t>
+    <t xml:space="preserve">17.5329971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0353755950928</t>
   </si>
   <si>
     <t xml:space="preserve">17.918155670166</t>
@@ -2249,13 +2249,13 @@
     <t xml:space="preserve">17.6669654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8846607208252</t>
+    <t xml:space="preserve">17.8846626281738</t>
   </si>
   <si>
     <t xml:space="preserve">18.2028369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.867919921875</t>
+    <t xml:space="preserve">17.8679180145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382293701172</t>
+    <t xml:space="preserve">18.4707717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382312774658</t>
   </si>
   <si>
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540271759033</t>
+    <t xml:space="preserve">18.4540252685547</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">18.9229125976562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2410850524902</t>
+    <t xml:space="preserve">19.2410831451416</t>
   </si>
   <si>
     <t xml:space="preserve">19.190845489502</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3870410919189</t>
+    <t xml:space="preserve">18.3870429992676</t>
   </si>
   <si>
     <t xml:space="preserve">18.504264831543</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">12.3082666397095</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235843658447</t>
+    <t xml:space="preserve">12.023585319519</t>
   </si>
   <si>
     <t xml:space="preserve">11.6300563812256</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">13.9912309646606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2591695785522</t>
+    <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917091369629</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">13.89075756073</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1921854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656368255615</t>
+    <t xml:space="preserve">14.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424230575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656377792358</t>
   </si>
   <si>
     <t xml:space="preserve">13.8572645187378</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">13.8321466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1419458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173023223877</t>
+    <t xml:space="preserve">14.1419448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173013687134</t>
   </si>
   <si>
     <t xml:space="preserve">14.2926588058472</t>
   </si>
   <si>
-    <t xml:space="preserve">13.731671333313</t>
+    <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6898059844971</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">13.9828596115112</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3345241546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103569030762</t>
+    <t xml:space="preserve">14.3345251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103559494019</t>
   </si>
   <si>
     <t xml:space="preserve">15.0354614257812</t>
@@ -4740,6 +4740,9 @@
   </si>
   <si>
     <t xml:space="preserve">24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6399993896484</t>
   </si>
 </sst>
 </file>
@@ -61917,7 +61920,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6493634259</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>467770</v>
@@ -61938,6 +61941,32 @@
         <v>1531</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.6010648148</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>343196</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>24.3799991607666</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>23.4200000762939</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>24.1399993896484</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>23.6399993896484</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1580">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,28 +47,28 @@
     <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55664730072021</t>
+    <t xml:space="preserve">8.55665016174316</t>
   </si>
   <si>
     <t xml:space="preserve">8.32674884796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26927375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830188751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101726531982</t>
+    <t xml:space="preserve">8.26927185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57101917266846</t>
   </si>
   <si>
     <t xml:space="preserve">8.53509712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47762203216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36266994476318</t>
+    <t xml:space="preserve">8.47762012481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3626708984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684658050537</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98189449310303</t>
+    <t xml:space="preserve">7.9818959236145</t>
   </si>
   <si>
     <t xml:space="preserve">8.08247756958008</t>
@@ -95,73 +95,73 @@
     <t xml:space="preserve">8.27645778656006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26208877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19024467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121368408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665420532227</t>
+    <t xml:space="preserve">8.26208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1902437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121654510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325658798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65859699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665468215942</t>
   </si>
   <si>
     <t xml:space="preserve">7.7448091506958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01063442230225</t>
+    <t xml:space="preserve">8.01063251495361</t>
   </si>
   <si>
     <t xml:space="preserve">8.20461273193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12558364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820676803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92442083358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08966159820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276672363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93160438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97471046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10403060913086</t>
+    <t xml:space="preserve">8.12558555603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820724487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073120117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9244213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878936767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04655456542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966255187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93160486221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471189498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10402965545654</t>
   </si>
   <si>
     <t xml:space="preserve">8.11839962005615</t>
@@ -170,100 +170,100 @@
     <t xml:space="preserve">8.21898078918457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33393287658691</t>
+    <t xml:space="preserve">8.33393383026123</t>
   </si>
   <si>
     <t xml:space="preserve">8.59975719451904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70033836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577793121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36985492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3411169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606899261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296100616455</t>
+    <t xml:space="preserve">8.70033740997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596839904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257221221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31237888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36985397338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34111595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917507171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41296005249023</t>
   </si>
   <si>
     <t xml:space="preserve">8.47043704986572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22616672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432262420654</t>
+    <t xml:space="preserve">8.22616577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432167053223</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150569915771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626493453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169902801514</t>
+    <t xml:space="preserve">8.23334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626398086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169807434082</t>
   </si>
   <si>
     <t xml:space="preserve">8.30519485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07527446746826</t>
+    <t xml:space="preserve">8.07527351379395</t>
   </si>
   <si>
     <t xml:space="preserve">8.05273818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795204162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3306770324707</t>
+    <t xml:space="preserve">8.24804592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33067798614502</t>
   </si>
   <si>
     <t xml:space="preserve">8.23302364349365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18044090270996</t>
+    <t xml:space="preserve">8.18043994903564</t>
   </si>
   <si>
     <t xml:space="preserve">8.1428804397583</t>
@@ -287,241 +287,241 @@
     <t xml:space="preserve">7.73723936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45178651809692</t>
+    <t xml:space="preserve">7.51188278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45178699493408</t>
   </si>
   <si>
     <t xml:space="preserve">7.30530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34286451339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69967985153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76728677749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30906105041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253259658813</t>
+    <t xml:space="preserve">7.34286403656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991598129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82737970352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69968032836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7672872543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30906200408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253307342529</t>
   </si>
   <si>
     <t xml:space="preserve">7.4029598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54944086074829</t>
+    <t xml:space="preserve">7.54944181442261</t>
   </si>
   <si>
     <t xml:space="preserve">7.69216680526733</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80484580993652</t>
+    <t xml:space="preserve">7.80484628677368</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33911037445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46681022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5794882774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54192924499512</t>
+    <t xml:space="preserve">7.65460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33910894393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46681213378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948923110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54193019866943</t>
   </si>
   <si>
     <t xml:space="preserve">7.60202407836914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75977468490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704778671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66211986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207292556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475145339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6395845413208</t>
+    <t xml:space="preserve">7.75977373123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66212034225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7447509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958311080933</t>
   </si>
   <si>
     <t xml:space="preserve">7.77479887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59451246261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685907363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934650421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62455940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70719194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714357376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81987047195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742998123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953569412231</t>
+    <t xml:space="preserve">7.59451103210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4968581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934602737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62456083297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.707190990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742902755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953760147095</t>
   </si>
   <si>
     <t xml:space="preserve">7.57197761535645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50437021255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752481460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757223129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75226259231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8123574256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245416641235</t>
+    <t xml:space="preserve">7.50437164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807836532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056722640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752338409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996435165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757127761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029674530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81235694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245225906372</t>
   </si>
   <si>
     <t xml:space="preserve">7.71470403671265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72221517562866</t>
+    <t xml:space="preserve">7.7222146987915</t>
   </si>
   <si>
     <t xml:space="preserve">7.66963148117065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64709615707397</t>
+    <t xml:space="preserve">7.64709568023682</t>
   </si>
   <si>
     <t xml:space="preserve">7.44427585601807</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3916916847229</t>
+    <t xml:space="preserve">7.39169311523438</t>
   </si>
   <si>
     <t xml:space="preserve">7.58700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52690649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5193943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554399490356</t>
+    <t xml:space="preserve">7.52690505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939535140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554256439209</t>
   </si>
   <si>
     <t xml:space="preserve">7.38418006896973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812578201294</t>
+    <t xml:space="preserve">7.28652667999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50812673568726</t>
   </si>
   <si>
     <t xml:space="preserve">7.53441715240479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29403781890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736616134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102642059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990196228027</t>
+    <t xml:space="preserve">7.29403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595529556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736568450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605155944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97102546691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990148544312</t>
   </si>
   <si>
     <t xml:space="preserve">6.92219972610474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84332323074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975971221924</t>
+    <t xml:space="preserve">6.84332466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975923538208</t>
   </si>
   <si>
     <t xml:space="preserve">6.94849109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92971134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956813812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215135574341</t>
+    <t xml:space="preserve">6.92971181869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956861495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215183258057</t>
   </si>
   <si>
     <t xml:space="preserve">6.83581304550171</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">6.79449796676636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79074096679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90341949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112268447876</t>
+    <t xml:space="preserve">6.79074144363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90341997146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112173080444</t>
   </si>
   <si>
     <t xml:space="preserve">6.90717601776123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01985502243042</t>
+    <t xml:space="preserve">7.01985454559326</t>
   </si>
   <si>
     <t xml:space="preserve">7.0160984992981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17384672164917</t>
+    <t xml:space="preserve">7.17384767532349</t>
   </si>
   <si>
     <t xml:space="preserve">7.19638395309448</t>
@@ -557,37 +557,37 @@
     <t xml:space="preserve">7.47432231903076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56446504592896</t>
+    <t xml:space="preserve">7.56446552276611</t>
   </si>
   <si>
     <t xml:space="preserve">7.72972726821899</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5569543838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982257843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78231000900269</t>
+    <t xml:space="preserve">7.55695390701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982067108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230905532837</t>
   </si>
   <si>
     <t xml:space="preserve">7.88747692108154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98513031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733371734619</t>
+    <t xml:space="preserve">7.98513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733467102051</t>
   </si>
   <si>
     <t xml:space="preserve">7.97761821746826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04522514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776142120361</t>
+    <t xml:space="preserve">8.04522609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776237487793</t>
   </si>
   <si>
     <t xml:space="preserve">8.10532188415527</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">8.00766658782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95508432388306</t>
+    <t xml:space="preserve">7.9550838470459</t>
   </si>
   <si>
     <t xml:space="preserve">8.29311847686768</t>
@@ -605,31 +605,31 @@
     <t xml:space="preserve">8.20297527313232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21799850463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49593830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307010650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25555896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091506958008</t>
+    <t xml:space="preserve">8.21799945831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49594020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26307106018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091602325439</t>
   </si>
   <si>
     <t xml:space="preserve">8.5635461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57856941223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69876003265381</t>
+    <t xml:space="preserve">8.57857036590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69875907897949</t>
   </si>
   <si>
     <t xml:space="preserve">8.76636695861816</t>
@@ -638,31 +638,31 @@
     <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72880744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78890228271484</t>
+    <t xml:space="preserve">8.72880840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78890323638916</t>
   </si>
   <si>
     <t xml:space="preserve">8.7513427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82646083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86402130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8790454864502</t>
+    <t xml:space="preserve">8.82646179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86402034759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87904453277588</t>
   </si>
   <si>
     <t xml:space="preserve">8.88655662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91660499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99172401428223</t>
+    <t xml:space="preserve">8.91660404205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99172306060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918678283691</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">8.9391393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98421192169189</t>
+    <t xml:space="preserve">8.98421096801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.89406871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71378326416016</t>
+    <t xml:space="preserve">8.71378421783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110569000244</t>
@@ -689,37 +689,37 @@
     <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61612892150879</t>
+    <t xml:space="preserve">8.61612987518311</t>
   </si>
   <si>
     <t xml:space="preserve">8.53349781036377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54101085662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73632049560547</t>
+    <t xml:space="preserve">8.5410099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73631954193115</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90909290313721</t>
+    <t xml:space="preserve">8.90909194946289</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8565092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10440063476562</t>
+    <t xml:space="preserve">8.85651016235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10440158843994</t>
   </si>
   <si>
     <t xml:space="preserve">9.2611026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30811309814453</t>
+    <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
     <t xml:space="preserve">9.28460884094238</t>
@@ -728,31 +728,31 @@
     <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42564105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34729099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36296081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44914722442627</t>
+    <t xml:space="preserve">9.42563915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3472900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36295986175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44914627075195</t>
   </si>
   <si>
     <t xml:space="preserve">9.41780662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481609344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51966285705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172634124756</t>
+    <t xml:space="preserve">9.46481513977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51966190338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533363342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172729492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.8565731048584</t>
@@ -767,37 +767,37 @@
     <t xml:space="preserve">9.77822017669678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79388999938965</t>
+    <t xml:space="preserve">9.79389095306396</t>
   </si>
   <si>
     <t xml:space="preserve">9.69987010955811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84873580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956077575684</t>
+    <t xml:space="preserve">9.8487377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956172943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.71553993225098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59801387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69203472137451</t>
+    <t xml:space="preserve">9.59801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6920337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.6215181350708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64502429962158</t>
+    <t xml:space="preserve">9.64502334594727</t>
   </si>
   <si>
     <t xml:space="preserve">9.58234214782715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60584735870361</t>
+    <t xml:space="preserve">9.60584831237793</t>
   </si>
   <si>
     <t xml:space="preserve">9.55100250244141</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">9.558837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72337436676025</t>
+    <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
     <t xml:space="preserve">9.7703857421875</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">9.75471591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48832225799561</t>
+    <t xml:space="preserve">9.48832035064697</t>
   </si>
   <si>
     <t xml:space="preserve">9.51182842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50399112701416</t>
+    <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079524993896</t>
@@ -842,34 +842,34 @@
     <t xml:space="preserve">10.0211095809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3266801834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326574325562</t>
+    <t xml:space="preserve">10.1543054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326678276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561626434326</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1621427536011</t>
+    <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1072950363159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2248229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953386306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893594741821</t>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.295337677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893613815308</t>
   </si>
   <si>
     <t xml:space="preserve">10.4285364151001</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">10.4912157058716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5695686340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6165790557861</t>
+    <t xml:space="preserve">10.5695667266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6165781021118</t>
   </si>
   <si>
     <t xml:space="preserve">10.6244134902954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.522557258606</t>
+    <t xml:space="preserve">10.5225563049316</t>
   </si>
   <si>
     <t xml:space="preserve">10.483380317688</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">10.6870937347412</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6479187011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6557531356812</t>
+    <t xml:space="preserve">10.6479177474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6557550430298</t>
   </si>
   <si>
     <t xml:space="preserve">10.6087427139282</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">10.5852384567261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5382270812988</t>
+    <t xml:space="preserve">10.5382280349731</t>
   </si>
   <si>
     <t xml:space="preserve">10.5460624694824</t>
   </si>
   <si>
-    <t xml:space="preserve">10.514720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0004987716675</t>
+    <t xml:space="preserve">10.5147218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027654647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0004978179932</t>
   </si>
   <si>
     <t xml:space="preserve">11.0475091934204</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">11.0318384170532</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0631790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9769926071167</t>
+    <t xml:space="preserve">11.0631799697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.976993560791</t>
   </si>
   <si>
     <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0161685943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9926643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2433881759644</t>
+    <t xml:space="preserve">11.0161695480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9926624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.24338722229</t>
   </si>
   <si>
     <t xml:space="preserve">11.3139028549194</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">11.2120475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3765850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4157600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4941110610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.784010887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8466911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9250411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411195755005</t>
+    <t xml:space="preserve">11.3765840530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4157590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4941101074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7840089797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8466901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9250421524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411205291748</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291641235352</t>
@@ -992,73 +992,73 @@
     <t xml:space="preserve">11.9485464096069</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388547897339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172058105469</t>
+    <t xml:space="preserve">11.8388557434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172077178955</t>
   </si>
   <si>
     <t xml:space="preserve">11.9877223968506</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9642171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1600952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2462816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2227773666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3011264801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5126752853394</t>
+    <t xml:space="preserve">11.9642181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739097595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1600961685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2462825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2227764129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3011274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512674331665</t>
   </si>
   <si>
     <t xml:space="preserve">12.5283451080322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5361814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0347337722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3481378555298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4970054626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8025732040405</t>
+    <t xml:space="preserve">12.5361804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0347347259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3481369018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4970045089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8025741577148</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5831909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537055969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7633991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6772117614746</t>
+    <t xml:space="preserve">12.5831899642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4813356399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537065505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7634000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6772127151489</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">12.3089618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1130838394165</t>
+    <t xml:space="preserve">12.1130847930908</t>
   </si>
   <si>
     <t xml:space="preserve">12.2697868347168</t>
@@ -1076,52 +1076,52 @@
     <t xml:space="preserve">12.0660734176636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9015369415283</t>
+    <t xml:space="preserve">11.901535987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.167929649353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541160583496</t>
+    <t xml:space="preserve">12.2541170120239</t>
   </si>
   <si>
     <t xml:space="preserve">12.4891691207886</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6223678588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3324670791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.591025352478</t>
+    <t xml:space="preserve">12.6223669052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3324680328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910263061523</t>
   </si>
   <si>
     <t xml:space="preserve">12.9201002120972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9749460220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671115875244</t>
+    <t xml:space="preserve">12.9749450683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671106338501</t>
   </si>
   <si>
     <t xml:space="preserve">13.1159791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2256689071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.280517578125</t>
+    <t xml:space="preserve">13.2256698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2805166244507</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2335052490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178344726562</t>
+    <t xml:space="preserve">13.2335042953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178363800049</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003093719482</t>
@@ -1130,22 +1130,22 @@
     <t xml:space="preserve">12.9592781066895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611333847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1786584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417491912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2619504928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2932920455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.395149230957</t>
+    <t xml:space="preserve">13.0611343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1786603927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2619514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2932910919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3951482772827</t>
   </si>
   <si>
     <t xml:space="preserve">12.5048398971558</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">12.6693782806396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7320575714111</t>
+    <t xml:space="preserve">12.7320585250854</t>
   </si>
   <si>
     <t xml:space="preserve">12.7790679931641</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6850490570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846395492554</t>
+    <t xml:space="preserve">12.6850481033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846376419067</t>
   </si>
   <si>
     <t xml:space="preserve">13.2570114135742</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118562698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238145828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3510341644287</t>
+    <t xml:space="preserve">13.3118553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238136291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510322570801</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801061630249</t>
@@ -1187,79 +1187,79 @@
     <t xml:space="preserve">13.4450531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912454605103</t>
+    <t xml:space="preserve">14.2912445068359</t>
   </si>
   <si>
     <t xml:space="preserve">14.8397026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0982627868652</t>
+    <t xml:space="preserve">15.0982618331909</t>
   </si>
   <si>
     <t xml:space="preserve">15.0277462005615</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0825901031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.317645072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549629211426</t>
+    <t xml:space="preserve">15.082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176441192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549667358398</t>
   </si>
   <si>
     <t xml:space="preserve">14.9337244033813</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8553714752197</t>
+    <t xml:space="preserve">14.8553733825684</t>
   </si>
   <si>
     <t xml:space="preserve">14.7221784591675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1452732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
+    <t xml:space="preserve">15.1452722549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751651763916</t>
   </si>
   <si>
     <t xml:space="preserve">15.0669212341309</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1844491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4743480682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5605354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4351739883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.701566696167</t>
+    <t xml:space="preserve">15.1844482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.474347114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5605344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.435173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.701563835144</t>
   </si>
   <si>
     <t xml:space="preserve">15.7172355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8788785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042409896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.090428352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.200119972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157888412476</t>
+    <t xml:space="preserve">14.8788805007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042400360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0904293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374368667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001209259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157878875732</t>
   </si>
   <si>
     <t xml:space="preserve">15.3568201065063</t>
@@ -1271,67 +1271,67 @@
     <t xml:space="preserve">15.4821834564209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5918750762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702251434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858968734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.889609336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683698654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1403312683105</t>
+    <t xml:space="preserve">15.5918741226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702260971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858987808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896102905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
     <t xml:space="preserve">14.8867149353027</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7926921844482</t>
+    <t xml:space="preserve">14.7926950454712</t>
   </si>
   <si>
     <t xml:space="preserve">14.8710432052612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8390302658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548482894897</t>
+    <t xml:space="preserve">14.8390293121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149225234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548454284668</t>
   </si>
   <si>
     <t xml:space="preserve">14.3267869949341</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0306482315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8945837020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866737365723</t>
+    <t xml:space="preserve">14.030647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8945827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866727828979</t>
   </si>
   <si>
     <t xml:space="preserve">14.2467489242554</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2867679595947</t>
+    <t xml:space="preserve">14.286768913269</t>
   </si>
   <si>
     <t xml:space="preserve">14.254753112793</t>
@@ -1346,136 +1346,136 @@
     <t xml:space="preserve">14.5508918762207</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1907234191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3352632522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192548751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5273561477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2152070999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713287353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5833797454834</t>
+    <t xml:space="preserve">14.1907224655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3352642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5273542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753774642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2152061462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713277816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.583381652832</t>
   </si>
   <si>
     <t xml:space="preserve">15.807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6073942184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351709365845</t>
+    <t xml:space="preserve">15.6073932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471286773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351699829102</t>
   </si>
   <si>
     <t xml:space="preserve">15.0391254425049</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8870525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911022186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991044998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191625595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793329238892</t>
+    <t xml:space="preserve">14.8870544433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.119161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793319702148</t>
   </si>
   <si>
     <t xml:space="preserve">15.6153955459595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5353593826294</t>
+    <t xml:space="preserve">15.5353603363037</t>
   </si>
   <si>
     <t xml:space="preserve">15.6554145812988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434558868408</t>
+    <t xml:space="preserve">15.7114410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434587478638</t>
   </si>
   <si>
     <t xml:space="preserve">15.7034387588501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.62340259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113487243652</t>
+    <t xml:space="preserve">15.6233997344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113477706909</t>
   </si>
   <si>
     <t xml:space="preserve">15.3992948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4633274078369</t>
+    <t xml:space="preserve">15.4633235931396</t>
   </si>
   <si>
     <t xml:space="preserve">15.49534034729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4233064651489</t>
+    <t xml:space="preserve">15.4233055114746</t>
   </si>
   <si>
     <t xml:space="preserve">15.3672790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0711393356323</t>
+    <t xml:space="preserve">15.071138381958</t>
   </si>
   <si>
     <t xml:space="preserve">14.8230218887329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7349796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7269763946533</t>
+    <t xml:space="preserve">14.7349786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.726975440979</t>
   </si>
   <si>
     <t xml:space="preserve">15.1031551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2392177581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.462851524353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708547592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748092651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5749015808105</t>
+    <t xml:space="preserve">15.2392196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070135116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708528518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748073577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5749044418335</t>
   </si>
   <si>
     <t xml:space="preserve">14.422833442688</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">14.3107776641846</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468431472778</t>
+    <t xml:space="preserve">14.4468412399292</t>
   </si>
   <si>
     <t xml:space="preserve">14.342794418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2787666320801</t>
+    <t xml:space="preserve">14.2787647247314</t>
   </si>
   <si>
     <t xml:space="preserve">14.2627573013306</t>
@@ -1502,25 +1502,25 @@
     <t xml:space="preserve">14.1266918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747150421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6389350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.430835723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588018417358</t>
+    <t xml:space="preserve">14.1747140884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707605361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.63893699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4308366775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588008880615</t>
   </si>
   <si>
     <t xml:space="preserve">14.3347902297974</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587066650391</t>
+    <t xml:space="preserve">14.1587076187134</t>
   </si>
   <si>
     <t xml:space="preserve">13.9666166305542</t>
@@ -1532,22 +1532,22 @@
     <t xml:space="preserve">14.118688583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346940994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386505126953</t>
+    <t xml:space="preserve">14.1346960067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386514663696</t>
   </si>
   <si>
     <t xml:space="preserve">14.2387456893921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1106824874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825269699097</t>
+    <t xml:space="preserve">14.1106853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.686484336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825288772583</t>
   </si>
   <si>
     <t xml:space="preserve">13.5584230422974</t>
@@ -1556,19 +1556,19 @@
     <t xml:space="preserve">13.2862949371338</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4863891601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3903427124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1667108535767</t>
+    <t xml:space="preserve">13.4863882064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3903436660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.166711807251</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865785598755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7184963226318</t>
+    <t xml:space="preserve">13.7184982299805</t>
   </si>
   <si>
     <t xml:space="preserve">13.3023014068604</t>
@@ -1583,49 +1583,49 @@
     <t xml:space="preserve">13.1262178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2222633361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1982517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8460836410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0061597824097</t>
+    <t xml:space="preserve">13.2222623825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1982526779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8460855484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
     <t xml:space="preserve">12.8620920181274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3663330078125</t>
+    <t xml:space="preserve">13.3663311004639</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823394775391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744295120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184030532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5023956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5664281845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5264072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1742391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1502304077148</t>
+    <t xml:space="preserve">13.5744304656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5023965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.566427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5264081954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1742401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1502294540405</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741449356079</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">13.1422252655029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8540878295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7340326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661426544189</t>
+    <t xml:space="preserve">12.8540887832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7340307235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661436080933</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140707015991</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060665130615</t>
+    <t xml:space="preserve">12.8060655593872</t>
   </si>
   <si>
     <t xml:space="preserve">12.485915184021</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">12.573956489563</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2702856063843</t>
+    <t xml:space="preserve">13.2702865600586</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821491241455</t>
@@ -1673,55 +1673,55 @@
     <t xml:space="preserve">13.5424156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0706663131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7104930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3103046417236</t>
+    <t xml:space="preserve">14.0706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785734176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7104940414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183078765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062568664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3103036880493</t>
   </si>
   <si>
     <t xml:space="preserve">13.6064462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7745246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5824337005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624717712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145456314087</t>
+    <t xml:space="preserve">13.774525642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5824327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624708175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145437240601</t>
   </si>
   <si>
     <t xml:space="preserve">13.9506072998047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6704740524292</t>
+    <t xml:space="preserve">13.6704750061035</t>
   </si>
   <si>
     <t xml:space="preserve">13.862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7665214538574</t>
+    <t xml:space="preserve">13.7665233612061</t>
   </si>
   <si>
     <t xml:space="preserve">13.9986324310303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.990626335144</t>
+    <t xml:space="preserve">13.9906272888184</t>
   </si>
   <si>
     <t xml:space="preserve">13.6544675827026</t>
@@ -1730,40 +1730,40 @@
     <t xml:space="preserve">13.7985363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103979110718</t>
+    <t xml:space="preserve">13.5103988647461</t>
   </si>
   <si>
     <t xml:space="preserve">13.7905330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9826240539551</t>
+    <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6784801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224527359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.646463394165</t>
+    <t xml:space="preserve">13.6784791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224536895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6464643478394</t>
   </si>
   <si>
     <t xml:space="preserve">13.9586124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9025850296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265024185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8705711364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0786685943604</t>
+    <t xml:space="preserve">13.9025859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8705701828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0786695480347</t>
   </si>
   <si>
     <t xml:space="preserve">13.6384620666504</t>
@@ -1772,37 +1772,37 @@
     <t xml:space="preserve">13.430362701416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383659362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743352890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063520431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462749481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0301723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9581394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.742036819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3983478546143</t>
+    <t xml:space="preserve">13.438364982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743333816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063510894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0301733016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9581384658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7420349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3983469009399</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943933486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0381765365601</t>
+    <t xml:space="preserve">13.4943923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0381774902344</t>
   </si>
   <si>
     <t xml:space="preserve">12.9021129608154</t>
@@ -1814,544 +1814,544 @@
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8700971603394</t>
+    <t xml:space="preserve">12.9901542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.870096206665</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9981575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0221691131592</t>
+    <t xml:space="preserve">12.9981565475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0221681594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665884017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2340497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3931341171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4098815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7699193954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7950382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694431304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522203445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5354766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773401260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4350004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4601192474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3680152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708690643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713472366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4481296539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5820989608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043621063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9038867950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.85364818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806692123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5569772720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4648733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923734664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9756269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667783737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830476760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7411842346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7328119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983682632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634492874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0462274551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0797185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8452758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8787660598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015102386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6778173446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0294818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1299562454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4266271591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596429824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1503200531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275777816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7196798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512697219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024599075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457521438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.744800567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.912260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383275985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151138305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964651107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629749298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373788833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4397573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500328063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.607213973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9002714157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988435745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5486030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4899940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.389518737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792423248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3643989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0211067199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.92063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.113208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471780776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2304344177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.180193901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1969404220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057889938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8835229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8249139785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3811454772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718235015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220582962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9337606430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3942756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7961769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.637092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.201696395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2435607910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5198707580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1179656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.042610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0761013031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2854251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765766143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2100696563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6705837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6287174224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5282402038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3440361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928478240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1263408660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0509834289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3021717071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6957015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4827613830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2483177185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5329990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0353755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.918155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0856170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9516487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6669654846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8846645355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2028369903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679161071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2363300323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4707736968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4205341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4540252685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5545024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9229125976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2410831451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1908473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3248157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4420356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.358304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745780944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3870429992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.504264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7387065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3368034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4660167694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5210113525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8226337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7819080352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5175895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998933792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3082666397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.023585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6300554275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1156873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7269134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687797546387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144495010376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0665893554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2340497970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3931350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098806381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7699203491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7950391769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694440841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5354766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4350004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4601192474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708690643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0713472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4481315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5820970535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318593978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876165390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9038867950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806701660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5569772720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4648752212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555522918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.975625038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830476760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7411832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7328128814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634492874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0462255477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0797176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8452758789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8787660598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015083312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6778182983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0294809341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1299571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378541946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4266271591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.150318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7196817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940866470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457521438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7448015213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9122591018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1383295059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.330906867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5151138305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964651107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629720687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373807907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4397573471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500318527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.724437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.875147819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993198394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.607213973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9002695083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490812301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5486059188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4899930953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3895177841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206342697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471761703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.230432510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.180193901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1969394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8835248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8249130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3811464309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718215942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.506739616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825733184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337615966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3942756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7961769104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6370906829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2016983032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2435626983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.519868850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1179656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0426082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0761032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0258636474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2854251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765804290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2100696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.670581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6287174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5282421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3440399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928478240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0509853363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3021697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6957035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1645889282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4827613830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2483158111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5330009460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0353775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.918155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0521240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9516468048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6669654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8846645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2028350830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.867919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2363300323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4707698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4205341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4540252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.554500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9229125976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2410831451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1908473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3248138427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4420375823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3583068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3870410919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5042629241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7387084960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3368034362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4660167694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5210094451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525974273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8226327896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.781907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5175886154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998914718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3082647323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0235843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6300554275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1156873703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7269144058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687788009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.145562171936</t>
+    <t xml:space="preserve">13.1455631256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8860015869141</t>
@@ -2360,55 +2360,55 @@
     <t xml:space="preserve">13.6563129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9912328720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591695785522</t>
+    <t xml:space="preserve">13.4386167526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9912309646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591676712036</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0079784393311</t>
+    <t xml:space="preserve">14.0079793930054</t>
   </si>
   <si>
     <t xml:space="preserve">13.89075756073</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1921854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2424221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8656377792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8572654724121</t>
+    <t xml:space="preserve">14.1921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2424230575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8656387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8572645187378</t>
   </si>
   <si>
     <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8321466445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419458389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173023223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926597595215</t>
+    <t xml:space="preserve">13.832145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173013687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926588058472</t>
   </si>
   <si>
     <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6898050308228</t>
+    <t xml:space="preserve">13.6898059844971</t>
   </si>
   <si>
     <t xml:space="preserve">13.7986536026001</t>
@@ -2417,25 +2417,25 @@
     <t xml:space="preserve">13.9493684768677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828605651855</t>
+    <t xml:space="preserve">13.9828596115112</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103578567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354604721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503858566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829511642456</t>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829502105713</t>
   </si>
   <si>
     <t xml:space="preserve">15.1317310333252</t>
@@ -2453,19 +2453,19 @@
     <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.065860748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3721694946289</t>
+    <t xml:space="preserve">17.0658588409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3721714019775</t>
   </si>
   <si>
     <t xml:space="preserve">17.4684371948242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.083366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0308532714844</t>
+    <t xml:space="preserve">17.0833625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0308513641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.1358737945557</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">16.496997833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4357357025146</t>
+    <t xml:space="preserve">16.4357376098633</t>
   </si>
   <si>
     <t xml:space="preserve">16.2431964874268</t>
@@ -2501,19 +2501,19 @@
     <t xml:space="preserve">16.7157917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7858047485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3307151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4707412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7945575714111</t>
+    <t xml:space="preserve">16.7858066558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2607021331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3307132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4707431793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7945556640625</t>
   </si>
   <si>
     <t xml:space="preserve">17.2846527099609</t>
@@ -2525,19 +2525,19 @@
     <t xml:space="preserve">18.2735977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8535137176514</t>
+    <t xml:space="preserve">17.853515625</t>
   </si>
   <si>
     <t xml:space="preserve">17.941032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1160659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3436107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5361518859863</t>
+    <t xml:space="preserve">18.1160678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3436088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
     <t xml:space="preserve">18.8162040710449</t>
@@ -2546,10 +2546,10 @@
     <t xml:space="preserve">18.3086051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2911014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3261108398438</t>
+    <t xml:space="preserve">18.2910995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3261089324951</t>
   </si>
   <si>
     <t xml:space="preserve">18.4486331939697</t>
@@ -2564,28 +2564,28 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.80100440979</t>
+    <t xml:space="preserve">17.8010063171387</t>
   </si>
   <si>
     <t xml:space="preserve">17.888521194458</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8360080718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7309913635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.011043548584</t>
+    <t xml:space="preserve">17.8360118865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.730993270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0110473632812</t>
   </si>
   <si>
     <t xml:space="preserve">18.4836406707764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6236667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5011444091797</t>
+    <t xml:space="preserve">18.6236686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5011425018311</t>
   </si>
   <si>
     <t xml:space="preserve">18.8862190246582</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">19.0437488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1487674713135</t>
+    <t xml:space="preserve">19.1487712860107</t>
   </si>
   <si>
     <t xml:space="preserve">19.4988403320312</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787544250488</t>
+    <t xml:space="preserve">19.0787563323975</t>
   </si>
   <si>
     <t xml:space="preserve">19.1312675476074</t>
@@ -2633,25 +2633,25 @@
     <t xml:space="preserve">19.2537899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1137619018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562320709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3062992095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.376314163208</t>
+    <t xml:space="preserve">19.1137638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3063011169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3763160705566</t>
   </si>
   <si>
     <t xml:space="preserve">18.6936817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8337097167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7461891174316</t>
+    <t xml:space="preserve">18.8337078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7461910247803</t>
   </si>
   <si>
     <t xml:space="preserve">18.6061630249023</t>
@@ -2660,10 +2660,10 @@
     <t xml:space="preserve">18.3611164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5186462402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4136257171631</t>
+    <t xml:space="preserve">18.5186443328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4136276245117</t>
   </si>
   <si>
     <t xml:space="preserve">18.7811965942383</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">19.4463272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7438888549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489074707031</t>
+    <t xml:space="preserve">19.7438869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489093780518</t>
   </si>
   <si>
     <t xml:space="preserve">19.4813346862793</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912395477295</t>
+    <t xml:space="preserve">18.9912414550781</t>
   </si>
   <si>
     <t xml:space="preserve">19.1662731170654</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">17.2408962249756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8820743560791</t>
+    <t xml:space="preserve">16.8820762634277</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5034446716309</t>
+    <t xml:space="preserve">17.5034465789795</t>
   </si>
   <si>
     <t xml:space="preserve">18.0810585021973</t>
@@ -2726,82 +2726,82 @@
     <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0635547637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2210884094238</t>
+    <t xml:space="preserve">18.0635566711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2210865020752</t>
   </si>
   <si>
     <t xml:space="preserve">18.1685791015625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9935436248779</t>
+    <t xml:space="preserve">17.9935417175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8710174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5909652709961</t>
+    <t xml:space="preserve">17.6784820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8710193634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7659969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5909633636475</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0285491943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1335716247559</t>
+    <t xml:space="preserve">18.0285511016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1335678100586</t>
   </si>
   <si>
     <t xml:space="preserve">18.1860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5711555480957</t>
+    <t xml:space="preserve">18.5711536407471</t>
   </si>
   <si>
     <t xml:space="preserve">19.2362880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9714336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2864933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790325164795</t>
+    <t xml:space="preserve">19.9714317321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2864952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790306091309</t>
   </si>
   <si>
     <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1266574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7042713165283</t>
+    <t xml:space="preserve">21.1266613006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.704273223877</t>
   </si>
   <si>
     <t xml:space="preserve">21.8968105316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9143142700195</t>
+    <t xml:space="preserve">21.9143161773682</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793067932129</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0368366241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9668254852295</t>
+    <t xml:space="preserve">22.0368404388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
     <t xml:space="preserve">22.1593627929688</t>
@@ -2810,19 +2810,19 @@
     <t xml:space="preserve">21.9318161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">22.229377746582</t>
+    <t xml:space="preserve">22.2293758392334</t>
   </si>
   <si>
     <t xml:space="preserve">22.4219150543213</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9470157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4721202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2795829772949</t>
+    <t xml:space="preserve">22.9470176696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4721221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2795848846436</t>
   </si>
   <si>
     <t xml:space="preserve">23.8747005462646</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">22.4569225311279</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1243572235107</t>
+    <t xml:space="preserve">22.1243553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
@@ -2840,34 +2840,34 @@
     <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8595027923584</t>
+    <t xml:space="preserve">22.8595008850098</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.174560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7719821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1220531463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4546165466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7894878387451</t>
+    <t xml:space="preserve">23.1745643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7719841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1220512390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4546184539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7894897460938</t>
   </si>
   <si>
     <t xml:space="preserve">22.6144523620605</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7742862701416</t>
+    <t xml:space="preserve">21.9493236541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7742881774902</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919300079346</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">22.0018310546875</t>
   </si>
   <si>
-    <t xml:space="preserve">21.441722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7590847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3717079162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4615268707275</t>
+    <t xml:space="preserve">21.4417209625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7590866088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3717060089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4615287780762</t>
   </si>
   <si>
     <t xml:space="preserve">20.0414447784424</t>
@@ -2906,40 +2906,40 @@
     <t xml:space="preserve">21.1791706085205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7940921783447</t>
+    <t xml:space="preserve">20.7940940856934</t>
   </si>
   <si>
     <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5292377471924</t>
+    <t xml:space="preserve">21.529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">21.7567844390869</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8443012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.26438331604</t>
+    <t xml:space="preserve">21.8442993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2643852233887</t>
   </si>
   <si>
     <t xml:space="preserve">22.5969486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">22.31689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2468814849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0893478393555</t>
+    <t xml:space="preserve">22.3168926239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2468795776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
     <t xml:space="preserve">22.3343982696533</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1068515777588</t>
+    <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
     <t xml:space="preserve">21.7217769622803</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">21.1966724395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2841930389404</t>
+    <t xml:space="preserve">21.2841911315918</t>
   </si>
   <si>
     <t xml:space="preserve">22.3869094848633</t>
@@ -2969,28 +2969,28 @@
     <t xml:space="preserve">21.1441631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5817489624023</t>
+    <t xml:space="preserve">21.581750869751</t>
   </si>
   <si>
     <t xml:space="preserve">21.3016929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2491855621338</t>
+    <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
     <t xml:space="preserve">21.4767303466797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3915119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9166202545166</t>
+    <t xml:space="preserve">20.3915138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9166164398193</t>
   </si>
   <si>
     <t xml:space="preserve">21.0391445159912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5954475402832</t>
+    <t xml:space="preserve">22.5954494476318</t>
   </si>
   <si>
     <t xml:space="preserve">22.5774002075195</t>
@@ -2999,40 +2999,40 @@
     <t xml:space="preserve">22.3066864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4871635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4691162109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4149742126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6856861114502</t>
+    <t xml:space="preserve">22.4871616363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4691143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4149723052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6856842041016</t>
   </si>
   <si>
     <t xml:space="preserve">22.7398281097412</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8661613464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8842086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5593528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8300628662109</t>
+    <t xml:space="preserve">22.8661594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8842067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5593509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8300647735596</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2632064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3534393310547</t>
+    <t xml:space="preserve">23.263204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.353443145752</t>
   </si>
   <si>
     <t xml:space="preserve">23.317346572876</t>
@@ -3044,28 +3044,28 @@
     <t xml:space="preserve">22.9203014373779</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0105400085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6134948730469</t>
+    <t xml:space="preserve">23.0105381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6134929656982</t>
   </si>
   <si>
     <t xml:space="preserve">22.7037334442139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9383506774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3895378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0646820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.28125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6315422058105</t>
+    <t xml:space="preserve">22.9383487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3895359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0646800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2812519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6315441131592</t>
   </si>
   <si>
     <t xml:space="preserve">22.0540237426758</t>
@@ -3089,13 +3089,13 @@
     <t xml:space="preserve">23.5339164733887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7865829467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5700130462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9457397460938</t>
+    <t xml:space="preserve">23.7865810394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.570011138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9457378387451</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
@@ -3110,13 +3110,13 @@
     <t xml:space="preserve">22.3969249725342</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8120193481445</t>
+    <t xml:space="preserve">22.8120174407959</t>
   </si>
   <si>
     <t xml:space="preserve">23.0466365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5413036346436</t>
+    <t xml:space="preserve">22.5413055419922</t>
   </si>
   <si>
     <t xml:space="preserve">22.3247356414795</t>
@@ -3125,19 +3125,19 @@
     <t xml:space="preserve">22.0720691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2344989776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5232582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2090625762939</t>
+    <t xml:space="preserve">22.2344970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5232563018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2090606689453</t>
   </si>
   <si>
     <t xml:space="preserve">23.1368713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0827293395996</t>
+    <t xml:space="preserve">23.0827312469482</t>
   </si>
   <si>
     <t xml:space="preserve">23.1729679107666</t>
@@ -3155,34 +3155,34 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4617290496826</t>
+    <t xml:space="preserve">23.4617252349854</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992973327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8046283721924</t>
+    <t xml:space="preserve">23.2992992401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.804630279541</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5519638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8948650360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9851055145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0572929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5265274047852</t>
+    <t xml:space="preserve">23.551965713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8948669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9851036071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0572948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5265293121338</t>
   </si>
   <si>
     <t xml:space="preserve">25.1581916809082</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">24.8333358764648</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7430992126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3206176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6922245025635</t>
+    <t xml:space="preserve">24.7430973052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3206157684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6922264099121</t>
   </si>
   <si>
     <t xml:space="preserve">26.9629383087158</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">27.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8653106689453</t>
+    <t xml:space="preserve">27.8653125762939</t>
   </si>
   <si>
     <t xml:space="preserve">28.15407371521</t>
@@ -3221,13 +3221,13 @@
     <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3345470428467</t>
+    <t xml:space="preserve">28.334545135498</t>
   </si>
   <si>
     <t xml:space="preserve">28.2443084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4863147735596</t>
+    <t xml:space="preserve">27.4863128662109</t>
   </si>
   <si>
     <t xml:space="preserve">28.2804050445557</t>
@@ -3239,13 +3239,13 @@
     <t xml:space="preserve">27.8472652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0999279022217</t>
+    <t xml:space="preserve">28.0999298095703</t>
   </si>
   <si>
     <t xml:space="preserve">27.7570285797119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0351295471191</t>
+    <t xml:space="preserve">27.0351257324219</t>
   </si>
   <si>
     <t xml:space="preserve">26.4937038421631</t>
@@ -3257,19 +3257,19 @@
     <t xml:space="preserve">26.4756565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5839405059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2590885162354</t>
+    <t xml:space="preserve">26.6380825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5839385986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2590866088867</t>
   </si>
   <si>
     <t xml:space="preserve">26.2951812744141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6019878387451</t>
+    <t xml:space="preserve">26.6019897460938</t>
   </si>
   <si>
     <t xml:space="preserve">26.1688480377197</t>
@@ -3278,16 +3278,16 @@
     <t xml:space="preserve">26.2049465179443</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8726997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8078994750977</t>
+    <t xml:space="preserve">26.8727016448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8079013824463</t>
   </si>
   <si>
     <t xml:space="preserve">25.591329574585</t>
   </si>
   <si>
-    <t xml:space="preserve">25.753755569458</t>
+    <t xml:space="preserve">25.7537593841553</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">25.7718029022217</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3386669158936</t>
+    <t xml:space="preserve">25.3386650085449</t>
   </si>
   <si>
     <t xml:space="preserve">25.5552349090576</t>
@@ -3326,52 +3326,52 @@
     <t xml:space="preserve">25.6635208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.699613571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5117492675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8620433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9235744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8694305419922</t>
+    <t xml:space="preserve">25.6996154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5117511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8620414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9235725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8694286346436</t>
   </si>
   <si>
     <t xml:space="preserve">24.2738628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1294822692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9670562744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7759208679199</t>
+    <t xml:space="preserve">24.1294841766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9670543670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.606107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549205780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
     <t xml:space="preserve">23.118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">23.479772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4330196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9022541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510669708252</t>
+    <t xml:space="preserve">23.4797744750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4330215454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9022560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510688781738</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3380,34 +3380,34 @@
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217788696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652645111084</t>
+    <t xml:space="preserve">22.7217807769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652626037598</t>
   </si>
   <si>
     <t xml:space="preserve">22.1442623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7111225128174</t>
+    <t xml:space="preserve">21.7111186981201</t>
   </si>
   <si>
     <t xml:space="preserve">21.4765033721924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3140773773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9490089416504</t>
+    <t xml:space="preserve">21.3140754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.949010848999</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957618713379</t>
+    <t xml:space="preserve">24.9957637786865</t>
   </si>
   <si>
     <t xml:space="preserve">24.0933895111084</t>
@@ -3419,19 +3419,19 @@
     <t xml:space="preserve">23.9309616088867</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5732803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0531749725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3854198455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493232727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.735710144043</t>
+    <t xml:space="preserve">25.5732822418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0531768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3854179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493251800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7357082366943</t>
   </si>
   <si>
     <t xml:space="preserve">26.7644157409668</t>
@@ -3440,25 +3440,25 @@
     <t xml:space="preserve">27.2156028747559</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0966606140137</t>
+    <t xml:space="preserve">26.096658706665</t>
   </si>
   <si>
     <t xml:space="preserve">26.6561336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4395618438721</t>
+    <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
     <t xml:space="preserve">27.1614608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">27.919454574585</t>
+    <t xml:space="preserve">27.9194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
   </si>
   <si>
-    <t xml:space="preserve">28.370641708374</t>
+    <t xml:space="preserve">28.3706436157227</t>
   </si>
   <si>
     <t xml:space="preserve">28.316499710083</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233043670654</t>
+    <t xml:space="preserve">28.6233062744141</t>
   </si>
   <si>
     <t xml:space="preserve">28.6774501800537</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">28.3886871337891</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5691623687744</t>
+    <t xml:space="preserve">28.569164276123</t>
   </si>
   <si>
     <t xml:space="preserve">28.7315921783447</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3271579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1105880737305</t>
+    <t xml:space="preserve">29.3271598815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1105861663818</t>
   </si>
   <si>
     <t xml:space="preserve">29.0744953155518</t>
@@ -3506,25 +3506,25 @@
     <t xml:space="preserve">29.2008266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7676849365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.424783706665</t>
+    <t xml:space="preserve">28.7676868438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4247856140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.2082138061523</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8366069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8005104064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5043621063232</t>
+    <t xml:space="preserve">26.8366050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8005123138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5043640136719</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3539,10 +3539,10 @@
     <t xml:space="preserve">30.1392955780029</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1753902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3739128112793</t>
+    <t xml:space="preserve">30.1753883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3739147186279</t>
   </si>
   <si>
     <t xml:space="preserve">30.680721282959</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115501403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2924766540527</t>
+    <t xml:space="preserve">31.8115482330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.29248046875</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436462402344</t>
+    <t xml:space="preserve">30.6436443328857</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548713684082</t>
+    <t xml:space="preserve">30.7548732757568</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229782104492</t>
+    <t xml:space="preserve">28.6229801177979</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375972747803</t>
+    <t xml:space="preserve">28.4375991821289</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4736099243164</t>
+    <t xml:space="preserve">27.473611831665</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7887592315674</t>
+    <t xml:space="preserve">27.788761138916</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.548828125</t>
+    <t xml:space="preserve">28.5488262176514</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0308208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381294250488</t>
+    <t xml:space="preserve">29.030818939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381275177002</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3653,13 +3653,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718162536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1791248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892932891846</t>
+    <t xml:space="preserve">29.2718181610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.179126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892913818359</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522144317627</t>
+    <t xml:space="preserve">28.2522163391113</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1605854034424</t>
+    <t xml:space="preserve">29.160587310791</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3695,13 +3695,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037094116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149402618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851718902588</t>
+    <t xml:space="preserve">31.4037113189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851737976074</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857021331787</t>
+    <t xml:space="preserve">31.8857040405273</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3728,16 +3728,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081619262695</t>
+    <t xml:space="preserve">32.1081581115723</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274326324463</t>
+    <t xml:space="preserve">31.4778633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274307250977</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9206523895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094253540039</t>
+    <t xml:space="preserve">29.920654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094234466553</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3779,19 +3779,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942760467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393909454346</t>
+    <t xml:space="preserve">29.4942741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393928527832</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944770812988</t>
+    <t xml:space="preserve">26.0276317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944751739502</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607864379883</t>
+    <t xml:space="preserve">25.8607883453369</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787937164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.230489730835</t>
+    <t xml:space="preserve">25.3787956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2304878234863</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3830,13 +3830,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179954528809</t>
+    <t xml:space="preserve">27.4179973602295</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600570678711</t>
+    <t xml:space="preserve">28.6600551605225</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8454399108887</t>
+    <t xml:space="preserve">28.84543800354</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746742248535</t>
+    <t xml:space="preserve">28.4746723175049</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3872,22 +3872,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.400520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443756103516</t>
+    <t xml:space="preserve">28.4005222320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443775177002</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.918529510498</t>
+    <t xml:space="preserve">27.9185276031494</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.658992767334</t>
+    <t xml:space="preserve">27.6589946746826</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702236175537</t>
+    <t xml:space="preserve">27.7702217102051</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3438453674316</t>
+    <t xml:space="preserve">27.343843460083</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3932,16 +3932,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090942382812</t>
+    <t xml:space="preserve">26.0090923309326</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.656867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495594024658</t>
+    <t xml:space="preserve">25.6568698883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495613098145</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3953,7 +3953,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383304595947</t>
+    <t xml:space="preserve">25.6383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3962,7 +3962,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237133026123</t>
+    <t xml:space="preserve">25.8237113952637</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096244812012</t>
+    <t xml:space="preserve">26.5096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012554168701</t>
+    <t xml:space="preserve">25.6012535095215</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4007,10 +4007,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007213592529</t>
+    <t xml:space="preserve">24.7114200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007232666016</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962707519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108898162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445747375488</t>
+    <t xml:space="preserve">24.3962688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108879089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445766448975</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.082181930542</t>
+    <t xml:space="preserve">25.0821838378906</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4055,22 +4055,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.896800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.360258102417</t>
+    <t xml:space="preserve">24.8968029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3602561950684</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6754055023193</t>
+    <t xml:space="preserve">25.675407409668</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950054168701</t>
+    <t xml:space="preserve">26.6950073242188</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4082,13 +4082,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866363525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748752593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816535949707</t>
+    <t xml:space="preserve">25.7866344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816516876221</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714851379395</t>
+    <t xml:space="preserve">25.4714870452881</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>
@@ -4749,6 +4749,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.5599994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2600002288818</t>
   </si>
 </sst>
 </file>
@@ -62004,7 +62007,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6494328704</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>279285</v>
@@ -62025,6 +62028,32 @@
         <v>1578</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.649537037</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>343484</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>23.5599994659424</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>22.8999996185303</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>23.5599994659424</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>23.2600002288818</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1581">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85120964050293</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55665016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674884796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26927185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57101917266846</t>
+    <t xml:space="preserve">8.79373455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55664825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26927280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57101821899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.53509712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47762012481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3626708984375</t>
+    <t xml:space="preserve">8.47762107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36266899108887</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684658050537</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">8.29082584381104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9818959236145</t>
+    <t xml:space="preserve">7.98189496994019</t>
   </si>
   <si>
     <t xml:space="preserve">8.08247756958008</t>
@@ -86,19 +86,19 @@
     <t xml:space="preserve">8.24053573608398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38422393798828</t>
+    <t xml:space="preserve">8.38422203063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.28364181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645778656006</t>
+    <t xml:space="preserve">8.27645874023438</t>
   </si>
   <si>
     <t xml:space="preserve">8.26208782196045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1902437210083</t>
+    <t xml:space="preserve">8.19024467468262</t>
   </si>
   <si>
     <t xml:space="preserve">8.11121654510498</t>
@@ -110,55 +110,55 @@
     <t xml:space="preserve">7.65859699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81665468215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7448091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461273193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12558555603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83820724487305</t>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74481010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12558364868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83820772171021</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073120117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9244213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93878936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04655456542969</t>
+    <t xml:space="preserve">7.78073167800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92441987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.046555519104</t>
   </si>
   <si>
     <t xml:space="preserve">8.17587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08966255187988</t>
+    <t xml:space="preserve">8.08966159820557</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529354095459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276863098145</t>
+    <t xml:space="preserve">8.13276672363281</t>
   </si>
   <si>
     <t xml:space="preserve">7.93160486221313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97471189498901</t>
+    <t xml:space="preserve">7.9747109413147</t>
   </si>
   <si>
     <t xml:space="preserve">8.10402965545654</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">8.21898078918457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33393383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59975719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70033740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596839904785</t>
+    <t xml:space="preserve">8.33393096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59975624084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70033836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68597030639648</t>
   </si>
   <si>
     <t xml:space="preserve">8.59257221221924</t>
@@ -188,31 +188,31 @@
     <t xml:space="preserve">8.54228115081787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40577697753906</t>
+    <t xml:space="preserve">8.40577602386475</t>
   </si>
   <si>
     <t xml:space="preserve">8.31237888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36985397338867</t>
+    <t xml:space="preserve">8.36985492706299</t>
   </si>
   <si>
     <t xml:space="preserve">8.34111595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49917507171631</t>
+    <t xml:space="preserve">8.49917411804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45606803894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043704986572</t>
+    <t xml:space="preserve">8.45606899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41296100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043609619141</t>
   </si>
   <si>
     <t xml:space="preserve">8.22616577148438</t>
@@ -224,55 +224,55 @@
     <t xml:space="preserve">8.15432167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16150569915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23334980010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626398086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44169807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30519485473633</t>
+    <t xml:space="preserve">8.16150665283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2333517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218650817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169998168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30519676208496</t>
   </si>
   <si>
     <t xml:space="preserve">8.07527351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05273818969727</t>
+    <t xml:space="preserve">8.05273914337158</t>
   </si>
   <si>
     <t xml:space="preserve">8.24804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33067798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23302364349365</t>
+    <t xml:space="preserve">8.18795204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3306770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23302268981934</t>
   </si>
   <si>
     <t xml:space="preserve">8.18043994903564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16541576385498</t>
+    <t xml:space="preserve">8.14288234710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1654167175293</t>
   </si>
   <si>
     <t xml:space="preserve">8.21048736572266</t>
@@ -287,43 +287,43 @@
     <t xml:space="preserve">7.73723936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188278198242</t>
+    <t xml:space="preserve">7.51188182830811</t>
   </si>
   <si>
     <t xml:space="preserve">7.45178699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286403656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991598129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82737970352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69968032836914</t>
+    <t xml:space="preserve">7.30530595779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286451339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991788864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82738208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967889785767</t>
   </si>
   <si>
     <t xml:space="preserve">7.7672872543335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30906200408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253307342529</t>
+    <t xml:space="preserve">7.30906057357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253259658813</t>
   </si>
   <si>
     <t xml:space="preserve">7.4029598236084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216680526733</t>
+    <t xml:space="preserve">7.54944038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216775894165</t>
   </si>
   <si>
     <t xml:space="preserve">7.80484628677368</t>
@@ -332,160 +332,160 @@
     <t xml:space="preserve">7.94005966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460777282715</t>
+    <t xml:space="preserve">7.65460729598999</t>
   </si>
   <si>
     <t xml:space="preserve">7.33910894393921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46681213378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948923110962</t>
+    <t xml:space="preserve">7.46681118011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57948875427246</t>
   </si>
   <si>
     <t xml:space="preserve">7.54193019866943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60202407836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977373123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68465662002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704969406128</t>
+    <t xml:space="preserve">7.60202360153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977468490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.684654712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61704874038696</t>
   </si>
   <si>
     <t xml:space="preserve">7.66212034225464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63207244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7447509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63958311080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77479887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59451103210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4968581199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456083297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.707190990448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67714405059814</t>
+    <t xml:space="preserve">7.63207197189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475145339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63958501815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77479934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59451246261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49685859680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934698104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62455987930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714357376099</t>
   </si>
   <si>
     <t xml:space="preserve">7.81986999511719</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85742902755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953760147095</t>
+    <t xml:space="preserve">7.85742950439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953664779663</t>
   </si>
   <si>
     <t xml:space="preserve">7.57197761535645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50437164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807836532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310255050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056722640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752338409424</t>
+    <t xml:space="preserve">7.50436973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47807931900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4705662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9175238609314</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996435165405</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91001319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757127761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029674530029</t>
+    <t xml:space="preserve">7.91001224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94757270812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029769897461</t>
   </si>
   <si>
     <t xml:space="preserve">7.75226211547852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81235694885254</t>
+    <t xml:space="preserve">7.81235790252686</t>
   </si>
   <si>
     <t xml:space="preserve">7.87245225906372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71470403671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7222146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427585601807</t>
+    <t xml:space="preserve">7.71470308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963052749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427490234375</t>
   </si>
   <si>
     <t xml:space="preserve">7.39169311523438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58700180053711</t>
+    <t xml:space="preserve">7.58700227737427</t>
   </si>
   <si>
     <t xml:space="preserve">7.52690505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51939535140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554256439209</t>
+    <t xml:space="preserve">7.51939487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554304122925</t>
   </si>
   <si>
     <t xml:space="preserve">7.38418006896973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28652667999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50812673568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53441715240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92595529556274</t>
+    <t xml:space="preserve">7.2865252494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5081262588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53441905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403781890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
     <t xml:space="preserve">7.02736568450928</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">6.98605155944824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97102546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990148544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219972610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975923538208</t>
+    <t xml:space="preserve">6.97102642059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92220020294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332418441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975971221924</t>
   </si>
   <si>
     <t xml:space="preserve">6.94849109649658</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">6.92971181869507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956861495972</t>
+    <t xml:space="preserve">6.8395676612854</t>
   </si>
   <si>
     <t xml:space="preserve">6.81327676773071</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">6.89215183258057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83581304550171</t>
+    <t xml:space="preserve">6.83581399917603</t>
   </si>
   <si>
     <t xml:space="preserve">6.79449796676636</t>
@@ -533,61 +533,61 @@
     <t xml:space="preserve">6.79074144363403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90341997146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03112173080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01985454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0160984992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384767532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638395309448</t>
+    <t xml:space="preserve">6.90342044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03112268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717554092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0198540687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01609802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1738486289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638442993164</t>
   </si>
   <si>
     <t xml:space="preserve">7.47432231903076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56446552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972726821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695390701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982067108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88747692108154</t>
+    <t xml:space="preserve">7.5644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695343017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7898211479187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78230953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88747549057007</t>
   </si>
   <si>
     <t xml:space="preserve">7.98513126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79733467102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776237487793</t>
+    <t xml:space="preserve">7.79733419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776142120361</t>
   </si>
   <si>
     <t xml:space="preserve">8.10532188415527</t>
@@ -605,55 +605,55 @@
     <t xml:space="preserve">8.20297527313232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21799945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49594020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26307106018066</t>
+    <t xml:space="preserve">8.21799850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49593925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
     <t xml:space="preserve">8.25555801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30814170837402</t>
+    <t xml:space="preserve">8.30814266204834</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091602325439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5635461807251</t>
+    <t xml:space="preserve">8.56354713439941</t>
   </si>
   <si>
     <t xml:space="preserve">8.57857036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69875907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76636695861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7738790512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72880840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78890323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86402034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87904453277588</t>
+    <t xml:space="preserve">8.69876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76636505126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77388000488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72880744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78890228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75134372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8264627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86402130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8790454864502</t>
   </si>
   <si>
     <t xml:space="preserve">8.88655662536621</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">8.91660404205322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99172306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96918678283691</t>
+    <t xml:space="preserve">8.99172401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.9391393661499</t>
@@ -674,31 +674,31 @@
     <t xml:space="preserve">8.98421096801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89406871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378421783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60110569000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51096248626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42833232879639</t>
+    <t xml:space="preserve">8.89406967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378231048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60110473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42833137512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.61612987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53349781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5410099029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73631954193115</t>
+    <t xml:space="preserve">8.53349876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54101085662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73632049560547</t>
   </si>
   <si>
     <t xml:space="preserve">8.80392646789551</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">8.9616756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85651016235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10440158843994</t>
+    <t xml:space="preserve">8.85650825500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10439968109131</t>
   </si>
   <si>
     <t xml:space="preserve">9.2611026763916</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42563915252686</t>
+    <t xml:space="preserve">9.42564105987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.3472900390625</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">9.36295986175537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44914627075195</t>
+    <t xml:space="preserve">9.44914722442627</t>
   </si>
   <si>
     <t xml:space="preserve">9.41780662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46481513977051</t>
+    <t xml:space="preserve">9.46481609344482</t>
   </si>
   <si>
     <t xml:space="preserve">9.51966190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53533363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80172729492188</t>
+    <t xml:space="preserve">9.53533267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80172634124756</t>
   </si>
   <si>
     <t xml:space="preserve">9.8565731048584</t>
@@ -761,37 +761,37 @@
     <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74687957763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77822017669678</t>
+    <t xml:space="preserve">9.74688053131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">9.79389095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69987010955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8487377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59801292419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6920337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6215181350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64502334594727</t>
+    <t xml:space="preserve">9.69986915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59801387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69203472137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62151908874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
     <t xml:space="preserve">9.58234214782715</t>
@@ -803,22 +803,22 @@
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.558837890625</t>
+    <t xml:space="preserve">9.55883884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.72337532043457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7703857421875</t>
+    <t xml:space="preserve">9.77038669586182</t>
   </si>
   <si>
     <t xml:space="preserve">9.75471591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48832035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182842254639</t>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
   </si>
   <si>
     <t xml:space="preserve">9.50399208068848</t>
@@ -830,31 +830,31 @@
     <t xml:space="preserve">9.63718891143799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67636585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70770454406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83306694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0211095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1543054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.326678276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3031730651855</t>
+    <t xml:space="preserve">9.67636489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7077054977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83306789398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1543064117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3266792297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3031740188599</t>
   </si>
   <si>
     <t xml:space="preserve">10.2326583862305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2561626434326</t>
+    <t xml:space="preserve">10.2561635971069</t>
   </si>
   <si>
     <t xml:space="preserve">10.1621417999268</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">10.2248220443726</t>
   </si>
   <si>
-    <t xml:space="preserve">10.295337677002</t>
+    <t xml:space="preserve">10.2953386306763</t>
   </si>
   <si>
     <t xml:space="preserve">10.3893613815308</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">10.4285364151001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912157058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695667266846</t>
+    <t xml:space="preserve">10.4912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695676803589</t>
   </si>
   <si>
     <t xml:space="preserve">10.6165781021118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6244134902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5225563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.483380317688</t>
+    <t xml:space="preserve">10.6244144439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.522557258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
     <t xml:space="preserve">10.5068864822388</t>
@@ -899,52 +899,52 @@
     <t xml:space="preserve">10.6635885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6870937347412</t>
+    <t xml:space="preserve">10.6870946884155</t>
   </si>
   <si>
     <t xml:space="preserve">10.6479177474976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6557550430298</t>
+    <t xml:space="preserve">10.6557531356812</t>
   </si>
   <si>
     <t xml:space="preserve">10.6087427139282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5930738449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852384567261</t>
+    <t xml:space="preserve">10.5930728912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852375030518</t>
   </si>
   <si>
     <t xml:space="preserve">10.5382280349731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5460624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5147218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7027654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0004978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0475091934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0318384170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0631799697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.976993560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240030288696</t>
+    <t xml:space="preserve">10.5460605621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5147228240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7027635574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0004987716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0475101470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0318374633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0631790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9769926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240039825439</t>
   </si>
   <si>
     <t xml:space="preserve">11.0161695480347</t>
@@ -956,31 +956,31 @@
     <t xml:space="preserve">11.24338722229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139028549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2120475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3765840530396</t>
+    <t xml:space="preserve">11.3139019012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.21204662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3765850067139</t>
   </si>
   <si>
     <t xml:space="preserve">11.4157590866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4941101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7840089797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8466901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9250421524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411205291748</t>
+    <t xml:space="preserve">11.4941110610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.784010887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8466911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9250411987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411195755005</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291641235352</t>
@@ -992,34 +992,34 @@
     <t xml:space="preserve">11.9485464096069</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8388557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9172077178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9877223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9642181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0739097595215</t>
+    <t xml:space="preserve">11.8388547897339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9172058105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9877233505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9642171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0739078521729</t>
   </si>
   <si>
     <t xml:space="preserve">12.1600961685181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2462825775146</t>
+    <t xml:space="preserve">12.246280670166</t>
   </si>
   <si>
     <t xml:space="preserve">12.2227764129639</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3011274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512674331665</t>
+    <t xml:space="preserve">12.3011255264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5126752853394</t>
   </si>
   <si>
     <t xml:space="preserve">12.5283451080322</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">12.5361804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0347347259521</t>
+    <t xml:space="preserve">12.0347328186035</t>
   </si>
   <si>
     <t xml:space="preserve">12.3794794082642</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">12.3481369018555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970045089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8025741577148</t>
+    <t xml:space="preserve">12.4970054626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8025732040405</t>
   </si>
   <si>
     <t xml:space="preserve">12.8574199676514</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">12.5831899642944</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4813356399536</t>
+    <t xml:space="preserve">12.4813346862793</t>
   </si>
   <si>
     <t xml:space="preserve">12.6537065505981</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">12.7634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772127151489</t>
+    <t xml:space="preserve">12.6772117614746</t>
   </si>
   <si>
     <t xml:space="preserve">12.6458721160889</t>
@@ -1067,25 +1067,25 @@
     <t xml:space="preserve">12.3089618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1130847930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2697868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0660734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.901535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.167929649353</t>
+    <t xml:space="preserve">12.1130857467651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2697877883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0660753250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9015369415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1679315567017</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541170120239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4891691207886</t>
+    <t xml:space="preserve">12.4891700744629</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223669052124</t>
@@ -1097,115 +1097,115 @@
     <t xml:space="preserve">12.5910263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9201002120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9749450683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9671106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1159791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256698608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805166244507</t>
+    <t xml:space="preserve">12.9201011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9749479293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9671115875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1159801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256689071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.280517578125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2335042953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178363800049</t>
+    <t xml:space="preserve">13.2335052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178354263306</t>
   </si>
   <si>
     <t xml:space="preserve">13.1003093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9592781066895</t>
+    <t xml:space="preserve">12.9592761993408</t>
   </si>
   <si>
     <t xml:space="preserve">13.0611343383789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786603927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8417501449585</t>
+    <t xml:space="preserve">13.1786584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8417491912842</t>
   </si>
   <si>
     <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2932910919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3951482772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048398971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6693782806396</t>
+    <t xml:space="preserve">12.2932920455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.395149230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048408508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6693773269653</t>
   </si>
   <si>
     <t xml:space="preserve">12.7320585250854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7790679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850481033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0846376419067</t>
+    <t xml:space="preserve">12.7790689468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0846395492554</t>
   </si>
   <si>
     <t xml:space="preserve">13.2570114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1081438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3118553161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238136291504</t>
+    <t xml:space="preserve">13.1081428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3118562698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238145828247</t>
   </si>
   <si>
     <t xml:space="preserve">13.3510322570801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6801061630249</t>
+    <t xml:space="preserve">13.6801052093506</t>
   </si>
   <si>
     <t xml:space="preserve">13.4450531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0982618331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0277462005615</t>
+    <t xml:space="preserve">14.2912454605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0982637405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0277471542358</t>
   </si>
   <si>
     <t xml:space="preserve">15.082592010498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3176441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2549667358398</t>
+    <t xml:space="preserve">15.317645072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2549648284912</t>
   </si>
   <si>
     <t xml:space="preserve">14.9337244033813</t>
@@ -1214,97 +1214,97 @@
     <t xml:space="preserve">14.8553733825684</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7221784591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1452722549438</t>
+    <t xml:space="preserve">14.7221765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1452741622925</t>
   </si>
   <si>
     <t xml:space="preserve">14.6751651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0669212341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474347114563</t>
+    <t xml:space="preserve">15.0669221878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844491958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4743480682373</t>
   </si>
   <si>
     <t xml:space="preserve">15.5605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">15.435173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.701563835144</t>
+    <t xml:space="preserve">15.4351720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7015676498413</t>
   </si>
   <si>
     <t xml:space="preserve">15.7172355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8788805007935</t>
+    <t xml:space="preserve">14.8788776397705</t>
   </si>
   <si>
     <t xml:space="preserve">15.0042400360107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0904293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1374368667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157878875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3568201065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4978542327881</t>
+    <t xml:space="preserve">15.0904273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1374387741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.200119972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157888412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3568210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4978551864624</t>
   </si>
   <si>
     <t xml:space="preserve">15.4821834564209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5918741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6702260971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6310501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858987808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896102905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8269290924072</t>
+    <t xml:space="preserve">15.5918750762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6702241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858978271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8896083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683727264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8269300460815</t>
   </si>
   <si>
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926950454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390293121338</t>
+    <t xml:space="preserve">14.8867130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710422515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390283584595</t>
   </si>
   <si>
     <t xml:space="preserve">14.9750919342041</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">14.6149225234985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4548454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3267869949341</t>
+    <t xml:space="preserve">14.4548463821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3267879486084</t>
   </si>
   <si>
     <t xml:space="preserve">14.030647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8945827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0866727828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2467489242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.286768913269</t>
+    <t xml:space="preserve">13.8945808410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0866737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2467479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
     <t xml:space="preserve">14.254753112793</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">14.3668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5348863601685</t>
+    <t xml:space="preserve">14.5348854064941</t>
   </si>
   <si>
     <t xml:space="preserve">14.5508918762207</t>
@@ -1349,34 +1349,34 @@
     <t xml:space="preserve">14.1907224655151</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3352642059326</t>
+    <t xml:space="preserve">15.335262298584</t>
   </si>
   <si>
     <t xml:space="preserve">15.3192558288574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5273542404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5753774642944</t>
+    <t xml:space="preserve">15.5273561477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5753784179688</t>
   </si>
   <si>
     <t xml:space="preserve">15.2152061462402</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4713277816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.583381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.807487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6073932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6954364776611</t>
+    <t xml:space="preserve">15.4713306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5833826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8074884414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6073951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6954374313354</t>
   </si>
   <si>
     <t xml:space="preserve">15.0471286773682</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">15.1351699829102</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0391254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870544433594</t>
+    <t xml:space="preserve">15.0391235351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870525360107</t>
   </si>
   <si>
     <t xml:space="preserve">14.9911003112793</t>
@@ -1400,100 +1400,100 @@
     <t xml:space="preserve">14.9991054534912</t>
   </si>
   <si>
-    <t xml:space="preserve">15.119161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4793319702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6153955459595</t>
+    <t xml:space="preserve">15.1191606521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4793338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6153974533081</t>
   </si>
   <si>
     <t xml:space="preserve">15.5353603363037</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6554145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7114410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434587478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034387588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233997344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113477706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992948532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4633235931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.49534034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672790527344</t>
+    <t xml:space="preserve">15.6554155349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7114419937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234035491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113487243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4633255004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4953422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4233074188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.367280960083</t>
   </si>
   <si>
     <t xml:space="preserve">15.071138381958</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8230218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
+    <t xml:space="preserve">14.8230228424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.734977722168</t>
   </si>
   <si>
     <t xml:space="preserve">14.726975440979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1031551361084</t>
+    <t xml:space="preserve">15.1031532287598</t>
   </si>
   <si>
     <t xml:space="preserve">15.2392196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8070135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4628505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4708528518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5749044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.422833442688</t>
+    <t xml:space="preserve">14.807014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4628524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4708557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5749034881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
     <t xml:space="preserve">14.3107776641846</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468412399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.342794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2787647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627573013306</t>
+    <t xml:space="preserve">14.4468431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3427934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2787637710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627582550049</t>
   </si>
   <si>
     <t xml:space="preserve">14.294771194458</t>
@@ -1502,19 +1502,19 @@
     <t xml:space="preserve">14.1266918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707605361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.63893699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4308366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588008880615</t>
+    <t xml:space="preserve">14.1747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6389350891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.430835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588027954102</t>
   </si>
   <si>
     <t xml:space="preserve">14.3347902297974</t>
@@ -1526,40 +1526,40 @@
     <t xml:space="preserve">13.9666166305542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0466537475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.118688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346960067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0386514663696</t>
+    <t xml:space="preserve">14.0466547012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1186876296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0386505126953</t>
   </si>
   <si>
     <t xml:space="preserve">14.2387456893921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1106853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.686484336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584230422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2862949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4863882064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3903436660767</t>
+    <t xml:space="preserve">14.1106834411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6864833831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.558422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2862939834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4863891601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
     <t xml:space="preserve">14.166711807251</t>
@@ -1580,37 +1580,37 @@
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262178421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2222623825073</t>
+    <t xml:space="preserve">13.1262168884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
     <t xml:space="preserve">13.1982526779175</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8460855484009</t>
+    <t xml:space="preserve">12.8460826873779</t>
   </si>
   <si>
     <t xml:space="preserve">13.006160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8620920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3663311004639</t>
+    <t xml:space="preserve">12.8620929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3663330078125</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823394775391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5744304656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5184020996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984401702881</t>
+    <t xml:space="preserve">13.5744295120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
@@ -1619,31 +1619,31 @@
     <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5264081954956</t>
+    <t xml:space="preserve">13.5264072418213</t>
   </si>
   <si>
     <t xml:space="preserve">13.1742401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1502294540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9741449356079</t>
+    <t xml:space="preserve">13.1502304077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9741458892822</t>
   </si>
   <si>
     <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1422252655029</t>
+    <t xml:space="preserve">13.1422262191772</t>
   </si>
   <si>
     <t xml:space="preserve">12.8540887832642</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7340307235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9661436080933</t>
+    <t xml:space="preserve">12.7340316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140707015991</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">12.7500400543213</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060655593872</t>
+    <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
     <t xml:space="preserve">12.485915184021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.573956489563</t>
+    <t xml:space="preserve">12.5739555358887</t>
   </si>
   <si>
     <t xml:space="preserve">13.2702865600586</t>
@@ -1673,22 +1673,22 @@
     <t xml:space="preserve">13.5424156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0706644058228</t>
+    <t xml:space="preserve">14.0706653594971</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785734176636</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7104940414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3183078765869</t>
+    <t xml:space="preserve">13.7104930877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3183088302612</t>
   </si>
   <si>
     <t xml:space="preserve">13.2062568664551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3103036880493</t>
+    <t xml:space="preserve">13.3103055953979</t>
   </si>
   <si>
     <t xml:space="preserve">13.6064462661743</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">13.774525642395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5824327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6624708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8145437240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9506072998047</t>
+    <t xml:space="preserve">13.5824346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6624727249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8145446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9506063461304</t>
   </si>
   <si>
     <t xml:space="preserve">13.6704750061035</t>
@@ -1715,22 +1715,22 @@
     <t xml:space="preserve">13.862566947937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7665233612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986324310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544675827026</t>
+    <t xml:space="preserve">13.7665205001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.998631477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544694900513</t>
   </si>
   <si>
     <t xml:space="preserve">13.7985363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103988647461</t>
+    <t xml:space="preserve">13.5103979110718</t>
   </si>
   <si>
     <t xml:space="preserve">13.7905330657959</t>
@@ -1739,106 +1739,106 @@
     <t xml:space="preserve">13.9826231002808</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0066356658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6784791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224536895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6464643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9586124420166</t>
+    <t xml:space="preserve">14.0066337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6784801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6464624404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9586133956909</t>
   </si>
   <si>
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265014648438</t>
+    <t xml:space="preserve">13.7265024185181</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705701828003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0786695480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6384620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.430362701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.438364982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3743333816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4063510894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2462739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0301733016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9581384658813</t>
+    <t xml:space="preserve">14.078670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6384611129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4303636550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4383668899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3743362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4063501358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2462749481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0301723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.958137512207</t>
   </si>
   <si>
     <t xml:space="preserve">12.7420349121094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3983469009399</t>
+    <t xml:space="preserve">13.3983478546143</t>
   </si>
   <si>
     <t xml:space="preserve">13.4703817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
+    <t xml:space="preserve">13.4943943023682</t>
   </si>
   <si>
     <t xml:space="preserve">13.0381774902344</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9021129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9101152420044</t>
+    <t xml:space="preserve">12.9021110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9101142883301</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901542663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.870096206665</t>
+    <t xml:space="preserve">12.9901533126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8700971603394</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9981565475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0221681594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0665884017944</t>
+    <t xml:space="preserve">12.9981575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0221691131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144495010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0665893554688</t>
   </si>
   <si>
     <t xml:space="preserve">14.2340497970581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3931341171265</t>
+    <t xml:space="preserve">14.3931350708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.4098815917969</t>
@@ -1847,70 +1847,70 @@
     <t xml:space="preserve">14.7699193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694431304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5522203445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5354766845703</t>
+    <t xml:space="preserve">14.7950391769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694440841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5522212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.535475730896</t>
   </si>
   <si>
     <t xml:space="preserve">14.5773401260376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187292098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4350004196167</t>
+    <t xml:space="preserve">14.6192045211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4349994659424</t>
   </si>
   <si>
     <t xml:space="preserve">14.4601192474365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3680152893066</t>
+    <t xml:space="preserve">14.368016242981</t>
   </si>
   <si>
     <t xml:space="preserve">14.9708690643311</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0713472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3141641616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4481296539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5820989608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5318584442139</t>
+    <t xml:space="preserve">15.0713453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3141622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.448130607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5820970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5318565368652</t>
   </si>
   <si>
     <t xml:space="preserve">15.0043621063232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876165390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9038867950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2806692123413</t>
+    <t xml:space="preserve">14.9876174926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9038858413696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8536491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806711196899</t>
   </si>
   <si>
     <t xml:space="preserve">15.5569772720337</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">15.4648733139038</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2555503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9923734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756269454956</t>
+    <t xml:space="preserve">15.2555513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816198348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923715591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.975625038147</t>
   </si>
   <si>
     <t xml:space="preserve">15.8667783737183</t>
@@ -1937,19 +1937,19 @@
     <t xml:space="preserve">15.8165397644043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7830476760864</t>
+    <t xml:space="preserve">15.7830457687378</t>
   </si>
   <si>
     <t xml:space="preserve">15.7411842346191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7328119277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4983682632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.12158203125</t>
+    <t xml:space="preserve">15.7328100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4983692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1215839385986</t>
   </si>
   <si>
     <t xml:space="preserve">15.1634492874146</t>
@@ -1958,115 +1958,115 @@
     <t xml:space="preserve">15.0462274551392</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0797185897827</t>
+    <t xml:space="preserve">15.0797176361084</t>
   </si>
   <si>
     <t xml:space="preserve">14.8452758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8787660598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015102386475</t>
+    <t xml:space="preserve">14.8787679672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015073776245</t>
   </si>
   <si>
     <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1299562454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0378522872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4266271591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1503200531006</t>
+    <t xml:space="preserve">15.0294809341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.129958152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0378532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.426628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684915542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094072341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.150318145752</t>
   </si>
   <si>
     <t xml:space="preserve">14.6275777816772</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7196798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6526985168457</t>
+    <t xml:space="preserve">14.7196817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6526966094971</t>
   </si>
   <si>
     <t xml:space="preserve">14.3512697219849</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5940856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6024599075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9457521438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.744800567627</t>
+    <t xml:space="preserve">14.5940847396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6024608612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9457511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7448015213013</t>
   </si>
   <si>
     <t xml:space="preserve">14.912260055542</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1383275985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309087753296</t>
+    <t xml:space="preserve">15.1383304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.330906867981</t>
   </si>
   <si>
     <t xml:space="preserve">15.5151138305664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0964651107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629749298096</t>
+    <t xml:space="preserve">15.0964641571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629730224609</t>
   </si>
   <si>
     <t xml:space="preserve">14.9373788833618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4397573471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500328063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7244396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8751487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993198394775</t>
+    <t xml:space="preserve">15.4397563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500308990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.724437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.875150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993179321289</t>
   </si>
   <si>
     <t xml:space="preserve">15.607213973999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9002714157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5988435745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6490821838379</t>
+    <t xml:space="preserve">15.9002676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5988416671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6490802764893</t>
   </si>
   <si>
     <t xml:space="preserve">15.5486030578613</t>
@@ -2075,55 +2075,55 @@
     <t xml:space="preserve">15.4899940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">15.389518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643989562988</t>
+    <t xml:space="preserve">15.3895177841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792432785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3644008636475</t>
   </si>
   <si>
     <t xml:space="preserve">15.2722969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0211067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.92063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.113208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2471780776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2304344177246</t>
+    <t xml:space="preserve">15.0211086273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9206342697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048364639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132106781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2471771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.230432510376</t>
   </si>
   <si>
     <t xml:space="preserve">15.180193901062</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1969404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3057889938354</t>
+    <t xml:space="preserve">15.1969394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3057899475098</t>
   </si>
   <si>
     <t xml:space="preserve">15.8835229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8249139785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3811454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1718235015869</t>
+    <t xml:space="preserve">15.824912071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3811473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718215942383</t>
   </si>
   <si>
     <t xml:space="preserve">15.2136859893799</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">15.2220582962036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5067405700684</t>
+    <t xml:space="preserve">15.5067415237427</t>
   </si>
   <si>
     <t xml:space="preserve">15.9672527313232</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">15.6825714111328</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9337606430054</t>
+    <t xml:space="preserve">15.4732475280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.933762550354</t>
   </si>
   <si>
     <t xml:space="preserve">16.3942756652832</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">16.637092590332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.201696395874</t>
+    <t xml:space="preserve">16.2016983032227</t>
   </si>
   <si>
     <t xml:space="preserve">16.2435607910156</t>
@@ -2165,37 +2165,37 @@
     <t xml:space="preserve">16.5198707580566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1179656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.042610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0761013031006</t>
+    <t xml:space="preserve">16.1179676055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0426082611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0258636474609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2854251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765766143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2100696563721</t>
+    <t xml:space="preserve">16.2854270935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765785217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2100715637207</t>
   </si>
   <si>
     <t xml:space="preserve">16.6705837249756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6287174224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5282402038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3440361022949</t>
+    <t xml:space="preserve">16.628719329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5282421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3440399169922</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928478240967</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">16.3021717071533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5366153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6957015991211</t>
+    <t xml:space="preserve">16.5366172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6957035064697</t>
   </si>
   <si>
     <t xml:space="preserve">17.1645889282227</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">17.5329990386963</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0353755950928</t>
+    <t xml:space="preserve">18.0353775024414</t>
   </si>
   <si>
     <t xml:space="preserve">17.918155670166</t>
@@ -2240,37 +2240,37 @@
     <t xml:space="preserve">18.0521221160889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9516487121582</t>
+    <t xml:space="preserve">17.9516468048096</t>
   </si>
   <si>
     <t xml:space="preserve">17.6669654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8846645355225</t>
+    <t xml:space="preserve">17.8846626281738</t>
   </si>
   <si>
     <t xml:space="preserve">18.2028369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8679161071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2363300323486</t>
+    <t xml:space="preserve">17.8679180145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2363319396973</t>
   </si>
   <si>
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707736968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6382312774658</t>
+    <t xml:space="preserve">18.4707717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6382293701172</t>
   </si>
   <si>
     <t xml:space="preserve">18.4205341339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4540252685547</t>
+    <t xml:space="preserve">18.4540271759033</t>
   </si>
   <si>
     <t xml:space="preserve">18.5545024871826</t>
@@ -2282,22 +2282,22 @@
     <t xml:space="preserve">19.2410831451416</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1908473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3248157501221</t>
+    <t xml:space="preserve">19.190845489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3248138427734</t>
   </si>
   <si>
     <t xml:space="preserve">19.4420356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.358304977417</t>
+    <t xml:space="preserve">19.3583068847656</t>
   </si>
   <si>
     <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3870429992676</t>
+    <t xml:space="preserve">18.3870410919189</t>
   </si>
   <si>
     <t xml:space="preserve">18.504264831543</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">18.7387065887451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3368034362793</t>
+    <t xml:space="preserve">18.3368053436279</t>
   </si>
   <si>
     <t xml:space="preserve">17.4660167694092</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8226337432861</t>
+    <t xml:space="preserve">11.8226327896118</t>
   </si>
   <si>
     <t xml:space="preserve">13.7819080352783</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">12.5175895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2998933792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3082666397095</t>
+    <t xml:space="preserve">12.2998924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
     <t xml:space="preserve">12.023585319519</t>
@@ -2339,19 +2339,19 @@
     <t xml:space="preserve">11.6300554275513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1156873703003</t>
+    <t xml:space="preserve">12.1156883239746</t>
   </si>
   <si>
     <t xml:space="preserve">12.7269134521484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7687797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144495010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1455631256104</t>
+    <t xml:space="preserve">12.7687788009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.145562171936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8860015869141</t>
@@ -2360,25 +2360,25 @@
     <t xml:space="preserve">13.6563129425049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4386167526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9912309646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591676712036</t>
+    <t xml:space="preserve">13.4386148452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9912328720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591686248779</t>
   </si>
   <si>
     <t xml:space="preserve">14.0917091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0079793930054</t>
+    <t xml:space="preserve">14.0079784393311</t>
   </si>
   <si>
     <t xml:space="preserve">13.89075756073</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1921844482422</t>
+    <t xml:space="preserve">14.1921854019165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2424230575562</t>
@@ -2387,37 +2387,37 @@
     <t xml:space="preserve">13.8656387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8572645187378</t>
+    <t xml:space="preserve">13.8572654724121</t>
   </si>
   <si>
     <t xml:space="preserve">14.0247249603271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.832145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1419448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2173013687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926588058472</t>
+    <t xml:space="preserve">13.8321475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1419458389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2173023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926597595215</t>
   </si>
   <si>
     <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6898059844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7986536026001</t>
+    <t xml:space="preserve">13.6898050308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7986545562744</t>
   </si>
   <si>
     <t xml:space="preserve">13.9493684768677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828596115112</t>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
@@ -2426,22 +2426,22 @@
     <t xml:space="preserve">14.4182538986206</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5103569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9829502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1317310333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1229782104492</t>
+    <t xml:space="preserve">14.5103559494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354604721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503858566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9829511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1317319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1229772567749</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281377792358</t>
@@ -2453,25 +2453,25 @@
     <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0658588409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3721714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0308513641357</t>
+    <t xml:space="preserve">17.065860748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3721694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0308532714844</t>
   </si>
   <si>
     <t xml:space="preserve">17.1358737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.496997833252</t>
+    <t xml:space="preserve">16.4969959259033</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357376098633</t>
@@ -2483,22 +2483,22 @@
     <t xml:space="preserve">16.1031703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1731853485107</t>
+    <t xml:space="preserve">16.1731834411621</t>
   </si>
   <si>
     <t xml:space="preserve">16.7595500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5670127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5845165252686</t>
+    <t xml:space="preserve">16.5670108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5845146179199</t>
   </si>
   <si>
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157917022705</t>
+    <t xml:space="preserve">16.7157897949219</t>
   </si>
   <si>
     <t xml:space="preserve">16.7858066558838</t>
@@ -2507,19 +2507,19 @@
     <t xml:space="preserve">16.2607021331787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3307132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4707431793213</t>
+    <t xml:space="preserve">16.3307151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4707412719727</t>
   </si>
   <si>
     <t xml:space="preserve">16.7945556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2846527099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0460529327393</t>
+    <t xml:space="preserve">17.2846546173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
     <t xml:space="preserve">18.2735977172852</t>
@@ -2528,10 +2528,10 @@
     <t xml:space="preserve">17.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.941032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1160678863525</t>
+    <t xml:space="preserve">17.9410343170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1160659790039</t>
   </si>
   <si>
     <t xml:space="preserve">18.3436088562012</t>
@@ -2549,13 +2549,13 @@
     <t xml:space="preserve">18.2910995483398</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3261089324951</t>
+    <t xml:space="preserve">18.3261108398438</t>
   </si>
   <si>
     <t xml:space="preserve">18.4486331939697</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3786182403564</t>
+    <t xml:space="preserve">18.3786201477051</t>
   </si>
   <si>
     <t xml:space="preserve">18.3961219787598</t>
@@ -2570,34 +2570,34 @@
     <t xml:space="preserve">17.888521194458</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8360118865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.730993270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0110473632812</t>
+    <t xml:space="preserve">17.836009979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7309913635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0110454559326</t>
   </si>
   <si>
     <t xml:space="preserve">18.4836406707764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6236686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5011425018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8862190246582</t>
+    <t xml:space="preserve">18.6236667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5011405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8862171173096</t>
   </si>
   <si>
     <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437488555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1487712860107</t>
+    <t xml:space="preserve">19.0437507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1487693786621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4988403320312</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">19.2187824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0787563323975</t>
+    <t xml:space="preserve">19.0787544250488</t>
   </si>
   <si>
     <t xml:space="preserve">19.1312675476074</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3938179016113</t>
+    <t xml:space="preserve">19.39381980896</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113216400146</t>
@@ -2636,37 +2636,37 @@
     <t xml:space="preserve">19.1137638092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9562301635742</t>
+    <t xml:space="preserve">18.9562320709229</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3763160705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6936817169189</t>
+    <t xml:space="preserve">19.376314163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6936798095703</t>
   </si>
   <si>
     <t xml:space="preserve">18.8337078094482</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061630249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611164093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5186443328857</t>
+    <t xml:space="preserve">18.7461891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.606164932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611125946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
     <t xml:space="preserve">18.4136276245117</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7811965942383</t>
+    <t xml:space="preserve">18.7811985015869</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">19.8664131164551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4463272094727</t>
+    <t xml:space="preserve">19.4463291168213</t>
   </si>
   <si>
     <t xml:space="preserve">19.7438869476318</t>
@@ -2690,16 +2690,16 @@
     <t xml:space="preserve">19.2012805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9912414550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1662731170654</t>
+    <t xml:space="preserve">18.9912395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1662750244141</t>
   </si>
   <si>
     <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0087413787842</t>
+    <t xml:space="preserve">19.0087432861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.2035827636719</t>
@@ -2708,10 +2708,10 @@
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2408962249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8820762634277</t>
+    <t xml:space="preserve">17.240894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8820743560791</t>
   </si>
   <si>
     <t xml:space="preserve">16.978343963623</t>
@@ -2720,28 +2720,28 @@
     <t xml:space="preserve">17.5034465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0810585021973</t>
+    <t xml:space="preserve">18.0810604095459</t>
   </si>
   <si>
     <t xml:space="preserve">18.588659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0635566711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2210865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1685791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935417175293</t>
+    <t xml:space="preserve">18.0635547637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2210884094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1685771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935436248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6784820556641</t>
+    <t xml:space="preserve">17.6784801483154</t>
   </si>
   <si>
     <t xml:space="preserve">17.8710193634033</t>
@@ -2759,22 +2759,22 @@
     <t xml:space="preserve">18.0285511016846</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1335678100586</t>
+    <t xml:space="preserve">18.1335697174072</t>
   </si>
   <si>
     <t xml:space="preserve">18.1860828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5711536407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2864952087402</t>
+    <t xml:space="preserve">18.5711555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362899780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2864933013916</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790306091309</t>
@@ -2783,16 +2783,16 @@
     <t xml:space="preserve">21.2316799163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1266613006592</t>
+    <t xml:space="preserve">21.1266593933105</t>
   </si>
   <si>
     <t xml:space="preserve">21.704273223877</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8968105316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9143161773682</t>
+    <t xml:space="preserve">21.8968124389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8793067932129</t>
@@ -2810,10 +2810,10 @@
     <t xml:space="preserve">21.9318161010742</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2293758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4219150543213</t>
+    <t xml:space="preserve">22.229377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4219169616699</t>
   </si>
   <si>
     <t xml:space="preserve">22.9470176696777</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2795848846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4569225311279</t>
+    <t xml:space="preserve">23.2795829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8747024536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4569206237793</t>
   </si>
   <si>
     <t xml:space="preserve">22.1243553161621</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">22.5444393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8595008850098</t>
+    <t xml:space="preserve">22.8595027923584</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1745643615723</t>
+    <t xml:space="preserve">23.1745624542236</t>
   </si>
   <si>
     <t xml:space="preserve">22.7719841003418</t>
@@ -2855,19 +2855,19 @@
     <t xml:space="preserve">23.1220512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4546184539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6144523620605</t>
+    <t xml:space="preserve">23.4546165466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7894878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6144542694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.9493236541748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7742881774902</t>
+    <t xml:space="preserve">21.7742862701416</t>
   </si>
   <si>
     <t xml:space="preserve">22.4919300079346</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7590866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3717060089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4615287780762</t>
+    <t xml:space="preserve">20.7590885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3717079162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4615268707275</t>
   </si>
   <si>
     <t xml:space="preserve">20.0414447784424</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">22.439416885376</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2118740081787</t>
+    <t xml:space="preserve">22.2118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">22.7194728851318</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">21.4067134857178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.529239654541</t>
+    <t xml:space="preserve">21.5292377471924</t>
   </si>
   <si>
     <t xml:space="preserve">21.7567844390869</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8442993164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2643852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5969486236572</t>
+    <t xml:space="preserve">21.8443012237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.26438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5969467163086</t>
   </si>
   <si>
     <t xml:space="preserve">22.3168926239014</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2468795776367</t>
+    <t xml:space="preserve">22.2468814849854</t>
   </si>
   <si>
     <t xml:space="preserve">22.0893497467041</t>
@@ -2954,22 +2954,22 @@
     <t xml:space="preserve">21.2841911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3869094848633</t>
+    <t xml:space="preserve">22.3869075775146</t>
   </si>
   <si>
     <t xml:space="preserve">21.8267974853516</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4942302703857</t>
+    <t xml:space="preserve">21.4942321777344</t>
   </si>
   <si>
     <t xml:space="preserve">21.5992527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1441631317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.581750869751</t>
+    <t xml:space="preserve">21.1441612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5817489624023</t>
   </si>
   <si>
     <t xml:space="preserve">21.3016929626465</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4767303466797</t>
+    <t xml:space="preserve">21.4767284393311</t>
   </si>
   <si>
     <t xml:space="preserve">20.3915138244629</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">21.0391445159912</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5954494476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5774002075195</t>
+    <t xml:space="preserve">22.5954475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5774021148682</t>
   </si>
   <si>
     <t xml:space="preserve">22.3066864013672</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">22.4871616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4691143035889</t>
+    <t xml:space="preserve">22.4691162109375</t>
   </si>
   <si>
     <t xml:space="preserve">22.4149723052979</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">22.5593509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8300647735596</t>
+    <t xml:space="preserve">22.8300628662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.353443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.317346572876</t>
+    <t xml:space="preserve">23.3534393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3173484802246</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9203014373779</t>
+    <t xml:space="preserve">22.9203033447266</t>
   </si>
   <si>
     <t xml:space="preserve">23.0105381011963</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">22.7037334442139</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3895359039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0646800994873</t>
+    <t xml:space="preserve">22.9383506774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3895378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0646820068359</t>
   </si>
   <si>
     <t xml:space="preserve">23.2812519073486</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">22.1081657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9744434356689</t>
+    <t xml:space="preserve">22.9744453430176</t>
   </si>
   <si>
     <t xml:space="preserve">23.2451572418213</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
-    <t xml:space="preserve">23.570011138916</t>
+    <t xml:space="preserve">23.5700130462646</t>
   </si>
   <si>
     <t xml:space="preserve">21.9457378387451</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">23.0466365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5413055419922</t>
+    <t xml:space="preserve">22.5413036346436</t>
   </si>
   <si>
     <t xml:space="preserve">22.3247356414795</t>
@@ -3125,10 +3125,10 @@
     <t xml:space="preserve">22.0720691680908</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2344970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5232563018799</t>
+    <t xml:space="preserve">22.2344989776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5232582092285</t>
   </si>
   <si>
     <t xml:space="preserve">23.2090606689453</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">23.1368713378906</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0827312469482</t>
+    <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
     <t xml:space="preserve">23.1729679107666</t>
@@ -3155,34 +3155,34 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4617252349854</t>
+    <t xml:space="preserve">23.461727142334</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.804630279541</t>
+    <t xml:space="preserve">23.2992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8046283721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.551965713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8948669433594</t>
+    <t xml:space="preserve">23.5519638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8948650360107</t>
   </si>
   <si>
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572948455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5265293121338</t>
+    <t xml:space="preserve">24.0572910308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5265274047852</t>
   </si>
   <si>
     <t xml:space="preserve">25.1581916809082</t>
@@ -3194,10 +3194,10 @@
     <t xml:space="preserve">24.7430973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3206157684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6922264099121</t>
+    <t xml:space="preserve">25.3206176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6922245025635</t>
   </si>
   <si>
     <t xml:space="preserve">26.9629383087158</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">27.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.15407371521</t>
+    <t xml:space="preserve">27.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1540718078613</t>
   </si>
   <si>
     <t xml:space="preserve">28.172119140625</t>
@@ -3224,19 +3224,19 @@
     <t xml:space="preserve">28.334545135498</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2443084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4863128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2804050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9014072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8472652435303</t>
+    <t xml:space="preserve">28.2443103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4863147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.280403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9014091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8472671508789</t>
   </si>
   <si>
     <t xml:space="preserve">28.0999298095703</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">27.7570285797119</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0351257324219</t>
+    <t xml:space="preserve">27.0351276397705</t>
   </si>
   <si>
     <t xml:space="preserve">26.4937038421631</t>
@@ -3263,10 +3263,10 @@
     <t xml:space="preserve">26.5839385986328</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2590866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2951812744141</t>
+    <t xml:space="preserve">26.2590885162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2951793670654</t>
   </si>
   <si>
     <t xml:space="preserve">26.6019897460938</t>
@@ -3281,13 +3281,13 @@
     <t xml:space="preserve">26.8727016448975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8079013824463</t>
+    <t xml:space="preserve">25.8078994750977</t>
   </si>
   <si>
     <t xml:space="preserve">25.591329574585</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7537593841553</t>
+    <t xml:space="preserve">25.7537574768066</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">25.6093769073486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7718029022217</t>
+    <t xml:space="preserve">25.7718048095703</t>
   </si>
   <si>
     <t xml:space="preserve">25.3386650085449</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">25.843994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.880090713501</t>
+    <t xml:space="preserve">25.8800888061523</t>
   </si>
   <si>
     <t xml:space="preserve">25.6274242401123</t>
@@ -3326,40 +3326,40 @@
     <t xml:space="preserve">25.6635208129883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6996154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5117511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8620414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9235725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8694286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2738628387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1294841766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9670543670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.606107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549205780029</t>
+    <t xml:space="preserve">25.699613571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5117492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8620433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9235744476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8694305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2738647460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1294822692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9670562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6061058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549186706543</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">23.118824005127</t>
+    <t xml:space="preserve">23.1188259124756</t>
   </si>
   <si>
     <t xml:space="preserve">23.4797744750977</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">22.4330215454102</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9022560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510688781738</t>
+    <t xml:space="preserve">22.9022541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510669708252</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3383,31 +3383,31 @@
     <t xml:space="preserve">22.7217807769775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2525463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652626037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1442623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7111186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4765033721924</t>
+    <t xml:space="preserve">22.2525444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1442604064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7111206054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.476505279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949010848999</t>
+    <t xml:space="preserve">23.9490089416504</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957637786865</t>
+    <t xml:space="preserve">24.9957618713379</t>
   </si>
   <si>
     <t xml:space="preserve">24.0933895111084</t>
@@ -3416,22 +3416,22 @@
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309616088867</t>
+    <t xml:space="preserve">23.9309635162354</t>
   </si>
   <si>
     <t xml:space="preserve">25.5732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0531768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493251800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7357082366943</t>
+    <t xml:space="preserve">27.0531749725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3854198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.735710144043</t>
   </si>
   <si>
     <t xml:space="preserve">26.7644157409668</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">26.096658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6561336517334</t>
+    <t xml:space="preserve">26.6561317443848</t>
   </si>
   <si>
     <t xml:space="preserve">26.4395599365234</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">27.1614608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9194564819336</t>
+    <t xml:space="preserve">27.919454574585</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
@@ -3467,22 +3467,22 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233062744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6774501800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3886871337891</t>
+    <t xml:space="preserve">28.6233043670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6774482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3886890411377</t>
   </si>
   <si>
     <t xml:space="preserve">28.569164276123</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7315921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271598815918</t>
+    <t xml:space="preserve">28.7315902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271579742432</t>
   </si>
   <si>
     <t xml:space="preserve">29.1105861663818</t>
@@ -3500,19 +3500,19 @@
     <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6881084442139</t>
+    <t xml:space="preserve">29.6881103515625</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7676868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8759727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4247856140137</t>
+    <t xml:space="preserve">28.7676849365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8759708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.424783706665</t>
   </si>
   <si>
     <t xml:space="preserve">28.2082138061523</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">26.8005123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5043640136719</t>
+    <t xml:space="preserve">27.5043621063232</t>
   </si>
   <si>
     <t xml:space="preserve">26.8185577392578</t>
@@ -3533,16 +3533,16 @@
     <t xml:space="preserve">28.460880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3813018798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1392955780029</t>
+    <t xml:space="preserve">29.3812999725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1392974853516</t>
   </si>
   <si>
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739147186279</t>
+    <t xml:space="preserve">30.3739128112793</t>
   </si>
   <si>
     <t xml:space="preserve">30.680721282959</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115482330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.29248046875</t>
+    <t xml:space="preserve">31.8115501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2924766540527</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436443328857</t>
+    <t xml:space="preserve">30.6436462402344</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548732757568</t>
+    <t xml:space="preserve">30.7548713684082</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229801177979</t>
+    <t xml:space="preserve">28.6229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375991821289</t>
+    <t xml:space="preserve">28.4375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.473611831665</t>
+    <t xml:space="preserve">27.4736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.788761138916</t>
+    <t xml:space="preserve">27.7887592315674</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5488262176514</t>
+    <t xml:space="preserve">28.548828125</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.030818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381275177002</t>
+    <t xml:space="preserve">29.0308208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381294250488</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3653,13 +3653,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718181610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.179126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892913818359</t>
+    <t xml:space="preserve">29.2718162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892932891846</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522163391113</t>
+    <t xml:space="preserve">28.2522144317627</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.160587310791</t>
+    <t xml:space="preserve">29.1605854034424</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3695,13 +3695,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037113189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851737976074</t>
+    <t xml:space="preserve">31.4037094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149402618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851718902588</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857040405273</t>
+    <t xml:space="preserve">31.8857021331787</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3728,16 +3728,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081581115723</t>
+    <t xml:space="preserve">32.1081619262695</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274307250977</t>
+    <t xml:space="preserve">31.4778614044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274326324463</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.920654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094234466553</t>
+    <t xml:space="preserve">29.9206523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094253540039</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3779,19 +3779,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393928527832</t>
+    <t xml:space="preserve">29.4942760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393909454346</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944751739502</t>
+    <t xml:space="preserve">26.0276336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607883453369</t>
+    <t xml:space="preserve">25.8607864379883</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2304878234863</t>
+    <t xml:space="preserve">25.3787937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.230489730835</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3830,13 +3830,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179973602295</t>
+    <t xml:space="preserve">27.4179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600551605225</t>
+    <t xml:space="preserve">28.6600570678711</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.84543800354</t>
+    <t xml:space="preserve">28.8454399108887</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746723175049</t>
+    <t xml:space="preserve">28.4746742248535</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3872,22 +3872,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4005222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443775177002</t>
+    <t xml:space="preserve">28.400520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443756103516</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9185276031494</t>
+    <t xml:space="preserve">27.918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6589946746826</t>
+    <t xml:space="preserve">27.658992767334</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702217102051</t>
+    <t xml:space="preserve">27.7702236175537</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.343843460083</t>
+    <t xml:space="preserve">27.3438453674316</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3932,16 +3932,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090923309326</t>
+    <t xml:space="preserve">26.0090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6568698883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495613098145</t>
+    <t xml:space="preserve">25.656867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495594024658</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3953,7 +3953,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383285522461</t>
+    <t xml:space="preserve">25.6383304595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3962,7 +3962,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237113952637</t>
+    <t xml:space="preserve">25.8237133026123</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096263885498</t>
+    <t xml:space="preserve">26.5096244812012</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012535095215</t>
+    <t xml:space="preserve">25.6012554168701</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4007,10 +4007,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007232666016</t>
+    <t xml:space="preserve">24.7114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007213592529</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962688446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108879089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445766448975</t>
+    <t xml:space="preserve">24.3962707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445747375488</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0821838378906</t>
+    <t xml:space="preserve">25.082181930542</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4055,22 +4055,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8968029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3602561950684</t>
+    <t xml:space="preserve">24.896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.360258102417</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.675407409668</t>
+    <t xml:space="preserve">25.6754055023193</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950073242188</t>
+    <t xml:space="preserve">26.6950054168701</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4082,13 +4082,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816516876221</t>
+    <t xml:space="preserve">25.7866363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816535949707</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714870452881</t>
+    <t xml:space="preserve">25.4714851379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>
@@ -4752,6 +4752,9 @@
   </si>
   <si>
     <t xml:space="preserve">23.2600002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2800006866455</t>
   </si>
 </sst>
 </file>
@@ -62033,7 +62036,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.649537037</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>343484</v>
@@ -62054,6 +62057,32 @@
         <v>1579</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.6494212963</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>230359</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>23.0599994659424</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>23.1599998474121</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>23.2800006866455</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85121154785156</t>
+    <t xml:space="preserve">8.85121059417725</t>
   </si>
   <si>
     <t xml:space="preserve">ERG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55665016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32674884796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26927280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830188751221</t>
+    <t xml:space="preserve">8.79373550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55665111541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32674789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26927375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830093383789</t>
   </si>
   <si>
     <t xml:space="preserve">8.57101821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53509616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47762107849121</t>
+    <t xml:space="preserve">8.53509521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47762203216553</t>
   </si>
   <si>
     <t xml:space="preserve">8.36266899108887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09684658050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2908239364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98189449310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24053573608398</t>
+    <t xml:space="preserve">8.09684753417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189544677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247661590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24053478240967</t>
   </si>
   <si>
     <t xml:space="preserve">8.38422393798828</t>
@@ -92,28 +92,28 @@
     <t xml:space="preserve">8.28364086151123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27645683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208782196045</t>
+    <t xml:space="preserve">8.27645778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208972930908</t>
   </si>
   <si>
     <t xml:space="preserve">8.1902437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11121368408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325658798218</t>
+    <t xml:space="preserve">8.11121559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325611114502</t>
   </si>
   <si>
     <t xml:space="preserve">7.65859699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81665372848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74480962753296</t>
+    <t xml:space="preserve">7.81665420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74480867385864</t>
   </si>
   <si>
     <t xml:space="preserve">8.01063251495361</t>
@@ -125,28 +125,28 @@
     <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820819854736</t>
+    <t xml:space="preserve">7.83820676803589</t>
   </si>
   <si>
     <t xml:space="preserve">8.02500152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78073120117188</t>
+    <t xml:space="preserve">7.78073215484619</t>
   </si>
   <si>
     <t xml:space="preserve">7.92441987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93878889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.046555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0896635055542</t>
+    <t xml:space="preserve">7.93878984451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04655647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966255187988</t>
   </si>
   <si>
     <t xml:space="preserve">8.07529354095459</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">8.13276863098145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93160486221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9747109413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10402965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11839962005615</t>
+    <t xml:space="preserve">7.93160390853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97471141815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10403251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11840057373047</t>
   </si>
   <si>
     <t xml:space="preserve">8.21898078918457</t>
@@ -179,28 +179,28 @@
     <t xml:space="preserve">8.70033740997314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68596839904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257221221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31237888336182</t>
+    <t xml:space="preserve">8.68596935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257030487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577507019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3123779296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.36985301971436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34111785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49917507171631</t>
+    <t xml:space="preserve">8.34111499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49917411804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.54946517944336</t>
@@ -209,55 +209,55 @@
     <t xml:space="preserve">8.45606803894043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41296195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16150760650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23334980010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218650817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626445770264</t>
+    <t xml:space="preserve">8.41296100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432262420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16150665283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23335075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626398086548</t>
   </si>
   <si>
     <t xml:space="preserve">8.44169807434082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30519485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07527256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05273914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18795204162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3306770324707</t>
+    <t xml:space="preserve">8.30519390106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07527351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05273818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24804592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18795108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560447692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33067798614502</t>
   </si>
   <si>
     <t xml:space="preserve">8.23302268981934</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">8.15790367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1654167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21048736572266</t>
+    <t xml:space="preserve">8.16541576385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21048831939697</t>
   </si>
   <si>
     <t xml:space="preserve">8.15039253234863</t>
@@ -296,46 +296,46 @@
     <t xml:space="preserve">7.30530548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34286451339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84991788864136</t>
+    <t xml:space="preserve">7.34286499023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991645812988</t>
   </si>
   <si>
     <t xml:space="preserve">7.8273811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69967937469482</t>
+    <t xml:space="preserve">7.69967889785767</t>
   </si>
   <si>
     <t xml:space="preserve">7.76728677749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30906057357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13253259658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4029598236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484628677368</t>
+    <t xml:space="preserve">7.30906009674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13253211975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40295839309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216680526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484580993652</t>
   </si>
   <si>
     <t xml:space="preserve">7.94005918502808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65460729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33910846710205</t>
+    <t xml:space="preserve">7.65460777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33911037445068</t>
   </si>
   <si>
     <t xml:space="preserve">7.46681070327759</t>
@@ -344,28 +344,28 @@
     <t xml:space="preserve">7.57948875427246</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54193019866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6020245552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.684654712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61704969406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6621208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207387924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7447509765625</t>
+    <t xml:space="preserve">7.54192972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977516174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68465423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6170482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66211986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207197189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74475049972534</t>
   </si>
   <si>
     <t xml:space="preserve">7.63958311080933</t>
@@ -377,100 +377,100 @@
     <t xml:space="preserve">7.59451341629028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49685764312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934650421143</t>
+    <t xml:space="preserve">7.4968581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934745788574</t>
   </si>
   <si>
     <t xml:space="preserve">7.62456083297729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70719242095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6771445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81986951828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742950439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953664779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5719780921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50437116622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47807884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49310398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4705662727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9175238609314</t>
+    <t xml:space="preserve">7.70719051361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67714405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81986856460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742855072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953760147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197761535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50437021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4780797958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49310255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752290725708</t>
   </si>
   <si>
     <t xml:space="preserve">7.87996578216553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91001129150391</t>
+    <t xml:space="preserve">7.91001176834106</t>
   </si>
   <si>
     <t xml:space="preserve">7.94757175445557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09029769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7522611618042</t>
+    <t xml:space="preserve">8.09029865264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75226211547852</t>
   </si>
   <si>
     <t xml:space="preserve">7.8123574256897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87245178222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7222146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66963195800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427490234375</t>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72221612930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963148117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709711074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427537918091</t>
   </si>
   <si>
     <t xml:space="preserve">7.39169216156006</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58700180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45554399490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38418006896973</t>
+    <t xml:space="preserve">7.58700084686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690553665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45554447174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38418054580688</t>
   </si>
   <si>
     <t xml:space="preserve">7.28652572631836</t>
@@ -479,133 +479,133 @@
     <t xml:space="preserve">7.50812578201294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53441858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403734207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9259557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02736520767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605012893677</t>
+    <t xml:space="preserve">7.5344181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92595624923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02736568450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98604917526245</t>
   </si>
   <si>
     <t xml:space="preserve">6.97102642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04990243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92220020294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332323074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9597601890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849109649658</t>
+    <t xml:space="preserve">7.04990148544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219877243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975971221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849061965942</t>
   </si>
   <si>
     <t xml:space="preserve">6.92971134185791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327629089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89215183258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83581256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449796676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79074239730835</t>
+    <t xml:space="preserve">6.83956813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89215278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83581304550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7944974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79074192047119</t>
   </si>
   <si>
     <t xml:space="preserve">6.90341997146606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03112173080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717554092407</t>
+    <t xml:space="preserve">7.03112125396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717601776123</t>
   </si>
   <si>
     <t xml:space="preserve">7.0198540687561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01609802246094</t>
+    <t xml:space="preserve">7.01609897613525</t>
   </si>
   <si>
     <t xml:space="preserve">7.17384815216064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19638395309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47432231903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56446504592896</t>
+    <t xml:space="preserve">7.19638204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47432279586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56446552276611</t>
   </si>
   <si>
     <t xml:space="preserve">7.72972583770752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55695295333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78982257843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78230953216553</t>
+    <t xml:space="preserve">7.5569543838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78982210159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78231048583984</t>
   </si>
   <si>
     <t xml:space="preserve">7.88747644424438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98513031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79733419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97761964797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06776142120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10532093048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799755096436</t>
+    <t xml:space="preserve">7.98513078689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79733324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97761917114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0677604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95508289337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297718048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799945831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.49593925476074</t>
@@ -614,46 +614,46 @@
     <t xml:space="preserve">8.26307010650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25555801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48091411590576</t>
+    <t xml:space="preserve">8.25555896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814266204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48091602325439</t>
   </si>
   <si>
     <t xml:space="preserve">8.56354522705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57857036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69875907897949</t>
+    <t xml:space="preserve">8.57856941223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69876003265381</t>
   </si>
   <si>
     <t xml:space="preserve">8.76636695861816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7738790512085</t>
+    <t xml:space="preserve">8.77387809753418</t>
   </si>
   <si>
     <t xml:space="preserve">8.72880744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78890228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75134181976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82646179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86402130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8790454864502</t>
+    <t xml:space="preserve">8.78890323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82646083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86402225494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87904453277588</t>
   </si>
   <si>
     <t xml:space="preserve">8.88655757904053</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">8.91660404205322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99172306060791</t>
+    <t xml:space="preserve">8.99172210693359</t>
   </si>
   <si>
     <t xml:space="preserve">8.96918678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93914031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98421192169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89406871795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71378421783447</t>
+    <t xml:space="preserve">8.9391393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98421096801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89406681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71378326416016</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110473632812</t>
@@ -689,31 +689,31 @@
     <t xml:space="preserve">8.42833232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61612987518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349876403809</t>
+    <t xml:space="preserve">8.61612796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349781036377</t>
   </si>
   <si>
     <t xml:space="preserve">8.54101085662842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73631954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80392742156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909099578857</t>
+    <t xml:space="preserve">8.73631858825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80392551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909290313721</t>
   </si>
   <si>
     <t xml:space="preserve">8.96167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85650825500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10439968109131</t>
+    <t xml:space="preserve">8.85651016235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10440063476562</t>
   </si>
   <si>
     <t xml:space="preserve">9.26110363006592</t>
@@ -722,46 +722,46 @@
     <t xml:space="preserve">9.30811500549316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28460788726807</t>
+    <t xml:space="preserve">9.2846097946167</t>
   </si>
   <si>
     <t xml:space="preserve">9.38646507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42564010620117</t>
+    <t xml:space="preserve">9.42564105987549</t>
   </si>
   <si>
     <t xml:space="preserve">9.34728908538818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36295890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44914627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41780662536621</t>
+    <t xml:space="preserve">9.36296081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44914722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41780567169189</t>
   </si>
   <si>
     <t xml:space="preserve">9.46481609344482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51966190338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53533172607422</t>
+    <t xml:space="preserve">9.51966094970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53533267974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.80172729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8565731048584</t>
+    <t xml:space="preserve">9.85657215118408</t>
   </si>
   <si>
     <t xml:space="preserve">9.73121070861816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74688053131104</t>
+    <t xml:space="preserve">9.74687957763672</t>
   </si>
   <si>
     <t xml:space="preserve">9.77822017669678</t>
@@ -776,82 +776,82 @@
     <t xml:space="preserve">9.84873676300049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80956172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553897857666</t>
+    <t xml:space="preserve">9.80956268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553993225098</t>
   </si>
   <si>
     <t xml:space="preserve">9.59801292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69203472137451</t>
+    <t xml:space="preserve">9.69203567504883</t>
   </si>
   <si>
     <t xml:space="preserve">9.62151908874512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64502334594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58234214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584831237793</t>
+    <t xml:space="preserve">9.64502429962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58234310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584926605225</t>
   </si>
   <si>
     <t xml:space="preserve">9.55100250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.558837890625</t>
+    <t xml:space="preserve">9.55883884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.72337436676025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7703857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.754714012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48832225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51182651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50399303436279</t>
+    <t xml:space="preserve">9.77038478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75471496582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48832130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51182746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50399208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.37079524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63718891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67636489868164</t>
+    <t xml:space="preserve">9.63718795776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67636585235596</t>
   </si>
   <si>
     <t xml:space="preserve">9.7077054977417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8330659866333</t>
+    <t xml:space="preserve">9.83306694030762</t>
   </si>
   <si>
     <t xml:space="preserve">10.0211095809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1543064117432</t>
+    <t xml:space="preserve">10.1543054580688</t>
   </si>
   <si>
     <t xml:space="preserve">10.326678276062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3031740188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2326564788818</t>
+    <t xml:space="preserve">10.3031730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2326574325562</t>
   </si>
   <si>
     <t xml:space="preserve">10.2561626434326</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">10.1621417999268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2248239517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2953386306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3893585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4285354614258</t>
+    <t xml:space="preserve">10.1072950363159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2248220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2953395843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3893594741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4285364151001</t>
   </si>
   <si>
     <t xml:space="preserve">10.4912166595459</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">10.5695667266846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6165790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6244115829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.522557258606</t>
+    <t xml:space="preserve">10.6165771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6244144439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5225553512573</t>
   </si>
   <si>
     <t xml:space="preserve">10.4833812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5068855285645</t>
+    <t xml:space="preserve">10.5068864822388</t>
   </si>
   <si>
     <t xml:space="preserve">10.6635885238647</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">10.6479187011719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6557550430298</t>
+    <t xml:space="preserve">10.6557540893555</t>
   </si>
   <si>
     <t xml:space="preserve">10.6087427139282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.593071937561</t>
+    <t xml:space="preserve">10.5930728912354</t>
   </si>
   <si>
     <t xml:space="preserve">10.5852375030518</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">10.7027635574341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0004987716675</t>
+    <t xml:space="preserve">11.0004978179932</t>
   </si>
   <si>
     <t xml:space="preserve">11.0475101470947</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0318384170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0631790161133</t>
+    <t xml:space="preserve">11.0318393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0631799697876</t>
   </si>
   <si>
     <t xml:space="preserve">10.976993560791</t>
@@ -947,22 +947,22 @@
     <t xml:space="preserve">11.0240030288696</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0161695480347</t>
+    <t xml:space="preserve">11.0161685943604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9926633834839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.24338722229</t>
+    <t xml:space="preserve">11.2433862686157</t>
   </si>
   <si>
     <t xml:space="preserve">11.3139019012451</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2120475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3765850067139</t>
+    <t xml:space="preserve">11.2120485305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3765840530396</t>
   </si>
   <si>
     <t xml:space="preserve">11.4157600402832</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">11.7840099334717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8466901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9250411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5411205291748</t>
+    <t xml:space="preserve">11.8466911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9250421524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5411214828491</t>
   </si>
   <si>
     <t xml:space="preserve">11.7291641235352</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">11.7605037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9485483169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8388557434082</t>
+    <t xml:space="preserve">11.9485473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8388566970825</t>
   </si>
   <si>
     <t xml:space="preserve">11.9172067642212</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">12.0739078521729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1600952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2462825775146</t>
+    <t xml:space="preserve">12.1600961685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2462797164917</t>
   </si>
   <si>
     <t xml:space="preserve">12.2227754592896</t>
@@ -1025,43 +1025,43 @@
     <t xml:space="preserve">12.5283460617065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5361795425415</t>
+    <t xml:space="preserve">12.5361814498901</t>
   </si>
   <si>
     <t xml:space="preserve">12.0347337722778</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3794794082642</t>
+    <t xml:space="preserve">12.3794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3481378555298</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4970045089722</t>
+    <t xml:space="preserve">12.4970054626465</t>
   </si>
   <si>
     <t xml:space="preserve">12.8025751113892</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8574209213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5831899642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4813346862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6537065505981</t>
+    <t xml:space="preserve">12.8574190139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5831909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.481333732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6537075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7633991241455</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6772136688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6458711624146</t>
+    <t xml:space="preserve">12.6772127151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6458730697632</t>
   </si>
   <si>
     <t xml:space="preserve">12.3089628219604</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">12.1130838394165</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2697868347168</t>
+    <t xml:space="preserve">12.2697858810425</t>
   </si>
   <si>
     <t xml:space="preserve">12.0660734176636</t>
@@ -1079,25 +1079,25 @@
     <t xml:space="preserve">11.901535987854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.167929649353</t>
+    <t xml:space="preserve">12.1679315567017</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4891710281372</t>
+    <t xml:space="preserve">12.4891691207886</t>
   </si>
   <si>
     <t xml:space="preserve">12.6223678588867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3324670791626</t>
+    <t xml:space="preserve">12.3324680328369</t>
   </si>
   <si>
     <t xml:space="preserve">12.591025352478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9201021194458</t>
+    <t xml:space="preserve">12.9201011657715</t>
   </si>
   <si>
     <t xml:space="preserve">12.9749460220337</t>
@@ -1106,79 +1106,79 @@
     <t xml:space="preserve">12.9671115875244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1159791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2256698608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2805156707764</t>
+    <t xml:space="preserve">13.1159782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2256689071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.280517578125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021656036377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2335062026978</t>
+    <t xml:space="preserve">13.2335052490234</t>
   </si>
   <si>
     <t xml:space="preserve">13.2178354263306</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1003093719482</t>
+    <t xml:space="preserve">13.1003084182739</t>
   </si>
   <si>
     <t xml:space="preserve">12.9592781066895</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0611333847046</t>
+    <t xml:space="preserve">13.0611343383789</t>
   </si>
   <si>
     <t xml:space="preserve">13.1786594390869</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8417510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2619504928589</t>
+    <t xml:space="preserve">12.8417501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2619514465332</t>
   </si>
   <si>
     <t xml:space="preserve">12.2932910919189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.395149230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5048398971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6693773269653</t>
+    <t xml:space="preserve">12.3951482772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5048389434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6693782806396</t>
   </si>
   <si>
     <t xml:space="preserve">12.7320585250854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7790679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6850481033325</t>
+    <t xml:space="preserve">12.7790699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6850471496582</t>
   </si>
   <si>
     <t xml:space="preserve">13.0846405029297</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2570114135742</t>
+    <t xml:space="preserve">13.2570123672485</t>
   </si>
   <si>
     <t xml:space="preserve">13.1081438064575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3118572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1238145828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3510332107544</t>
+    <t xml:space="preserve">13.3118562698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1238136291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3510341644287</t>
   </si>
   <si>
     <t xml:space="preserve">13.6801061630249</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">13.4450540542603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2912464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8397045135498</t>
+    <t xml:space="preserve">14.2912425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8397054672241</t>
   </si>
   <si>
     <t xml:space="preserve">15.0982618331909</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0277481079102</t>
+    <t xml:space="preserve">15.0277462005615</t>
   </si>
   <si>
     <t xml:space="preserve">15.0825929641724</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3176441192627</t>
+    <t xml:space="preserve">15.3176469802856</t>
   </si>
   <si>
     <t xml:space="preserve">15.2549629211426</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9337244033813</t>
+    <t xml:space="preserve">14.9337253570557</t>
   </si>
   <si>
     <t xml:space="preserve">14.8553733825684</t>
@@ -1217,58 +1217,58 @@
     <t xml:space="preserve">14.7221765518188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1452741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751680374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0669212341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1844491958618</t>
+    <t xml:space="preserve">15.1452722549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0669231414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1844472885132</t>
   </si>
   <si>
     <t xml:space="preserve">15.4743480682373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5605373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4351720809937</t>
+    <t xml:space="preserve">15.5605335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.435173034668</t>
   </si>
   <si>
     <t xml:space="preserve">15.701566696167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7172374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8788805007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0042419433594</t>
+    <t xml:space="preserve">15.7172365188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8788795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0042400360107</t>
   </si>
   <si>
     <t xml:space="preserve">15.0904273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1374359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2001190185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157878875732</t>
+    <t xml:space="preserve">15.1374368667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2001180648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157897949219</t>
   </si>
   <si>
     <t xml:space="preserve">15.3568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4978542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4821844100952</t>
+    <t xml:space="preserve">15.4978532791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4821815490723</t>
   </si>
   <si>
     <t xml:space="preserve">15.5918741226196</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">15.6702260971069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6310529708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6858978271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8896112442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5683717727661</t>
+    <t xml:space="preserve">15.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6858959197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.889609336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5683708190918</t>
   </si>
   <si>
     <t xml:space="preserve">15.8269271850586</t>
@@ -1295,31 +1295,31 @@
     <t xml:space="preserve">16.1403331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8867149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7926921844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8390321731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9750919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4548463821411</t>
+    <t xml:space="preserve">14.8867158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7926912307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8390283584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9750928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6149225234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4548482894897</t>
   </si>
   <si>
     <t xml:space="preserve">14.3267850875854</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0306482315063</t>
+    <t xml:space="preserve">14.0306463241577</t>
   </si>
   <si>
     <t xml:space="preserve">13.8945827484131</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">14.0866727828979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2467470169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2547540664673</t>
+    <t xml:space="preserve">14.2467479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2547512054443</t>
   </si>
   <si>
     <t xml:space="preserve">14.3668050765991</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">14.5348854064941</t>
   </si>
   <si>
-    <t xml:space="preserve">14.550892829895</t>
+    <t xml:space="preserve">14.5508918762207</t>
   </si>
   <si>
     <t xml:space="preserve">14.1907215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3352651596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192558288574</t>
+    <t xml:space="preserve">15.3352613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192539215088</t>
   </si>
   <si>
     <t xml:space="preserve">15.5273551940918</t>
@@ -1361,97 +1361,97 @@
     <t xml:space="preserve">15.5753765106201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2152061462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4713296890259</t>
+    <t xml:space="preserve">15.2152080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4713277816772</t>
   </si>
   <si>
     <t xml:space="preserve">15.5833797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8074884414673</t>
+    <t xml:space="preserve">15.807487487793</t>
   </si>
   <si>
     <t xml:space="preserve">15.6073923110962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0471277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1351699829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0391235351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8870525360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9911031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8630399703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9991044998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1191606521606</t>
+    <t xml:space="preserve">15.6954374313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0471267700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1351690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0391244888306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8870496749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9911003112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8630409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9991054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.119161605835</t>
   </si>
   <si>
     <t xml:space="preserve">15.4793329238892</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6153955459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5353603363037</t>
+    <t xml:space="preserve">15.6153974533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5353584289551</t>
   </si>
   <si>
     <t xml:space="preserve">15.6554155349731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7114429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7434577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7034397125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6234006881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5113487243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3992929458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4633226394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4953393936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4233055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3672800064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0711402893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8230209350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7349786758423</t>
+    <t xml:space="preserve">15.7114410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7434587478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7034387588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6234016418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5113458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3992958068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.463324546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4953422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4233064651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3672790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0711393356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8230218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7349805831909</t>
   </si>
   <si>
     <t xml:space="preserve">14.7269773483276</t>
@@ -1460,76 +1460,76 @@
     <t xml:space="preserve">15.1031551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.239218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8070154190063</t>
+    <t xml:space="preserve">15.2392206192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8070135116577</t>
   </si>
   <si>
     <t xml:space="preserve">14.4628505706787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4708566665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3748083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5749044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.422833442688</t>
+    <t xml:space="preserve">14.4708557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3748073577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5749034881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4228324890137</t>
   </si>
   <si>
     <t xml:space="preserve">14.3107795715332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468431472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3427925109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2787637710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2627553939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2947731018066</t>
+    <t xml:space="preserve">14.4468441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3427934646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2787628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2627573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2947721481323</t>
   </si>
   <si>
     <t xml:space="preserve">14.126690864563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1747140884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2707624435425</t>
+    <t xml:space="preserve">14.1747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2707605361938</t>
   </si>
   <si>
     <t xml:space="preserve">14.6389360427856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4308366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3588027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3347902297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587076187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9666156768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0466527938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1186895370483</t>
+    <t xml:space="preserve">14.430835723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3588008880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3347911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9666166305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0466537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1186866760254</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346960067749</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">14.1106843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6864833831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825298309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584230422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2862949371338</t>
+    <t xml:space="preserve">13.6864852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.782527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.558422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2862939834595</t>
   </si>
   <si>
     <t xml:space="preserve">13.4863891601562</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">13.3903427124023</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667108535767</t>
+    <t xml:space="preserve">14.1667127609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.8865776062012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7184972763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3023023605347</t>
+    <t xml:space="preserve">13.7184982299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3023014068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662368774414</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">13.3583288192749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1262168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2222633361816</t>
+    <t xml:space="preserve">13.1262187957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.222264289856</t>
   </si>
   <si>
     <t xml:space="preserve">13.1982526779175</t>
@@ -1598,40 +1598,40 @@
     <t xml:space="preserve">12.8620920181274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3663339614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823394775391</t>
+    <t xml:space="preserve">13.3663330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823385238647</t>
   </si>
   <si>
     <t xml:space="preserve">13.5744304656982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5984420776367</t>
+    <t xml:space="preserve">13.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984411239624</t>
   </si>
   <si>
     <t xml:space="preserve">13.5023965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5664262771606</t>
+    <t xml:space="preserve">13.566427230835</t>
   </si>
   <si>
     <t xml:space="preserve">13.5264072418213</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1742401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1502294540405</t>
+    <t xml:space="preserve">13.174241065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1502304077148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9741449356079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.878101348877</t>
+    <t xml:space="preserve">12.8781003952026</t>
   </si>
   <si>
     <t xml:space="preserve">13.1422252655029</t>
@@ -1643,37 +1643,37 @@
     <t xml:space="preserve">12.7340316772461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9661436080933</t>
+    <t xml:space="preserve">12.9661426544189</t>
   </si>
   <si>
     <t xml:space="preserve">12.8140707015991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9421300888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7500400543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8060655593872</t>
+    <t xml:space="preserve">12.9421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.750039100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8060665130615</t>
   </si>
   <si>
     <t xml:space="preserve">12.4859142303467</t>
   </si>
   <si>
-    <t xml:space="preserve">12.573956489563</t>
+    <t xml:space="preserve">12.5739574432373</t>
   </si>
   <si>
     <t xml:space="preserve">13.2702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9821491241455</t>
+    <t xml:space="preserve">12.9821481704712</t>
   </si>
   <si>
     <t xml:space="preserve">13.5424156188965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0706663131714</t>
+    <t xml:space="preserve">14.0706653594971</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785743713379</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">13.7104949951172</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3183078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3103036880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6064462661743</t>
+    <t xml:space="preserve">13.3183088302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2062549591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6064443588257</t>
   </si>
   <si>
     <t xml:space="preserve">13.7745246887207</t>
@@ -1703,49 +1703,49 @@
     <t xml:space="preserve">13.6624717712402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8145437240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.950611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6704769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8625659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7665224075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9986305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9906272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544675827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7985353469849</t>
+    <t xml:space="preserve">13.8145446777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.950608253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6704750061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.862566947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7665214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9986295700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.654465675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7985363006592</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7905330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9826211929321</t>
+    <t xml:space="preserve">13.7905311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9826221466064</t>
   </si>
   <si>
     <t xml:space="preserve">14.0066347122192</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6784791946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6224527359009</t>
+    <t xml:space="preserve">13.6784782409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6224536895752</t>
   </si>
   <si>
     <t xml:space="preserve">13.6464624404907</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">13.9025859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265014648438</t>
+    <t xml:space="preserve">13.7265033721924</t>
   </si>
   <si>
     <t xml:space="preserve">13.8705711364746</t>
@@ -1766,25 +1766,25 @@
     <t xml:space="preserve">14.0786685943604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6384611129761</t>
+    <t xml:space="preserve">13.6384630203247</t>
   </si>
   <si>
     <t xml:space="preserve">13.4303617477417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4383659362793</t>
+    <t xml:space="preserve">13.4383678436279</t>
   </si>
   <si>
     <t xml:space="preserve">13.3743343353271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4063510894775</t>
+    <t xml:space="preserve">13.4063491821289</t>
   </si>
   <si>
     <t xml:space="preserve">13.2462749481201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0301733016968</t>
+    <t xml:space="preserve">13.0301723480225</t>
   </si>
   <si>
     <t xml:space="preserve">12.9581384658813</t>
@@ -1799,25 +1799,25 @@
     <t xml:space="preserve">13.4703807830811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943923950195</t>
+    <t xml:space="preserve">13.4943933486938</t>
   </si>
   <si>
     <t xml:space="preserve">13.0381765365601</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9021120071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9101152420044</t>
+    <t xml:space="preserve">12.9021129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9101142883301</t>
   </si>
   <si>
     <t xml:space="preserve">12.8861045837402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9901533126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8700971603394</t>
+    <t xml:space="preserve">12.9901542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.870096206665</t>
   </si>
   <si>
     <t xml:space="preserve">12.9341268539429</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">12.9981575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0221700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144495010376</t>
+    <t xml:space="preserve">13.0221691131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144504547119</t>
   </si>
   <si>
     <t xml:space="preserve">14.0665884017944</t>
@@ -1838,106 +1838,106 @@
     <t xml:space="preserve">14.2340497970581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3931369781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4098806381226</t>
+    <t xml:space="preserve">14.3931350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4098815917969</t>
   </si>
   <si>
     <t xml:space="preserve">14.7699193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7950372695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6694431304932</t>
+    <t xml:space="preserve">14.7950391769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6694440841675</t>
   </si>
   <si>
     <t xml:space="preserve">14.5522222518921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5354766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5773410797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6192045211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5187301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4349985122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4601192474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3680171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9708709716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.071346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3560256958008</t>
+    <t xml:space="preserve">14.535475730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5773401260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5187292098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4350004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4601182937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.368016242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9708681106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0713443756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3560276031494</t>
   </si>
   <si>
     <t xml:space="preserve">15.3141632080078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4481296539307</t>
+    <t xml:space="preserve">15.448130607605</t>
   </si>
   <si>
     <t xml:space="preserve">15.5820970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5318593978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0043601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9876136779785</t>
+    <t xml:space="preserve">15.5318584442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0043611526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9876184463501</t>
   </si>
   <si>
     <t xml:space="preserve">14.9038848876953</t>
   </si>
   <si>
-    <t xml:space="preserve">14.85364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.280668258667</t>
+    <t xml:space="preserve">14.8536491394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2806692123413</t>
   </si>
   <si>
     <t xml:space="preserve">15.556978225708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4648742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2555494308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816198348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.992374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9756269454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8667802810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8165397644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7830486297607</t>
+    <t xml:space="preserve">15.4648733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2555503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9923715591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.975625038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8667774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8165407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7830457687378</t>
   </si>
   <si>
     <t xml:space="preserve">15.7411832809448</t>
@@ -1946,34 +1946,34 @@
     <t xml:space="preserve">15.7328090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4983692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1215829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1634483337402</t>
+    <t xml:space="preserve">15.4983673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1634492874146</t>
   </si>
   <si>
     <t xml:space="preserve">15.0462265014648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.079719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8452739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8787679672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4015092849731</t>
+    <t xml:space="preserve">15.0797176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8452749252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8787689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4015073776245</t>
   </si>
   <si>
     <t xml:space="preserve">14.6778173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0294799804688</t>
+    <t xml:space="preserve">15.0294809341431</t>
   </si>
   <si>
     <t xml:space="preserve">15.1299571990967</t>
@@ -1982,79 +1982,79 @@
     <t xml:space="preserve">15.0378532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4266271591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4684925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3094053268433</t>
+    <t xml:space="preserve">14.426628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3596439361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4684915542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3094062805176</t>
   </si>
   <si>
     <t xml:space="preserve">14.1503190994263</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6275768280029</t>
+    <t xml:space="preserve">14.6275787353516</t>
   </si>
   <si>
     <t xml:space="preserve">14.7196817398071</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6526956558228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3512706756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940885543823</t>
+    <t xml:space="preserve">14.6526975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3512697219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940856933594</t>
   </si>
   <si>
     <t xml:space="preserve">14.6024608612061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9457521438599</t>
+    <t xml:space="preserve">14.9457511901855</t>
   </si>
   <si>
     <t xml:space="preserve">14.7448015213013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9122610092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.138331413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3309078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.515115737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0964651107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0629720687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9373779296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4397563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8500318527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.724437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.875150680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6993207931519</t>
+    <t xml:space="preserve">14.9122581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1383304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3309087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5151138305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0964641571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0629739761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9373788833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4397573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8500308990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7244386672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8751516342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6993188858032</t>
   </si>
   <si>
     <t xml:space="preserve">15.607213973999</t>
@@ -2066,37 +2066,37 @@
     <t xml:space="preserve">15.5988416671753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6490812301636</t>
+    <t xml:space="preserve">15.6490802764893</t>
   </si>
   <si>
     <t xml:space="preserve">15.54860496521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4899959564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.389518737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9792442321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3643989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2722978591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0211086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9206323623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1048393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1132097244263</t>
+    <t xml:space="preserve">15.4899940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3895168304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9792432785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3643999099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2722969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021107673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.92063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1048374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1132106781006</t>
   </si>
   <si>
     <t xml:space="preserve">15.2471780776978</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">15.180193901062</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1969385147095</t>
+    <t xml:space="preserve">15.1969404220581</t>
   </si>
   <si>
     <t xml:space="preserve">15.3057899475098</t>
@@ -2120,28 +2120,28 @@
     <t xml:space="preserve">15.8249130249023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3811464309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.171820640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2136850357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2220602035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5067405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9672517776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6825742721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4732484817505</t>
+    <t xml:space="preserve">15.3811473846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1718235015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2136859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2220582962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5067415237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9672527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6825723648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4732475280762</t>
   </si>
   <si>
     <t xml:space="preserve">15.9337635040283</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">16.3942756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.796178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.637092590332</t>
+    <t xml:space="preserve">16.7961769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6370944976807</t>
   </si>
   <si>
     <t xml:space="preserve">16.2016983032227</t>
@@ -2168,34 +2168,34 @@
     <t xml:space="preserve">16.1179676055908</t>
   </si>
   <si>
-    <t xml:space="preserve">16.042610168457</t>
+    <t xml:space="preserve">16.0426082611084</t>
   </si>
   <si>
     <t xml:space="preserve">16.0761032104492</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0258617401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2854270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1765785217285</t>
+    <t xml:space="preserve">16.0258655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2854251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1765766143799</t>
   </si>
   <si>
     <t xml:space="preserve">16.2100696563721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.670581817627</t>
+    <t xml:space="preserve">16.6705837249756</t>
   </si>
   <si>
     <t xml:space="preserve">16.628719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5282402038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3440361022949</t>
+    <t xml:space="preserve">16.5282421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3440380096436</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928478240967</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">16.0509834289551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3021697998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5366153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6957015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.164587020874</t>
+    <t xml:space="preserve">16.3021717071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5366172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6957035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1645908355713</t>
   </si>
   <si>
     <t xml:space="preserve">17.4827613830566</t>
@@ -2225,19 +2225,19 @@
     <t xml:space="preserve">17.2483196258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5329990386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0353775024414</t>
+    <t xml:space="preserve">17.5330009460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.03537940979</t>
   </si>
   <si>
     <t xml:space="preserve">17.918155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0856151580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0521221160889</t>
+    <t xml:space="preserve">18.0856170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0521240234375</t>
   </si>
   <si>
     <t xml:space="preserve">17.9516487121582</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">17.6669673919678</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8846645355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2028369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8679161071777</t>
+    <t xml:space="preserve">17.8846626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2028331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8679180145264</t>
   </si>
   <si>
     <t xml:space="preserve">18.2363300323486</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">18.3702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4707698822021</t>
+    <t xml:space="preserve">18.4707717895508</t>
   </si>
   <si>
     <t xml:space="preserve">18.6382293701172</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4205341339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.454029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.554500579834</t>
+    <t xml:space="preserve">18.4205322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4540271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5545024871826</t>
   </si>
   <si>
     <t xml:space="preserve">18.9229125976562</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">19.1908473968506</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3248138427734</t>
+    <t xml:space="preserve">19.3248157501221</t>
   </si>
   <si>
     <t xml:space="preserve">19.4420356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3583087921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2745742797852</t>
+    <t xml:space="preserve">19.3583068847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2745780944824</t>
   </si>
   <si>
     <t xml:space="preserve">18.3870410919189</t>
@@ -2303,19 +2303,19 @@
     <t xml:space="preserve">18.504264831543</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7387046813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3368034362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4660148620605</t>
+    <t xml:space="preserve">18.7387065887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3368053436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4660167694092</t>
   </si>
   <si>
     <t xml:space="preserve">18.5210094451904</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1525974273682</t>
+    <t xml:space="preserve">18.1525993347168</t>
   </si>
   <si>
     <t xml:space="preserve">11.8226327896118</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">13.7819080352783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5175895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2998924255371</t>
+    <t xml:space="preserve">12.5175886154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2998914718628</t>
   </si>
   <si>
     <t xml:space="preserve">12.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235843658447</t>
+    <t xml:space="preserve">12.023585319519</t>
   </si>
   <si>
     <t xml:space="preserve">11.6300554275513</t>
@@ -2342,58 +2342,58 @@
     <t xml:space="preserve">12.1156883239746</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7269134521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7687797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1455631256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8860006332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6563129425049</t>
+    <t xml:space="preserve">12.7269144058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7687788009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.145562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8860015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6563138961792</t>
   </si>
   <si>
     <t xml:space="preserve">13.4386157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">13.991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2591686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0917072296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0079793930054</t>
+    <t xml:space="preserve">13.9912328720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2591695785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0917081832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0079774856567</t>
   </si>
   <si>
     <t xml:space="preserve">13.89075756073</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1921834945679</t>
+    <t xml:space="preserve">14.1921854019165</t>
   </si>
   <si>
     <t xml:space="preserve">14.2424221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8656368255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8572654724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0247259140015</t>
+    <t xml:space="preserve">13.8656387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8572645187378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0247240066528</t>
   </si>
   <si>
     <t xml:space="preserve">13.8321475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1419458389282</t>
+    <t xml:space="preserve">14.1419467926025</t>
   </si>
   <si>
     <t xml:space="preserve">14.217303276062</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">14.2926597595215</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7316694259644</t>
+    <t xml:space="preserve">13.7316703796387</t>
   </si>
   <si>
     <t xml:space="preserve">13.6898059844971</t>
@@ -2414,61 +2414,61 @@
     <t xml:space="preserve">13.9493675231934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9828615188599</t>
+    <t xml:space="preserve">13.9828605651855</t>
   </si>
   <si>
     <t xml:space="preserve">14.3345251083374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4182548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5103578567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0354614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6503849029541</t>
+    <t xml:space="preserve">14.4182538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5103569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0354604721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6503858566284</t>
   </si>
   <si>
     <t xml:space="preserve">14.9829511642456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1317300796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1229782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281358718872</t>
+    <t xml:space="preserve">15.1317319869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1229772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281377792358</t>
   </si>
   <si>
     <t xml:space="preserve">16.1381778717041</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1906890869141</t>
+    <t xml:space="preserve">16.1906871795654</t>
   </si>
   <si>
     <t xml:space="preserve">17.065860748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3721714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4684371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0833625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0308513641357</t>
+    <t xml:space="preserve">17.3721694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4684391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0833644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0308532714844</t>
   </si>
   <si>
     <t xml:space="preserve">17.1358737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.496997833252</t>
+    <t xml:space="preserve">16.4969959259033</t>
   </si>
   <si>
     <t xml:space="preserve">16.4357376098633</t>
@@ -2480,28 +2480,28 @@
     <t xml:space="preserve">16.1031703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1731853485107</t>
+    <t xml:space="preserve">16.1731834411621</t>
   </si>
   <si>
     <t xml:space="preserve">16.7595500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5670127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5845165252686</t>
+    <t xml:space="preserve">16.5670108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5845146179199</t>
   </si>
   <si>
     <t xml:space="preserve">16.4882469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7157917022705</t>
+    <t xml:space="preserve">16.7157897949219</t>
   </si>
   <si>
     <t xml:space="preserve">16.7858066558838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2607002258301</t>
+    <t xml:space="preserve">16.2607021331787</t>
   </si>
   <si>
     <t xml:space="preserve">16.3307151794434</t>
@@ -2510,46 +2510,46 @@
     <t xml:space="preserve">16.4707412719727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7945575714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846527099609</t>
+    <t xml:space="preserve">16.7945556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846546173096</t>
   </si>
   <si>
     <t xml:space="preserve">18.0460548400879</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2735958099365</t>
+    <t xml:space="preserve">18.2735977172852</t>
   </si>
   <si>
     <t xml:space="preserve">17.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.941032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1160678863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3436107635498</t>
+    <t xml:space="preserve">17.9410343170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1160659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3436088562012</t>
   </si>
   <si>
     <t xml:space="preserve">18.5361499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8162059783936</t>
+    <t xml:space="preserve">18.8162040710449</t>
   </si>
   <si>
     <t xml:space="preserve">18.3086051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2911014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3261089324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4486312866211</t>
+    <t xml:space="preserve">18.2910995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3261108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4486331939697</t>
   </si>
   <si>
     <t xml:space="preserve">18.3786201477051</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">17.9760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8010025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8360118865967</t>
+    <t xml:space="preserve">17.8010063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.888521194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.836009979248</t>
   </si>
   <si>
     <t xml:space="preserve">17.7309913635254</t>
@@ -2582,16 +2582,16 @@
     <t xml:space="preserve">18.6236667633057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5011425018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8862190246582</t>
+    <t xml:space="preserve">18.5011405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8862171173096</t>
   </si>
   <si>
     <t xml:space="preserve">18.9737358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437488555908</t>
+    <t xml:space="preserve">19.0437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">19.1487693786621</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">19.1312675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5863552093506</t>
+    <t xml:space="preserve">19.5863571166992</t>
   </si>
   <si>
     <t xml:space="preserve">19.4638328552246</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">19.34130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3938159942627</t>
+    <t xml:space="preserve">19.39381980896</t>
   </si>
   <si>
     <t xml:space="preserve">19.4113216400146</t>
   </si>
   <si>
-    <t xml:space="preserve">19.253791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1137657165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9562339782715</t>
+    <t xml:space="preserve">19.2537899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1137638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9562320709229</t>
   </si>
   <si>
     <t xml:space="preserve">19.3063011169434</t>
@@ -2642,43 +2642,43 @@
     <t xml:space="preserve">19.376314163208</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6936817169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8337097167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061611175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3611164093018</t>
+    <t xml:space="preserve">18.6936798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8337078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7461891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.606164932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3611125946045</t>
   </si>
   <si>
     <t xml:space="preserve">18.5186462402344</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4136238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7811965942383</t>
+    <t xml:space="preserve">18.4136276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7811985015869</t>
   </si>
   <si>
     <t xml:space="preserve">19.6913776397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8664112091064</t>
+    <t xml:space="preserve">19.8664131164551</t>
   </si>
   <si>
     <t xml:space="preserve">19.4463291168213</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7438850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8489074707031</t>
+    <t xml:space="preserve">19.7438869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8489093780518</t>
   </si>
   <si>
     <t xml:space="preserve">19.4813346862793</t>
@@ -2690,13 +2690,13 @@
     <t xml:space="preserve">18.9912395477295</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1662731170654</t>
+    <t xml:space="preserve">19.1662750244141</t>
   </si>
   <si>
     <t xml:space="preserve">18.7636947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0087413787842</t>
+    <t xml:space="preserve">19.0087432861328</t>
   </si>
   <si>
     <t xml:space="preserve">18.2035827636719</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">17.6084671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2408962249756</t>
+    <t xml:space="preserve">17.240894317627</t>
   </si>
   <si>
     <t xml:space="preserve">16.8820743560791</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">17.5034465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0810585021973</t>
+    <t xml:space="preserve">18.0810604095459</t>
   </si>
   <si>
     <t xml:space="preserve">18.588659286499</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">18.2210884094238</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1685791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9935417175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9060249328613</t>
+    <t xml:space="preserve">18.1685771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9060230255127</t>
   </si>
   <si>
     <t xml:space="preserve">17.6784801483154</t>
@@ -2744,10 +2744,10 @@
     <t xml:space="preserve">17.8710193634033</t>
   </si>
   <si>
-    <t xml:space="preserve">17.765998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5909652709961</t>
+    <t xml:space="preserve">17.7659969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5909633636475</t>
   </si>
   <si>
     <t xml:space="preserve">17.4421844482422</t>
@@ -2759,34 +2759,34 @@
     <t xml:space="preserve">18.1335697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1860809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5711574554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2362861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9714317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2864952087402</t>
+    <t xml:space="preserve">18.1860828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5711555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2362899780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9714336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2864933013916</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2316818237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1266574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7042713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8968105316162</t>
+    <t xml:space="preserve">21.2316799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1266593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.704273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8968124389648</t>
   </si>
   <si>
     <t xml:space="preserve">21.9143142700195</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">22.0368404388428</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9668254852295</t>
+    <t xml:space="preserve">21.9668273925781</t>
   </si>
   <si>
     <t xml:space="preserve">22.1593627929688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9318180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2293758392334</t>
+    <t xml:space="preserve">21.9318161010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.229377746582</t>
   </si>
   <si>
     <t xml:space="preserve">22.4219169616699</t>
@@ -2816,28 +2816,28 @@
     <t xml:space="preserve">22.9470176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4721183776855</t>
+    <t xml:space="preserve">23.4721221923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2795829772949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8747005462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4569225311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1243572235107</t>
+    <t xml:space="preserve">23.8747024536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4569206237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1243553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1768665313721</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5444374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8594989776611</t>
+    <t xml:space="preserve">22.5444393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8595027923584</t>
   </si>
   <si>
     <t xml:space="preserve">22.6669616699219</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">21.9493236541748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7742881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4919281005859</t>
+    <t xml:space="preserve">21.7742862701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4919300079346</t>
   </si>
   <si>
     <t xml:space="preserve">22.0018310546875</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">21.4417209625244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7590866088867</t>
+    <t xml:space="preserve">20.7590885162354</t>
   </si>
   <si>
     <t xml:space="preserve">21.3717079162598</t>
@@ -2885,13 +2885,13 @@
     <t xml:space="preserve">20.4615268707275</t>
   </si>
   <si>
-    <t xml:space="preserve">20.041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4592266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4394187927246</t>
+    <t xml:space="preserve">20.0414447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.439416885376</t>
   </si>
   <si>
     <t xml:space="preserve">22.2118721008301</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">21.8443012237549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2643852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5969486236572</t>
+    <t xml:space="preserve">22.26438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5969467163086</t>
   </si>
   <si>
     <t xml:space="preserve">22.3168926239014</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">22.0893497467041</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3343963623047</t>
+    <t xml:space="preserve">22.3343982696533</t>
   </si>
   <si>
     <t xml:space="preserve">22.1068534851074</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7217750549316</t>
+    <t xml:space="preserve">21.7217769622803</t>
   </si>
   <si>
     <t xml:space="preserve">21.8092937469482</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">22.3869075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8267993927002</t>
+    <t xml:space="preserve">21.8267974853516</t>
   </si>
   <si>
     <t xml:space="preserve">21.4942321777344</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">21.5992527008057</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1441631317139</t>
+    <t xml:space="preserve">21.1441612243652</t>
   </si>
   <si>
     <t xml:space="preserve">21.5817489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3016948699951</t>
+    <t xml:space="preserve">21.3016929626465</t>
   </si>
   <si>
     <t xml:space="preserve">21.2491836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4767303466797</t>
+    <t xml:space="preserve">21.4767284393311</t>
   </si>
   <si>
     <t xml:space="preserve">20.3915138244629</t>
@@ -2990,22 +2990,22 @@
     <t xml:space="preserve">22.5954475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5774002075195</t>
+    <t xml:space="preserve">22.5774021148682</t>
   </si>
   <si>
     <t xml:space="preserve">22.3066864013672</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4871635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4691143035889</t>
+    <t xml:space="preserve">22.4871616363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4691162109375</t>
   </si>
   <si>
     <t xml:space="preserve">22.4149723052979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6856861114502</t>
+    <t xml:space="preserve">22.6856842041016</t>
   </si>
   <si>
     <t xml:space="preserve">22.7398281097412</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">22.8842067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5593528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8300647735596</t>
+    <t xml:space="preserve">22.5593509674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8300628662109</t>
   </si>
   <si>
     <t xml:space="preserve">23.6963443756104</t>
@@ -3029,22 +3029,22 @@
     <t xml:space="preserve">23.263204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">23.353443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.317346572876</t>
+    <t xml:space="preserve">23.3534393310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3173484802246</t>
   </si>
   <si>
     <t xml:space="preserve">22.9924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9203014373779</t>
+    <t xml:space="preserve">22.9203033447266</t>
   </si>
   <si>
     <t xml:space="preserve">23.0105381011963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6134948730469</t>
+    <t xml:space="preserve">22.6134929656982</t>
   </si>
   <si>
     <t xml:space="preserve">22.7037334442139</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">23.2812519073486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6315422058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0540218353271</t>
+    <t xml:space="preserve">22.6315441131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0540237426758</t>
   </si>
   <si>
     <t xml:space="preserve">22.0901184082031</t>
@@ -3089,31 +3089,31 @@
     <t xml:space="preserve">23.7865810394287</t>
   </si>
   <si>
-    <t xml:space="preserve">23.570011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9457397460938</t>
+    <t xml:space="preserve">23.5700130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9457378387451</t>
   </si>
   <si>
     <t xml:space="preserve">21.7472171783447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5052089691162</t>
+    <t xml:space="preserve">22.5052108764648</t>
   </si>
   <si>
     <t xml:space="preserve">22.3427829742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3969268798828</t>
+    <t xml:space="preserve">22.3969249725342</t>
   </si>
   <si>
     <t xml:space="preserve">22.8120174407959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0466346740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5413055419922</t>
+    <t xml:space="preserve">23.0466365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5413036346436</t>
   </si>
   <si>
     <t xml:space="preserve">22.3247356414795</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">22.2344989776611</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5232563018799</t>
+    <t xml:space="preserve">22.5232582092285</t>
   </si>
   <si>
     <t xml:space="preserve">23.2090606689453</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">23.0827293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.172966003418</t>
+    <t xml:space="preserve">23.1729679107666</t>
   </si>
   <si>
     <t xml:space="preserve">23.0285873413086</t>
@@ -3152,16 +3152,16 @@
     <t xml:space="preserve">23.8226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4617252349854</t>
+    <t xml:space="preserve">23.461727142334</t>
   </si>
   <si>
     <t xml:space="preserve">23.371488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2992992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.804630279541</t>
+    <t xml:space="preserve">23.2992973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8046283721924</t>
   </si>
   <si>
     <t xml:space="preserve">23.7324390411377</t>
@@ -3170,28 +3170,28 @@
     <t xml:space="preserve">23.5519638061523</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8948669433594</t>
+    <t xml:space="preserve">23.8948650360107</t>
   </si>
   <si>
     <t xml:space="preserve">23.9851036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0572948455811</t>
+    <t xml:space="preserve">24.0572910308838</t>
   </si>
   <si>
     <t xml:space="preserve">24.5265274047852</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1581897735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8333339691162</t>
+    <t xml:space="preserve">25.1581916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8333358764648</t>
   </si>
   <si>
     <t xml:space="preserve">24.7430973052979</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3206157684326</t>
+    <t xml:space="preserve">25.3206176757812</t>
   </si>
   <si>
     <t xml:space="preserve">26.6922245025635</t>
@@ -3209,34 +3209,34 @@
     <t xml:space="preserve">27.7028865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.15407371521</t>
+    <t xml:space="preserve">27.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1540718078613</t>
   </si>
   <si>
     <t xml:space="preserve">28.172119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3345470428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2443084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4863128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2804050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9014072418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8472652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0999279022217</t>
+    <t xml:space="preserve">28.334545135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2443103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4863147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.280403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9014091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8472671508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0999298095703</t>
   </si>
   <si>
     <t xml:space="preserve">27.7570285797119</t>
@@ -3254,19 +3254,19 @@
     <t xml:space="preserve">26.4756565093994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5839405059814</t>
+    <t xml:space="preserve">26.6380825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5839385986328</t>
   </si>
   <si>
     <t xml:space="preserve">26.2590885162354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2951812744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6019878387451</t>
+    <t xml:space="preserve">26.2951793670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6019897460938</t>
   </si>
   <si>
     <t xml:space="preserve">26.1688480377197</t>
@@ -3278,13 +3278,13 @@
     <t xml:space="preserve">26.8727016448975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8079013824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5913314819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7537593841553</t>
+    <t xml:space="preserve">25.8078994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.591329574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7537574768066</t>
   </si>
   <si>
     <t xml:space="preserve">26.0605640411377</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">25.6093769073486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7718029022217</t>
+    <t xml:space="preserve">25.7718048095703</t>
   </si>
   <si>
     <t xml:space="preserve">25.3386650085449</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">25.843994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.880090713501</t>
+    <t xml:space="preserve">25.8800888061523</t>
   </si>
   <si>
     <t xml:space="preserve">25.6274242401123</t>
@@ -3326,19 +3326,19 @@
     <t xml:space="preserve">25.699613571167</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5117511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8620414733887</t>
+    <t xml:space="preserve">26.5117492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8620433807373</t>
   </si>
   <si>
     <t xml:space="preserve">24.9235744476318</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8694286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2738628387451</t>
+    <t xml:space="preserve">24.8694305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2738647460938</t>
   </si>
   <si>
     <t xml:space="preserve">24.1294822692871</t>
@@ -3347,28 +3347,28 @@
     <t xml:space="preserve">23.9670562744141</t>
   </si>
   <si>
-    <t xml:space="preserve">23.606107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1549205780029</t>
+    <t xml:space="preserve">23.6061058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1549186706543</t>
   </si>
   <si>
     <t xml:space="preserve">22.7759227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">23.118824005127</t>
+    <t xml:space="preserve">23.1188259124756</t>
   </si>
   <si>
     <t xml:space="preserve">23.4797744750977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4330196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9022560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4510688781738</t>
+    <t xml:space="preserve">22.4330215454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9022541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4510669708252</t>
   </si>
   <si>
     <t xml:space="preserve">22.1262130737305</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">21.8735485076904</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7217788696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2525463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7652626037598</t>
+    <t xml:space="preserve">22.7217807769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2525444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7652645111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.1442604064941</t>
@@ -3392,40 +3392,40 @@
     <t xml:space="preserve">21.7111206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4765014648438</t>
+    <t xml:space="preserve">21.476505279541</t>
   </si>
   <si>
     <t xml:space="preserve">21.3140754699707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.949010848999</t>
+    <t xml:space="preserve">23.9490089416504</t>
   </si>
   <si>
     <t xml:space="preserve">25.5010929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9957637786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.093391418457</t>
+    <t xml:space="preserve">24.9957618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0933895111084</t>
   </si>
   <si>
     <t xml:space="preserve">24.1475315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9309616088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5732803344727</t>
+    <t xml:space="preserve">23.9309635162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5732822418213</t>
   </si>
   <si>
     <t xml:space="preserve">27.0531749725342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3854179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3493251800537</t>
+    <t xml:space="preserve">26.3854198455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3493232727051</t>
   </si>
   <si>
     <t xml:space="preserve">25.735710144043</t>
@@ -3446,10 +3446,10 @@
     <t xml:space="preserve">26.4395599365234</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1614627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9194564819336</t>
+    <t xml:space="preserve">27.1614608764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.919454574585</t>
   </si>
   <si>
     <t xml:space="preserve">27.8292179107666</t>
@@ -3464,25 +3464,25 @@
     <t xml:space="preserve">28.515022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6233062744141</t>
+    <t xml:space="preserve">28.6233043670654</t>
   </si>
   <si>
     <t xml:space="preserve">28.6774482727051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3886871337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5691661834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7315921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271598815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1105880737305</t>
+    <t xml:space="preserve">28.3886890411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.569164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7315902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1105861663818</t>
   </si>
   <si>
     <t xml:space="preserve">29.0744953155518</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">29.4895858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6881084442139</t>
+    <t xml:space="preserve">29.6881103515625</t>
   </si>
   <si>
     <t xml:space="preserve">29.2008266448975</t>
@@ -3506,13 +3506,13 @@
     <t xml:space="preserve">28.7676849365234</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8759727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4247856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.208215713501</t>
+    <t xml:space="preserve">28.8759708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.424783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2082138061523</t>
   </si>
   <si>
     <t xml:space="preserve">26.8366050720215</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">28.460880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3813018798828</t>
+    <t xml:space="preserve">29.3812999725342</t>
   </si>
   <si>
     <t xml:space="preserve">30.1392974853516</t>
@@ -3539,10 +3539,10 @@
     <t xml:space="preserve">30.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3739147186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6807193756104</t>
+    <t xml:space="preserve">30.3739128112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.680721282959</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812496185303</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">31.2183284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8115482330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.29248046875</t>
+    <t xml:space="preserve">31.8115501403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2924766540527</t>
   </si>
   <si>
     <t xml:space="preserve">30.4026470184326</t>
@@ -3572,19 +3572,19 @@
     <t xml:space="preserve">29.9577293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6436443328857</t>
+    <t xml:space="preserve">30.6436462402344</t>
   </si>
   <si>
     <t xml:space="preserve">30.5694904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7548732757568</t>
+    <t xml:space="preserve">30.7548713684082</t>
   </si>
   <si>
     <t xml:space="preserve">30.847562789917</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6229801177979</t>
+    <t xml:space="preserve">28.6229782104492</t>
   </si>
   <si>
     <t xml:space="preserve">28.1780624389648</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">27.8814525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4375991821289</t>
+    <t xml:space="preserve">28.4375972747803</t>
   </si>
   <si>
     <t xml:space="preserve">27.5292263031006</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">27.5106887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">27.473611831665</t>
+    <t xml:space="preserve">27.4736099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.1028480529785</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">28.0668354034424</t>
   </si>
   <si>
-    <t xml:space="preserve">27.788761138916</t>
+    <t xml:space="preserve">27.7887592315674</t>
   </si>
   <si>
     <t xml:space="preserve">28.1595249176025</t>
@@ -3632,16 +3632,16 @@
     <t xml:space="preserve">28.5117511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5488262176514</t>
+    <t xml:space="preserve">28.548828125</t>
   </si>
   <si>
     <t xml:space="preserve">28.7156715393066</t>
   </si>
   <si>
-    <t xml:space="preserve">29.030818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9381275177002</t>
+    <t xml:space="preserve">29.0308208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9381294250488</t>
   </si>
   <si>
     <t xml:space="preserve">28.3078327178955</t>
@@ -3650,13 +3650,13 @@
     <t xml:space="preserve">28.5673637390137</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2718181610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.179126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2892913818359</t>
+    <t xml:space="preserve">29.2718162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2892932891846</t>
   </si>
   <si>
     <t xml:space="preserve">27.2882308959961</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">27.8999900817871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2522163391113</t>
+    <t xml:space="preserve">28.2522144317627</t>
   </si>
   <si>
     <t xml:space="preserve">28.1409873962402</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">28.7712860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">29.160587310791</t>
+    <t xml:space="preserve">29.1605854034424</t>
   </si>
   <si>
     <t xml:space="preserve">29.5128135681152</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">30.7363338470459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4037113189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5149383544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3851737976074</t>
+    <t xml:space="preserve">31.4037094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5149402618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3851718902588</t>
   </si>
   <si>
     <t xml:space="preserve">30.9402561187744</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">32.182315826416</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8857040405273</t>
+    <t xml:space="preserve">31.8857021331787</t>
   </si>
   <si>
     <t xml:space="preserve">32.0896224975586</t>
@@ -3725,16 +3725,16 @@
     <t xml:space="preserve">32.9794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1081581115723</t>
+    <t xml:space="preserve">32.1081619262695</t>
   </si>
   <si>
     <t xml:space="preserve">31.9413185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4778633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3274307250977</t>
+    <t xml:space="preserve">31.4778614044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3274326324463</t>
   </si>
   <si>
     <t xml:space="preserve">29.1049728393555</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">29.475736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">29.920654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8094234466553</t>
+    <t xml:space="preserve">29.9206523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8094253540039</t>
   </si>
   <si>
     <t xml:space="preserve">30.3470344543457</t>
@@ -3776,19 +3776,19 @@
     <t xml:space="preserve">30.8846397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4942741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6393928527832</t>
+    <t xml:space="preserve">29.4942760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6393909454346</t>
   </si>
   <si>
     <t xml:space="preserve">26.5281639099121</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0276317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1944751739502</t>
+    <t xml:space="preserve">26.0276336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1944770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.8072986602783</t>
@@ -3803,16 +3803,16 @@
     <t xml:space="preserve">26.3983955383301</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8607883453369</t>
+    <t xml:space="preserve">25.8607864379883</t>
   </si>
   <si>
     <t xml:space="preserve">25.5827159881592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3787956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2304878234863</t>
+    <t xml:space="preserve">25.3787937164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.230489730835</t>
   </si>
   <si>
     <t xml:space="preserve">26.3613204956055</t>
@@ -3827,13 +3827,13 @@
     <t xml:space="preserve">27.1955394744873</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4179973602295</t>
+    <t xml:space="preserve">27.4179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">27.1770000457764</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6600551605225</t>
+    <t xml:space="preserve">28.6600570678711</t>
   </si>
   <si>
     <t xml:space="preserve">28.3449077606201</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">29.4201221466064</t>
   </si>
   <si>
-    <t xml:space="preserve">28.84543800354</t>
+    <t xml:space="preserve">28.8454399108887</t>
   </si>
   <si>
     <t xml:space="preserve">29.0864353179932</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">28.3263683319092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4746723175049</t>
+    <t xml:space="preserve">28.4746742248535</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477638244629</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">27.9370670318604</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4005222320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8443775177002</t>
+    <t xml:space="preserve">28.400520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8443756103516</t>
   </si>
   <si>
     <t xml:space="preserve">27.4365348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9185276031494</t>
+    <t xml:space="preserve">27.918529510498</t>
   </si>
   <si>
     <t xml:space="preserve">28.0482959747314</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6589946746826</t>
+    <t xml:space="preserve">27.658992767334</t>
   </si>
   <si>
     <t xml:space="preserve">27.6219158172607</t>
@@ -3896,13 +3896,13 @@
     <t xml:space="preserve">28.4561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7702217102051</t>
+    <t xml:space="preserve">27.7702236175537</t>
   </si>
   <si>
     <t xml:space="preserve">27.2696914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">27.343843460083</t>
+    <t xml:space="preserve">27.3438453674316</t>
   </si>
   <si>
     <t xml:space="preserve">27.7516860961914</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">25.8978652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0090923309326</t>
+    <t xml:space="preserve">26.0090942382812</t>
   </si>
   <si>
     <t xml:space="preserve">25.5271015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6568698883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7495613098145</t>
+    <t xml:space="preserve">25.656867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7495594024658</t>
   </si>
   <si>
     <t xml:space="preserve">26.2315521240234</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">25.7310199737549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6383285522461</t>
+    <t xml:space="preserve">25.6383304595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.7680969238281</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">25.8422508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8237113952637</t>
+    <t xml:space="preserve">25.8237133026123</t>
   </si>
   <si>
     <t xml:space="preserve">26.1203231811523</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">26.416934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5096263885498</t>
+    <t xml:space="preserve">26.5096244812012</t>
   </si>
   <si>
     <t xml:space="preserve">26.157398223877</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">25.6197910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6012535095215</t>
+    <t xml:space="preserve">25.6012554168701</t>
   </si>
   <si>
     <t xml:space="preserve">25.1192607879639</t>
@@ -4004,10 +4004,10 @@
     <t xml:space="preserve">25.2675647735596</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7114200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1007232666016</t>
+    <t xml:space="preserve">24.7114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1007213592529</t>
   </si>
   <si>
     <t xml:space="preserve">25.1563358306885</t>
@@ -4019,19 +4019,19 @@
     <t xml:space="preserve">24.8782634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3962688446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2108879089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5445766448975</t>
+    <t xml:space="preserve">24.3962707519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2108898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5445747375488</t>
   </si>
   <si>
     <t xml:space="preserve">24.600191116333</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0821838378906</t>
+    <t xml:space="preserve">25.082181930542</t>
   </si>
   <si>
     <t xml:space="preserve">24.9338779449463</t>
@@ -4052,22 +4052,22 @@
     <t xml:space="preserve">24.7484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8968029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3602561950684</t>
+    <t xml:space="preserve">24.896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.360258102417</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164009094238</t>
   </si>
   <si>
-    <t xml:space="preserve">25.675407409668</t>
+    <t xml:space="preserve">25.6754055023193</t>
   </si>
   <si>
     <t xml:space="preserve">26.5837783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6950073242188</t>
+    <t xml:space="preserve">26.6950054168701</t>
   </si>
   <si>
     <t xml:space="preserve">26.6764698028564</t>
@@ -4079,13 +4079,13 @@
     <t xml:space="preserve">26.0647087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7866344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1748733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5816516876221</t>
+    <t xml:space="preserve">25.7866363525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1748752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5816535949707</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221168518066</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">24.6558055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4714870452881</t>
+    <t xml:space="preserve">25.4714851379395</t>
   </si>
   <si>
     <t xml:space="preserve">26.2130146026611</t>
@@ -62227,7 +62227,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="1" t="n">
-        <v>45524.6494907407</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B2198" t="n">
         <v>138967</v>
@@ -62248,6 +62248,32 @@
         <v>1583</v>
       </c>
       <c r="H2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>45525.649375</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>138154</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>23.5799999237061</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>23.3600006103516</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>23.3999996185303</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>23.5799999237061</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H2199" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ERG.MI.xlsx
+++ b/data/ERG.MI.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">8.79373550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55665016174316</t>
+    <t xml:space="preserve">8.55664825439453</t>
   </si>
   <si>
     <t xml:space="preserve">8.32674884796143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26927185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34830284118652</t>
+    <t xml:space="preserve">8.26927375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34830188751221</t>
   </si>
   <si>
     <t xml:space="preserve">8.57101821899414</t>
@@ -65,22 +65,22 @@
     <t xml:space="preserve">8.53509616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47762203216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3626708984375</t>
+    <t xml:space="preserve">8.47762107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36267185211182</t>
   </si>
   <si>
     <t xml:space="preserve">8.09684658050537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29082489013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9818959236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08247756958008</t>
+    <t xml:space="preserve">8.29082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98189449310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08247852325439</t>
   </si>
   <si>
     <t xml:space="preserve">8.24053573608398</t>
@@ -89,73 +89,73 @@
     <t xml:space="preserve">8.38422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28364086151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27645778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26208972930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1902437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11121559143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72325706481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65859651565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81665420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7448091506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0106315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20461273193359</t>
+    <t xml:space="preserve">8.28364181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27645683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26208782196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19024467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11121654510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72325658798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6585955619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81665468215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74481105804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01063346862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20461177825928</t>
   </si>
   <si>
     <t xml:space="preserve">8.12558460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83820629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02500343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78073215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92441987991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93879079818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04655742645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17587566375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0896635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07529163360596</t>
+    <t xml:space="preserve">7.83820867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02500247955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78073072433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92441940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93878793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.046555519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17587471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08966064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07529258728027</t>
   </si>
   <si>
     <t xml:space="preserve">8.13276863098145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93160438537598</t>
+    <t xml:space="preserve">7.93160581588745</t>
   </si>
   <si>
     <t xml:space="preserve">7.9747109413147</t>
@@ -164,79 +164,79 @@
     <t xml:space="preserve">8.10402965545654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21898174285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33393096923828</t>
+    <t xml:space="preserve">8.11839962005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21897983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33393287658691</t>
   </si>
   <si>
     <t xml:space="preserve">8.59975624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70033740997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68596839904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54228115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40577602386475</t>
+    <t xml:space="preserve">8.70033836364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68596935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59257030487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54228019714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40577697753906</t>
   </si>
   <si>
     <t xml:space="preserve">8.31237888336182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3698558807373</t>
+    <t xml:space="preserve">8.36985397338867</t>
   </si>
   <si>
     <t xml:space="preserve">8.3411169052124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49917507171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54946422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45606994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41296195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47043704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22616386413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19742870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15432357788086</t>
+    <t xml:space="preserve">8.49917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54946517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45606899261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41296100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47043609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22616672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19742774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15432167053223</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150569915771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03218555450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99626445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4416971206665</t>
+    <t xml:space="preserve">8.23334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03218746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99626493453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44169902801514</t>
   </si>
   <si>
     <t xml:space="preserve">8.30519580841064</t>
@@ -251,64 +251,64 @@
     <t xml:space="preserve">8.24804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18795108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28560638427734</t>
+    <t xml:space="preserve">8.18795204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28560543060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.3306770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18043899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15790367126465</t>
+    <t xml:space="preserve">8.23302364349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14288139343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15790462493896</t>
   </si>
   <si>
     <t xml:space="preserve">8.16541576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21048736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15039157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01517963409424</t>
+    <t xml:space="preserve">8.21048831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15039253234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01517868041992</t>
   </si>
   <si>
     <t xml:space="preserve">7.73723888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51188182830811</t>
+    <t xml:space="preserve">7.51188325881958</t>
   </si>
   <si>
     <t xml:space="preserve">7.4517879486084</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30530548095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34286499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8499174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82738161087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69967937469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7672872543335</t>
+    <t xml:space="preserve">7.30530500411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34286594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84991693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82737970352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69967842102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76728630065918</t>
   </si>
   <si>
     <t xml:space="preserve">7.3090615272522</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">7.40295934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54944181442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69216632843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80484676361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94005823135376</t>
+    <t xml:space="preserve">7.54944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69216728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80484628677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94005966186523</t>
   </si>
   <si>
     <t xml:space="preserve">7.65460681915283</t>
@@ -338,34 +338,34 @@
     <t xml:space="preserve">7.33910942077637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46681070327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57948970794678</t>
+    <t xml:space="preserve">7.46681118011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57949018478394</t>
   </si>
   <si>
     <t xml:space="preserve">7.54192972183228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60202550888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75977468490601</t>
+    <t xml:space="preserve">7.60202503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75977563858032</t>
   </si>
   <si>
     <t xml:space="preserve">7.684654712677</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61704969406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66212034225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63207292556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74475049972534</t>
+    <t xml:space="preserve">7.61704874038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6621208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63207340240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7447509765625</t>
   </si>
   <si>
     <t xml:space="preserve">7.6395845413208</t>
@@ -374,160 +374,160 @@
     <t xml:space="preserve">7.77479934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59451293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49685764312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48934745788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62456035614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.707190990448</t>
+    <t xml:space="preserve">7.59451341629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4968581199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48934555053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62455940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70719146728516</t>
   </si>
   <si>
     <t xml:space="preserve">7.6771445274353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81986904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85742998123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60953712463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57197666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50436973571777</t>
+    <t xml:space="preserve">7.81986999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85742950439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60953664779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57197618484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50436925888062</t>
   </si>
   <si>
     <t xml:space="preserve">7.4780797958374</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49310255050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47056770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91752433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87996482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91001081466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94757127761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09029769897461</t>
+    <t xml:space="preserve">7.49310493469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4705662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91752481460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87996435165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91001129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94756984710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09029674530029</t>
   </si>
   <si>
     <t xml:space="preserve">7.75226259231567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81235694885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87245225906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71470212936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72221517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6696310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64709711074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44427442550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39169311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58700180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52690553665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51939487457275</t>
+    <t xml:space="preserve">7.81235599517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87245321273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71470403671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7222146987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66963195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64709806442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44427490234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39169216156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58700084686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52690649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51939296722412</t>
   </si>
   <si>
     <t xml:space="preserve">7.45554351806641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2865252494812</t>
+    <t xml:space="preserve">7.38418006896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28652572631836</t>
   </si>
   <si>
     <t xml:space="preserve">7.5081262588501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53441762924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29403734207153</t>
+    <t xml:space="preserve">7.5344181060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29403686523438</t>
   </si>
   <si>
     <t xml:space="preserve">6.9259557723999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02736568450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98605108261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97102546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04990100860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92219924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84332466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95975875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94849061965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92971181869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83956861495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81327772140503</t>
+    <t xml:space="preserve">7.02736520767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98605060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9710259437561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04990243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92219972610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84332418441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95975971221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94849109649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92971229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83956813812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81327676773071</t>
   </si>
   <si>
     <t xml:space="preserve">6.89215230941772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83581352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79449796676636</t>
+    <t xml:space="preserve">6.83581447601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79449844360352</t>
   </si>
   <si>
     <t xml:space="preserve">6.79074144363403</t>
@@ -536,34 +536,34 @@
     <t xml:space="preserve">6.90341949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03112125396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90717601776123</t>
+    <t xml:space="preserve">7.03112173080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90717554092407</t>
   </si>
   <si>
     <t xml:space="preserve">7.01985454559326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01609802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17384767532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19638395309448</t>
+    <t xml:space="preserve">7.01609754562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1738486289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19638252258301</t>
   </si>
   <si>
     <t xml:space="preserve">7.47432279586792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56446552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72972679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55695486068726</t>
+    <t xml:space="preserve">7.56446504592896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72972726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55695343017578</t>
   </si>
   <si>
     <t xml:space="preserve">7.78982305526733</t>
@@ -572,70 +572,70 @@
     <t xml:space="preserve">7.78230953216553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88747596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98513269424438</t>
+    <t xml:space="preserve">7.88747644424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98513126373291</t>
   </si>
   <si>
     <t xml:space="preserve">7.79733419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97761869430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04522609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0677604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10531997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00766754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95508337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29311847686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20297622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21799945831299</t>
+    <t xml:space="preserve">7.97761821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04522514343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06776142120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10532093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00766563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9550838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29311943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20297527313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21799755096436</t>
   </si>
   <si>
     <t xml:space="preserve">8.49593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26307106018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25555896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30814075469971</t>
+    <t xml:space="preserve">8.26307010650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25555801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30814266204834</t>
   </si>
   <si>
     <t xml:space="preserve">8.48091602325439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56354522705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57857036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69875907897949</t>
+    <t xml:space="preserve">8.5635461807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57856845855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69876003265381</t>
   </si>
   <si>
     <t xml:space="preserve">8.76636695861816</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77387809753418</t>
+    <t xml:space="preserve">8.7738790512085</t>
   </si>
   <si>
     <t xml:space="preserve">8.72880744934082</t>
@@ -644,13 +644,13 @@
     <t xml:space="preserve">8.78890228271484</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7513427734375</t>
+    <t xml:space="preserve">8.75134181976318</t>
   </si>
   <si>
     <t xml:space="preserve">8.82646179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86402225494385</t>
+    <t xml:space="preserve">8.86402130126953</t>
   </si>
   <si>
     <t xml:space="preserve">8.87904453277588</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">8.96918678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9391393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98421096801758</t>
+    <t xml:space="preserve">8.93914031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98421001434326</t>
   </si>
   <si>
     <t xml:space="preserve">8.89406871795654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71378326416016</t>
+    <t xml:space="preserve">8.71378421783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.60110569000244</t>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">8.51096248626709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42833232879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61612892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53349685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5410099029541</t>
+    <t xml:space="preserve">8.42833137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61612987518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53349781036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54100894927979</t>
   </si>
   <si>
     <t xml:space="preserve">8.73631954193115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80392551422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90909290313721</t>
+    <t xml:space="preserve">8.80392742156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90909194946289</t>
   </si>
   <si>
     <t xml:space="preserve">8.9616756439209</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">8.8565092086792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10440158843994</t>
+    <t xml:space="preserve">9.10439968109131</t>
   </si>
   <si>
     <t xml:space="preserve">9.26110363006592</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">9.30811405181885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28460884094238</t>
+    <t xml:space="preserve">9.2846097946167</t>
   </si>
   <si>
     <t xml:space="preserve">9.38646507263184</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">9.36295890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44914722442627</t>
+    <t xml:space="preserve">9.44914627075195</t>
   </si>
   <si>
     <t xml:space="preserve">9.41780567169189</t>
@@ -749,70 +749,70 @@
     <t xml:space="preserve">9.51966094970703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5353307723999</t>
+    <t xml:space="preserve">9.53533267974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.80172538757324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8565731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73121070861816</t>
+    <t xml:space="preserve">9.85657119750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73121166229248</t>
   </si>
   <si>
     <t xml:space="preserve">9.74688053131104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77822017669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79389095306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69987010955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84873676300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80956077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71553993225098</t>
+    <t xml:space="preserve">9.77822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79389190673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69986915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84873580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80956172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71553897857666</t>
   </si>
   <si>
     <t xml:space="preserve">9.59801387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69203567504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6215181350708</t>
+    <t xml:space="preserve">9.69203472137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62151908874512</t>
   </si>
   <si>
     <t xml:space="preserve">9.64502429962158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58234214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60584735870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55100154876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55883693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72337532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7703857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75471496582031</t>
+    <t xml:space="preserve">9.58234310150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60584831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55100250244